--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D09ADDE-4DBF-464C-A3A7-72EFB8D79388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B332DEF-891E-4425-8943-346AB2F57E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Autor</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Método</t>
   </si>
   <si>
-    <t>Objetivo</t>
-  </si>
-  <si>
     <t>Noll et al.</t>
   </si>
   <si>
@@ -87,14 +84,74 @@
     <t>Resultado</t>
   </si>
   <si>
-    <t>Identificar a presença da dor nos 3 meses anteriores à aplicação; incluir questões sobre a ocorrência, frequência e intensidade da dor; a intensidade vai ser avaliada com uma linha horizontal de 10cm na qual 0 significa "Sem dor" e 10 significa "A pior dor que eu possa imaginar".</t>
+    <t>Objetivo do estudo</t>
+  </si>
+  <si>
+    <t>Incluir fatores de risco associados a dor nas costas: demográfico (idade e gênero), comportamental (nível de exercicio físico e prática de atividade competitiva, tempo assitindo televisão e usando o computador, tempo dormindo e hábito de ler na cama, modo de carregar o material escolar e como levar a mochila, e postura para dormir, sentar para escrever, sentar para conversar, usar o compuador e levantar um objeto do chão), socioeconômico (tipo de escola em que estuda e em que os pais estudaram) e hereditário (ocorrência de dor nas costas nos pais). Posições das AVDs ilustradas nas imagens (as corretas)</t>
+  </si>
+  <si>
+    <t>Posições identificadas como mais comuns foram utilizadas nas imagens do questionário</t>
+  </si>
+  <si>
+    <t>Identificar a presença da dor nos 3 meses anteriores à aplicação; incluir questões sobre a ocorrência, frequência e intensidade da dor; a intensidade vai ser avaliada com uma linha horizontal de 10cm na qual 0 significa "Sem dor" e 10 significa "A pior dor que eu possa imaginar".  Uso de fotografias. Modelos diferentes do questionário com base no gênero.</t>
+  </si>
+  <si>
+    <t>Inespecífico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 crianças em idade escolar / Aplicação do BackPEI / Avaliação qualitativa (inespecifica) </t>
+  </si>
+  <si>
+    <t>8 especialistas / Perguntas sobre o questionário como um todo: adequação ao avaliar AVDs a partir de fotografias; adequação ao avaliar dor nas costas e fatores associados. Uma mesma pergunta para o questionário como um todo e para cada questão individualmente avaliando a clareza, facilidade de compreensão e aplicabilidade. Uso de escala Likert de 3 níveis, justificação da avaliação nos 2 níveis inferiores e espaço pra sugestões. 2 rodadas de avaliação com alterações entre elas. / Tabelas de frequência</t>
+  </si>
+  <si>
+    <r>
+      <t>260 crianças em idade escolar / Aplicação do questionário 2x com um intervalo de 7 dias / Kappa não ponderado (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>κ≥0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5), ICC (não especificado qual forma nem ponto de corte) e Wilcoxon (p&gt;0,05)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Tradução independente para o inglês por 3 professores da língua. Revisão, comparação e mesclagem das 3 versões por um outro professor de inglês (T4, anglófono nativo com experiência em textos da ciência da saúde). 2 pesquisadores da saúde (residentes por ao menos 4 anos em países anglófonos) analisaram a esquivalência semântica, cultural e conceitual. O professor T4 revisou gramaticamente. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nenhuma avaliação de inadequada (likert inferior) para as perguntas referentes ao questionário em geral e 1,8% para as referentes a cada questão individalmente. </t>
+  </si>
+  <si>
+    <t>Nenhuma avaliação de inadequada (likert inferior) para as perguntas referentes ao questionário em geral e 7,2 % para as referentes a cada questão individalmente. Melhor estruturação das questões; melhorar a qualidade das imagens; alterar algumas imagens; preparar uma versão para cada sexo (com posturas diferentes)</t>
+  </si>
+  <si>
+    <t>Kappa, todos acima de 0,5 (inclusive os limites inferiores o IC95%). Foram apresentados também a concordância e índice de viés. Sem diferença entre os resultados da intensidade da dor (p=0,251). ICC = 0,937.</t>
+  </si>
+  <si>
+    <t>Conclusão</t>
+  </si>
+  <si>
+    <t>BackPEI é válido e reprodutível</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +175,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -139,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -148,6 +211,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,20 +495,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="76" customWidth="1"/>
-    <col min="5" max="5" width="76" style="3" customWidth="1"/>
-    <col min="6" max="6" width="75.7109375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="76" style="3" customWidth="1"/>
+    <col min="7" max="7" width="75.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,128 +516,179 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>2013</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F7:F9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B332DEF-891E-4425-8943-346AB2F57E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7C46EA-F3D0-412D-8790-F9FB644B3E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Lucas M Beraldo</author>
+  </authors>
+  <commentList>
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{6FA3D819-0198-45AD-8530-DB582D13083D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Lucas M Beraldo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+É indicado que questionários tem a auto-percepção como limitação. A ideia é ver se essa limitação está presente ao comparar-se com um instrumento objetivo.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Autor</t>
   </si>
@@ -146,12 +180,89 @@
   <si>
     <t>BackPEI é válido e reprodutível</t>
   </si>
+  <si>
+    <t>Antoniolli et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar se exsite consistência entre os resultados de dois instrumentos para avaliar a postura corporal durante AVDs, o BackPEI e o LADy, em estudantes de 11 a 15 anos
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">58 estudantes (M e F) foram avaliados com o LADy e o BackPEI. / As avaliações foram classificadas entre posturas adequadas e não-adequadas / Percentual de concordância (&lt;80%), kappa e </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>χ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>²</t>
+    </r>
+  </si>
+  <si>
+    <t>Concordância e associação entre os resultados do BackPEI e LADy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Carregar mochila (%C 96,5%; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>κ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0,905 ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>χ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>²=47,15 , p=0,001), Pegar objeto do chão  (%C 98,3%; κ=0,962 ;χ²=53,78 , p=0,001), Sentar para escrever (%C 93,1%; κ=0,737 ;χ²=31,51 , p=0,001) e Sentar para usar o compuador (%C 84,5%; κ=0,483 ;χ²=14,757 , p=0,01)</t>
+    </r>
+  </si>
+  <si>
+    <t>Existe concordância entre os instrumentos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,18 +279,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,10 +324,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -214,6 +335,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,18 +624,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="76" customWidth="1"/>
-    <col min="5" max="6" width="76" style="3" customWidth="1"/>
-    <col min="7" max="7" width="75.7109375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="76" style="2" customWidth="1"/>
+    <col min="7" max="7" width="75.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -521,174 +652,242 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>2013</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3">
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="D4">
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D5">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="6">
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="6">
         <v>6</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D8">
+    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="6">
         <v>7</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D9">
+      <c r="F8" s="4"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="6">
         <v>8</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="D10">
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="6">
         <v>9</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D11">
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6">
         <v>10</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="D12">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6">
         <v>11</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="D13">
+    <row r="13" spans="1:8" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="6">
         <v>12</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="7" t="s">
         <v>27</v>
       </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>2015</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7C46EA-F3D0-412D-8790-F9FB644B3E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51EA01E-A5BA-44DF-AAD3-F9E7FFD72686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
   <si>
     <t>Autor</t>
   </si>
@@ -256,13 +256,153 @@
   </si>
   <si>
     <t>Existe concordância entre os instrumentos</t>
+  </si>
+  <si>
+    <t>Candotti et al.</t>
+  </si>
+  <si>
+    <t>Propor, validar e testar a reprodutibilidade de uma versão expandida do BackPEI, o qual além de avaliar a dor lombar também avalia a dor cervical e pode ser utilizada em adultos.</t>
+  </si>
+  <si>
+    <t>Alteração das questões originais</t>
+  </si>
+  <si>
+    <t>Exclusão de algumas questões</t>
+  </si>
+  <si>
+    <t>Inclusão de novas questões</t>
+  </si>
+  <si>
+    <t>Revisão por especialistas e elaboração da versão final</t>
+  </si>
+  <si>
+    <t>Reprodutibilidade</t>
+  </si>
+  <si>
+    <t>Experiência do autor e levantamento bibliográfico</t>
+  </si>
+  <si>
+    <t>Substituição de palavras relativas ao ambiente escolar. Substituição das imagens. Redução do número de posturas.</t>
+  </si>
+  <si>
+    <t>Exclusão de questões sobre transporte do material escolar, educação dos pais e histórico de dor nas costas dos pais.</t>
+  </si>
+  <si>
+    <t>Inclusão de questões sobre envolvimento em acidentes de carro e avaliação de dor cervical</t>
+  </si>
+  <si>
+    <t>Escore do BackPEI-A</t>
+  </si>
+  <si>
+    <t>Envolve apenas as questões referentes aos fatores de risco. Obtida pela soma dos pontos (máximo de 10 pontos). Quanto maior o valor, menor a exposição a fatores de risco. Respostas pontuam 1 ponto (presença de risco) ou 0 ponto (ausência de risco)</t>
+  </si>
+  <si>
+    <r>
+      <t>154 indivíduos / Aplicação do questionário 2x com um intervalo de 7 dias / Kappa não ponderado (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>κ≥0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,5) e ICC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (p&gt;0,05)</t>
+    </r>
+  </si>
+  <si>
+    <t>3 especialistas da ciência da saúde / Perguntas sobre o questionário como um todo: adequação ao avaliar AVDs a partir de fotografias; adequação ao avaliar dor nas costas e fatores associados; e clareza, facilidade de compreensão e aplicabilidade. Uso de escala Likert de 3 níveis, justificação da avaliação nos 2 níveis inferiores e espaço pra sugestões. 2 rodadas de avaliação com alterações entre elas.</t>
+  </si>
+  <si>
+    <t>Especialistas determinaram que não seria preciso nenhuma alteração</t>
+  </si>
+  <si>
+    <r>
+      <t>Kappa, todos acima de 0,5 (inclusive os limites inferiores o IC95%, exceto sentar para usar o computador, frequência de dor lombar, frequência de dor cervical, limitação nas atividades devido a dor cervical). Foram apresentados também a concordância e índice de viés. ICC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lombar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=0,908, ICC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cervical</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=0,865.</t>
+    </r>
+  </si>
+  <si>
+    <t>O BackPEI-A é considerado um questionário reprodutível, válido e relevante para a avaliação da dor lombar e cervical e seus fatores associados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +443,14 @@
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -324,14 +472,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -340,10 +491,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,18 +791,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="76" customWidth="1"/>
-    <col min="5" max="6" width="76" style="2" customWidth="1"/>
-    <col min="7" max="7" width="75.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="76" style="4" customWidth="1"/>
+    <col min="6" max="6" width="76" style="7" customWidth="1"/>
+    <col min="7" max="7" width="75.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -646,215 +816,215 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>2013</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6">
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6">
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6">
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3">
         <v>6</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6">
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3">
         <v>7</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6">
+      <c r="F8" s="8"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="3">
         <v>8</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6">
+    <row r="10" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="3">
         <v>9</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="3">
         <v>10</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="3">
         <v>11</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="6">
+    <row r="13" spans="1:8" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="3">
         <v>12</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -866,25 +1036,147 @@
       <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="4" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="13">
+        <v>2018</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="3">
+        <v>4</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3">
+        <v>6</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="5"/>
+      <c r="E21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="B2:B13"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="A15:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51EA01E-A5BA-44DF-AAD3-F9E7FFD72686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7C775D-5ECF-4B59-A7D2-5EA3D4C9E8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="6555" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
   <si>
     <t>Autor</t>
   </si>
@@ -291,9 +291,6 @@
     <t>Inclusão de questões sobre envolvimento em acidentes de carro e avaliação de dor cervical</t>
   </si>
   <si>
-    <t>Escore do BackPEI-A</t>
-  </si>
-  <si>
     <t>Envolve apenas as questões referentes aos fatores de risco. Obtida pela soma dos pontos (máximo de 10 pontos). Quanto maior o valor, menor a exposição a fatores de risco. Respostas pontuam 1 ponto (presença de risco) ou 0 ponto (ausência de risco)</t>
   </si>
   <si>
@@ -396,6 +393,166 @@
   </si>
   <si>
     <t>O BackPEI-A é considerado um questionário reprodutível, válido e relevante para a avaliação da dor lombar e cervical e seus fatores associados</t>
+  </si>
+  <si>
+    <t>Pivotto et al.</t>
+  </si>
+  <si>
+    <t>Propor um sistema de pontuação específico para o BackPEI</t>
+  </si>
+  <si>
+    <t>Pontuação do BackPEI-A</t>
+  </si>
+  <si>
+    <t>Pontuação do BackPEI</t>
+  </si>
+  <si>
+    <t>Envolve apenas as questões referentes aos fatores de risco. Obtida pela soma dos pontos (máximo de 16 pontos). Quanto maior o valor, menor a exposição a fatores de risco. Respostas pontuam 1 ponto (presença de risco) ou 0 ponto (ausência de risco)</t>
+  </si>
+  <si>
+    <t>O questionário BackPEI agora possui um sistema de pontuação geral. (...) Essa pontuação objetiva expressar o quanto as crianças avaliadas estão expostas a fatores de riscos relacionados com o desenvolvimento de dor nas costas</t>
+  </si>
+  <si>
+    <t>Gençbas e Bebis</t>
+  </si>
+  <si>
+    <t>Avaliar a adaptação da versão turca do BackPEI</t>
+  </si>
+  <si>
+    <t>Validade</t>
+  </si>
+  <si>
+    <t>Tradução para o turco</t>
+  </si>
+  <si>
+    <t>Validade de Conteúdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 especialistas / Avaliaram cada questão (clareza, relevância e adequação). Fo utilizada uma escala de Likert de 4 níveis (de 1 a 4, quanto maior mais apropriado). / Itens com 1 e 2 pontos foram revisados e editados CVI </t>
+  </si>
+  <si>
+    <t>Compreensão do Questionário</t>
+  </si>
+  <si>
+    <t>A questão sobre ler/estudar na cama foi separada em 2 (uma para ler e outra para estudar) /  CVI=90,8 (valores 3 e 4 na escala Likert</t>
+  </si>
+  <si>
+    <t>10 estudantes de perfil similar à população do estudo</t>
+  </si>
+  <si>
+    <t>Decidiu-se que é compreensível</t>
+  </si>
+  <si>
+    <t>5 especialistas da ciência da saúde turcófonos. Um professor de Turco avaliou a compreensão e gramática da versão em turco. / Após a validade de conteúdo o questinoário foi retraduzido do turco para o inglês por um professor de inglês para verificar se houve alteração do significado</t>
+  </si>
+  <si>
+    <t>Não houve alteração do significado das questões</t>
+  </si>
+  <si>
+    <r>
+      <t>KMO=0,374, Bartlett (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>χ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>²=464,7, p=0,000)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">139 estudantes / Associação entre a intensidade da dor e a presença de dor / Validade de linguagem, validade estrutural e validade de critério / KMO e teste de esfericidade de Bartlett, correlação de Spearman (presença e intensidade da dor) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>ρ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=-0,684</t>
+    </r>
+  </si>
+  <si>
+    <t>Aplicação por avaliadores distintos com 2 semanas de intervalo / Alfa de Cronbach, correlação item-total e kappa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>κ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> entre 0,500 e 0,880.</t>
+    </r>
+  </si>
+  <si>
+    <t>O BackPEI é um instrumento válido e reprodutível para adolescentes turcos</t>
+  </si>
+  <si>
+    <t>Miñana-Signes</t>
+  </si>
+  <si>
+    <t>Realizar um adaptação trasncultural de um instrumento de medição validado (BackPEI), iniciando com a fase de tradução e adaptação cultural, seguida por uma segunda fase para testar a confiabilidade.</t>
+  </si>
+  <si>
+    <t>Tradução</t>
+  </si>
+  <si>
+    <t>Adaptação Cultural</t>
+  </si>
+  <si>
+    <t>Confiabilidade</t>
+  </si>
+  <si>
+    <t>224 estudantes</t>
+  </si>
+  <si>
+    <t>7 pesquisadores / Tradução: 2 brasileiros hispanófonos (T1 e T2), especialista em ciência da saúde (T3) / T1 traduziu do português para o espanhol, T2 retraduziu do espanhol para o português, T3 comparou a versão traduzida e retraduzida. A versão preliminar foi estabelecida por consenso entre os tradutores.</t>
+  </si>
+  <si>
+    <t>Comitê de especialistas: 2 professores bilíngues do Brasil especialistas na ciência da saúde / Revisou a versão espanhola e comparou com a original. A versão pré-final foi elaborado pelo método Delphi / Cada membro do comitê avaliou a equivalência entre a semântica, idiomática, experiencial e conceitual / Avaliação por uma escala Likert de 5 pontos (questionário como um todo e cada questão individualmente) / O instrumento foi modificado até a concordância / Erros de revisão foram corrigidos</t>
   </si>
 </sst>
 </file>
@@ -472,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -483,12 +640,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -509,7 +660,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,11 +954,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +967,7 @@
     <col min="3" max="3" width="76" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="3"/>
     <col min="5" max="5" width="76" style="4" customWidth="1"/>
-    <col min="6" max="6" width="76" style="7" customWidth="1"/>
+    <col min="6" max="6" width="76" style="5" customWidth="1"/>
     <col min="7" max="7" width="75.7109375" style="4" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="3"/>
   </cols>
@@ -816,33 +979,33 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="13">
         <v>2013</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3">
@@ -851,7 +1014,7 @@
       <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -862,16 +1025,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -879,16 +1042,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -896,42 +1059,42 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="5"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -939,72 +1102,72 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="8"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -1012,16 +1175,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="4"/>
@@ -1039,7 +1202,7 @@
       <c r="E14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -1050,13 +1213,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="14">
         <v>2018</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="12" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="3">
@@ -1065,110 +1228,248 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="11" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>47</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="5"/>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="11"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="5"/>
+    <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="3">
         <v>4</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="63" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="3">
         <v>5</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>52</v>
+      <c r="F19" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="5"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="3">
         <v>6</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="5"/>
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="12"/>
       <c r="E21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="7" t="s">
+    </row>
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22">
+        <v>2018</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>51</v>
+      <c r="G22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="14">
+        <v>2019</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="12"/>
+      <c r="E24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="12"/>
+      <c r="E25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="12"/>
+      <c r="E26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="12"/>
+      <c r="E27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28">
+        <v>2021</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="E29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7C775D-5ECF-4B59-A7D2-5EA3D4C9E8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC48071-3455-4092-A0C5-ACEBB71E6594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2775" yWindow="6555" windowWidth="20910" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45" yWindow="7455" windowWidth="28875" windowHeight="8745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
   <si>
     <t>Autor</t>
   </si>
@@ -531,9 +531,6 @@
     <t>O BackPEI é um instrumento válido e reprodutível para adolescentes turcos</t>
   </si>
   <si>
-    <t>Miñana-Signes</t>
-  </si>
-  <si>
     <t>Realizar um adaptação trasncultural de um instrumento de medição validado (BackPEI), iniciando com a fase de tradução e adaptação cultural, seguida por uma segunda fase para testar a confiabilidade.</t>
   </si>
   <si>
@@ -546,13 +543,61 @@
     <t>Confiabilidade</t>
   </si>
   <si>
-    <t>224 estudantes</t>
-  </si>
-  <si>
     <t>7 pesquisadores / Tradução: 2 brasileiros hispanófonos (T1 e T2), especialista em ciência da saúde (T3) / T1 traduziu do português para o espanhol, T2 retraduziu do espanhol para o português, T3 comparou a versão traduzida e retraduzida. A versão preliminar foi estabelecida por consenso entre os tradutores.</t>
   </si>
   <si>
-    <t>Comitê de especialistas: 2 professores bilíngues do Brasil especialistas na ciência da saúde / Revisou a versão espanhola e comparou com a original. A versão pré-final foi elaborado pelo método Delphi / Cada membro do comitê avaliou a equivalência entre a semântica, idiomática, experiencial e conceitual / Avaliação por uma escala Likert de 5 pontos (questionário como um todo e cada questão individualmente) / O instrumento foi modificado até a concordância / Erros de revisão foram corrigidos</t>
+    <t>Comitê de especialistas: 2 professores bilíngues do Brasil especialistas na ciência da saúde / Revisou a versão espanhola e comparou com a original. A versão pré-final foi elaborado pelo método Delphi. / Cada membro do comitê avaliou a equivalência entre a semântica, idiomática, experiencial e conceitual / Avaliação por uma escala Likert de 5 pontos (questionário como um todo e cada questão individualmente) / O instrumento foi modificado até a concordância (80% ou mais de avaliações 4 ou 5) / Erros de revisão foram corrigidos</t>
+  </si>
+  <si>
+    <t>Nenhuma intervenção foi feita. Questionário retraduzido era idêntico ao original.</t>
+  </si>
+  <si>
+    <t>3 rodadas para atingir consenso. A 2ª rodada já resultou em consenso, entretanto, acolheu-se novas sugestões feitas. Na 3ª rodada houve 100% de concordância em todos os itens (com avaliação 5 em todos os itens). Não foram encontrados erros na revisão.</t>
+  </si>
+  <si>
+    <r>
+      <t>224 estudantes / Intervalo de 7 dias entre as aplicações / Kappa (IC95%) e %C (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>κ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥0,5 ou %C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>≥75%),  ICC e IC95% (≥0,75), Wilcoxon</t>
+    </r>
+  </si>
+  <si>
+    <t>2 itens com κ&lt;0,5 (7 se considerar o IC95%) e 4 itens com %C&lt;75%. Porém, nenhum inferior em ambos. ICC=0,928, sem diferença significativa segundo Wilcoxon</t>
+  </si>
+  <si>
+    <t>A versão espanhola é bem adaptada e é confiável</t>
+  </si>
+  <si>
+    <t>Rosa et al.</t>
+  </si>
+  <si>
+    <t>Miñana-Signes et al.</t>
   </si>
 </sst>
 </file>
@@ -629,7 +674,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -659,20 +704,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,11 +1002,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,7 +1017,7 @@
     <col min="5" max="5" width="76" style="4" customWidth="1"/>
     <col min="6" max="6" width="76" style="5" customWidth="1"/>
     <col min="7" max="7" width="75.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="8" max="8" width="39.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -999,10 +1047,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="15">
         <v>2013</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1025,8 +1073,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="12"/>
       <c r="D3" s="3">
         <v>2</v>
@@ -1042,8 +1090,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="12"/>
       <c r="D4" s="3">
         <v>3</v>
@@ -1059,8 +1107,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="12"/>
       <c r="D5" s="3">
         <v>4</v>
@@ -1072,8 +1120,8 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="12"/>
       <c r="D6" s="3">
         <v>5</v>
@@ -1085,8 +1133,8 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="12"/>
       <c r="D7" s="3">
         <v>6</v>
@@ -1094,7 +1142,7 @@
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1102,8 +1150,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="12"/>
       <c r="D8" s="3">
         <v>7</v>
@@ -1111,12 +1159,12 @@
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="12"/>
       <c r="D9" s="3">
         <v>8</v>
@@ -1124,14 +1172,14 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="12"/>
       <c r="D10" s="3">
         <v>9</v>
@@ -1145,8 +1193,8 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="12"/>
       <c r="D11" s="3">
         <v>10</v>
@@ -1158,8 +1206,8 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="12"/>
       <c r="D12" s="3">
         <v>11</v>
@@ -1175,8 +1223,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="12"/>
       <c r="D13" s="3">
         <v>12</v>
@@ -1213,10 +1261,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>2018</v>
       </c>
       <c r="C15" s="12" t="s">
@@ -1228,7 +1276,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="14" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1239,8 +1287,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="12"/>
       <c r="D16" s="3">
         <v>2</v>
@@ -1248,14 +1296,14 @@
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="12"/>
       <c r="D17" s="3">
         <v>3</v>
@@ -1263,14 +1311,14 @@
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="12"/>
       <c r="D18" s="3">
         <v>4</v>
@@ -1286,8 +1334,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="12"/>
       <c r="D19" s="3">
         <v>5</v>
@@ -1303,8 +1351,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="12"/>
       <c r="D20" s="3">
         <v>6</v>
@@ -1317,8 +1365,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="12"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
@@ -1354,10 +1402,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>2019</v>
       </c>
       <c r="C23" s="12" t="s">
@@ -1377,8 +1425,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="12"/>
       <c r="E24" s="4" t="s">
         <v>66</v>
@@ -1391,8 +1439,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="12"/>
       <c r="E25" s="4" t="s">
         <v>68</v>
@@ -1405,8 +1453,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="12"/>
       <c r="E26" s="4" t="s">
         <v>64</v>
@@ -1419,8 +1467,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="12"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
@@ -1428,45 +1476,77 @@
       <c r="F27" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="11" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="16">
+        <v>2021</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B28">
-        <v>2021</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="12"/>
+      <c r="E29" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="12"/>
+      <c r="E30" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E30" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="F30" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="A23:A27"/>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC48071-3455-4092-A0C5-ACEBB71E6594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD905749-B16C-408B-9DC1-03DA8E524BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="7455" windowWidth="28875" windowHeight="8745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
   <si>
     <t>Autor</t>
   </si>
@@ -598,13 +598,121 @@
   </si>
   <si>
     <t>Miñana-Signes et al.</t>
+  </si>
+  <si>
+    <t>atualizar o questionário BackPEI para incluir novas questões que avaliam aspectos relacionados  à dor no pescoço e ao uso de dispositivos móveis e testar a validade de conteúdo e a reprodutibilidade dessas novas questões.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisão de literatura para identificar como a dor nas costas é avaliada </t>
+  </si>
+  <si>
+    <t>Desenvolvimento da versão inicial do BackPEI-CA</t>
+  </si>
+  <si>
+    <t>Validade de conteúdo e versão final do BackPEI-CA</t>
+  </si>
+  <si>
+    <t>Questões novas: tempo utilizando o dispositivos móveis; duas sobre a postura ao utilizar dispositivos móveis; duas novas sobre o impacto da dor nas costas na vida dos adolescentes; cinco novas para avaliar a dor no pescoço. Questões modificadas: as relativas à dor nas costas como um novo design para melhorar a compreensão as regiões do corpo</t>
+  </si>
+  <si>
+    <t>8 especialistas / Avaliaram: clareza, facilidade de compreensão e aplicabilidade geral das novas questões; se as novas questões permitiam a identificação do comportamento de uso de celulares/tablets e avaliavam adequadamente dor nas costas e no pescoço / Escala Likert  de 3 níveis / Avaliações nos 2 níveis inferiores demandavam revisão do questionário e reavaliação / Encerra-se no consenso / CVI para cada questão (CVI&gt;0,8, preferencialmente &gt;0,9)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">105 escolares / Aplicação com um intervalo de 7 dias em formato presencial e online / Percentual de concordância (%C), kappa e kappa ponderado, ICC  2-way mixed effects absolute agrement / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>κ≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,4, %C&gt;50%, ICC</t>
+    </r>
+  </si>
+  <si>
+    <t>2 rodadas. CVI variou de 0,9 a 1,0 na 2ª rodada (na verdade variou de 0,875 a 1,000, os autores arredondaram)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Todos os %C foram acima de 0,5 (52,4%-92,5%). Todos os </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>κ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ficaram acima de 0,4 (0,418-0,677), algumas questões estiveram o limite inferior do IC95% abaixo de 0,4: tempo usando dispositivos móveis; modo de usar dispositivos móveis em sentado; dor nas costas nos últimos 3 meses; interferência da dor nas costas em atividades; interferência da dor no pescoço em atividades. ICC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>costas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0,828, ICC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>pescoço</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0,824</t>
+    </r>
+  </si>
+  <si>
+    <t>O BackPEI-CA é uma ferramenta válida e confiável que pode ser utilizada em avaliações clínicas e rasteramento nas escolas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,6 +760,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -708,6 +823,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -718,9 +836,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1002,11 +1117,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28:A30"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,13 +1162,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="16">
         <v>2013</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3">
@@ -1073,9 +1188,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="12"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="13"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
@@ -1090,9 +1205,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
@@ -1107,9 +1222,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="12"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -1120,9 +1235,9 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="12"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
@@ -1133,16 +1248,16 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1150,37 +1265,37 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
@@ -1193,9 +1308,9 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
@@ -1206,9 +1321,9 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
@@ -1223,9 +1338,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
@@ -1237,7 +1352,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1261,13 +1376,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="14">
         <v>2018</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="3">
@@ -1276,7 +1391,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="15" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1287,39 +1402,39 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="12"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="12"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="13"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="3">
         <v>4</v>
       </c>
@@ -1334,9 +1449,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="3">
         <v>5</v>
       </c>
@@ -1351,9 +1466,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="12"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="3">
         <v>6</v>
       </c>
@@ -1365,9 +1480,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="12"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="13"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
@@ -1402,13 +1517,13 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="14">
         <v>2019</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>63</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -1425,9 +1540,9 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="12"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="13"/>
       <c r="E24" s="4" t="s">
         <v>66</v>
       </c>
@@ -1439,9 +1554,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="12"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="13"/>
       <c r="E25" s="4" t="s">
         <v>68</v>
       </c>
@@ -1453,9 +1568,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="12"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="13"/>
       <c r="E26" s="4" t="s">
         <v>64</v>
       </c>
@@ -1467,9 +1582,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="12"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="13"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
@@ -1481,13 +1596,13 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="12">
         <v>2021</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="13" t="s">
         <v>79</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -1499,14 +1614,14 @@
       <c r="G28" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="13" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="12"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
       <c r="E29" s="4" t="s">
         <v>81</v>
       </c>
@@ -1516,12 +1631,12 @@
       <c r="G29" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="12"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
       <c r="E30" s="4" t="s">
         <v>82</v>
       </c>
@@ -1531,25 +1646,71 @@
       <c r="G30" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H30" s="12"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>90</v>
       </c>
       <c r="B31">
         <v>2022</v>
       </c>
+      <c r="C31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="E32" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="E33" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" ht="96" x14ac:dyDescent="0.25">
+      <c r="E34" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -1558,6 +1719,13 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,17 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD905749-B16C-408B-9DC1-03DA8E524BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481989D1-0AB2-4B2A-A0AB-025F3C3F8DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13980" yWindow="0" windowWidth="14985" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -59,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="114">
   <si>
     <t>Autor</t>
   </si>
@@ -706,13 +717,100 @@
   </si>
   <si>
     <t>O BackPEI-CA é uma ferramenta válida e confiável que pode ser utilizada em avaliações clínicas e rasteramento nas escolas.</t>
+  </si>
+  <si>
+    <t>Atualizar o BackPEI-A incluindo 4 novas questões sore o uso de dispositivos móveis. Apresentar um novo design dos aspectos relacionados à dor nas costas e pescoço para facilitar a compreensão da localização destas dores. Testar a validade de conteúdo e confiabilidade das novas questões. Identificar se a versão online do BackPEI-A possui confiabilidade adequada</t>
+  </si>
+  <si>
+    <t>Revisão de literatura para identificar as posturas adotadas ao utilizar dispositivos móveis</t>
+  </si>
+  <si>
+    <t>Inclusão das novas questões</t>
+  </si>
+  <si>
+    <t>Validade de conteúdo</t>
+  </si>
+  <si>
+    <t>Versão final do BackPEI-A</t>
+  </si>
+  <si>
+    <t>Avaliação da confiabilidade</t>
+  </si>
+  <si>
+    <t>Questões novas: 2 questões sobre as posições ao utilizar celulares; 1 sobre o tempo de uso de dispositivos móveis. Uma questão alterada, aquela sobre ler e/ou estudar na cama foi acrescida do uso de um dispositivo móvel. Ainda foram inseridos desenhos esquemáticos para apoiar as questões relativas a dor nas costas e pescoço</t>
+  </si>
+  <si>
+    <r>
+      <t>8 especialistas / Avaliaram: a clareza, facilidade de compreensão e aplicabilidade das novas questões e novo design; se as novas questões permitem a identificação dos comportamentos de uso de smartphone/tablet / /escala likert de 3 níveis sendo o questionário revisado em avaliações nos níveis inferiores até o consenso / CVI (CVI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,8)</t>
+    </r>
+  </si>
+  <si>
+    <t>2 rodadas. Comportamentos com CVI=0,87 e novas questões e design com CVI=1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">194 indivíduos / Aplicação em um intervalo de 7 dias por 2 grupos: impresso (n=80) e online (n=79) / %C (&gt;50%), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>κ (&gt;0,4), ICC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>2,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, SEM e MDC</t>
+    </r>
+  </si>
+  <si>
+    <t>Todos os valores de %C&gt;50% e κ&gt;0,4. Para a amostra geral o κ médio foi de 0,579 variando de 0,511 a 0,667 e o %C médio de 71,8% variando de 67,1% a 76,1%. Para a versão onlineo κ médio foi de 0,676 variando de 0,465 a 0,946 e o %C médio de 82,0% variando de 60,6% a 97,5%. Intensidade da dor nas costas (ICC=0,595, SEM=1,26, MDC=2,48), Intensidade da dor no pescoço (ICC=0,479, SEM=1,68, MDC=3,10)</t>
+  </si>
+  <si>
+    <t>A atualização do BackPEI-A com seu novo design  e questões sobre o uso de dispositivos móveis é válida e confiável.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,6 +864,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -823,19 +928,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1117,11 +1222,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,9 +1234,9 @@
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="3"/>
-    <col min="5" max="5" width="76" style="4" customWidth="1"/>
+    <col min="5" max="5" width="50.5703125" style="4" customWidth="1"/>
     <col min="6" max="6" width="76" style="5" customWidth="1"/>
-    <col min="7" max="7" width="75.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="55.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="39.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1162,10 +1267,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="14">
         <v>2013</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -1188,8 +1293,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="13"/>
       <c r="D3" s="3">
         <v>2</v>
@@ -1205,8 +1310,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="13"/>
       <c r="D4" s="3">
         <v>3</v>
@@ -1222,8 +1327,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="13"/>
       <c r="D5" s="3">
         <v>4</v>
@@ -1235,8 +1340,8 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="13"/>
       <c r="D6" s="3">
         <v>5</v>
@@ -1248,8 +1353,8 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="13"/>
       <c r="D7" s="3">
         <v>6</v>
@@ -1257,7 +1362,7 @@
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="12" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1265,8 +1370,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="13"/>
       <c r="D8" s="3">
         <v>7</v>
@@ -1274,12 +1379,12 @@
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="13"/>
       <c r="D9" s="3">
         <v>8</v>
@@ -1287,14 +1392,14 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="13"/>
       <c r="D10" s="3">
         <v>9</v>
@@ -1308,8 +1413,8 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="13"/>
       <c r="D11" s="3">
         <v>10</v>
@@ -1321,8 +1426,8 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="13"/>
       <c r="D12" s="3">
         <v>11</v>
@@ -1338,8 +1443,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="13"/>
       <c r="D13" s="3">
         <v>12</v>
@@ -1376,10 +1481,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="15">
         <v>2018</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -1391,7 +1496,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="12" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1402,8 +1507,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="13"/>
       <c r="D16" s="3">
         <v>2</v>
@@ -1411,14 +1516,14 @@
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="13"/>
       <c r="D17" s="3">
         <v>3</v>
@@ -1426,14 +1531,14 @@
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="13"/>
       <c r="D18" s="3">
         <v>4</v>
@@ -1449,8 +1554,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="13"/>
       <c r="D19" s="3">
         <v>5</v>
@@ -1466,8 +1571,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="13"/>
       <c r="D20" s="3">
         <v>6</v>
@@ -1480,8 +1585,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="13"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
@@ -1517,10 +1622,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="15">
         <v>2019</v>
       </c>
       <c r="C23" s="13" t="s">
@@ -1540,8 +1645,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="13"/>
       <c r="E24" s="4" t="s">
         <v>66</v>
@@ -1554,8 +1659,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="13"/>
       <c r="E25" s="4" t="s">
         <v>68</v>
@@ -1568,8 +1673,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="13"/>
       <c r="E26" s="4" t="s">
         <v>64</v>
@@ -1582,8 +1687,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="13"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
@@ -1596,10 +1701,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="16">
         <v>2021</v>
       </c>
       <c r="C28" s="13" t="s">
@@ -1619,8 +1724,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="13"/>
       <c r="E29" s="4" t="s">
         <v>81</v>
@@ -1634,8 +1739,8 @@
       <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
       <c r="C30" s="13"/>
       <c r="E30" s="4" t="s">
         <v>82</v>
@@ -1679,7 +1784,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="5:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="E33" s="4" t="s">
         <v>95</v>
       </c>
@@ -1690,7 +1795,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="5:7" ht="96" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="96" x14ac:dyDescent="0.25">
       <c r="E34" s="4" t="s">
         <v>82</v>
       </c>
@@ -1701,7 +1806,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
@@ -1709,8 +1814,75 @@
         <v>23</v>
       </c>
     </row>
+    <row r="36" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36">
+        <v>2023</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="H36" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="E37" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="E38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E39" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="E40" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E41" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -1719,13 +1891,6 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{481989D1-0AB2-4B2A-A0AB-025F3C3F8DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C509FA0-CF51-4D39-862F-26965D9B16EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13980" yWindow="0" windowWidth="14985" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-165" yWindow="0" windowWidth="14850" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="129">
   <si>
     <t>Autor</t>
   </si>
@@ -804,6 +804,131 @@
   </si>
   <si>
     <t>A atualização do BackPEI-A com seu novo design  e questões sobre o uso de dispositivos móveis é válida e confiável.</t>
+  </si>
+  <si>
+    <r>
+      <t>Gök</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>ş</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>en, Kocaman e Yildirim</t>
+    </r>
+  </si>
+  <si>
+    <t>Testar a validade e confiabilidade do BackPEI-TR em pacientes com hérnia de disco</t>
+  </si>
+  <si>
+    <t>Consistência interna</t>
+  </si>
+  <si>
+    <t>Confiabilidade teste re-teste</t>
+  </si>
+  <si>
+    <t>Análise de reprodutibilidade</t>
+  </si>
+  <si>
+    <t>Validade concorrente</t>
+  </si>
+  <si>
+    <t>235 Pacientes com hérnia de disco cervical ou lombar / ICC (2-way random effects - absolute agreement) da intensidade da dor</t>
+  </si>
+  <si>
+    <t>235 Pacientes com hérnia de disco cervical ou lombar / Correlação com o MHQ-TR (dor e rigidez, funcionalidade física, nível de atividade física, síntomas relacionados ao trabalho, hobbies atividades diárias e sociais, dificuldade em dormir, fadiga, bem-estar emocional e diagnóstico) / Spearman e comparação dos valores abaixo do 27º e acima do 73º percentil (válidade de constructo)</t>
+  </si>
+  <si>
+    <r>
+      <t>235 Pacientes com hérnia de disco cervical ou lombar / κ (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,5), %C e SE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Todos os valores de κ acima de 0,5 (0,618-1,000), porém algumas questões tiveram o limite inferiro do IC95% abaixo de 0,5: posição para sentar (LI</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IC95%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=0,499); prática de esporte ou exercício (LIIC95%=0,410), tempo usando computador (LIIC95%=0,490), leitura ou estudo na cama (LIIC95%=0,405); e limitação em atividades diárias devido à dor (LIIC95%=0,428)</t>
+    </r>
+  </si>
+  <si>
+    <t>235 Pacientes com hérnia de disco cervical ou lombar / 1 semana de intervalo entre as coletas / Correlação de Pearson, teste t pareado ou teste dos postos de sinais de Wilcoxon e ICC (entre os valores totais da escala)</t>
+  </si>
+  <si>
+    <t>r=0,809, ICC=0,889, Wilcoxon com p=0,009</t>
+  </si>
+  <si>
+    <t>Intensidade da dor nas costas (ICC=0,716), Intensidade da dor no pescoço (ICC=0,944), pontuação total do BackPEI-TR (ICC=0,800)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>ρ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0,725, teste t independente com p&lt;0,001</t>
+    </r>
+  </si>
+  <si>
+    <t>O BackPEI é um questionário válido e confiável para pacientes com hérnia de disco lombar ou cervical.</t>
   </si>
 </sst>
 </file>
@@ -928,19 +1053,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1222,11 +1347,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H37" sqref="H37"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,11 +1391,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="16">
         <v>2013</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -1293,8 +1418,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="13"/>
       <c r="D3" s="3">
         <v>2</v>
@@ -1309,9 +1434,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="13"/>
       <c r="D4" s="3">
         <v>3</v>
@@ -1326,9 +1451,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="13"/>
       <c r="D5" s="3">
         <v>4</v>
@@ -1340,8 +1465,8 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="13"/>
       <c r="D6" s="3">
         <v>5</v>
@@ -1353,8 +1478,8 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="13"/>
       <c r="D7" s="3">
         <v>6</v>
@@ -1362,7 +1487,7 @@
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="15" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1370,8 +1495,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="13"/>
       <c r="D8" s="3">
         <v>7</v>
@@ -1379,12 +1504,12 @@
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="13"/>
       <c r="D9" s="3">
         <v>8</v>
@@ -1392,14 +1517,14 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="15"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+    <row r="10" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="13"/>
       <c r="D10" s="3">
         <v>9</v>
@@ -1413,8 +1538,8 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="13"/>
       <c r="D11" s="3">
         <v>10</v>
@@ -1425,9 +1550,9 @@
       <c r="F11" s="5"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+    <row r="12" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="13"/>
       <c r="D12" s="3">
         <v>11</v>
@@ -1443,8 +1568,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="13"/>
       <c r="D13" s="3">
         <v>12</v>
@@ -1457,7 +1582,7 @@
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1481,10 +1606,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>2018</v>
       </c>
       <c r="C15" s="13" t="s">
@@ -1496,7 +1621,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="15" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1507,8 +1632,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="13"/>
       <c r="D16" s="3">
         <v>2</v>
@@ -1516,14 +1641,14 @@
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="13"/>
       <c r="D17" s="3">
         <v>3</v>
@@ -1531,14 +1656,14 @@
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="12"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="13"/>
       <c r="D18" s="3">
         <v>4</v>
@@ -1553,9 +1678,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
+    <row r="19" spans="1:8" ht="96" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="13"/>
       <c r="D19" s="3">
         <v>5</v>
@@ -1571,8 +1696,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="13"/>
       <c r="D20" s="3">
         <v>6</v>
@@ -1584,9 +1709,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
+    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="13"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
@@ -1598,7 +1723,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -1622,10 +1747,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <v>2019</v>
       </c>
       <c r="C23" s="13" t="s">
@@ -1645,8 +1770,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="13"/>
       <c r="E24" s="4" t="s">
         <v>66</v>
@@ -1659,8 +1784,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="13"/>
       <c r="E25" s="4" t="s">
         <v>68</v>
@@ -1673,8 +1798,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="13"/>
       <c r="E26" s="4" t="s">
         <v>64</v>
@@ -1687,8 +1812,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="13"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
@@ -1701,10 +1826,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="12">
         <v>2021</v>
       </c>
       <c r="C28" s="13" t="s">
@@ -1724,8 +1849,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="13"/>
       <c r="E29" s="4" t="s">
         <v>81</v>
@@ -1738,9 +1863,9 @@
       </c>
       <c r="H29" s="13"/>
     </row>
-    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
+    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="13"/>
       <c r="E30" s="4" t="s">
         <v>82</v>
@@ -1770,7 +1895,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="E32" s="4" t="s">
         <v>94</v>
       </c>
@@ -1795,7 +1920,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="96" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="126" x14ac:dyDescent="0.25">
       <c r="E34" s="4" t="s">
         <v>82</v>
       </c>
@@ -1874,15 +1999,64 @@
       </c>
       <c r="F41" s="4"/>
     </row>
+    <row r="42" spans="1:8" ht="108" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42">
+        <v>2023</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E43" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E44" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="E45" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -1891,6 +2065,13 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C509FA0-CF51-4D39-862F-26965D9B16EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DD9808-523D-4E37-A7C5-5C80BB6C5FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="0" windowWidth="14850" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15030" yWindow="0" windowWidth="13845" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -427,39 +427,15 @@
     <t>Gençbas e Bebis</t>
   </si>
   <si>
-    <t>Avaliar a adaptação da versão turca do BackPEI</t>
-  </si>
-  <si>
-    <t>Validade</t>
-  </si>
-  <si>
-    <t>Tradução para o turco</t>
-  </si>
-  <si>
-    <t>Validade de Conteúdo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 especialistas / Avaliaram cada questão (clareza, relevância e adequação). Fo utilizada uma escala de Likert de 4 níveis (de 1 a 4, quanto maior mais apropriado). / Itens com 1 e 2 pontos foram revisados e editados CVI </t>
-  </si>
-  <si>
     <t>Compreensão do Questionário</t>
   </si>
   <si>
-    <t>A questão sobre ler/estudar na cama foi separada em 2 (uma para ler e outra para estudar) /  CVI=90,8 (valores 3 e 4 na escala Likert</t>
-  </si>
-  <si>
     <t>10 estudantes de perfil similar à população do estudo</t>
   </si>
   <si>
     <t>Decidiu-se que é compreensível</t>
   </si>
   <si>
-    <t>5 especialistas da ciência da saúde turcófonos. Um professor de Turco avaliou a compreensão e gramática da versão em turco. / Após a validade de conteúdo o questinoário foi retraduzido do turco para o inglês por um professor de inglês para verificar se houve alteração do significado</t>
-  </si>
-  <si>
-    <t>Não houve alteração do significado das questões</t>
-  </si>
-  <si>
     <r>
       <t>KMO=0,374, Bartlett (</t>
     </r>
@@ -493,8 +469,32 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">139 estudantes / Associação entre a intensidade da dor e a presença de dor / Validade de linguagem, validade estrutural e validade de critério / KMO e teste de esfericidade de Bartlett, correlação de Spearman (presença e intensidade da dor) </t>
+    <t>Realizar um adaptação trasncultural de um instrumento de medição validado (BackPEI), iniciando com a fase de tradução e adaptação cultural, seguida por uma segunda fase para testar a confiabilidade.</t>
+  </si>
+  <si>
+    <t>Tradução</t>
+  </si>
+  <si>
+    <t>Adaptação Cultural</t>
+  </si>
+  <si>
+    <t>Confiabilidade</t>
+  </si>
+  <si>
+    <t>7 pesquisadores / Tradução: 2 brasileiros hispanófonos (T1 e T2), especialista em ciência da saúde (T3) / T1 traduziu do português para o espanhol, T2 retraduziu do espanhol para o português, T3 comparou a versão traduzida e retraduzida. A versão preliminar foi estabelecida por consenso entre os tradutores.</t>
+  </si>
+  <si>
+    <t>Comitê de especialistas: 2 professores bilíngues do Brasil especialistas na ciência da saúde / Revisou a versão espanhola e comparou com a original. A versão pré-final foi elaborado pelo método Delphi. / Cada membro do comitê avaliou a equivalência entre a semântica, idiomática, experiencial e conceitual / Avaliação por uma escala Likert de 5 pontos (questionário como um todo e cada questão individualmente) / O instrumento foi modificado até a concordância (80% ou mais de avaliações 4 ou 5) / Erros de revisão foram corrigidos</t>
+  </si>
+  <si>
+    <t>Nenhuma intervenção foi feita. Questionário retraduzido era idêntico ao original.</t>
+  </si>
+  <si>
+    <t>3 rodadas para atingir consenso. A 2ª rodada já resultou em consenso, entretanto, acolheu-se novas sugestões feitas. Na 3ª rodada houve 100% de concordância em todos os itens (com avaliação 5 em todos os itens). Não foram encontrados erros na revisão.</t>
+  </si>
+  <si>
+    <r>
+      <t>224 estudantes / Intervalo de 7 dias entre as aplicações / Kappa (IC95%) e %C (</t>
     </r>
     <r>
       <rPr>
@@ -503,6 +503,345 @@
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
       </rPr>
+      <t>κ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥0,5 ou %C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>≥75%),  ICC e IC95% (≥0,75), Wilcoxon</t>
+    </r>
+  </si>
+  <si>
+    <t>2 itens com κ&lt;0,5 (7 se considerar o IC95%) e 4 itens com %C&lt;75%. Porém, nenhum inferior em ambos. ICC=0,928, sem diferença significativa segundo Wilcoxon</t>
+  </si>
+  <si>
+    <t>A versão espanhola é bem adaptada e é confiável</t>
+  </si>
+  <si>
+    <t>Rosa et al.</t>
+  </si>
+  <si>
+    <t>Miñana-Signes et al.</t>
+  </si>
+  <si>
+    <t>atualizar o questionário BackPEI para incluir novas questões que avaliam aspectos relacionados  à dor no pescoço e ao uso de dispositivos móveis e testar a validade de conteúdo e a reprodutibilidade dessas novas questões.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisão de literatura para identificar como a dor nas costas é avaliada </t>
+  </si>
+  <si>
+    <t>Desenvolvimento da versão inicial do BackPEI-CA</t>
+  </si>
+  <si>
+    <t>Validade de conteúdo e versão final do BackPEI-CA</t>
+  </si>
+  <si>
+    <t>Questões novas: tempo utilizando o dispositivos móveis; duas sobre a postura ao utilizar dispositivos móveis; duas novas sobre o impacto da dor nas costas na vida dos adolescentes; cinco novas para avaliar a dor no pescoço. Questões modificadas: as relativas à dor nas costas como um novo design para melhorar a compreensão as regiões do corpo</t>
+  </si>
+  <si>
+    <t>8 especialistas / Avaliaram: clareza, facilidade de compreensão e aplicabilidade geral das novas questões; se as novas questões permitiam a identificação do comportamento de uso de celulares/tablets e avaliavam adequadamente dor nas costas e no pescoço / Escala Likert  de 3 níveis / Avaliações nos 2 níveis inferiores demandavam revisão do questionário e reavaliação / Encerra-se no consenso / CVI para cada questão (CVI&gt;0,8, preferencialmente &gt;0,9)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">105 escolares / Aplicação com um intervalo de 7 dias em formato presencial e online / Percentual de concordância (%C), kappa e kappa ponderado, ICC  2-way mixed effects absolute agrement / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>κ≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,4, %C&gt;50%, ICC</t>
+    </r>
+  </si>
+  <si>
+    <t>2 rodadas. CVI variou de 0,9 a 1,0 na 2ª rodada (na verdade variou de 0,875 a 1,000, os autores arredondaram)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Todos os %C foram acima de 0,5 (52,4%-92,5%). Todos os </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>κ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ficaram acima de 0,4 (0,418-0,677), algumas questões estiveram o limite inferior do IC95% abaixo de 0,4: tempo usando dispositivos móveis; modo de usar dispositivos móveis em sentado; dor nas costas nos últimos 3 meses; interferência da dor nas costas em atividades; interferência da dor no pescoço em atividades. ICC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>costas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0,828, ICC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>pescoço</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0,824</t>
+    </r>
+  </si>
+  <si>
+    <t>O BackPEI-CA é uma ferramenta válida e confiável que pode ser utilizada em avaliações clínicas e rasteramento nas escolas.</t>
+  </si>
+  <si>
+    <t>Atualizar o BackPEI-A incluindo 4 novas questões sore o uso de dispositivos móveis. Apresentar um novo design dos aspectos relacionados à dor nas costas e pescoço para facilitar a compreensão da localização destas dores. Testar a validade de conteúdo e confiabilidade das novas questões. Identificar se a versão online do BackPEI-A possui confiabilidade adequada</t>
+  </si>
+  <si>
+    <t>Revisão de literatura para identificar as posturas adotadas ao utilizar dispositivos móveis</t>
+  </si>
+  <si>
+    <t>Inclusão das novas questões</t>
+  </si>
+  <si>
+    <t>Validade de conteúdo</t>
+  </si>
+  <si>
+    <t>Versão final do BackPEI-A</t>
+  </si>
+  <si>
+    <t>Avaliação da confiabilidade</t>
+  </si>
+  <si>
+    <t>Questões novas: 2 questões sobre as posições ao utilizar celulares; 1 sobre o tempo de uso de dispositivos móveis. Uma questão alterada, aquela sobre ler e/ou estudar na cama foi acrescida do uso de um dispositivo móvel. Ainda foram inseridos desenhos esquemáticos para apoiar as questões relativas a dor nas costas e pescoço</t>
+  </si>
+  <si>
+    <r>
+      <t>8 especialistas / Avaliaram: a clareza, facilidade de compreensão e aplicabilidade das novas questões e novo design; se as novas questões permitem a identificação dos comportamentos de uso de smartphone/tablet / /escala likert de 3 níveis sendo o questionário revisado em avaliações nos níveis inferiores até o consenso / CVI (CVI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,8)</t>
+    </r>
+  </si>
+  <si>
+    <t>2 rodadas. Comportamentos com CVI=0,87 e novas questões e design com CVI=1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">194 indivíduos / Aplicação em um intervalo de 7 dias por 2 grupos: impresso (n=80) e online (n=79) / %C (&gt;50%), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>κ (&gt;0,4), ICC</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>2,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, SEM e MDC</t>
+    </r>
+  </si>
+  <si>
+    <t>Todos os valores de %C&gt;50% e κ&gt;0,4. Para a amostra geral o κ médio foi de 0,579 variando de 0,511 a 0,667 e o %C médio de 71,8% variando de 67,1% a 76,1%. Para a versão onlineo κ médio foi de 0,676 variando de 0,465 a 0,946 e o %C médio de 82,0% variando de 60,6% a 97,5%. Intensidade da dor nas costas (ICC=0,595, SEM=1,26, MDC=2,48), Intensidade da dor no pescoço (ICC=0,479, SEM=1,68, MDC=3,10)</t>
+  </si>
+  <si>
+    <t>A atualização do BackPEI-A com seu novo design  e questões sobre o uso de dispositivos móveis é válida e confiável.</t>
+  </si>
+  <si>
+    <r>
+      <t>Gök</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>ş</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>en, Kocaman e Yildirim</t>
+    </r>
+  </si>
+  <si>
+    <t>Testar a validade e confiabilidade do BackPEI-TR em pacientes com hérnia de disco</t>
+  </si>
+  <si>
+    <t>Consistência interna</t>
+  </si>
+  <si>
+    <t>Confiabilidade teste re-teste</t>
+  </si>
+  <si>
+    <t>Análise de reprodutibilidade</t>
+  </si>
+  <si>
+    <t>Validade concorrente</t>
+  </si>
+  <si>
+    <t>235 Pacientes com hérnia de disco cervical ou lombar / ICC (2-way random effects - absolute agreement) da intensidade da dor</t>
+  </si>
+  <si>
+    <t>235 Pacientes com hérnia de disco cervical ou lombar / Correlação com o MHQ-TR (dor e rigidez, funcionalidade física, nível de atividade física, síntomas relacionados ao trabalho, hobbies atividades diárias e sociais, dificuldade em dormir, fadiga, bem-estar emocional e diagnóstico) / Spearman e comparação dos valores abaixo do 27º e acima do 73º percentil (válidade de constructo)</t>
+  </si>
+  <si>
+    <r>
+      <t>235 Pacientes com hérnia de disco cervical ou lombar / κ (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,5), %C e SE</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Todos os valores de κ acima de 0,5 (0,618-1,000), porém algumas questões tiveram o limite inferiro do IC95% abaixo de 0,5: posição para sentar (LI</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IC95%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=0,499); prática de esporte ou exercício (LIIC95%=0,410), tempo usando computador (LIIC95%=0,490), leitura ou estudo na cama (LIIC95%=0,405); e limitação em atividades diárias devido à dor (LIIC95%=0,428)</t>
+    </r>
+  </si>
+  <si>
+    <t>235 Pacientes com hérnia de disco cervical ou lombar / 1 semana de intervalo entre as coletas / Correlação de Pearson, teste t pareado ou teste dos postos de sinais de Wilcoxon e ICC (entre os valores totais da escala)</t>
+  </si>
+  <si>
+    <t>r=0,809, ICC=0,889, Wilcoxon com p=0,009</t>
+  </si>
+  <si>
+    <t>Intensidade da dor nas costas (ICC=0,716), Intensidade da dor no pescoço (ICC=0,944), pontuação total do BackPEI-TR (ICC=0,800)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
       <t>ρ</t>
     </r>
     <r>
@@ -512,11 +851,41 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>=-0,684</t>
-    </r>
-  </si>
-  <si>
-    <t>Aplicação por avaliadores distintos com 2 semanas de intervalo / Alfa de Cronbach, correlação item-total e kappa</t>
+      <t>=0,725, teste t independente com p&lt;0,001</t>
+    </r>
+  </si>
+  <si>
+    <t>O BackPEI é um questionário válido e confiável para pacientes com hérnia de disco lombar ou cervical.</t>
+  </si>
+  <si>
+    <t>Avaliar a validade e confiabilidade da versão turca do BackPEI</t>
+  </si>
+  <si>
+    <t>Validade de constructo</t>
+  </si>
+  <si>
+    <t>Tradução para o turco, validade da linguagem da escala e validade de conteúdo</t>
+  </si>
+  <si>
+    <t>A questão sobre ler/estudar na cama foi separada em 2 (uma para ler e outra para estudar) /  CVI=90,8 (valores 3 e 4 na escala Likert / Não houve alteração do significado das questões</t>
+  </si>
+  <si>
+    <t>Tradução do inlês para o turco por um professo de inglês. Um professor de Turco avaliou a compreensão e gramática da versão em turco. 5 especialistas / Avaliaram cada questão (clareza, relevância e adequação). Foi utilizada uma escala de Likert de 4 níveis (de 1 a 4, quanto maior mais apropriado). / Itens com 1 e 2 pontos foram revisados e editados / CVI / Após a validade de conteúdo o questinoário foi retraduzido do turco para o inglês por um professor de inglês para verificar se houve alteração do significado</t>
+  </si>
+  <si>
+    <t>Validade de critério (concorrente)</t>
+  </si>
+  <si>
+    <t>139 estudantes / Associação entre a intensidade da dor e  / Correlação de Spearman</t>
+  </si>
+  <si>
+    <t>139 estudantes / KMO (&lt;0,5) e teste de esfericidade de Bartlett (p&gt;0,05)</t>
+  </si>
+  <si>
+    <t>correlação de Spearman (presença e intensidade da dor) ρ=-0,684</t>
+  </si>
+  <si>
+    <t>139 estudantes / Aplicação por avaliadores distintos com 2 semanas de intervalo / Alfa de Cronbach, correlação item-total, kappa e teste dos postos de sinais de Wilcoxon</t>
   </si>
   <si>
     <r>
@@ -535,407 +904,18 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> entre 0,500 e 0,880.</t>
-    </r>
-  </si>
-  <si>
-    <t>O BackPEI é um instrumento válido e reprodutível para adolescentes turcos</t>
-  </si>
-  <si>
-    <t>Realizar um adaptação trasncultural de um instrumento de medição validado (BackPEI), iniciando com a fase de tradução e adaptação cultural, seguida por uma segunda fase para testar a confiabilidade.</t>
-  </si>
-  <si>
-    <t>Tradução</t>
-  </si>
-  <si>
-    <t>Adaptação Cultural</t>
-  </si>
-  <si>
-    <t>Confiabilidade</t>
-  </si>
-  <si>
-    <t>7 pesquisadores / Tradução: 2 brasileiros hispanófonos (T1 e T2), especialista em ciência da saúde (T3) / T1 traduziu do português para o espanhol, T2 retraduziu do espanhol para o português, T3 comparou a versão traduzida e retraduzida. A versão preliminar foi estabelecida por consenso entre os tradutores.</t>
-  </si>
-  <si>
-    <t>Comitê de especialistas: 2 professores bilíngues do Brasil especialistas na ciência da saúde / Revisou a versão espanhola e comparou com a original. A versão pré-final foi elaborado pelo método Delphi. / Cada membro do comitê avaliou a equivalência entre a semântica, idiomática, experiencial e conceitual / Avaliação por uma escala Likert de 5 pontos (questionário como um todo e cada questão individualmente) / O instrumento foi modificado até a concordância (80% ou mais de avaliações 4 ou 5) / Erros de revisão foram corrigidos</t>
-  </si>
-  <si>
-    <t>Nenhuma intervenção foi feita. Questionário retraduzido era idêntico ao original.</t>
-  </si>
-  <si>
-    <t>3 rodadas para atingir consenso. A 2ª rodada já resultou em consenso, entretanto, acolheu-se novas sugestões feitas. Na 3ª rodada houve 100% de concordância em todos os itens (com avaliação 5 em todos os itens). Não foram encontrados erros na revisão.</t>
-  </si>
-  <si>
-    <r>
-      <t>224 estudantes / Intervalo de 7 dias entre as aplicações / Kappa (IC95%) e %C (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>κ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥0,5 ou %C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>≥75%),  ICC e IC95% (≥0,75), Wilcoxon</t>
-    </r>
-  </si>
-  <si>
-    <t>2 itens com κ&lt;0,5 (7 se considerar o IC95%) e 4 itens com %C&lt;75%. Porém, nenhum inferior em ambos. ICC=0,928, sem diferença significativa segundo Wilcoxon</t>
-  </si>
-  <si>
-    <t>A versão espanhola é bem adaptada e é confiável</t>
-  </si>
-  <si>
-    <t>Rosa et al.</t>
-  </si>
-  <si>
-    <t>Miñana-Signes et al.</t>
-  </si>
-  <si>
-    <t>atualizar o questionário BackPEI para incluir novas questões que avaliam aspectos relacionados  à dor no pescoço e ao uso de dispositivos móveis e testar a validade de conteúdo e a reprodutibilidade dessas novas questões.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revisão de literatura para identificar como a dor nas costas é avaliada </t>
-  </si>
-  <si>
-    <t>Desenvolvimento da versão inicial do BackPEI-CA</t>
-  </si>
-  <si>
-    <t>Validade de conteúdo e versão final do BackPEI-CA</t>
-  </si>
-  <si>
-    <t>Questões novas: tempo utilizando o dispositivos móveis; duas sobre a postura ao utilizar dispositivos móveis; duas novas sobre o impacto da dor nas costas na vida dos adolescentes; cinco novas para avaliar a dor no pescoço. Questões modificadas: as relativas à dor nas costas como um novo design para melhorar a compreensão as regiões do corpo</t>
-  </si>
-  <si>
-    <t>8 especialistas / Avaliaram: clareza, facilidade de compreensão e aplicabilidade geral das novas questões; se as novas questões permitiam a identificação do comportamento de uso de celulares/tablets e avaliavam adequadamente dor nas costas e no pescoço / Escala Likert  de 3 níveis / Avaliações nos 2 níveis inferiores demandavam revisão do questionário e reavaliação / Encerra-se no consenso / CVI para cada questão (CVI&gt;0,8, preferencialmente &gt;0,9)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">105 escolares / Aplicação com um intervalo de 7 dias em formato presencial e online / Percentual de concordância (%C), kappa e kappa ponderado, ICC  2-way mixed effects absolute agrement / </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>κ≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0,4, %C&gt;50%, ICC</t>
-    </r>
-  </si>
-  <si>
-    <t>2 rodadas. CVI variou de 0,9 a 1,0 na 2ª rodada (na verdade variou de 0,875 a 1,000, os autores arredondaram)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Todos os %C foram acima de 0,5 (52,4%-92,5%). Todos os </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>κ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> ficaram acima de 0,4 (0,418-0,677), algumas questões estiveram o limite inferior do IC95% abaixo de 0,4: tempo usando dispositivos móveis; modo de usar dispositivos móveis em sentado; dor nas costas nos últimos 3 meses; interferência da dor nas costas em atividades; interferência da dor no pescoço em atividades. ICC</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>costas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>=0,828, ICC</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>pescoço</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>=0,824</t>
-    </r>
-  </si>
-  <si>
-    <t>O BackPEI-CA é uma ferramenta válida e confiável que pode ser utilizada em avaliações clínicas e rasteramento nas escolas.</t>
-  </si>
-  <si>
-    <t>Atualizar o BackPEI-A incluindo 4 novas questões sore o uso de dispositivos móveis. Apresentar um novo design dos aspectos relacionados à dor nas costas e pescoço para facilitar a compreensão da localização destas dores. Testar a validade de conteúdo e confiabilidade das novas questões. Identificar se a versão online do BackPEI-A possui confiabilidade adequada</t>
-  </si>
-  <si>
-    <t>Revisão de literatura para identificar as posturas adotadas ao utilizar dispositivos móveis</t>
-  </si>
-  <si>
-    <t>Inclusão das novas questões</t>
-  </si>
-  <si>
-    <t>Validade de conteúdo</t>
-  </si>
-  <si>
-    <t>Versão final do BackPEI-A</t>
-  </si>
-  <si>
-    <t>Avaliação da confiabilidade</t>
-  </si>
-  <si>
-    <t>Questões novas: 2 questões sobre as posições ao utilizar celulares; 1 sobre o tempo de uso de dispositivos móveis. Uma questão alterada, aquela sobre ler e/ou estudar na cama foi acrescida do uso de um dispositivo móvel. Ainda foram inseridos desenhos esquemáticos para apoiar as questões relativas a dor nas costas e pescoço</t>
-  </si>
-  <si>
-    <r>
-      <t>8 especialistas / Avaliaram: a clareza, facilidade de compreensão e aplicabilidade das novas questões e novo design; se as novas questões permitem a identificação dos comportamentos de uso de smartphone/tablet / /escala likert de 3 níveis sendo o questionário revisado em avaliações nos níveis inferiores até o consenso / CVI (CVI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0,8)</t>
-    </r>
-  </si>
-  <si>
-    <t>2 rodadas. Comportamentos com CVI=0,87 e novas questões e design com CVI=1</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">194 indivíduos / Aplicação em um intervalo de 7 dias por 2 grupos: impresso (n=80) e online (n=79) / %C (&gt;50%), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>κ (&gt;0,4), ICC</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>2,2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, SEM e MDC</t>
-    </r>
-  </si>
-  <si>
-    <t>Todos os valores de %C&gt;50% e κ&gt;0,4. Para a amostra geral o κ médio foi de 0,579 variando de 0,511 a 0,667 e o %C médio de 71,8% variando de 67,1% a 76,1%. Para a versão onlineo κ médio foi de 0,676 variando de 0,465 a 0,946 e o %C médio de 82,0% variando de 60,6% a 97,5%. Intensidade da dor nas costas (ICC=0,595, SEM=1,26, MDC=2,48), Intensidade da dor no pescoço (ICC=0,479, SEM=1,68, MDC=3,10)</t>
-  </si>
-  <si>
-    <t>A atualização do BackPEI-A com seu novo design  e questões sobre o uso de dispositivos móveis é válida e confiável.</t>
-  </si>
-  <si>
-    <r>
-      <t>Gök</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>ş</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>en, Kocaman e Yildirim</t>
-    </r>
-  </si>
-  <si>
-    <t>Testar a validade e confiabilidade do BackPEI-TR em pacientes com hérnia de disco</t>
-  </si>
-  <si>
-    <t>Consistência interna</t>
-  </si>
-  <si>
-    <t>Confiabilidade teste re-teste</t>
-  </si>
-  <si>
-    <t>Análise de reprodutibilidade</t>
-  </si>
-  <si>
-    <t>Validade concorrente</t>
-  </si>
-  <si>
-    <t>235 Pacientes com hérnia de disco cervical ou lombar / ICC (2-way random effects - absolute agreement) da intensidade da dor</t>
-  </si>
-  <si>
-    <t>235 Pacientes com hérnia de disco cervical ou lombar / Correlação com o MHQ-TR (dor e rigidez, funcionalidade física, nível de atividade física, síntomas relacionados ao trabalho, hobbies atividades diárias e sociais, dificuldade em dormir, fadiga, bem-estar emocional e diagnóstico) / Spearman e comparação dos valores abaixo do 27º e acima do 73º percentil (válidade de constructo)</t>
-  </si>
-  <si>
-    <r>
-      <t>235 Pacientes com hérnia de disco cervical ou lombar / κ (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>≥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>0,5), %C e SE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Todos os valores de κ acima de 0,5 (0,618-1,000), porém algumas questões tiveram o limite inferiro do IC95% abaixo de 0,5: posição para sentar (LI</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>IC95%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=0,499); prática de esporte ou exercício (LIIC95%=0,410), tempo usando computador (LIIC95%=0,490), leitura ou estudo na cama (LIIC95%=0,405); e limitação em atividades diárias devido à dor (LIIC95%=0,428)</t>
-    </r>
-  </si>
-  <si>
-    <t>235 Pacientes com hérnia de disco cervical ou lombar / 1 semana de intervalo entre as coletas / Correlação de Pearson, teste t pareado ou teste dos postos de sinais de Wilcoxon e ICC (entre os valores totais da escala)</t>
-  </si>
-  <si>
-    <t>r=0,809, ICC=0,889, Wilcoxon com p=0,009</t>
-  </si>
-  <si>
-    <t>Intensidade da dor nas costas (ICC=0,716), Intensidade da dor no pescoço (ICC=0,944), pontuação total do BackPEI-TR (ICC=0,800)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t>ρ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>=0,725, teste t independente com p&lt;0,001</t>
-    </r>
-  </si>
-  <si>
-    <t>O BackPEI é um questionário válido e confiável para pacientes com hérnia de disco lombar ou cervical.</t>
+      <t xml:space="preserve"> entre 0,500 e 0,880. Sem diferença para a intensidade da dor (Wilcoxon)</t>
+    </r>
+  </si>
+  <si>
+    <t>O BackPEI é um instrumento possui validade e confiabilidade suficientes.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -998,6 +978,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1019,7 +1005,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1053,19 +1039,25 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1349,9 +1341,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1392,13 +1384,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>2013</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3">
@@ -1418,9 +1410,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="13"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
@@ -1435,9 +1427,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="13"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
@@ -1452,9 +1444,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -1465,9 +1457,9 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="13"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
@@ -1478,16 +1470,16 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="14"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1495,37 +1487,37 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="13"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="13"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
@@ -1538,9 +1530,9 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="13"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
@@ -1551,9 +1543,9 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="13"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
@@ -1568,9 +1560,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="13"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
@@ -1606,13 +1598,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="16">
         <v>2018</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="3">
@@ -1621,7 +1613,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="13" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1632,39 +1624,39 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="13"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="13"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="13"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="3">
         <v>4</v>
       </c>
@@ -1679,9 +1671,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="3">
         <v>5</v>
       </c>
@@ -1696,9 +1688,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="13"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="3">
         <v>6</v>
       </c>
@@ -1710,9 +1702,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="14"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
@@ -1746,150 +1738,150 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="16">
         <v>2019</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="14"/>
+      <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F24" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="13"/>
-      <c r="E24" s="4" t="s">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="14"/>
+      <c r="E25" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="13"/>
-      <c r="E25" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="13"/>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="14"/>
       <c r="E26" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>75</v>
+        <v>122</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="13"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="14"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="17">
+        <v>2021</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="14"/>
+      <c r="E29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="14"/>
+      <c r="E30" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="12">
-        <v>2021</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="E29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="E30" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="14"/>
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B31">
         <v>2022</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>23</v>
@@ -1897,38 +1889,38 @@
     </row>
     <row r="32" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="E32" s="4" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="E33" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="126" x14ac:dyDescent="0.25">
       <c r="E34" s="4" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1947,50 +1939,50 @@
         <v>2023</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F36" s="4"/>
       <c r="H36" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="E37" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="E38" s="5" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E39" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F39" s="4"/>
     </row>
     <row r="40" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="E40" s="5" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2001,62 +1993,69 @@
     </row>
     <row r="42" spans="1:8" ht="108" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B42">
         <v>2023</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E42" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="E43" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="E44" s="4" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="E45" s="4" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -2065,13 +2064,6 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DD9808-523D-4E37-A7C5-5C80BB6C5FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E76D534-3793-4351-90BD-C890926FA835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15030" yWindow="0" windowWidth="13845" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -1041,23 +1041,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1341,9 +1341,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,13 +1384,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="18">
         <v>2013</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3">
@@ -1410,9 +1410,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="14"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
@@ -1427,9 +1427,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
@@ -1444,9 +1444,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="14"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -1457,9 +1457,9 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
@@ -1470,16 +1470,16 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="17" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1487,37 +1487,37 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="13"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="17"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
@@ -1530,9 +1530,9 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
@@ -1543,9 +1543,9 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
@@ -1560,9 +1560,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
@@ -1604,7 +1604,7 @@
       <c r="B15" s="16">
         <v>2018</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="3">
@@ -1613,7 +1613,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="17" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1626,14 +1626,14 @@
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="14"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
@@ -1641,14 +1641,14 @@
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="14"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="13"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
@@ -1656,7 +1656,7 @@
     <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="14"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="3">
         <v>4</v>
       </c>
@@ -1673,7 +1673,7 @@
     <row r="19" spans="1:8" ht="96" x14ac:dyDescent="0.25">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="14"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="3">
         <v>5</v>
       </c>
@@ -1690,7 +1690,7 @@
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="14"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="3">
         <v>6</v>
       </c>
@@ -1704,7 +1704,7 @@
     <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
-      <c r="C21" s="14"/>
+      <c r="C21" s="15"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
@@ -1745,13 +1745,13 @@
       <c r="B23" s="16">
         <v>2019</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="15" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="13" t="s">
         <v>121</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -1764,7 +1764,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
-      <c r="C24" s="14"/>
+      <c r="C24" s="15"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
@@ -1778,7 +1778,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
-      <c r="C25" s="14"/>
+      <c r="C25" s="15"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
       </c>
@@ -1792,7 +1792,7 @@
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
-      <c r="C26" s="14"/>
+      <c r="C26" s="15"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
       </c>
@@ -1806,7 +1806,7 @@
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="14"/>
+      <c r="C27" s="15"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
@@ -1818,13 +1818,13 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="14">
         <v>2021</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C28" s="15" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -1836,14 +1836,14 @@
       <c r="G28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="15" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="14"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
       </c>
@@ -1853,12 +1853,12 @@
       <c r="G29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="14"/>
+      <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="14"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
       </c>
@@ -1868,7 +1868,7 @@
       <c r="G30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="14"/>
+      <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2049,13 +2049,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -2064,6 +2057,13 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E76D534-3793-4351-90BD-C890926FA835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CC2185-CCD0-4DDB-8285-6B0ABE2330F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Descritivos" sheetId="1" r:id="rId1"/>
+    <sheet name="Estrutura" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="190">
   <si>
     <t>Autor</t>
   </si>
@@ -909,13 +910,196 @@
   </si>
   <si>
     <t>O BackPEI é um instrumento possui validade e confiabilidade suficientes.</t>
+  </si>
+  <si>
+    <t>Propósito</t>
+  </si>
+  <si>
+    <t>Caracterização</t>
+  </si>
+  <si>
+    <t>Representação</t>
+  </si>
+  <si>
+    <t>Procedimentos</t>
+  </si>
+  <si>
+    <t>Noll et al., 2013</t>
+  </si>
+  <si>
+    <t>Existem vários fatores de risco que podem estar associados com  a ocorrência de dor nas costas não-específica (idiopática?) em jovens como gênero, idade, exercício físico, tempo gasto assistindo TV, utilizando o computador e jogando video game, tempo gasto sentados, tempo e qualidade do sono, fatores psicossociais, histórico familiar de dor nas costas e nível educacional dos pais (p. 566)</t>
+  </si>
+  <si>
+    <t>Empiricamente, profissionais da saúde tamabém consideram as posturas corporais adotadas durantes atividades da vida diária (AVDs) como um fator de risco para a ocorrência de dor nas costas (p.566)</t>
+  </si>
+  <si>
+    <t>(as AVDs serem um fator de risco) é particularmente verdadeiro em relação a dor nas costas e posturas específicas adotadas por escolares durante longos períodos do dia como carregando uma mochila, sentado para escrever, utilizando o computador, levantando objetos do chão e mesmo a postura para dormir. (p.566)</t>
+  </si>
+  <si>
+    <t>Estabelecer a relação entre essas posturas (na realização de atividades da vida diária) e a dor nas costas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questionários são uma ferramenta importantepara esse ipo de investigação (associação entre dor e posturas) devido a sua facilidade de aplicação, baixo custo e o fato de que eles fornecem a oportunidade de auto-relato. </t>
+  </si>
+  <si>
+    <t>(Em um quesionário) a postura coporal não foi considerada entre os fatores de risco.</t>
+  </si>
+  <si>
+    <t>Watson et al. e Skoffer e Foldspang também testaram a reprodutibilidade dos seus questionário com apenas 25 e 17 escolares respectivamente.</t>
+  </si>
+  <si>
+    <t>(No desenvolvimento de um questionário) apenas 50 adolescentes participaram da validação.</t>
+  </si>
+  <si>
+    <t>(Questionários utilizados em pesquisas epidemiológicas) carecem de detalhes e possuem erros nos procedimentos de validação, o que dificula a reprodução desses métodos em outros estudos.</t>
+  </si>
+  <si>
+    <t>Não foi encontrado nenhum instrumento válido e reprodutível que avalie conjuntamente a prevalência de dor nas costas e posturas adotadas durante AVDs como um fator de risco associado entre criaças escolares.</t>
+  </si>
+  <si>
+    <t>É importante desenvolver um questionário válido e reprodutível para que os pesquisadores possam utilizar um instrumento</t>
+  </si>
+  <si>
+    <t>capaz de avaliar uma ampla gama de fatores de risco associados à dor nas costas em crianças em idade escolar</t>
+  </si>
+  <si>
+    <t>Considerando que hábitos posturais inadequados durante as AVDs podem ser um fator de risco para a ocorrência de dores nas costas, é importante investigá-los profundamente durante a infância e adolescência</t>
+  </si>
+  <si>
+    <t>ações destinadas a reduzir a alta incidência de dores nas costas em adultos podem ser consideradas pelas autoridades de saúde pública.</t>
+  </si>
+  <si>
+    <t>pesquisa de campo realizada em duas escolas com o objetivo de registrar, por meio da observação, as AVDs mais praticadas e seu modo de execução por crianças em idade escolar</t>
+  </si>
+  <si>
+    <t>uma revisão bibliográfica cujo objetivo foi identificar as AVDs mais praticadas e seu modo de execução por crianças em idade escolar</t>
+  </si>
+  <si>
+    <t>uma revisão de literatura cujo objetivo foi identificar os instrumentos existentes para avaliação da dor lombar, especificamente para crianças em idade escolar (acho que é para escolher como avaliar a dor, tem que ver e pensar)</t>
+  </si>
+  <si>
+    <t>elaboração da primeira versão do BackPEI</t>
+  </si>
+  <si>
+    <t>avaliação do conteúdo científico da primeira versão do BackPEI por oito especialistas em dor nas costas, postura corporal ou biomecânica humana;</t>
+  </si>
+  <si>
+    <t>elaborar a segunda versão do BackPEI, incorporando sugestões feitas pelos especialistas;</t>
+  </si>
+  <si>
+    <t>submissão do BackPEI revisado aos especialistas para avaliação do conteúdo científico</t>
+  </si>
+  <si>
+    <t>aplicação do BackPEI a um grupo-alvo de crianças em idade escolar para identificar qualitativamente a sua compreensão das questões</t>
+  </si>
+  <si>
+    <t>elaboração da versão final do BackPEI</t>
+  </si>
+  <si>
+    <t>verificação da reprodutibilidade do questionário com base em um procedimento de teste e reteste</t>
+  </si>
+  <si>
+    <t>tradução para o inglês</t>
+  </si>
+  <si>
+    <t>O questionário BackPEI foi desenvolvido com base em pesquisas de campo e no conteúdo de outros questionários utilizados em diversos estudos publicados</t>
+  </si>
+  <si>
+    <t>Tabela 1: demográficos (idade e gênero), comportamental (Nível de exercício físico e prática de exercício físico competitivo, Número de horas gastas por dia assistindo televisão e usando o computador, Número de horas dormidas e hábito de ler e/ou estudar na cama, Postura em relação ao sono, sentar em uma cadeira para escrever, sentar em uma cadeira para conversar, usar um computador e levantar um objeto do chão, Meio de transporte utilizado para transportar o material escolar e modo de transporte da mochila escolar), Socioeconômico (Tipo de escola e escolaridade dos pais e/ou responsáveis) e Hereditário (ocorrência de dor nas costas no pais)</t>
+  </si>
+  <si>
+    <t>Com base em pesquisas anteriores, o questionário foi elaborado para identificar a presença de dor nas costas nos 3 meses anteriores à sua aplicação e inclui perguntas sobre a ocorrência, frequência e intensidade da dor.</t>
+  </si>
+  <si>
+    <t>A intensidade da dor foi avaliada por meio da escala visual analógica (EVA), que consiste em uma linha horizontal de 10 cm</t>
+  </si>
+  <si>
+    <t>A intensidade da dor foi avaliada por meio da escala visual analógica (EVA), que consiste em uma linha horizontal de 10 cm na qual ‘‘0’’ significa ‘‘Sem dor’’ e ‘‘10’’ significa ‘‘A pior dor que posso imaginar’’</t>
+  </si>
+  <si>
+    <t>Besides pain, this questionnaire also assesses risk factors associated with back pain. Table 1 shows a detailed description of demographic, socio-economic, hereditary and behavioral risk factors</t>
+  </si>
+  <si>
+    <t>As posições ilustradas nas fotografias incluídas em cada questão sobre postura nas AVDs (questões 9 a 14) foram escolhidas com base na mecânica da coluna e nas posturas recomendadas pelas Back Schools para as AVDs correspondentes. (é bom pensar a qual caracterização que serve esse procedimento)</t>
+  </si>
+  <si>
+    <t>a pesquisa de campo contribuiu consideravelmente ao revelar as posições mais comumente adotadas por crianças em idade escolar em cada postura</t>
+  </si>
+  <si>
+    <t>Optou-se pelo uso de fotografias, pois elas auxiliam na identificação do respondente com a imagem, facilitando a percepção da própria postura nas AVDs. Além disso, considerando que diferenças de gênero foram identificadas nos hábitos posturais, a utilização de um modelo do BackPEI para meninos e outro para meninas também teve como objetivo facilitar a consciência corporal.</t>
+  </si>
+  <si>
+    <t>Oito especialistas nas áreas de postura corporal, dor nas costas ou biomecânica do movimento humano avaliaram o BackPEI respondendo a três perguntas referentes ao instrumento como um todo: (1) ‘‘quanto à clareza, facilidade de compreensão e aplicabilidade do BackPEI, de modo geral, você o considera adequado, adequado ou inadequado?’’; (2) ‘‘quanto ao objetivo de avaliar a postura corporal em AVDs a partir de fotografias, você considera o BackPEI adequado, adequado ou inadequado?’’; (3) ‘‘quanto ao objetivo de avaliar a dor nas costas e seus fatores associados, você considera o BackPEI adequado, adequado ou inadequado?’’.</t>
+  </si>
+  <si>
+    <t>os especialistas avaliaram cada questão do BackPEI individualmente, respondendo à seguinte pergunta: "Quanto à clareza, facilidade de compreensão e aplicabilidade, você considera esta questão adequada, adequada ou inadequada?". Em todas as alternativas, caso os especialistas assinalassem "inadequado" ou "adequado", era solicitado o motivo da avaliação. Assim, ao final da avaliação, havia um espaço de 15 linhas, no qual os especialistas podiam avaliar espontaneamente o questionário, fornecendo críticas e/ou observações.</t>
+  </si>
+  <si>
+    <t>As primeiras 20 perguntas são fechadas, permitindo que o respondente escolha apenas uma alternativa. A última pergunta (número 21) utiliza uma EVA para avaliar a intensidade da dor.</t>
+  </si>
+  <si>
+    <t>Procedimento de teste e reteste da versão final</t>
+  </si>
+  <si>
+    <t>O questionário foi aplicado por um pesquisador que, antes de dar autorização aos respondentes para iniciarem o preenchimento do questionário, os instruiu sobre como preenchê-lo corretamente.</t>
+  </si>
+  <si>
+    <t>Os procedimentos de teste e reteste foram realizados em agosto e setembro de 2011 na área urbana de Teutônia</t>
+  </si>
+  <si>
+    <t>tinha 11 escolas primárias das quais 2 foram selecionadas aleatoriamente</t>
+  </si>
+  <si>
+    <t>Os sujeitos que participaram deste procedimento de reprodutibilidade foram selecionados de acordo com os seguintes critérios: (1) serem alunos regulares do 5º, 6º, 7º ou 8º ano do ensino fundamental; (2) terem idade entre 11 e 16 anos.</t>
+  </si>
+  <si>
+    <t>Um total de 260 alunos do ensino primário (143 rapazes, 55%; 117 raparigas, 45%), a prevalência relatada de dor nas costas foi de 44,6%.</t>
+  </si>
+  <si>
+    <t>As sugestões e críticas correspondentes foram levadas em consideração na elaboração da segunda versão do BackPEI. Dentre elas, destacam-se a necessidade de aprimorar a estrutura das perguntas, incluir mais alternativas de resposta para algumas perguntas, aprimorar a qualidade das imagens, alterar algumas das imagens, alterar o mobiliário utilizado nas imagens e elaborar um BackPEI específico para cada sexo, a fim de facilitar a identificação dos escolares com as imagens contidas no questionário.</t>
+  </si>
+  <si>
+    <t>(especialistas solicitaram) incluir mais alternativas de resposta para algumas perguntas</t>
+  </si>
+  <si>
+    <t>Os especialistas (3 deles) sugeriram que uma escala numérica deveria ser incluída, o que transformaria a EVA em uma escala numérica de dor. (e foi recusado pelos autores)</t>
+  </si>
+  <si>
+    <t>o presente estudo buscou produzir o BackPEI, especificamente para o ambiente escolar</t>
+  </si>
+  <si>
+    <t>A principal contribuição do BackPEI é que ele permite avaliar a postura como fator de risco para dor nas costas</t>
+  </si>
+  <si>
+    <t>Em uma revisão sistemática das propriedades psicométricas, interpretabilidade e viabilidade de medidas de intensidade de dor autorrelatadas, Stinson et al. (2006) corroboram nossos achados, afirmando que a EVA é o melhor meio de obter dados sobre a intensidade da dor e confirmam que ela tem boa validade e reprodutibilidade para crianças a partir de 8 anos de idade.</t>
+  </si>
+  <si>
+    <t>Esses resultados (da reprodutibilidade) sugerem que as questões formuladas são objetivas e de fácil compreensão, expressando a percepção dos respondentes com alto grau de certeza.</t>
+  </si>
+  <si>
+    <t>A postura sentada, seja assistindo TV, usando o computador ou mesmo conversando, parece depender de uma percepção de que o corpo nem sempre reflete fielmente a autoimagem formada pelos escolares. Em contrapartida, a postura adotada ao carregar o material escolar não parece refletir a mesma dúvida, pois há um alto grau de reprodutibilidade. A literatura tem demonstrado que a forma de carregar o material escolar parece ser bem assimilada pelos escolares, não deixando dúvidas quanto à sua execução.</t>
+  </si>
+  <si>
+    <t>As questões que envolvem a percepção temporal de uma determinada atividade (questões 4 e 8) também estão entre aquelas com os menores escores de reprodutibilidade. Sabe-se que a percepção subjetiva de um indivíduo sobre o tempo gasto em atividades específicas é altamente dependente de fatores como motivação, interesse e satisfação.</t>
+  </si>
+  <si>
+    <t>No entanto, o BackPEI apresenta algumas limitações: (1) até o momento não foi avaliada a reprodutibilidade da versão em inglês, (2) a postura adotada no transporte do material escolar baseia-se unicamente na utilização da mochila com duas alças de transporte</t>
+  </si>
+  <si>
+    <t>No entanto, o BackPEI apresenta algumas limitações: (3) não avalia a postura durante atividades como assistir televisão ou jogar videogame, comuns entre crianças em idade escolar.</t>
+  </si>
+  <si>
+    <t>facilita o acesso ao seu conteúdo por outros pesquisadores (por isso traduzido para o inglês)</t>
+  </si>
+  <si>
+    <t>O BackPEI pode ser aplicado em estudos projetados para avaliar a dor nas costas e seus fatores de risco associados, particularmente, má postura nas AVDs em crianças em idade escolar em diferentes regiões do mundo.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -984,13 +1168,58 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1005,7 +1234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1045,19 +1274,55 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1341,9 +1606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,6 +1620,7 @@
     <col min="6" max="6" width="76" style="5" customWidth="1"/>
     <col min="7" max="7" width="55.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="39.7109375" style="3" customWidth="1"/>
+    <col min="9" max="12" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1384,10 +1650,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="16">
         <v>2013</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -1410,8 +1676,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="15"/>
       <c r="D3" s="3">
         <v>2</v>
@@ -1427,8 +1693,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="15"/>
       <c r="D4" s="3">
         <v>3</v>
@@ -1444,8 +1710,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="15"/>
       <c r="D5" s="3">
         <v>4</v>
@@ -1457,8 +1723,8 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="15"/>
       <c r="D6" s="3">
         <v>5</v>
@@ -1470,8 +1736,8 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="15"/>
       <c r="D7" s="3">
         <v>6</v>
@@ -1479,7 +1745,7 @@
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="14" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1487,8 +1753,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="15"/>
       <c r="D8" s="3">
         <v>7</v>
@@ -1496,12 +1762,12 @@
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="17"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="15"/>
       <c r="D9" s="3">
         <v>8</v>
@@ -1509,14 +1775,14 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="15"/>
       <c r="D10" s="3">
         <v>9</v>
@@ -1530,8 +1796,8 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="15"/>
       <c r="D11" s="3">
         <v>10</v>
@@ -1543,8 +1809,8 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="15"/>
       <c r="D12" s="3">
         <v>11</v>
@@ -1560,8 +1826,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="15"/>
       <c r="D13" s="3">
         <v>12</v>
@@ -1598,10 +1864,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="17">
         <v>2018</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -1613,7 +1879,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="14" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1624,8 +1890,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="15"/>
       <c r="D16" s="3">
         <v>2</v>
@@ -1633,14 +1899,14 @@
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="15"/>
       <c r="D17" s="3">
         <v>3</v>
@@ -1648,14 +1914,14 @@
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="15"/>
       <c r="D18" s="3">
         <v>4</v>
@@ -1671,8 +1937,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="15"/>
       <c r="D19" s="3">
         <v>5</v>
@@ -1688,8 +1954,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="15"/>
       <c r="D20" s="3">
         <v>6</v>
@@ -1702,8 +1968,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="15"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
@@ -1739,10 +2005,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="17">
         <v>2019</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -1762,8 +2028,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="15"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
@@ -1776,8 +2042,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="15"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
@@ -1790,8 +2056,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="15"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
@@ -1804,8 +2070,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="15"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
@@ -1818,10 +2084,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="18">
         <v>2021</v>
       </c>
       <c r="C28" s="15" t="s">
@@ -1841,8 +2107,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="15"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
@@ -1856,8 +2122,8 @@
       <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="15"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
@@ -2049,6 +2315,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -2057,16 +2330,291 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E623474-3705-4594-B9DF-AE0ADD157849}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="26"/>
+    <col min="2" max="2" width="59.85546875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" style="28" customWidth="1"/>
+    <col min="4" max="4" width="59.85546875" style="29" customWidth="1"/>
+    <col min="5" max="5" width="59.85546875" style="30" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C9" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C10" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C11" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="C13" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C14" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C15" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C16" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C17" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C18" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="E19" s="30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="E20" s="30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="E21" s="30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E23" s="30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E24" s="30" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E25" s="30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E26" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="E27" s="30" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="E28" s="30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E29" s="30" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="E30" s="30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="E31" s="30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E32" s="30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1CC2185-CCD0-4DDB-8285-6B0ABE2330F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC30347-4FE1-470F-9C0D-CA5445B2E318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descritivos" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="212">
   <si>
     <t>Autor</t>
   </si>
@@ -1093,6 +1093,72 @@
   </si>
   <si>
     <t>O BackPEI pode ser aplicado em estudos projetados para avaliar a dor nas costas e seus fatores de risco associados, particularmente, má postura nas AVDs em crianças em idade escolar em diferentes regiões do mundo.</t>
+  </si>
+  <si>
+    <t>Antoniolli et al. 2015</t>
+  </si>
+  <si>
+    <t>Hábitos posturais referem-se ao uso mecânico do corpo durante as atividades da vida diária; um hábito postural adequado é considerado aquele que preserva as curvaturas fisiológicas da coluna sem exceder o limite fisiológico do indivíduo. Caso contrário, o hábito postural é considerado inadequado.</t>
+  </si>
+  <si>
+    <t>É fundamental investigar e avaliar os hábitos diários relacionados à postura corporal dos alunos, não apenas para refletir sobre o planejamento das aulas de educação física e das turmas escolares como um todo, mas também para ter um diagnóstico precoce que auxilie na execução desse planejamento. Esse tipo de informação pode orientar intervenções para reeducação postural e, a longo prazo, contribuir para que os adultos tenham um padrão postural adequado, reduzindo, assim, as chances de desenvolverem problemas posturais.</t>
+  </si>
+  <si>
+    <t>A grande vantagem da avaliação por questionário é a sua fácil aplicação e baixo custo</t>
+  </si>
+  <si>
+    <t>A maior vantagem da avaliação dinâmica por meio de filmagens é o fato de avaliar a execução do movimento; o questionário depende da percepção do próprio respondente.</t>
+  </si>
+  <si>
+    <t>independentemente do instrumento de avaliação utilizado para pesquisar hábitos posturais, os resultados devem ser semelhantes</t>
+  </si>
+  <si>
+    <t>os seguintes DLAs: sentar para escrever, sentar para usar o computador, pegar um objeto do chão e carregar uma mochila</t>
+  </si>
+  <si>
+    <t>A amostra do estudo foi composta por 58 alunos, sendo 34 meninos e 24 meninas, com média de idade de 12,94 ± 1,22 anos.</t>
+  </si>
+  <si>
+    <t>Os critérios de inclusão são os seguintes: (a) frequentar regularmente o ensino fundamental, (b) ter entre 11 e 15 anos de idade</t>
+  </si>
+  <si>
+    <t>Os critérios de inclusão são os seguintes: ser capaz de realizar a avaliação das tarefas LADy e compreender as questões do BackPEI</t>
+  </si>
+  <si>
+    <t>Algumas questões do BackPEI apresentam alternativas, ilustradas com imagens, onde o respondente deve marcar a postura que mais se assemelha à sua.</t>
+  </si>
+  <si>
+    <t>Das imagens apresentadas nessas questões, apenas uma representa uma postura adequada para a realização das AVDs, e todas as outras são consideradas inadequadas.</t>
+  </si>
+  <si>
+    <t>Tabela 3: opções de resposta de algumas questões do BackPEI</t>
+  </si>
+  <si>
+    <t>Tabela 5: os valores estão divididos entre adequados e inadequados</t>
+  </si>
+  <si>
+    <t>Valores de %C, kappa e chi-quadrado</t>
+  </si>
+  <si>
+    <t>Os níveis de concordância encontrados entre o BackPEI e o LADy foram superiores a 80% (Tabela 5). Os valores encontrados pelo coeficiente Kappa e interpretados segundo Landis e Koch (1997) variaram de moderado (0,483 na AVD correspondente a sentar para usar o computador) a excelente (0,962 na AVD correspondente a pegar um objeto do chão adequadamente). Há também associação significativa entre os dois instrumentos de avaliação em todas as AVD (Tabela 5).</t>
+  </si>
+  <si>
+    <t>Os resultados indicam que o BackPEI e o LADy avaliam a postura dinâmica dos alunos de forma semelhante</t>
+  </si>
+  <si>
+    <t>Ao analisar o número de alunos que marcaram a alternativa que apresenta a execução correta da AVD de sentar para usar o computador no BackPEI (n = 10) e o número de alunos que praticaram a AVD adequadamente no LADy (n = 1), houve uma diferença de 15,5% nos resultados apresentados por ambos os instrumentos e um coeficiente Kappa igual a 0,483, classificado como moderado. Essa discrepância indica que os resultados foram superestimados pelo BackPEI em relação ao LADy. Um dos fatores para essa diferença pode ser o fato de o questionário ser dependente da percepção corporal do indivíduo, ou seja, o respondente marca a alternativa que mais se assemelha àquela que ele acredita praticar.</t>
+  </si>
+  <si>
+    <t>Apesar dos resultados posturais semelhantes fornecidos por ambos os instrumentos, é importante destacar que o BackPEI e o LADy diferem metodologicamente e apresentam limitações e vantagens de naturezas distintas</t>
+  </si>
+  <si>
+    <t>Por exemplo, o BackPEI não depende de avaliação por um profissional, pois se baseia na percepção corporal e sua transferência para o questionário pelo respondente.</t>
+  </si>
+  <si>
+    <t>o BackPEI tende a superestimar os resultados em relação ao LADy</t>
+  </si>
+  <si>
+    <t>o questionário é considerado um instrumento adequado para estudos como estudos epidemiológicos, estudos de delineamento longitudinal, estudos de base populacional ou estudos com grandes amostras</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1230,11 +1296,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1273,55 +1357,82 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1650,13 +1761,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="30">
         <v>2013</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3">
@@ -1676,9 +1787,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="15"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
@@ -1693,9 +1804,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="15"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
@@ -1710,9 +1821,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="15"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -1723,9 +1834,9 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="15"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
@@ -1736,16 +1847,16 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="15"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="27"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="29" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1753,37 +1864,37 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="15"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="15"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="29"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="15"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
@@ -1796,9 +1907,9 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="15"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
@@ -1809,9 +1920,9 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="15"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
@@ -1826,9 +1937,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="15"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
@@ -1864,13 +1975,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="28">
         <v>2018</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="27" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="3">
@@ -1879,7 +1990,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="29" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -1890,39 +2001,39 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="14"/>
+      <c r="F16" s="29"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="29"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="3">
         <v>4</v>
       </c>
@@ -1937,9 +2048,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="3">
         <v>5</v>
       </c>
@@ -1954,9 +2065,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="15"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="3">
         <v>6</v>
       </c>
@@ -1968,9 +2079,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="27"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
@@ -2005,13 +2116,13 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="28">
         <v>2019</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="27" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -2028,9 +2139,9 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="27"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
@@ -2042,9 +2153,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="15"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="27"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
       </c>
@@ -2056,9 +2167,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="15"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="27"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
       </c>
@@ -2070,9 +2181,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="15"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="27"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
@@ -2084,13 +2195,13 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="18">
+      <c r="B28" s="26">
         <v>2021</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="27" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -2102,14 +2213,14 @@
       <c r="G28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="27" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="15"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
       </c>
@@ -2119,12 +2230,12 @@
       <c r="G29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="15"/>
+      <c r="H29" s="27"/>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="15"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
       </c>
@@ -2134,7 +2245,7 @@
       <c r="G30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="15"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2315,13 +2426,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -2330,6 +2434,13 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2339,281 +2450,404 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E623474-3705-4594-B9DF-AE0ADD157849}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="26"/>
-    <col min="2" max="2" width="59.85546875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="59.85546875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="59.85546875" style="29" customWidth="1"/>
-    <col min="5" max="5" width="59.85546875" style="30" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="19"/>
+    <col min="1" max="1" width="19.7109375" style="21" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="59.85546875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="59.85546875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="59.85546875" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22" t="s">
+    <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="20" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="25" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="25" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="32"/>
+      <c r="B4" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="25" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="25" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="25" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="25" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="25" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C9" s="28" t="s">
+      <c r="A9" s="32"/>
+      <c r="C9" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E9" s="25" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C10" s="28" t="s">
+      <c r="A10" s="32"/>
+      <c r="C10" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="25" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C11" s="28" t="s">
+      <c r="A11" s="32"/>
+      <c r="C11" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="25" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C12" s="28" t="s">
+      <c r="A12" s="32"/>
+      <c r="C12" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="E12" s="25" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="C13" s="28" t="s">
+      <c r="A13" s="32"/>
+      <c r="C13" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" s="25" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C14" s="28" t="s">
+      <c r="A14" s="32"/>
+      <c r="C14" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" s="25" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C15" s="28" t="s">
+      <c r="A15" s="32"/>
+      <c r="C15" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="25" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C16" s="28" t="s">
+      <c r="A16" s="32"/>
+      <c r="C16" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="25" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C17" s="28" t="s">
+    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="C17" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="25" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C18" s="28" t="s">
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="C18" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="25" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="E19" s="30" t="s">
+    <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="E19" s="25" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="3:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="E20" s="30" t="s">
+    <row r="20" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="E20" s="25" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="E21" s="30" t="s">
+    <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="E21" s="25" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="30" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="E22" s="25" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="E23" s="30" t="s">
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="E23" s="25" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="E24" s="30" t="s">
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="E24" s="25" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="E25" s="30" t="s">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="E25" s="25" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="E26" s="30" t="s">
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="E26" s="25" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="3:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="E27" s="30" t="s">
+    <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" s="32"/>
+      <c r="E27" s="25" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="3:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="E28" s="30" t="s">
+    <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="32"/>
+      <c r="E28" s="25" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="3:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="E29" s="30" t="s">
+    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="32"/>
+      <c r="E29" s="25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="3:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="E30" s="30" t="s">
+    <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="E30" s="25" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="3:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="E31" s="30" t="s">
+    <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="32"/>
+      <c r="E31" s="25" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="32" spans="3:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="E32" s="30" t="s">
+    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="39"/>
+      <c r="E32" s="35" t="s">
         <v>186</v>
       </c>
     </row>
+    <row r="33" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B34" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C35" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C36" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C37" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C38" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="C39" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E40" s="25" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E41" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E42" s="25" t="s">
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A32"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC30347-4FE1-470F-9C0D-CA5445B2E318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BEC176-FAB2-4EA9-A8EE-1A6871AB5D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="219">
   <si>
     <t>Autor</t>
   </si>
@@ -1159,6 +1159,27 @@
   </si>
   <si>
     <t>o questionário é considerado um instrumento adequado para estudos como estudos epidemiológicos, estudos de delineamento longitudinal, estudos de base populacional ou estudos com grandes amostras</t>
+  </si>
+  <si>
+    <t>Pivotto et al., 2018</t>
+  </si>
+  <si>
+    <t>utilizar questionários, pela facilidade de aplicação, baixo custo e possibilidade de auto-relato dos avaliados</t>
+  </si>
+  <si>
+    <t>Somente o BackPEI-A apresenta um sistema de pontuação que indica o nível de exposição dos fatores de risco para o desenvolvimento de dor nas costas</t>
+  </si>
+  <si>
+    <t>O sistema de pontuação geral proposto para o BackPEI envolve apenas as questões relacionadas aos fatores de risco para o desenvolvimento de dor nas costas em crianças e adolescentes, como: prática de exercícios físicos (questões 1 e 3); tempo gasto assistindo televisão (questão 4) e usando computador (questão 5); número de horas de sono (questão 8) e hábito de ler/estudar na cama (questão 6); ocorrência de dor nas costas entre os pais (questão 17); postura adotada para dormir (questão 7); sentar na cadeira (questão 10), escrever (questão 9), usar computador (questão 11) e levantar um objeto do chão (questão 12); mochila utilizada para transportar material e meio de transporte mochila (questões 13 e 14); e escolaridade dos pais (questões 15 e 16).</t>
+  </si>
+  <si>
+    <t>Na questão 1, a resposta afirmativa pontua 1, enquanto a resposta negativa pontua 0. A questão 2 não pontua. Nas questões 3, 6 e 17, a resposta afirmativa pontua 0 e a resposta negativa pontua 1. Nas questões 4 e 5, as opções contendo até 3 horas por dia pontuam 1 e as opções a partir de 4 horas por dia pontuam 0. Na questão 7, a opção “de bruços (de bruços)” pontua 0, enquanto as outras opções pontuam 1. Na questão 8, as opções contendo menos de 7 horas de sono por noite pontuam 0 e as outras opções pontuam 1. Nas questões 9 a 12 e 14, as posturas adequadas pontuam 1 e as posturas inadequadas pontuam 0. Nessas questões, apenas uma opção é considerada adequada. Na questão 13, as opções contendo mochila com 2 alças, mochila com 1 alça e mochila com rodinhas pontuam 1, enquanto as demais opções pontuam 0. Nas questões 15 e 16, as opções “ensino superior (Universidade)” e “ensino médio (1ª à 3ª série)” pontuam 1, e as demais opções pontuam 0. A pontuação final é resultante da soma de todas as pontuações (máximo de 16 pontos). Quanto maior a pontuação, menor é a exposição aos fatores de risco para o desenvolvimento de dor nas costas.</t>
+  </si>
+  <si>
+    <t>the BackPEI questionnaire now has available a general score system</t>
+  </si>
+  <si>
+    <t>Este escore visa expressar o quanto o escolar avaliado está exposto a fatores de risco relacionados ao desenvolvimento de dor nas costas</t>
   </si>
 </sst>
 </file>
@@ -1318,7 +1339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1393,46 +1414,52 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1761,13 +1788,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="34">
         <v>2013</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="33" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3">
@@ -1787,9 +1814,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="27"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
@@ -1804,9 +1831,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="27"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
@@ -1821,9 +1848,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="27"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -1834,9 +1861,9 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="27"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
@@ -1847,16 +1874,16 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="32" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1864,37 +1891,37 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="27"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="29"/>
+      <c r="F8" s="32"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="29"/>
+      <c r="F9" s="32"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
@@ -1907,9 +1934,9 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
@@ -1920,9 +1947,9 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
@@ -1937,9 +1964,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
@@ -1975,13 +2002,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="35">
         <v>2018</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="3">
@@ -1990,7 +2017,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="32" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -2001,39 +2028,39 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="29"/>
+      <c r="F16" s="32"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="27"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="3">
         <v>4</v>
       </c>
@@ -2048,9 +2075,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="27"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="3">
         <v>5</v>
       </c>
@@ -2065,9 +2092,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="3">
         <v>6</v>
       </c>
@@ -2079,9 +2106,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="27"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="33"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
@@ -2116,13 +2143,13 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="35">
         <v>2019</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="33" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -2139,9 +2166,9 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="33"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
@@ -2153,9 +2180,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="27"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="33"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
       </c>
@@ -2167,9 +2194,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="27"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="33"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
       </c>
@@ -2181,9 +2208,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="27"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="33"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
@@ -2195,13 +2222,13 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="36">
         <v>2021</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="33" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -2213,14 +2240,14 @@
       <c r="G28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="33" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="33"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
       </c>
@@ -2230,12 +2257,12 @@
       <c r="G29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="27"/>
+      <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="27"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="33"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
       </c>
@@ -2245,7 +2272,7 @@
       <c r="G30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="27"/>
+      <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2426,6 +2453,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -2434,13 +2468,6 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2450,11 +2477,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E623474-3705-4594-B9DF-AE0ADD157849}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2483,7 +2510,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="37" t="s">
         <v>133</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -2500,7 +2527,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="22" t="s">
         <v>143</v>
       </c>
@@ -2515,7 +2542,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="22" t="s">
         <v>144</v>
       </c>
@@ -2530,7 +2557,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="22" t="s">
         <v>147</v>
       </c>
@@ -2545,7 +2572,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="22" t="s">
         <v>181</v>
       </c>
@@ -2557,7 +2584,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="22" t="s">
         <v>188</v>
       </c>
@@ -2569,7 +2596,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="22" t="s">
         <v>189</v>
       </c>
@@ -2581,7 +2608,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="37"/>
       <c r="C9" s="23" t="s">
         <v>148</v>
       </c>
@@ -2590,7 +2617,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="37"/>
       <c r="C10" s="23" t="s">
         <v>148</v>
       </c>
@@ -2599,7 +2626,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="37"/>
       <c r="C11" s="23" t="s">
         <v>149</v>
       </c>
@@ -2608,7 +2635,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="37"/>
       <c r="C12" s="23" t="s">
         <v>159</v>
       </c>
@@ -2617,7 +2644,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="37"/>
       <c r="C13" s="23" t="s">
         <v>160</v>
       </c>
@@ -2626,7 +2653,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="37"/>
       <c r="C14" s="23" t="s">
         <v>161</v>
       </c>
@@ -2635,7 +2662,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="37"/>
       <c r="C15" s="23" t="s">
         <v>164</v>
       </c>
@@ -2644,7 +2671,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="37"/>
       <c r="C16" s="23" t="s">
         <v>175</v>
       </c>
@@ -2653,7 +2680,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="37"/>
       <c r="C17" s="23" t="s">
         <v>180</v>
       </c>
@@ -2662,7 +2689,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="37"/>
       <c r="C18" s="23" t="s">
         <v>187</v>
       </c>
@@ -2671,108 +2698,109 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="37"/>
       <c r="E19" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="37"/>
       <c r="E20" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="37"/>
       <c r="E21" s="25" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
+      <c r="A22" s="37"/>
       <c r="E22" s="25" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
+      <c r="A23" s="37"/>
       <c r="E23" s="25" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="32"/>
+      <c r="A24" s="37"/>
       <c r="E24" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="32"/>
+      <c r="A25" s="37"/>
       <c r="E25" s="25" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="32"/>
+      <c r="A26" s="37"/>
       <c r="E26" s="25" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
+      <c r="A27" s="37"/>
       <c r="E27" s="25" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
+      <c r="A28" s="37"/>
       <c r="E28" s="25" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
+      <c r="A29" s="37"/>
       <c r="E29" s="25" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
+      <c r="A30" s="37"/>
       <c r="E30" s="25" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
+      <c r="A31" s="37"/>
       <c r="E31" s="25" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="39"/>
-      <c r="E32" s="35" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="31"/>
+      <c r="E32" s="27" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="E33" s="34" t="s">
+      <c r="E33" s="26" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="37"/>
       <c r="B34" s="22" t="s">
         <v>211</v>
       </c>
@@ -2787,6 +2815,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="37"/>
       <c r="C35" s="23" t="s">
         <v>196</v>
       </c>
@@ -2798,6 +2827,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="37"/>
       <c r="C36" s="23" t="s">
         <v>197</v>
       </c>
@@ -2806,6 +2836,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="37"/>
       <c r="C37" s="23" t="s">
         <v>198</v>
       </c>
@@ -2814,6 +2845,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="37"/>
       <c r="C38" s="23" t="s">
         <v>204</v>
       </c>
@@ -2822,6 +2854,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A39" s="37"/>
       <c r="C39" s="23" t="s">
         <v>205</v>
       </c>
@@ -2830,23 +2863,56 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="37"/>
       <c r="E40" s="25" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="37"/>
       <c r="E41" s="25" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="E42" s="25" t="s">
+      <c r="A42" s="38"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="27" t="s">
         <v>210</v>
       </c>
     </row>
+    <row r="43" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A43" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" s="40"/>
+      <c r="C43" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="C44" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C45" s="23" t="s">
+        <v>218</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A32"/>
+    <mergeCell ref="A33:A42"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BEC176-FAB2-4EA9-A8EE-1A6871AB5D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0046901C-4C1B-4138-93FA-62F809ADCAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="267">
   <si>
     <t>Autor</t>
   </si>
@@ -1180,6 +1180,150 @@
   </si>
   <si>
     <t>Este escore visa expressar o quanto o escolar avaliado está exposto a fatores de risco relacionados ao desenvolvimento de dor nas costas</t>
+  </si>
+  <si>
+    <t>Candotti et al., 2018</t>
+  </si>
+  <si>
+    <t>Como a evolução da dor e das alterações posturais é muitas vezes assintomática, estes problemas relacionados com a dor afetam o desempenho das atividades da vida diária (AVD) e podem, como no caso da dor lombar, levar à incapacidade temporária.</t>
+  </si>
+  <si>
+    <t>Na literatura, tanto a dor quanto a alteração postural têm sido relacionadas a fatores de risco como gênero, idade, parâmetros antropométricos, mobilidade da coluna, degeneração vertebral, profissão, prática de exercícios físicos, tempo em frente ao computador, tempo de sono, acidentes automobilísticos e hábitos posturais adotados nas AVDs.</t>
+  </si>
+  <si>
+    <t>investigando os fatores de risco associados à dor lombar, dor no pescoço e alterações posturais em populações distintas.</t>
+  </si>
+  <si>
+    <t>(BackPEI) é o único instrumento desenvolvido para avaliar conjuntamente a presença de dor nas costas e seus fatores de risco associados (demográficos, socioeconômicos, genéticos, comportamentais e posturais)</t>
+  </si>
+  <si>
+    <t>Entretanto, o BackPEI foi desenvolvido e validado exclusivamente para avaliar crianças em idade escolar (1116 anos de idade) e não considera dor na região cervical da coluna vertebral</t>
+  </si>
+  <si>
+    <t>Tal instrumento poderia ser usado em estudos transversais, epidemiológicos, longitudinais ou observacionais que buscam identificar os fatores de risco associados à dor.</t>
+  </si>
+  <si>
+    <t>A versão expandida do BackPEI para adultos (BackPEIA) foi desenvolvida em seis etapas: (1) modificação das questões originais; (2) exclusão de algumas das questões originais; (3) inclusão de novas questões; (4) revisão do questionário por especialistas da área e elaboração da versão final; (5) verificação da reprodutibilidade do instrumento; e (6) tradução para o inglês.</t>
+  </si>
+  <si>
+    <t>Na tentativa de identificar os fatores de risco de dor lombar e cervical em adultos, nos estágios 1-3, a decisão de manter, modificar, excluir ou incluir perguntas do BackPEI original no BackPEI-A foi baseada na experiência clínica prática dos autores, juntamente com um levantamento bibliográfico</t>
+  </si>
+  <si>
+    <t>Demográficos (Idade e sexo); Comportamentais (Regularidade da prática de exercícios físicos e se praticados competitivamente, Número de horas diárias assistindo televisão e usando o computador, Número de horas dormindo e hábito de ler na cama, Postura em relação ao sono, sentar na cadeira para escrever, sentar na cadeira para conversar, usar o computador e levantar um objeto do chão, Envolvimento em acidente de carro); Socioeconômicos (Tipo de escola e escolaridade dos pais e/ou responsáveis)</t>
+  </si>
+  <si>
+    <t>Na primeira etapa, a modificação das questões 1 a 20 do BackPEI original envolveu a substituição de palavras referentes ao ambiente escolar, como "brincar" e "estudar", por palavras como "trabalhar" e "ler". Além disso, as imagens de crianças nas questões 9 a 12 do BackPEI original foram substituídas por imagens de adultos, e o número de opções posturais foi reduzido. Dez questões do BackPEI original referentes à prática de exercícios físicos, hábitos de vida e presença, frequência e intensidade de dor nas costas foram mantidas.</t>
+  </si>
+  <si>
+    <t>Na segunda etapa, foram excluídas as questões 13 a 17 do BackPEI original, referentes ao transporte de material escolar, escolaridade dos pais e histórico de dor dos pais.</t>
+  </si>
+  <si>
+    <t>Na terceira etapa, foram incluídas cinco novas questões, uma referente a acidentes automobilísticos e quatro referentes à avaliação de dor no pescoço.</t>
+  </si>
+  <si>
+    <t>os especialistas analisaram (1) a clareza, a facilidade de compreensão e a aplicabilidade geral do instrumento expandido;</t>
+  </si>
+  <si>
+    <t>os especialistas analisaram se o instrumento atingiu o objetivo de avaliar a postura corporal nas AVDs a partir de fotografias</t>
+  </si>
+  <si>
+    <t>os especialistas analisaram se o instrumento atingiu o objetivo de avaliar a dor nas costas e no pescoço e seus fatores de risco associados</t>
+  </si>
+  <si>
+    <t>os especialistas foram convidados a avaliar o BackPEI-A como sendo adequado, adequado ou inadequado para uso em pesquisa</t>
+  </si>
+  <si>
+    <t>A versão final do BackPEI-A contém 20 questões. Dezoito questões são fechadas com alternativas de múltipla escolha, nas quais o respondente deve marcar apenas uma alternativa para cada questão. As duas questões restantes (números 16 e 20), referentes à intensidade da dor nas costas e no pescoço, são abertas e envolvem o uso de uma escala visual analógica (EVA).</t>
+  </si>
+  <si>
+    <t>As questões 1 a 12 referem-se aos fatores de risco para dor nas costas e no pescoço (Fig. 1). As questões 13 a 16 referem-se à presença, frequência e intensidade da dor nas costas, e as questões 17 a 20 referem-se à presença, frequência e intensidade da dor no pescoço.</t>
+  </si>
+  <si>
+    <t>Considerando que diferenças de gênero foram identificadas nos hábitos posturais</t>
+  </si>
+  <si>
+    <t>para facilitar a consciência corporal, como no BackPEI original, existem versões separadas do BackPEI-A para homens e mulheres</t>
+  </si>
+  <si>
+    <t>O BackPEI-A aplica um sistema de pontuação geral que envolve exclusivamente perguntas referentes a fatores de risco. A pontuação geral é obtida pela soma de todos os pontos (máximo de 10 pontos). Quanto maior a pontuação obtida, menor a exposição aos fatores de risco de dor.</t>
+  </si>
+  <si>
+    <t>Nas questões 1 a 4, as posturas apropriadas recebem 1 ponto, enquanto as posturas inadequadas recebem 0 ponto. Nessas questões, apenas uma opção é considerada apropriada. Nas questões 5, 8 e 10, as respostas afirmativas recebem 0 ponto e as negativas recebem 1 ponto. Na questão 6, uma resposta afirmativa recebe 1 ponto e uma resposta negativa recebe 0 ponto. As questões 7 e 9 não recebem pontos. Na questão 11, a opção "de bruços" recebe 0 ponto, enquanto as demais opções recebem 1 ponto. Na questão 12, as opções "7, 8 ou 9 horas de sono recebem 1 ponto, enquanto as demais opções recebem 0 ponto.</t>
+  </si>
+  <si>
+    <t>A quinta etapa do desenvolvimento do BackPEIA consistiu em avaliar a reprodutibilidade do instrumento por meio de um procedimento de teste e reteste.</t>
+  </si>
+  <si>
+    <t>Um cálculo amostral foi conduzido de acordo com Sim e Wright (2005). Para detectar um valor de k de 0,80, assumimos o valor da hipótese nula de k como 0,40 (com base em que qualquer valor inferior a 0,40 pode ser considerado "fraco"), 90% de poder e o pior cenário de proporção de avaliações positivas igual a 10%. Consequentemente, um mínimo de 136 indivíduos seria necessário para atingir os objetivos do presente estudo. Permitindo perdas e descontinuação, uma amostra de conveniência composta por 154 indivíduos foi selecionada. Os critérios de inclusão foram idade entre 17 e 80 anos e capacidade de ler e compreender o questionário sem auxílio.</t>
+  </si>
+  <si>
+    <t>Os dados dos procedimentos de teste e reteste do BackPEI-A para as questões 1 a 15 e 17 a 19 foram analisados ​​usando o coeficiente k não ponderado para escalas nominais (categorias não ordenadas)</t>
+  </si>
+  <si>
+    <t>Para que uma questão permanecesse incluída no BackPEI-A, um valor mínimo de k&gt;= 0,5 foi considerado satisfatório</t>
+  </si>
+  <si>
+    <t>A concordância entre o teste e o reteste das questões 16 e 20 (intensidade da dor) foi medida em termos da relação entre as respostas, revelada pelo coeficiente intraclasse (ICC2,2).</t>
+  </si>
+  <si>
+    <t>Os valores encontrados no ICC foram classificados segundo a literatura como fraco (ICC &lt; 0,40), moderado (ICC 1⁄4 0,40-0,75) e excelente (ICC &gt; 0,75).</t>
+  </si>
+  <si>
+    <t>A sexta e última etapa do processo de desenvolvimento do BackPEI-A envolveu a tradução das perguntas para o inglês.</t>
+  </si>
+  <si>
+    <t>O objetivo de ter uma versão em inglês do questionário é, assim como no BackPEI original, garantir maior visibilidade ao instrumento.</t>
+  </si>
+  <si>
+    <t>todas as perguntas podem ser incluídas no BackPEI-A (baseado no kappa e ICC)</t>
+  </si>
+  <si>
+    <t>Embora vários instrumentos possam ser utilizados para avaliar a presença de dor nas costas, a postura adotada nas AVDs como fator de risco raramente é abordada.</t>
+  </si>
+  <si>
+    <t>Embora a qualidade metodológica do BackPEI original seja excelente, o instrumento tem uso limitado à região lombar e ao ambiente escolar</t>
+  </si>
+  <si>
+    <t>the BackPEI-A has been conceived to permit the assessment of both back and neck pain in adults, unrelated to any particular professional environment.</t>
+  </si>
+  <si>
+    <t>Uma de suas vantagens é que ele pode ser usado para avaliar a presença de dores nas costas e no pescoço e seus fatores de risco associados em um único questionário.</t>
+  </si>
+  <si>
+    <t>Os principais resultados, com altas taxas de concordância entre teste e reteste, indicam que o BackPEI-A fornece dados claros e específicos e é aplicável para uso em uma população adulta.</t>
+  </si>
+  <si>
+    <t>(sobre outra pesquisa) No entanto, algumas questões podem ser levantadas em relação ao questionário proposto pelos autores: (1) Não há perguntas especificamente elaboradas para avaliar a dor no pescoço, (2) Não há perguntas especificamente elaboradas para avaliar os hábitos posturais durante as AVDs.</t>
+  </si>
+  <si>
+    <t>(sobre outro questinário) No entanto, algumas questões podem ser levantadas em relação ao questionário proposto pelos autores: o intervalo de teste e reteste foi maior do que o recomendado de 1 semana</t>
+  </si>
+  <si>
+    <t>Em contraste com o ODI e o NDI, o BackPEI-A pode ser visto como um instrumento para identificar primeiramente a presença ou ausência de dor, mas sobretudo para identificar hábitos posturais e fatores de risco relacionados à presença de dor, seja ela localizada no pescoço ou nas costas.</t>
+  </si>
+  <si>
+    <t>Esta característica do BackPEI-A (avaliar tanto dor cervical quanto lombar e seus fatores de risco), que o torna útil em estudos epidemiológicos, não impede seu uso em estudos clínicos. Pode ser utilizado para selecionar indivíduos com dor e também como instrumento de triagem.</t>
+  </si>
+  <si>
+    <t>Realizar um estudo que vise correlacionar a morfologia cervical com fatores comportamentais e/ou dor cervical. Esse tipo de estudo pode auxiliar na escolha de procedimentos terapêuticos.</t>
+  </si>
+  <si>
+    <t>O BackPEI-A apresenta algumas limitações quanto aos fatores de risco comportamentais relacionados às AVDs. (1) Não avalia a postura adotada ao carregar bolsas ou malas e (2) não avalia a postura durante atividades como assistir televisão ou usar tablets e smartphones, comuns atualmente.</t>
+  </si>
+  <si>
+    <t>Além de identificar a presença, a frequência e a intensidade da dor nas costas e no pescoço nos últimos 3 meses, o enfermeiro também será capaz de identificar os principais fatores de risco para a dor, bem como os aspectos comportamentais envolvidos. Além disso, o enfermeiro poderá fornecer orientações sobre o autocuidado no manejo da dor, com base nos resultados obtidos com o instrumento.</t>
+  </si>
+  <si>
+    <t>Dessa forma, o instrumento pode ser considerado uma ferramenta valiosa para os próprios pacientes, pois, ao serem informados dos fatores de risco pelo profissional qualificado, estarão em melhores condições de gerenciar suas AVDs.</t>
+  </si>
+  <si>
+    <t>o instrumento revisado também pode ser útil na condução de pesquisas futuras, como em estudos de caso, estudos comparativos de gênero e estudos intervencionais.</t>
+  </si>
+  <si>
+    <t>Portanto, o BackPEI-A é considerado um questionário reprodutível, válido e relevante para a avaliação de dores nas costas e no pescoço e seus fatores de risco associados, o que também permite a avaliação de hábitos posturais nas AVDs.</t>
+  </si>
+  <si>
+    <t>pode ser aplicável a qualquer ambiente profissional específico onde dores nas costas e no pescoço sejam o foco da prática.</t>
   </si>
 </sst>
 </file>
@@ -1339,7 +1483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1432,20 +1576,26 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1456,10 +1606,16 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1788,13 +1944,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="38">
         <v>2013</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="35" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3">
@@ -1814,9 +1970,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="33"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
@@ -1831,9 +1987,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="33"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
@@ -1848,9 +2004,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="35"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -1861,9 +2017,9 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="33"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
@@ -1874,16 +2030,16 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="33"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="37" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1891,37 +2047,37 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="33"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="32"/>
+      <c r="F8" s="37"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="33"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="32"/>
+      <c r="F9" s="37"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="33"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
@@ -1934,9 +2090,9 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="33"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
@@ -1947,9 +2103,9 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="33"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
@@ -1964,9 +2120,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="33"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="35"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
@@ -2002,13 +2158,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="35">
+      <c r="B15" s="36">
         <v>2018</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="35" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="3">
@@ -2017,7 +2173,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="37" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -2028,39 +2184,39 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="33"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="32"/>
+      <c r="F16" s="37"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="33"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="32"/>
+      <c r="F17" s="37"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="33"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="35"/>
       <c r="D18" s="3">
         <v>4</v>
       </c>
@@ -2075,9 +2231,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="33"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="35"/>
       <c r="D19" s="3">
         <v>5</v>
       </c>
@@ -2092,9 +2248,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="33"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="35"/>
       <c r="D20" s="3">
         <v>6</v>
       </c>
@@ -2106,9 +2262,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="33"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="35"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
@@ -2143,13 +2299,13 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="35">
+      <c r="B23" s="36">
         <v>2019</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="35" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -2166,9 +2322,9 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="33"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="35"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
@@ -2180,9 +2336,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="35"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
       </c>
@@ -2194,9 +2350,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="33"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="35"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
       </c>
@@ -2208,9 +2364,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="35"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
@@ -2222,13 +2378,13 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="34">
         <v>2021</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C28" s="35" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -2240,14 +2396,14 @@
       <c r="G28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="33" t="s">
+      <c r="H28" s="35" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="33"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="35"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
       </c>
@@ -2257,12 +2413,12 @@
       <c r="G29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="33"/>
+      <c r="H29" s="35"/>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="35"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
       </c>
@@ -2272,7 +2428,7 @@
       <c r="G30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="33"/>
+      <c r="H30" s="35"/>
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2453,13 +2609,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -2468,6 +2617,13 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2477,11 +2633,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E623474-3705-4594-B9DF-AE0ADD157849}">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2510,7 +2666,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>133</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -2527,7 +2683,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
+      <c r="A3" s="39"/>
       <c r="B3" s="22" t="s">
         <v>143</v>
       </c>
@@ -2542,7 +2698,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
+      <c r="A4" s="39"/>
       <c r="B4" s="22" t="s">
         <v>144</v>
       </c>
@@ -2557,7 +2713,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
+      <c r="A5" s="39"/>
       <c r="B5" s="22" t="s">
         <v>147</v>
       </c>
@@ -2572,7 +2728,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="22" t="s">
         <v>181</v>
       </c>
@@ -2584,7 +2740,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="22" t="s">
         <v>188</v>
       </c>
@@ -2596,7 +2752,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="22" t="s">
         <v>189</v>
       </c>
@@ -2608,7 +2764,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
+      <c r="A9" s="39"/>
       <c r="C9" s="23" t="s">
         <v>148</v>
       </c>
@@ -2617,7 +2773,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
+      <c r="A10" s="39"/>
       <c r="C10" s="23" t="s">
         <v>148</v>
       </c>
@@ -2626,7 +2782,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
+      <c r="A11" s="39"/>
       <c r="C11" s="23" t="s">
         <v>149</v>
       </c>
@@ -2635,7 +2791,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
+      <c r="A12" s="39"/>
       <c r="C12" s="23" t="s">
         <v>159</v>
       </c>
@@ -2644,7 +2800,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
+      <c r="A13" s="39"/>
       <c r="C13" s="23" t="s">
         <v>160</v>
       </c>
@@ -2653,7 +2809,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
+      <c r="A14" s="39"/>
       <c r="C14" s="23" t="s">
         <v>161</v>
       </c>
@@ -2662,7 +2818,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
+      <c r="A15" s="39"/>
       <c r="C15" s="23" t="s">
         <v>164</v>
       </c>
@@ -2671,7 +2827,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
+      <c r="A16" s="39"/>
       <c r="C16" s="23" t="s">
         <v>175</v>
       </c>
@@ -2680,7 +2836,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
+      <c r="A17" s="39"/>
       <c r="C17" s="23" t="s">
         <v>180</v>
       </c>
@@ -2689,7 +2845,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="39"/>
       <c r="C18" s="23" t="s">
         <v>187</v>
       </c>
@@ -2698,92 +2854,92 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
+      <c r="A19" s="39"/>
       <c r="E19" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
+      <c r="A20" s="39"/>
       <c r="E20" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
+      <c r="A21" s="39"/>
       <c r="E21" s="25" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
+      <c r="A22" s="39"/>
       <c r="E22" s="25" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
+      <c r="A23" s="39"/>
       <c r="E23" s="25" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
+      <c r="A24" s="39"/>
       <c r="E24" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
+      <c r="A25" s="39"/>
       <c r="E25" s="25" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
+      <c r="A26" s="39"/>
       <c r="E26" s="25" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
+      <c r="A27" s="39"/>
       <c r="E27" s="25" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
+      <c r="A28" s="39"/>
       <c r="E28" s="25" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
+      <c r="A29" s="39"/>
       <c r="E29" s="25" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
+      <c r="A30" s="39"/>
       <c r="E30" s="25" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
+      <c r="A31" s="39"/>
       <c r="E31" s="25" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="31"/>
       <c r="E32" s="27" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="41" t="s">
         <v>190</v>
       </c>
       <c r="B33" s="30" t="s">
@@ -2800,7 +2956,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
+      <c r="A34" s="39"/>
       <c r="B34" s="22" t="s">
         <v>211</v>
       </c>
@@ -2815,7 +2971,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
+      <c r="A35" s="39"/>
       <c r="C35" s="23" t="s">
         <v>196</v>
       </c>
@@ -2827,7 +2983,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="37"/>
+      <c r="A36" s="39"/>
       <c r="C36" s="23" t="s">
         <v>197</v>
       </c>
@@ -2836,7 +2992,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="37"/>
+      <c r="A37" s="39"/>
       <c r="C37" s="23" t="s">
         <v>198</v>
       </c>
@@ -2845,7 +3001,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
+      <c r="A38" s="39"/>
       <c r="C38" s="23" t="s">
         <v>204</v>
       </c>
@@ -2854,7 +3010,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
+      <c r="A39" s="39"/>
       <c r="C39" s="23" t="s">
         <v>205</v>
       </c>
@@ -2863,29 +3019,29 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
+      <c r="A40" s="39"/>
       <c r="E40" s="25" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
+      <c r="A41" s="39"/>
       <c r="E41" s="25" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
-      <c r="D42" s="41"/>
+      <c r="A42" s="40"/>
+      <c r="D42" s="33"/>
       <c r="E42" s="27" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="B43" s="40"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="29" t="s">
         <v>214</v>
       </c>
@@ -2897,6 +3053,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A44" s="42"/>
       <c r="C44" s="23" t="s">
         <v>215</v>
       </c>
@@ -2905,14 +3062,205 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C45" s="23" t="s">
+      <c r="A45" s="42"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="43" t="s">
         <v>218</v>
       </c>
     </row>
+    <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="E46" s="45" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="B47" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="B48" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B49" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B50" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B51" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B52" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B53" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B54" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B55" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B56" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B57" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="B58" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B59" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E60" s="25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E61" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E62" s="25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E63" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E64" s="25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E65" s="25" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E66" s="25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E67" s="25" t="s">
+        <v>261</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A32"/>
     <mergeCell ref="A33:A42"/>
+    <mergeCell ref="A43:A45"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0046901C-4C1B-4138-93FA-62F809ADCAA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB75DD8-C9A8-4F3B-A9CA-46AAA6F38BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="279">
   <si>
     <t>Autor</t>
   </si>
@@ -877,9 +877,6 @@
     <t>Validade de critério (concorrente)</t>
   </si>
   <si>
-    <t>139 estudantes / Associação entre a intensidade da dor e  / Correlação de Spearman</t>
-  </si>
-  <si>
     <t>139 estudantes / KMO (&lt;0,5) e teste de esfericidade de Bartlett (p&gt;0,05)</t>
   </si>
   <si>
@@ -1324,6 +1321,54 @@
   </si>
   <si>
     <t>pode ser aplicável a qualquer ambiente profissional específico onde dores nas costas e no pescoço sejam o foco da prática.</t>
+  </si>
+  <si>
+    <t>O risco de desenvolver dor nas costas durante a adolescência é atribuído a causas multifatoriais, como gênero, idade, atividade física intensa, tabagismo, ansiedade e depressão, além da presença de lombalgia na família (1). No entanto, fatores ambientais nas escolas também influenciam significativamente a dor nas costas durante esse período. Esses fatores incluem estilos de vida sedentários na escola, períodos prolongados sentados, uso excessivo de computadores, hábitos de carregar bolsas pesadas e inadequadas, distúrbios posturais típicos dessa idade e deformidades da coluna vertebral, como cifose, escoliose ou escápula alada, que podem se desenvolver nessa idade. Além disso, a falta de condições ergonômicas nas carteiras e cadeiras escolares desempenha um papel importante na dor nas costas em adolescentes.</t>
+  </si>
+  <si>
+    <t>Bebiş e Gençbaş 2019</t>
+  </si>
+  <si>
+    <t>Além de ferramentas que fornecem dados quantitativos para medir problemas como questões posturais e sintomas de dor nas costas em adolescentes, raramente há ferramentas desenvolvidas para obter dados qualitativos.</t>
+  </si>
+  <si>
+    <t>A literature review in Turkey revealed a lack of tools specifically designed to obtain data related to back pain and posture for the adolescent group</t>
+  </si>
+  <si>
+    <t>O Instrumento de Avaliação de Dor nas Costas e Postura Corporal (BackPEI) foi desenvolvido por Noll, Candotti, Vieira e Loss (2012) para avaliar os hábitos comportamentais e posturais de estudantes e a frequência de dor nas costas (12). Este instrumento é composto por seis seções:
+- Dados demográficos (idade e sexo),
+- Nível socioeconômico (questões como nível de escolaridade dos pais),
+- Fatores comportamentais (atividade física, leitura na cama, horas gastas assistindo TV ou usando o computador diariamente, duração do sono diário),
+- Dor nas costas nos últimos três meses (ocorrência, frequência e intensidade),
+- Fatores posturais (postura sentada ao usar o computador ou escrever, postura sentada em sala de aula, método de transporte de materiais escolares, posição para dormir),
+- Fatores genéticos (presença de dor nas costas nos pais).</t>
+  </si>
+  <si>
+    <t>139 estudantes / Associação entre a intensidade da dor e presençã da dor / Correlação de Spearman</t>
+  </si>
+  <si>
+    <t>A validade da escala em turco foi assegurada por cinco professores especialistas na área e proficientes em inglês, que a traduziram para o turco. Um professor de língua turca avaliou sua gramática e compreensibilidade em turco.</t>
+  </si>
+  <si>
+    <t>Como a escala não é do tipo Likert, a análise fatorial — normalmente necessária para avaliar a validade de construto — não foi realizada. Em vez disso, a adequação dos dados para a análise fatorial foi examinada usando o coeficiente de Kaiser-Meyer-Olkin (KMO) e o Teste de Esfericidade de Bartlett.</t>
+  </si>
+  <si>
+    <t>No estudo de confiabilidade, foram avaliados o coeficiente alfa de Cronbach, a correlação entre itens totais e o coeficiente de confiabilidade teste-reteste (coeficiente kappa). O teste t foi realizado em grupos dependentes para avaliar os resultados do teste-reteste. Os dados foram avaliados com um intervalo de confiança de 95% e um nível de significância estatística de p&lt;0,05.</t>
+  </si>
+  <si>
+    <t>Posteriormente, cinco especialistas (um professor de saúde pública, um professor associado e um professor assistente de enfermagem em saúde pública, um professor associado de enfermagem em clínica médica e um professor assistente de saúde e enfermagem pediátrica) revisaram e forneceram opiniões sobre cada questão. O Índice de Validade de Conteúdo (IVC) foi usado para avaliar as opiniões dos especialistas. As frases em turco no instrumento foram pontuadas entre 1 e 4 com base em sua relevância e adequação para avaliar dor nas costas e postura: 1 = não apropriado, 2 = um pouco apropriado, 3 = apropriado e 4 = completamente apropriado (22,23). Os itens pontuados como 1 ou 2 foram revisados ​​e revisados. Por exemplo, a questão 6, que inicialmente pontuou 2 pontos, foi reformulada de "Você estuda/lê na cama?" para "Você estuda na cama?; Você lê livros na cama?". O IVC revisado resultou em uma pontuação alta de 90,8, indicando forte validade. A versão final em turco do instrumento foi retrotraduzida para o inglês por um professor de inglês, e não foram encontradas diferenças semânticas nas questões. Para testar a compreensibilidade, a ferramenta foi aplicada a 10 alunos semelhantes à população do estudo e foi considerada compreensível.</t>
+  </si>
+  <si>
+    <t>O método de análise fatorial exploratória é usado para testar a validade estrutural da ferramenta de avaliação e determinar os fatores. Se os dados obtidos do grupo de estudo são adequados para análise fatorial pode ser explicado com os testes Kaiser-Meyer-Olkin (KMO) e Barlett. Um valor de teste KMO menor que 0,50 é avaliado como uma análise fatorial não pode ser continuada (24). O teste de esfericidade de Barlett fornece o valor estatístico qui-quadrado; ele determina os fatores em um nível de significância menor que p &lt; 0,05. Se o valor de significância do teste de esfericidade de Barlett for maior que p&gt; 0,05, isso mostra que o nível de variância desejado não foi atingido e, portanto, a análise fatorial da escala não pode ser realizada (22). Neste estudo, a análise fatorial exploratória foi usada para a validade estrutural da ferramenta de avaliação e o valor de KMO foi encontrado em 0,374. Como esse valor é menor que 0,50, ele mostra que o conjunto de dados não é adequado para análise fatorial e a ferramenta de avaliação não pode ser dividida em fatores. Isso se deve ao fato de que a Ferramenta de Avaliação de Dor nas Costas e Postura não é uma escala do tipo Likert, mas sim um questionário que também inclui características sociodemográficas. A adequação do tamanho da amostra foi avaliada pelo Teste de Esfericidade de Bartlett (X = 464,7, p = 0,000). O valor de p significativo resultante do teste indica a adequação do tamanho da amostra.</t>
+  </si>
+  <si>
+    <t>O instrumento pode ser usado para avaliar a eficácia de intervenções voltadas para o tratamento da dor e da postura. Além disso, a ferramenta pode ser utilizada para identificar fatores potencialmente associados à dor em adolescentes.</t>
+  </si>
+  <si>
+    <t>Blocão da VAS
+Neste estudo, ela foi usada para avaliar a validade de critério da Ferramenta de Avaliação de Dor nas Costas e Postura, assumindo que haveria uma relação entre a pontuação de dor obtida pela EVA e os padrões de postura corporal.
+Na determinação da validade de critério, foi calculada a relação entre os escores obtidos na "VAS" medindo características semelhantes e a aplicação do mesmo grupo no mesmo momento, utilizando a análise de correlação de Pearson.
+Validade de critério: A validade de critério responde à questão de quão bem-sucedida a ferramenta de medição usada pode medir a característica que pretende medir (22). Neste estudo, a validade de critério foi avaliada com validade concorrente. A “Escala Visual Analógica (EVA)” foi usada para comparação. O coeficiente de correlação do teste de Spearman entre a questão “Presença de dor nas costas nos últimos 3 meses” na Ferramenta de Avaliação de Dor nas Costas e Postura Corporal e a pontuação da EVA foi determinado como r = -.684 (0,60-0,70), p = .000, e uma boa correlação negativa e relação significativa foi encontrada entre as duas ferramentas de medição. Este resultado mostra que as pontuações da EVA, que são aceitas como o teste padrão ouro, e as medições da Ferramenta de Avaliação de Dor nas Costas e Postura Corporal estão relacionadas e que esta ferramenta de avaliação pode medir a dor nas costas.</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1582,6 +1627,12 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1609,13 +1660,10 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1900,9 +1948,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7:F9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1944,13 +1992,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="40">
         <v>2013</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3">
@@ -1970,9 +2018,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="35"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
@@ -1987,9 +2035,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="35"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
@@ -2004,9 +2052,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="35"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -2017,9 +2065,9 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="35"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
@@ -2030,16 +2078,16 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="35"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="39" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2047,37 +2095,37 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="35"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="37"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="35"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="37"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="35"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
@@ -2090,9 +2138,9 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="35"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
@@ -2103,9 +2151,9 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
@@ -2120,9 +2168,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="35"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
@@ -2158,13 +2206,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="38">
         <v>2018</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="37" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="3">
@@ -2173,7 +2221,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="39" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -2184,39 +2232,39 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="37"/>
+      <c r="F16" s="39"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="37"/>
+      <c r="F17" s="39"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="3">
         <v>4</v>
       </c>
@@ -2231,9 +2279,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="3">
         <v>5</v>
       </c>
@@ -2248,9 +2296,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="3">
         <v>6</v>
       </c>
@@ -2262,9 +2310,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="36"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="37"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
@@ -2299,13 +2347,13 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="36">
+      <c r="B23" s="38">
         <v>2019</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="37" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -2318,13 +2366,13 @@
         <v>120</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="35"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="37"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
@@ -2336,55 +2384,55 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="35"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="37"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="35"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="37"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>123</v>
+        <v>271</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="35"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="37"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="34">
+      <c r="B28" s="36">
         <v>2021</v>
       </c>
-      <c r="C28" s="35" t="s">
+      <c r="C28" s="37" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -2396,14 +2444,14 @@
       <c r="G28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="37" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="35"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
       </c>
@@ -2413,12 +2461,12 @@
       <c r="G29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="35"/>
+      <c r="H29" s="37"/>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="35"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
       </c>
@@ -2428,7 +2476,7 @@
       <c r="G30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="35"/>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2633,11 +2681,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E623474-3705-4594-B9DF-AE0ADD157849}">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68:A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,614 +2701,689 @@
     <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="20" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="B2" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="D2" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="23" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D3" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+      <c r="B4" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+      <c r="B8" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+      <c r="C9" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="C10" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="C11" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="C12" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="C13" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+      <c r="C14" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+      <c r="C15" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
-      <c r="B3" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="E15" s="25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
+      <c r="C16" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+      <c r="C17" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+      <c r="C18" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+      <c r="E19" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+      <c r="E20" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+      <c r="E21" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+      <c r="E22" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="22" t="s">
+    </row>
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+      <c r="E23" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="E24" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="E25" s="25" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+      <c r="E26" s="25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+      <c r="E27" s="25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+      <c r="E28" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="C9" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="C10" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="C11" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="C12" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="C13" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="C14" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="39"/>
-      <c r="C15" s="23" t="s">
-        <v>164</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="C16" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="C17" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="C18" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="39"/>
-      <c r="E19" s="25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="39"/>
-      <c r="E20" s="25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="E21" s="25" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="E22" s="25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
-      <c r="E23" s="25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="39"/>
-      <c r="E24" s="25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="39"/>
-      <c r="E25" s="25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="39"/>
-      <c r="E26" s="25" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="E27" s="25" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="39"/>
-      <c r="E28" s="25" t="s">
+    </row>
+    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="E29" s="25" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="39"/>
-      <c r="E29" s="25" t="s">
+    <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="E30" s="25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="E30" s="25" t="s">
+    <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="E31" s="25" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="E31" s="25" t="s">
-        <v>185</v>
-      </c>
-    </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="31"/>
       <c r="E32" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="41" t="s">
+      <c r="A33" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="C33" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="D33" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="E33" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="C33" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="D33" s="28" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="D34" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E34" s="25" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="23" t="s">
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="C35" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D35" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E35" s="25" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="C35" s="23" t="s">
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+      <c r="C36" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="E36" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="C37" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+      <c r="C38" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="E35" s="25" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="C36" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="C37" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="C38" s="23" t="s">
+      <c r="E38" s="25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
+      <c r="C39" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E39" s="25" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="C39" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="E39" s="25" t="s">
+    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="E40" s="25" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="E40" s="25" t="s">
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
+      <c r="E41" s="25" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="E41" s="25" t="s">
-        <v>209</v>
-      </c>
-    </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
+      <c r="A42" s="42"/>
       <c r="D42" s="33"/>
       <c r="E42" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
-        <v>212</v>
+      <c r="A43" s="43" t="s">
+        <v>211</v>
       </c>
       <c r="B43" s="32"/>
       <c r="C43" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A44" s="44"/>
+      <c r="C44" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D44" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="E43" s="25" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A44" s="42"/>
-      <c r="C44" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="D44" s="24" t="s">
+    </row>
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="44"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="34" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="42"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="43" t="s">
+    <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="43" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+      <c r="B46" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="C46" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="D46" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A47" s="41"/>
+      <c r="B47" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="C47" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="D47" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="E46" s="45" t="s">
+      <c r="E47" s="25" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="B47" s="22" t="s">
+    <row r="48" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A48" s="41"/>
+      <c r="B48" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C48" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="41"/>
+      <c r="B49" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="C49" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
+      <c r="B50" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="41"/>
+      <c r="B51" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="41"/>
+      <c r="B52" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="41"/>
+      <c r="B53" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="41"/>
+      <c r="B54" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A55" s="41"/>
+      <c r="B55" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A56" s="41"/>
+      <c r="B56" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="41"/>
+      <c r="B57" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E57" s="25" t="s">
         <v>241</v>
       </c>
-      <c r="E47" s="25" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="B48" s="22" t="s">
-        <v>223</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B49" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B50" s="22" t="s">
+    </row>
+    <row r="58" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A58" s="41"/>
+      <c r="B58" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="41"/>
+      <c r="B59" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="41"/>
+      <c r="E60" s="25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="41"/>
+      <c r="E61" s="25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="41"/>
+      <c r="E62" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="41"/>
+      <c r="E63" s="25" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="41"/>
+      <c r="E64" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="C50" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B51" s="22" t="s">
-        <v>251</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B52" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C52" s="23" t="s">
+    </row>
+    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="41"/>
+      <c r="E65" s="25" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="41"/>
+      <c r="E66" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="E52" s="25" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B53" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B54" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B55" s="22" t="s">
+    </row>
+    <row r="67" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67" s="41"/>
+      <c r="B67" s="31"/>
+      <c r="E67" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="E55" s="25" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B56" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B57" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="B58" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B59" s="22" t="s">
+    </row>
+    <row r="68" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A68" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="C68" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="E59" s="25" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="E60" s="25" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="E61" s="25" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="E62" s="25" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="E63" s="25" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="E64" s="25" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="65" spans="5:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="E65" s="25" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="66" spans="5:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="E66" s="25" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="67" spans="5:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="E67" s="25" t="s">
-        <v>261</v>
+      <c r="D68" s="28" t="s">
+        <v>268</v>
+      </c>
+      <c r="E68" s="35" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A69" s="46"/>
+      <c r="B69" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A70" s="46"/>
+      <c r="B70" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="C70" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A71" s="46"/>
+      <c r="C71" s="23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="C72" s="23" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A32"/>
     <mergeCell ref="A33:A42"/>
     <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A46:A67"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB75DD8-C9A8-4F3B-A9CA-46AAA6F38BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0346DEE-833E-41C2-BDF3-73F21A0FD53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descritivos" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="337">
   <si>
     <t>Autor</t>
   </si>
@@ -1369,6 +1369,210 @@
 Neste estudo, ela foi usada para avaliar a validade de critério da Ferramenta de Avaliação de Dor nas Costas e Postura, assumindo que haveria uma relação entre a pontuação de dor obtida pela EVA e os padrões de postura corporal.
 Na determinação da validade de critério, foi calculada a relação entre os escores obtidos na "VAS" medindo características semelhantes e a aplicação do mesmo grupo no mesmo momento, utilizando a análise de correlação de Pearson.
 Validade de critério: A validade de critério responde à questão de quão bem-sucedida a ferramenta de medição usada pode medir a característica que pretende medir (22). Neste estudo, a validade de critério foi avaliada com validade concorrente. A “Escala Visual Analógica (EVA)” foi usada para comparação. O coeficiente de correlação do teste de Spearman entre a questão “Presença de dor nas costas nos últimos 3 meses” na Ferramenta de Avaliação de Dor nas Costas e Postura Corporal e a pontuação da EVA foi determinado como r = -.684 (0,60-0,70), p = .000, e uma boa correlação negativa e relação significativa foi encontrada entre as duas ferramentas de medição. Este resultado mostra que as pontuações da EVA, que são aceitas como o teste padrão ouro, e as medições da Ferramenta de Avaliação de Dor nas Costas e Postura Corporal estão relacionadas e que esta ferramenta de avaliação pode medir a dor nas costas.</t>
+  </si>
+  <si>
+    <t>Akbari-Chehrehbargh 2020</t>
+  </si>
+  <si>
+    <t>Akbari-Chehrehbargh, Tavafian e Montazeri</t>
+  </si>
+  <si>
+    <t>argumenta-se que a medição de comportamentos saudáveis ​​relacionados à coluna durante as atividades da vida diária entre crianças, como um resultado fundamental na avaliação de intervenções educacionais para cuidados com as costas</t>
+  </si>
+  <si>
+    <t>apesar de numerosos estudos relatarem intervenções de cuidados com as costas em populações pediátricas, atualmente não existe uma medida baseada em teoria para avaliar o impacto e o resultado desses programas</t>
+  </si>
+  <si>
+    <t>Desenvolver um questionário de avaliação do comportamento de cuidado com as costas baseado em teoria para populações de alunos que frequentam escolas de ensino fundamental</t>
+  </si>
+  <si>
+    <t>Validade de face</t>
+  </si>
+  <si>
+    <t>Validade estrutural</t>
+  </si>
+  <si>
+    <t>Os três principais determinantes psicológicos de qualquer mudança de comportamento são: autoeficácia (AE); capacidade comportamental (habilidades e conhecimento para executar um determinado comportamento); e crenças de expectativa de resultados (crenças comportamentais)</t>
+  </si>
+  <si>
+    <t>pensamos que um instrumento que pretende mensurar o comportamento de cuidado com as costas entre crianças do ensino fundamental deveria abordar os constructos propostos por essa teoria para alcançar a mudança de comportamento desejada de cuidado com as costas durante as atividades diárias.</t>
+  </si>
+  <si>
+    <t>Este estudo foi composto de três partes: uma ampla pesquisa bibliográfica para revisar questionários existentes para avaliar o comportamento saudável relacionado à coluna em crianças do ensino fundamental; compilar itens para preencher construções predefinidas com base na teoria cognitiva social; e conduzir um estudo transversal para validar o questionário entre alunos do 5º ano que frequentam escolas do ensino fundamental em Teerã, Irã.</t>
+  </si>
+  <si>
+    <t>A versão inicial do Questionário de Avaliação do Comportamento de Cuidados com as Costas (BABAQ) foi desenvolvida com base no conteúdo de outros questionários existentes (Tabela 1). O instrumento preliminar produziu 55 itens em cinco constructos predefinidos</t>
+  </si>
+  <si>
+    <t>Revisão de literatura</t>
+  </si>
+  <si>
+    <t>Versão inicial do BABAQ com 55 questões para 5 construtos pré-definidos</t>
+  </si>
+  <si>
+    <t>Compilar itens para atender itens pré-definidos baeados na Teoria Cognitivo Social</t>
+  </si>
+  <si>
+    <t>A partir dos resultados da revisão foram elaborados itens para 5 construtos₢ (o BackPEI foi um dos instrumentos utilizados para os itens de Comportamento auto-relatado)</t>
+  </si>
+  <si>
+    <t>A versão inicial do questionário contemplava 5 construtos: Habilidades, Autoeficácia, Conhecimento, Crenças de expectativa e Comportamento auto-relatado</t>
+  </si>
+  <si>
+    <t>O instrumento preliminar produziu 55 itens em cinco constructos predefinidos</t>
+  </si>
+  <si>
+    <t>Um checklist para avaliação prática de habilidades para princípios de cuidados com as costas.</t>
+  </si>
+  <si>
+    <t>habilidades: A lista de verificação consistia em sete tarefas e 24 itens.</t>
+  </si>
+  <si>
+    <t>habilidades: Cada item é classificado em uma escala de 3 pontos que varia de 0 (não cumprimento dos critérios) a 2 (conclusão correta da tarefa), dando uma pontuação que varia de 0 a 48 pontos, onde pontuações mais altas indicam melhor cumprimento das tarefas.</t>
+  </si>
+  <si>
+    <t>Conhecimento sobre cuidados com as costas contendo 13 questões de múltipla escolha.</t>
+  </si>
+  <si>
+    <t>Conhecimento: As pontuações neste constructo variam de 0 a 13, onde as pontuações mais altas indicam melhor conhecimento</t>
+  </si>
+  <si>
+    <t>Subescala de autoeficácia contendo 4 itens.</t>
+  </si>
+  <si>
+    <t>Crenças de expectativa contendo 6 itens.</t>
+  </si>
+  <si>
+    <t>Crenças de expectativa: Cada item é classificado em uma escala de cinco pontos (discordo totalmente a concordo totalmente), dando uma pontuação que varia de 6 a 30, onde uma pontuação mais alta indica crenças mais fortes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> autoeficácia : Cada item é classificado em uma escala de quatro pontos (de difícil a fácil), dando uma pontuação que varia de 4 a 16, onde as pontuações mais altas indicam maior autoeficácia.</t>
+  </si>
+  <si>
+    <t>Comportamento de cuidado com as costas contendo 8 itens relacionados às atividades diárias.</t>
+  </si>
+  <si>
+    <t>Comportamento de cuidado com as costas: As categorias de resposta variaram de nunca (1) a sempre (5), dando uma pontuação de 8 a 40, onde pontuações mais altas indicam melhor comportamento preventivo</t>
+  </si>
+  <si>
+    <t>Painel de 13 especialistas / CVR (≥0,54) e CVI (&gt;70%) / Avaliaram os itens (desnecessário, útil mas desnecessário e necessário) / Avaliaram a relevância dos itens (irrelevante, um tanto relevante, bastante relevante e muito relevante)</t>
+  </si>
+  <si>
+    <t>6 meninas da 5ª série examinaram o questionário e indicaram se elas conseguiam ler e entender as questões / avaliação qualitativa</t>
+  </si>
+  <si>
+    <t>2 itens excluídos</t>
+  </si>
+  <si>
+    <t>4 itens excluídas</t>
+  </si>
+  <si>
+    <t>O método qualitativo foi utilizado para a validade aparente. Um grupo de seis meninas do 5º ano foi solicitado a examinar o questionário e indicar se conseguiam ler e compreender as perguntas. Como resultado, dois itens adicionais foram removidos, resultando em uma versão provisória do questionário com 49 itens.</t>
+  </si>
+  <si>
+    <t>Especialistas classificaram os itens com base em três opções de avaliação: desnecessário, útil mas desnecessário e necessário.</t>
+  </si>
+  <si>
+    <t>o painel de especialistas classificou a relevância de cada questão como 1 (não relevante), 2 (um tanto relevante), 3 (bastante relevante) e 4 (muito relevante).</t>
+  </si>
+  <si>
+    <t>a pontuação total do BABAQ varia de 16 (mais baixa) a 132 (mais alta).</t>
+  </si>
+  <si>
+    <t>Atribuímos os seguintes critérios para interpretar as pontuações: alta (acima do terceiro quartel, 104-132); intermediária (entre o primeiro e o terceiro quartel, 45-103); e baixa (menor que o primeiro quartel, 16-44).</t>
+  </si>
+  <si>
+    <t>Análise de itens: Para analisar a correlação entre itens e construtos predefinidos, foi realizada uma análise de correlação item-total. Assim, a correlação entre itens e construtos hipotéticos foi calculada usando o coeficiente de correlação de Pearson.</t>
+  </si>
+  <si>
+    <t>A análise fatorial confirmatória (AFC) foi conduzida para investigar o construto predefinido do BABAQ</t>
+  </si>
+  <si>
+    <t>neste estudo os dados foram distribuídos normalmente (sobre aplicar o método da máxima verossimilhança na análise fatorial)</t>
+  </si>
+  <si>
+    <t>Também utilizamos a estatística de Variância Média Extraída (AVE) para testar a validade convergente dos construtos. Valores de AVE acima de 0,50 demonstram validade convergente adequada.</t>
+  </si>
+  <si>
+    <t>A consistência interna foi estimada pelo coeficiente alfa de Cronbach. O valor de 0,70 ou superior foi considerado satisfatório.</t>
+  </si>
+  <si>
+    <t>A confiabilidade do teste-reteste também foi usada para examinar a estabilidade por meio do cálculo do coeficiente de correlação intraclasse (CCI).</t>
+  </si>
+  <si>
+    <t>A confiabilidade teste-reteste também foi utilizada para examinar a estabilidade, calculando o coeficiente de correlação intraclasse (CCI). Uma amostra de 50 alunos que não participaram do estudo principal respondeu ao questionário duas vezes em um intervalo de duas semanas. O CCI também foi utilizado para avaliar a confiabilidade interavaliadores em cada grupo de itens para o domínio de habilidades práticas, avaliados por dois avaliadores independentes e treinados. Valores superiores a 0,70 foram considerados concordância excelente.</t>
+  </si>
+  <si>
+    <t>Além disso, estimamos o erro padrão de medição (EPM). O erro padrão de medição  é uma estimativa da quantidade de erro em um teste e está diretamente relacionado à confiabilidade do teste. Quanto maior o EPM, menor a confiabilidade do teste.</t>
+  </si>
+  <si>
+    <t>Além disso, foi calculada a alteração mínima detectável (MDC) para o BABAQ. A alteração mínima detectável  é a menor alteração na pontuação do BABAQ, o que garante que a alteração não seja resultado de erro de medição.</t>
+  </si>
+  <si>
+    <t>Também é significativo porque o BABAQ pode fornecer a oportunidade de avaliar comportamentos e seus determinantes de acordo com a Teoria Social Cognitiva (TSC).</t>
+  </si>
+  <si>
+    <t>o instrumento desenvolvido pode ajudar a criar uma intervenção baseada em teoria para mudar comportamentos inseguros entre os alunos.</t>
+  </si>
+  <si>
+    <t>esta é a primeira tentativa de relatar a validade de construto de um instrumento para prevenção de dor nas costas, empregado para avaliar programas educacionais.</t>
+  </si>
+  <si>
+    <t>Além disso, os resultados demonstraram que cada uma das cinco subescalas do BABAQ teve ajuste adequado dentro da estrutura do SCT.</t>
+  </si>
+  <si>
+    <t>O BABAQ demonstrou ser um instrumento válido para medir o comportamento saudável relacionado à coluna incluindo a capacidade comportamental (habilidades e conhecimento), autoeficácia, crenças de expectativa e desempenho da coluna</t>
+  </si>
+  <si>
+    <t>Validade convergente</t>
+  </si>
+  <si>
+    <t>Average Variance Extracted (&gt;0,5)</t>
+  </si>
+  <si>
+    <t>50 estudantes / intervalo de 2 semanas /Alfa de Cronbach (&gt;0,70), ICC do itens (nas 2 coletas com estudantes e para avaliação das habilidades por 2 avaliadores) (ICC&gt;0,70), SEM, MDC</t>
+  </si>
+  <si>
+    <t>610 alunas da 5ª série / Correlação item-total (R entre cada item e os construtos) / AF confirmatória (máxima verossimilhança) gl do chi²&lt;5, CFI (&gt;0,95), RMSEA (&lt;0,10), SRMR (&lt;0,08), carga do item para o fator relacionado, ajuste geral do modelo.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Correlação item-total  satisfatória; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>χ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>²/gl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=3,51; CFI=0,97; RMSEA=0,091; SRMR=0,078</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">alfa entre 0,93 e 0,97, ICC entre 0,76 e 0,83, </t>
+  </si>
+  <si>
+    <t>Habilidades=0,54; Conhecimento=0,73; autoeficácia=0,79; crenças=0,49 e comportamento=0,86</t>
   </si>
 </sst>
 </file>
@@ -1528,7 +1732,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1634,19 +1838,31 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1660,10 +1876,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1946,11 +2159,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,7 +2172,7 @@
     <col min="3" max="3" width="76" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="3"/>
     <col min="5" max="5" width="50.5703125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="76" style="5" customWidth="1"/>
+    <col min="6" max="6" width="70.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="55.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="39.7109375" style="3" customWidth="1"/>
     <col min="9" max="12" width="36.5703125" customWidth="1"/>
@@ -1992,13 +2205,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="42">
         <v>2013</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="41" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3">
@@ -2018,9 +2231,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="37"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
@@ -2035,9 +2248,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="37"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
@@ -2052,9 +2265,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="37"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -2065,9 +2278,9 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
@@ -2078,16 +2291,16 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="37"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="40" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2095,37 +2308,37 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="37"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="39"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="37"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
@@ -2138,9 +2351,9 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="37"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
@@ -2151,9 +2364,9 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="37"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
@@ -2168,9 +2381,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="37"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
@@ -2206,13 +2419,13 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="43">
         <v>2018</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="41" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="3">
@@ -2221,7 +2434,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="40" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -2232,39 +2445,39 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="37"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="39"/>
+      <c r="F16" s="40"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="37"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="39"/>
+      <c r="F17" s="40"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="37"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="3">
         <v>4</v>
       </c>
@@ -2279,9 +2492,9 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="3">
         <v>5</v>
       </c>
@@ -2296,9 +2509,9 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="3">
         <v>6</v>
       </c>
@@ -2310,9 +2523,9 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="41"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
@@ -2347,13 +2560,13 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="43">
         <v>2019</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="41" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -2370,9 +2583,9 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="37"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="41"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
@@ -2384,9 +2597,9 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="41"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
       </c>
@@ -2398,9 +2611,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="37"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="41"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
       </c>
@@ -2412,9 +2625,9 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="37"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="41"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
@@ -2426,13 +2639,13 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="36">
+      <c r="B28" s="44">
         <v>2021</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="41" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -2444,14 +2657,14 @@
       <c r="G28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="37" t="s">
+      <c r="H28" s="41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="41"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
       </c>
@@ -2461,12 +2674,12 @@
       <c r="G29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="37"/>
+      <c r="H29" s="41"/>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="41"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
       </c>
@@ -2476,7 +2689,7 @@
       <c r="G30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="37"/>
+      <c r="H30" s="41"/>
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2655,8 +2868,105 @@
         <v>115</v>
       </c>
     </row>
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>280</v>
+      </c>
+      <c r="B46">
+        <v>2020</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E47" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="E48" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E49" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E50" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C51" s="36"/>
+      <c r="E51" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E52" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -2665,13 +2975,6 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2681,11 +2984,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E623474-3705-4594-B9DF-AE0ADD157849}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68:A72"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2714,7 +3017,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="45" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -2731,7 +3034,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="22" t="s">
         <v>142</v>
       </c>
@@ -2746,7 +3049,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="22" t="s">
         <v>143</v>
       </c>
@@ -2761,7 +3064,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="22" t="s">
         <v>146</v>
       </c>
@@ -2776,7 +3079,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="22" t="s">
         <v>180</v>
       </c>
@@ -2788,7 +3091,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="22" t="s">
         <v>187</v>
       </c>
@@ -2800,7 +3103,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="22" t="s">
         <v>188</v>
       </c>
@@ -2812,7 +3115,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
+      <c r="A9" s="45"/>
       <c r="C9" s="23" t="s">
         <v>147</v>
       </c>
@@ -2821,7 +3124,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
+      <c r="A10" s="45"/>
       <c r="C10" s="23" t="s">
         <v>147</v>
       </c>
@@ -2830,7 +3133,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
+      <c r="A11" s="45"/>
       <c r="C11" s="23" t="s">
         <v>148</v>
       </c>
@@ -2839,7 +3142,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
+      <c r="A12" s="45"/>
       <c r="C12" s="23" t="s">
         <v>158</v>
       </c>
@@ -2848,7 +3151,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="45"/>
       <c r="C13" s="23" t="s">
         <v>159</v>
       </c>
@@ -2857,7 +3160,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
+      <c r="A14" s="45"/>
       <c r="C14" s="23" t="s">
         <v>160</v>
       </c>
@@ -2866,7 +3169,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="45"/>
       <c r="C15" s="23" t="s">
         <v>163</v>
       </c>
@@ -2875,7 +3178,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
+      <c r="A16" s="45"/>
       <c r="C16" s="23" t="s">
         <v>174</v>
       </c>
@@ -2884,7 +3187,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
+      <c r="A17" s="45"/>
       <c r="C17" s="23" t="s">
         <v>179</v>
       </c>
@@ -2893,7 +3196,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
+      <c r="A18" s="45"/>
       <c r="C18" s="23" t="s">
         <v>186</v>
       </c>
@@ -2902,92 +3205,92 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
+      <c r="A19" s="45"/>
       <c r="E19" s="25" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
+      <c r="A20" s="45"/>
       <c r="E20" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
+      <c r="A21" s="45"/>
       <c r="E21" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
+      <c r="A22" s="45"/>
       <c r="E22" s="25" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
+      <c r="A23" s="45"/>
       <c r="E23" s="25" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
+      <c r="A24" s="45"/>
       <c r="E24" s="25" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
+      <c r="A25" s="45"/>
       <c r="E25" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
+      <c r="A26" s="45"/>
       <c r="E26" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
+      <c r="A27" s="45"/>
       <c r="E27" s="25" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
+      <c r="A28" s="45"/>
       <c r="E28" s="25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
+      <c r="A29" s="45"/>
       <c r="E29" s="25" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="45"/>
       <c r="E30" s="25" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
+      <c r="A31" s="45"/>
       <c r="E31" s="25" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="31"/>
       <c r="E32" s="27" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="47" t="s">
         <v>189</v>
       </c>
       <c r="B33" s="30" t="s">
@@ -3004,7 +3307,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="22" t="s">
         <v>210</v>
       </c>
@@ -3019,7 +3322,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
+      <c r="A35" s="45"/>
       <c r="C35" s="23" t="s">
         <v>195</v>
       </c>
@@ -3031,7 +3334,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
+      <c r="A36" s="45"/>
       <c r="C36" s="23" t="s">
         <v>196</v>
       </c>
@@ -3040,7 +3343,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
+      <c r="A37" s="45"/>
       <c r="C37" s="23" t="s">
         <v>197</v>
       </c>
@@ -3049,7 +3352,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
+      <c r="A38" s="45"/>
       <c r="C38" s="23" t="s">
         <v>203</v>
       </c>
@@ -3058,7 +3361,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
+      <c r="A39" s="45"/>
       <c r="C39" s="23" t="s">
         <v>204</v>
       </c>
@@ -3067,26 +3370,26 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
+      <c r="A40" s="45"/>
       <c r="E40" s="25" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
+      <c r="A41" s="45"/>
       <c r="E41" s="25" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
+      <c r="A42" s="46"/>
       <c r="D42" s="33"/>
       <c r="E42" s="27" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="47" t="s">
         <v>211</v>
       </c>
       <c r="B43" s="32"/>
@@ -3101,7 +3404,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
+      <c r="A44" s="48"/>
       <c r="C44" s="23" t="s">
         <v>214</v>
       </c>
@@ -3110,14 +3413,14 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="31"/>
       <c r="C45" s="34" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="47" t="s">
         <v>218</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -3134,7 +3437,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="22" t="s">
         <v>221</v>
       </c>
@@ -3149,7 +3452,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="22" t="s">
         <v>222</v>
       </c>
@@ -3161,7 +3464,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="41"/>
+      <c r="A49" s="45"/>
       <c r="B49" s="22" t="s">
         <v>224</v>
       </c>
@@ -3173,7 +3476,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="41"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="22" t="s">
         <v>248</v>
       </c>
@@ -3185,7 +3488,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="41"/>
+      <c r="A51" s="45"/>
       <c r="B51" s="22" t="s">
         <v>250</v>
       </c>
@@ -3197,7 +3500,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
+      <c r="A52" s="45"/>
       <c r="B52" s="22" t="s">
         <v>252</v>
       </c>
@@ -3209,7 +3512,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="22" t="s">
         <v>253</v>
       </c>
@@ -3221,7 +3524,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="22" t="s">
         <v>258</v>
       </c>
@@ -3233,7 +3536,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="22" t="s">
         <v>259</v>
       </c>
@@ -3242,7 +3545,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="41"/>
+      <c r="A56" s="45"/>
       <c r="B56" s="22" t="s">
         <v>261</v>
       </c>
@@ -3251,7 +3554,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="41"/>
+      <c r="A57" s="45"/>
       <c r="B57" s="22" t="s">
         <v>262</v>
       </c>
@@ -3260,7 +3563,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A58" s="41"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="22" t="s">
         <v>263</v>
       </c>
@@ -3269,7 +3572,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="41"/>
+      <c r="A59" s="45"/>
       <c r="B59" s="22" t="s">
         <v>265</v>
       </c>
@@ -3278,56 +3581,56 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
+      <c r="A60" s="45"/>
       <c r="E60" s="25" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="41"/>
+      <c r="A61" s="45"/>
       <c r="E61" s="25" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="41"/>
+      <c r="A62" s="45"/>
       <c r="E62" s="25" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="41"/>
+      <c r="A63" s="45"/>
       <c r="E63" s="25" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="41"/>
+      <c r="A64" s="45"/>
       <c r="E64" s="25" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="41"/>
+      <c r="A65" s="45"/>
       <c r="E65" s="25" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="41"/>
+      <c r="A66" s="45"/>
       <c r="E66" s="25" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="41"/>
+      <c r="A67" s="45"/>
       <c r="B67" s="31"/>
       <c r="E67" s="25" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A68" s="45" t="s">
+      <c r="A68" s="38" t="s">
         <v>267</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -3344,7 +3647,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="255" x14ac:dyDescent="0.25">
-      <c r="A69" s="46"/>
+      <c r="A69" s="39"/>
       <c r="B69" s="22" t="s">
         <v>269</v>
       </c>
@@ -3356,7 +3659,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A70" s="46"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="22" t="s">
         <v>277</v>
       </c>
@@ -3368,14 +3671,150 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="360" x14ac:dyDescent="0.25">
-      <c r="A71" s="46"/>
+      <c r="A71" s="39"/>
       <c r="C71" s="23" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="C72" s="23" t="s">
+      <c r="A72" s="49"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="34" t="s">
         <v>278</v>
+      </c>
+      <c r="D72" s="33"/>
+    </row>
+    <row r="73" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E73" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B74" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B75" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B76" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B77" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="E77" s="25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C78" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C79" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="E79" s="25" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="C80" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="C81" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="E81" s="25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C82" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C83" s="23" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0346DEE-833E-41C2-BDF3-73F21A0FD53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7509E9-E9E4-44EC-B71A-D88C86AE0B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descritivos" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="384">
   <si>
     <t>Autor</t>
   </si>
@@ -1573,6 +1573,147 @@
   </si>
   <si>
     <t>Habilidades=0,54; Conhecimento=0,73; autoeficácia=0,79; crenças=0,49 e comportamento=0,86</t>
+  </si>
+  <si>
+    <t>da Rosa et al., 2022</t>
+  </si>
+  <si>
+    <t>Inicialmente, o BackPEI foi desenvolvido para avaliar a presença, frequência e intensidade da dor nas costas e seus fatores de risco (fatores comportamentais, posturais e demográficos) entre crianças e adolescentes</t>
+  </si>
+  <si>
+    <t>, ferramentas que avaliam a presença de dor no pescoço e seu impacto nas crianças e suas rotinas são importantes.</t>
+  </si>
+  <si>
+    <t>Dentre os fatores de risco associados à dor nas costas avaliados pelo BackPEI estão os hábitos posturais e comportamentais [4] e hábitos comuns na rotina de escolares, como a prática de atividade física, hábitos relacionados a assistir televisão e usar o computador, e a postura adotada para carregar o material escolar, dormir, escrever em sala de aula e levantar objetos do chão.</t>
+  </si>
+  <si>
+    <t>As informações disponíveis sobre a contribuição do uso de dispositivos móveis para o desenvolvimento da dor cervical são inconclusivas [15,18,19]. Portanto, este assunto requer mais investigação e novas ferramentas para avaliar os hábitos de uso de dispositivos móveis entre crianças e adolescentes.</t>
+  </si>
+  <si>
+    <t>revisão de literatura nas bases de dados PubMed, Medline e Scopus para identificar a postura adotada por crianças e adolescentes ao usar dispositivos móveis e identificar como a dor cervical é avaliada entre crianças e adolescentes para inclusão no BackPEI-CA</t>
+  </si>
+  <si>
+    <t>desenvolvimento da primeira versão do questionário BackPEICA</t>
+  </si>
+  <si>
+    <t>avaliação de novas questões por especialistas para validação de conteúdo e elaboração da versão final do BackPEI-CA</t>
+  </si>
+  <si>
+    <t>avaliação da confiabilidade das novas questões</t>
+  </si>
+  <si>
+    <t>tradução das novas questões do BackPEI-CA para o inglês</t>
+  </si>
+  <si>
+    <t>O BackPEI-CA contém 30 questões. Em relação ao uso de dispositivos móveis, foi incluída uma nova questão sobre o tempo diário gasto com dispositivos móveis (questão 6, Figura 1), bem como duas novas questões sobre a postura adotada durante o uso de dispositivos móveis.</t>
+  </si>
+  <si>
+    <t>Em relação à avaliação da dor nas costas e no pescoço (Figura 2), incluímos duas novas perguntas sobre o impacto da dor nas costas na vida de crianças e adolescentes (perguntas 23 e 24) e cinco novas perguntas para avaliar a dor no pescoço (perguntas 26 a 30). O layout das perguntas sobre dor nas costas (perguntas 21 a 25) foi alterado para incluir uma nova região corporal para avaliar a dor e com um novo design gráfico para melhorar a compreensão das regiões corporais às quais as perguntas estavam relacionadas.</t>
+  </si>
+  <si>
+    <t>Of the 30 questions, 28 were multiple-choice questions, for which the participants could choose only one option: the one that best represents their perceived condition. The remaining two questions (25 and 30) were related to back pain intensity and neck pain intensity and were answered using the visual analog pain scale (VAS)</t>
+  </si>
+  <si>
+    <t>As questões 1 a 20 estavam relacionadas aos possíveis fatores de risco para dor nas costas e no pescoço</t>
+  </si>
+  <si>
+    <t>As questões 21 a 30 avaliaram a presença, frequência e intensidade da dor nas costas e no pescoço e se a dor impedia a frequência escolar ou as brincadeiras.</t>
+  </si>
+  <si>
+    <t>Além da versão original [4], o BackPEI-CA possui uma versão feminina e uma masculina</t>
+  </si>
+  <si>
+    <t>Os especialistas receberam a versão inicial do BackPEI-CA e um questionário específico para validade de conteúdo para analisar os seguintes aspectos: (1) a clareza, a facilidade de compreensão e a aplicabilidade geral das novas questões e (2) se as novas questões permitiram identificar o comportamento de uso de smartphones/tablets e avaliaram adequadamente a dor nas costas e no pescoço.</t>
+  </si>
+  <si>
+    <t>Para testar a confiabilidade teste-reteste, ... , a versao final do questionário BackPEI-CA foi aplicada em dois momentos com um intervalo de 7 dias.</t>
+  </si>
+  <si>
+    <t>As coletas ocorreram presencialmente em novembro e dezembro de 2019 e, devido a pandemia, online em Março e Abril de 2020</t>
+  </si>
+  <si>
+    <t>Para a avaliação on-line, o questionário foi transformado em um formulário on-line de fácil acesso e com uma interface amigável usando o Google Forms.</t>
+  </si>
+  <si>
+    <t>Crianças em idade escolar entre 10 e 17 anos foram elegíveis para este estudo</t>
+  </si>
+  <si>
+    <t>foram capazes de ler e compreender o questionário sem assistência foram capazes de ler e compreender o questionário sem assistência foram elegíveis para este estudo</t>
+  </si>
+  <si>
+    <t>Em relação à inserção de novas perguntas, você acha que é possível identificar comportamentos durante o uso de smartphones/tablets?</t>
+  </si>
+  <si>
+    <t>Quanto à qualidade das imagens (fotos) e adequação das posturas utilizadas</t>
+  </si>
+  <si>
+    <t>Em relação à inserção de novas questões sobre dor nas costas, você acha que elas possibilitam avaliar o impacto da dor nas costas na vida de crianças e adolescentes?</t>
+  </si>
+  <si>
+    <t>Regarding the adequacy of options to answer about the back pain frequency</t>
+  </si>
+  <si>
+    <t>Em relação ao novo design gráfico das perguntas sobre dor nas costas, você acha que elas facilitam o entendimento de que “dor nas costas” se refere a qualquer região torácica e lombar?</t>
+  </si>
+  <si>
+    <t>“dor nas costas” se refere a qualquer região torácica e lombar</t>
+  </si>
+  <si>
+    <t>Em relação à inserção de novas perguntas sobre dor no pescoço, você acha que é possível identificar a presença, frequência e intensidade da dor no pescoço?</t>
+  </si>
+  <si>
+    <t>Em relação ao design gráfico das perguntas sobre dor no pescoço, você acha que elas facilitam a compreensão de que “dor no pescoço” se refere a qualquer região da coluna cervical?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> “dor no pescoço” se refere a qualquer região da coluna cervical</t>
+  </si>
+  <si>
+    <t>O questionário autoaplicável é um importante instrumento de avaliação pela sua facilidade de aplicação, baixo custo e possibilidade de autorrelato.</t>
+  </si>
+  <si>
+    <t>um dos desenhos de estudo epidemiológico mais utilizados [26] para avaliar aspectos de saúde pública, como dor nas costas</t>
+  </si>
+  <si>
+    <t>nenhum outro questionário avalia aspectos relacionados à dor na coluna e os possíveis fatores associados à dor</t>
+  </si>
+  <si>
+    <t>esses questionários permitem que uma série de aspectos relacionados à dor nas costas e no pescoço sejam avaliados com apenas uma ferramenta.</t>
+  </si>
+  <si>
+    <t>A versão original do BackPEI é limitada em termos de sua incapacidade de avaliar dor cervical e hábitos relacionados ao uso de dispositivos móveis, um hábito importante em crianças e adolescentes. Portanto, é importante manter o questionário BackPEI atualizado em relação às principais atividades, bem como às principais queixas de dor em crianças em idade escolar.</t>
+  </si>
+  <si>
+    <t>O uso de dispositivos móveis é comum e estima-se que, em 2021, havia mais de seis bilhões de usuários de smartphones em todo o mundo [30]. Em um estudo que avaliou 653 adultos americanos, foi demonstrado que os participantes gastavam aproximadamente 1,5 h diariamente usando um smartphone [31]. Entre crianças e adolescentes, esse cenário é particularmente comum e se reflete na amostra do nosso estudo, na qual 80% dos escolares avaliados relataram usar smartphones ou tablets por mais de 2 h por dia (Tabela 2). O tempo gasto em dispositivos móveis varia entre pessoas de diferentes idades devido à variedade de usos, como comunicação, internet, acesso a arquivos multimídia e lazer [16]. Portanto, é evidente que há uma necessidade urgente de adicionar novas perguntas que avaliem os hábitos de uso de dispositivos móveis.</t>
+  </si>
+  <si>
+    <t>com a adição de novas perguntas sobre dor no pescoço, poderia ser uma ferramenta útil para avaliar duas regiões do corpo (costas e pescoço).</t>
+  </si>
+  <si>
+    <t>Portanto, propusemos um novo design gráfico para o BackPEI-CA (Figura 2) que ilustra qual região do corpo deve ser vista como “costas” e qual deve ser vista como “pescoço” para evitar confusão ao responder às perguntas sobre dor.,</t>
+  </si>
+  <si>
+    <t>Assim, nossa atualização do BackPEI é considerada adequada para avaliar os hábitos de uso de dispositivos móveis em crianças em idade escolar e aspectos relacionados à dor nas costas e no pescoço.</t>
+  </si>
+  <si>
+    <t>as novas questões também foram consideradas confiáveis ​​por apresentarem valores de kappa moderados e bons [26], percentual de concordância adequado [25] e excelentes valores de ICC</t>
+  </si>
+  <si>
+    <t>O BackPEI-CA, versão atualizada do questionário BackPEI, pode ser um instrumento válido e confiável para avaliar a presença, frequência e intensidade de dores nas costas, dores no pescoço e hábitos de uso de dispositivos móveis, como a postura adotada e o tempo de uso.</t>
+  </si>
+  <si>
+    <t>As limitações deste estudo estão relacionadas às características inerentes aos questionários fechados. Ou seja, as opções para responder às novas perguntas sobre os hábitos de uso de dispositivos móveis não apresentaram todas as opções possíveis para a postura adotada.</t>
+  </si>
+  <si>
+    <t>mantivemos a opção alternativa “não consegui identificar nenhum destes” quando as crianças em idade escolar se identificaram com outro padrão postural para que não se sentissem obrigadas a preencher um padrão que não fosse o seu habitual.</t>
+  </si>
+  <si>
+    <t>Uma segunda limitação deste estudo foi a inclusão da opção “outra forma/não sei” nas questões 13 e 14, pois não permite ao avaliador saber qual é o padrão mais comum em crianças em idade escolar.</t>
+  </si>
+  <si>
+    <t>O BackPEI-CA pode ser usado em avaliações clínicas ou em triagens escolares.</t>
+  </si>
+  <si>
+    <t>permite avaliar a presença, frequência e intensidade de dores nas costas, dores no pescoço e fatores de risco associados, como hábitos comportamentais e posturais.</t>
   </si>
 </sst>
 </file>
@@ -1849,20 +1990,23 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1875,9 +2019,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2161,8 +2302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
@@ -2205,13 +2346,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="45">
         <v>2013</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3">
@@ -2231,9 +2372,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="41"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
@@ -2248,9 +2389,9 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="41"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
@@ -2265,9 +2406,9 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="41"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -2278,9 +2419,9 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="41"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
@@ -2291,16 +2432,16 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="41"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="44" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2308,37 +2449,37 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="41"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="42"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="40"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="41"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="42"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="40"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="41"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="42"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
@@ -2351,9 +2492,9 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="41"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="42"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
@@ -2364,9 +2505,9 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="41"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
@@ -2381,9 +2522,9 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="41"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
@@ -2425,7 +2566,7 @@
       <c r="B15" s="43">
         <v>2018</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="42" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="3">
@@ -2434,7 +2575,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="44" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -2447,14 +2588,14 @@
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
       <c r="B16" s="43"/>
-      <c r="C16" s="41"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="40"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
@@ -2462,14 +2603,14 @@
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
       <c r="B17" s="43"/>
-      <c r="C17" s="41"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="40"/>
+      <c r="F17" s="44"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
@@ -2477,7 +2618,7 @@
     <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="43"/>
-      <c r="C18" s="41"/>
+      <c r="C18" s="42"/>
       <c r="D18" s="3">
         <v>4</v>
       </c>
@@ -2494,7 +2635,7 @@
     <row r="19" spans="1:8" ht="96" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="43"/>
-      <c r="C19" s="41"/>
+      <c r="C19" s="42"/>
       <c r="D19" s="3">
         <v>5</v>
       </c>
@@ -2511,7 +2652,7 @@
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="43"/>
-      <c r="C20" s="41"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="3">
         <v>6</v>
       </c>
@@ -2525,7 +2666,7 @@
     <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
       <c r="B21" s="43"/>
-      <c r="C21" s="41"/>
+      <c r="C21" s="42"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
@@ -2566,7 +2707,7 @@
       <c r="B23" s="43">
         <v>2019</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="42" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -2585,7 +2726,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="43"/>
       <c r="B24" s="43"/>
-      <c r="C24" s="41"/>
+      <c r="C24" s="42"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
@@ -2599,7 +2740,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
       <c r="B25" s="43"/>
-      <c r="C25" s="41"/>
+      <c r="C25" s="42"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
       </c>
@@ -2613,7 +2754,7 @@
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
       <c r="B26" s="43"/>
-      <c r="C26" s="41"/>
+      <c r="C26" s="42"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
       </c>
@@ -2627,7 +2768,7 @@
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
       <c r="B27" s="43"/>
-      <c r="C27" s="41"/>
+      <c r="C27" s="42"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
@@ -2638,14 +2779,14 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="44">
+      <c r="B28" s="41">
         <v>2021</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="42" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -2657,14 +2798,14 @@
       <c r="G28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="42" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="41"/>
+    <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
       </c>
@@ -2674,12 +2815,12 @@
       <c r="G29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="41"/>
+      <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="41"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="42"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
       </c>
@@ -2689,7 +2830,7 @@
       <c r="G30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="41"/>
+      <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2722,7 +2863,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="E33" s="4" t="s">
         <v>83</v>
       </c>
@@ -2857,7 +2998,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="E45" s="4" t="s">
         <v>107</v>
       </c>
@@ -2902,7 +3043,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="E48" s="4" t="s">
         <v>93</v>
       </c>
@@ -2960,13 +3101,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -2975,6 +3109,13 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2984,11 +3125,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E623474-3705-4594-B9DF-AE0ADD157849}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3017,7 +3158,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -3034,7 +3175,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="22" t="s">
         <v>142</v>
       </c>
@@ -3049,7 +3190,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="22" t="s">
         <v>143</v>
       </c>
@@ -3064,7 +3205,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="22" t="s">
         <v>146</v>
       </c>
@@ -3079,7 +3220,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="22" t="s">
         <v>180</v>
       </c>
@@ -3091,7 +3232,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="22" t="s">
         <v>187</v>
       </c>
@@ -3103,7 +3244,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="22" t="s">
         <v>188</v>
       </c>
@@ -3115,7 +3256,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
       <c r="C9" s="23" t="s">
         <v>147</v>
       </c>
@@ -3124,7 +3265,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
       <c r="C10" s="23" t="s">
         <v>147</v>
       </c>
@@ -3133,7 +3274,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
       <c r="C11" s="23" t="s">
         <v>148</v>
       </c>
@@ -3142,7 +3283,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
+      <c r="A12" s="46"/>
       <c r="C12" s="23" t="s">
         <v>158</v>
       </c>
@@ -3151,7 +3292,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="46"/>
       <c r="C13" s="23" t="s">
         <v>159</v>
       </c>
@@ -3160,7 +3301,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="46"/>
       <c r="C14" s="23" t="s">
         <v>160</v>
       </c>
@@ -3169,7 +3310,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="46"/>
       <c r="C15" s="23" t="s">
         <v>163</v>
       </c>
@@ -3178,7 +3319,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="46"/>
       <c r="C16" s="23" t="s">
         <v>174</v>
       </c>
@@ -3187,7 +3328,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
+      <c r="A17" s="46"/>
       <c r="C17" s="23" t="s">
         <v>179</v>
       </c>
@@ -3196,7 +3337,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
+      <c r="A18" s="46"/>
       <c r="C18" s="23" t="s">
         <v>186</v>
       </c>
@@ -3205,92 +3346,92 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
+      <c r="A19" s="46"/>
       <c r="E19" s="25" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
+      <c r="A20" s="46"/>
       <c r="E20" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
+      <c r="A21" s="46"/>
       <c r="E21" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="46"/>
       <c r="E22" s="25" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="46"/>
       <c r="E23" s="25" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="46"/>
       <c r="E24" s="25" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
+      <c r="A25" s="46"/>
       <c r="E25" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
+      <c r="A26" s="46"/>
       <c r="E26" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
+      <c r="A27" s="46"/>
       <c r="E27" s="25" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
+      <c r="A28" s="46"/>
       <c r="E28" s="25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="46"/>
       <c r="E29" s="25" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="A30" s="46"/>
       <c r="E30" s="25" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="46"/>
       <c r="E31" s="25" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="31"/>
       <c r="E32" s="27" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="48" t="s">
         <v>189</v>
       </c>
       <c r="B33" s="30" t="s">
@@ -3307,7 +3448,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="22" t="s">
         <v>210</v>
       </c>
@@ -3322,7 +3463,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
+      <c r="A35" s="46"/>
       <c r="C35" s="23" t="s">
         <v>195</v>
       </c>
@@ -3334,7 +3475,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
+      <c r="A36" s="46"/>
       <c r="C36" s="23" t="s">
         <v>196</v>
       </c>
@@ -3343,7 +3484,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="46"/>
       <c r="C37" s="23" t="s">
         <v>197</v>
       </c>
@@ -3352,7 +3493,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="46"/>
       <c r="C38" s="23" t="s">
         <v>203</v>
       </c>
@@ -3361,7 +3502,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
+      <c r="A39" s="46"/>
       <c r="C39" s="23" t="s">
         <v>204</v>
       </c>
@@ -3370,26 +3511,26 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
+      <c r="A40" s="46"/>
       <c r="E40" s="25" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="46"/>
       <c r="E41" s="25" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="46"/>
+      <c r="A42" s="47"/>
       <c r="D42" s="33"/>
       <c r="E42" s="27" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="48" t="s">
         <v>211</v>
       </c>
       <c r="B43" s="32"/>
@@ -3404,7 +3545,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
+      <c r="A44" s="49"/>
       <c r="C44" s="23" t="s">
         <v>214</v>
       </c>
@@ -3413,14 +3554,14 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="31"/>
       <c r="C45" s="34" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="48" t="s">
         <v>218</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -3437,7 +3578,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A47" s="45"/>
+      <c r="A47" s="46"/>
       <c r="B47" s="22" t="s">
         <v>221</v>
       </c>
@@ -3452,7 +3593,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="45"/>
+      <c r="A48" s="46"/>
       <c r="B48" s="22" t="s">
         <v>222</v>
       </c>
@@ -3464,7 +3605,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="45"/>
+      <c r="A49" s="46"/>
       <c r="B49" s="22" t="s">
         <v>224</v>
       </c>
@@ -3476,7 +3617,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="45"/>
+      <c r="A50" s="46"/>
       <c r="B50" s="22" t="s">
         <v>248</v>
       </c>
@@ -3488,7 +3629,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="45"/>
+      <c r="A51" s="46"/>
       <c r="B51" s="22" t="s">
         <v>250</v>
       </c>
@@ -3500,7 +3641,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="45"/>
+      <c r="A52" s="46"/>
       <c r="B52" s="22" t="s">
         <v>252</v>
       </c>
@@ -3512,7 +3653,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
+      <c r="A53" s="46"/>
       <c r="B53" s="22" t="s">
         <v>253</v>
       </c>
@@ -3524,7 +3665,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="45"/>
+      <c r="A54" s="46"/>
       <c r="B54" s="22" t="s">
         <v>258</v>
       </c>
@@ -3536,7 +3677,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="45"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="22" t="s">
         <v>259</v>
       </c>
@@ -3545,7 +3686,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="45"/>
+      <c r="A56" s="46"/>
       <c r="B56" s="22" t="s">
         <v>261</v>
       </c>
@@ -3554,7 +3695,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="45"/>
+      <c r="A57" s="46"/>
       <c r="B57" s="22" t="s">
         <v>262</v>
       </c>
@@ -3563,7 +3704,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A58" s="45"/>
+      <c r="A58" s="46"/>
       <c r="B58" s="22" t="s">
         <v>263</v>
       </c>
@@ -3572,7 +3713,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="45"/>
+      <c r="A59" s="46"/>
       <c r="B59" s="22" t="s">
         <v>265</v>
       </c>
@@ -3581,49 +3722,49 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="45"/>
+      <c r="A60" s="46"/>
       <c r="E60" s="25" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="45"/>
+      <c r="A61" s="46"/>
       <c r="E61" s="25" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="45"/>
+      <c r="A62" s="46"/>
       <c r="E62" s="25" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="45"/>
+      <c r="A63" s="46"/>
       <c r="E63" s="25" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="45"/>
+      <c r="A64" s="46"/>
       <c r="E64" s="25" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="45"/>
+      <c r="A65" s="46"/>
       <c r="E65" s="25" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="45"/>
+      <c r="A66" s="46"/>
       <c r="E66" s="25" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="45"/>
+      <c r="A67" s="46"/>
       <c r="B67" s="31"/>
       <c r="E67" s="25" t="s">
         <v>260</v>
@@ -3677,7 +3818,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
+      <c r="A72" s="40"/>
       <c r="B72" s="31"/>
       <c r="C72" s="34" t="s">
         <v>278</v>
@@ -3685,7 +3826,7 @@
       <c r="D72" s="33"/>
     </row>
     <row r="73" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="48" t="s">
         <v>279</v>
       </c>
       <c r="B73" s="22" t="s">
@@ -3702,6 +3843,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A74" s="49"/>
       <c r="B74" s="22" t="s">
         <v>282</v>
       </c>
@@ -3716,6 +3858,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="49"/>
       <c r="B75" s="22" t="s">
         <v>325</v>
       </c>
@@ -3730,6 +3873,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="49"/>
       <c r="B76" s="22" t="s">
         <v>326</v>
       </c>
@@ -3744,6 +3888,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="49"/>
       <c r="B77" s="22" t="s">
         <v>327</v>
       </c>
@@ -3758,6 +3903,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="49"/>
       <c r="C78" s="23" t="s">
         <v>313</v>
       </c>
@@ -3769,6 +3915,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A79" s="49"/>
       <c r="C79" s="23" t="s">
         <v>316</v>
       </c>
@@ -3780,6 +3927,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A80" s="49"/>
       <c r="C80" s="23" t="s">
         <v>317</v>
       </c>
@@ -3790,7 +3938,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="81" spans="3:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A81" s="49"/>
       <c r="C81" s="23" t="s">
         <v>319</v>
       </c>
@@ -3801,7 +3950,8 @@
         <v>322</v>
       </c>
     </row>
-    <row r="82" spans="3:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="49"/>
       <c r="C82" s="23" t="s">
         <v>320</v>
       </c>
@@ -3812,17 +3962,219 @@
         <v>323</v>
       </c>
     </row>
-    <row r="83" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C83" s="23" t="s">
+    <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="49"/>
+      <c r="C83" s="34" t="s">
         <v>328</v>
       </c>
+      <c r="D83" s="33"/>
+      <c r="E83" s="27"/>
+    </row>
+    <row r="84" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84" s="38" t="s">
+        <v>337</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="C84" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B85" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="E85" s="25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B86" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="E86" s="25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B87" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B88" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="E88" s="25" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C89" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="E89" s="25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="C90" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="E90" s="25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="C91" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="E91" s="25" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C92" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C93" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="E93" s="25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C94" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C95" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="E95" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E96" s="25" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E97" s="25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E98" s="25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E99" s="25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="100" spans="5:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E100" s="25" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E101" s="25" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="102" spans="5:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E102" s="25" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E103" s="25" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E104" s="25" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E105" s="25" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="106" spans="5:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E106" s="25" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="107" spans="5:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E107" s="25" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="108" spans="5:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E108" s="25" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="109" spans="5:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E109" s="25" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="110" spans="5:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="E110" s="25" t="s">
+        <v>379</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A32"/>
     <mergeCell ref="A33:A42"/>
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A46:A67"/>
+    <mergeCell ref="A73:A83"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7509E9-E9E4-44EC-B71A-D88C86AE0B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC5ABBE-AFAD-4B1C-857B-635DB3C0675D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="417">
   <si>
     <t>Autor</t>
   </si>
@@ -1714,6 +1714,105 @@
   </si>
   <si>
     <t>permite avaliar a presença, frequência e intensidade de dores nas costas, dores no pescoço e fatores de risco associados, como hábitos comportamentais e posturais.</t>
+  </si>
+  <si>
+    <t>Candotti et al., 2022</t>
+  </si>
+  <si>
+    <t>O BackPEI-A avalia a presença, frequência e intensidade de dores nas costas e no pescoço, bem como possíveis fatores associados, como fatores demográficos, socioeconômicos e comportamentais.</t>
+  </si>
+  <si>
+    <t>Este questionário foi utilizado em ensaios clínicos, estudos transversais e estudos de coorte.</t>
+  </si>
+  <si>
+    <t>Dentre os fatores comportamentais avaliados por este instrumento estão os hábitos de vida e os hábitos posturais</t>
+  </si>
+  <si>
+    <t>Nos últimos anos, os dispositivos móveis (smartphones e/ou tablets) ganharam funções diversificadas que vão muito além da comunicação, tornando-se indispensáveis ​​para diversas atividades laborais e para o dia a dia. Esse fato contribui para a incorporação massiva desses dispositivos ao cotidiano, e seu uso tem se tornado frequente e prolongado, atingindo a marca de mais de 3 horas diárias entre adolescentes e jovens adultos. Alguns estudos apresentam evidências de que a postura cervical não ergonômica adotada por longos períodos pode ser uma das causas da dor no pescoço. Devido à incorporação do uso de dispositivos móveis à rotina, o padrão postural tem se modificado.</t>
+  </si>
+  <si>
+    <t>os dados disponíveis na literatura sobre a relação entre postura cervical e dor no pescoço são divergentes</t>
+  </si>
+  <si>
+    <t>os dados disponíveis na literatura sobre a relação entre postura cervical e dor no pescoço são divergentes o que demonstra a necessidade de mais pesquisas sobre o tema, bem como de instrumentos validados para avaliar esses aspectos.</t>
+  </si>
+  <si>
+    <t>Outra limitação do BackPEI-A refere-se ao formato de aplicação do questionário, uma vez que este foi validado apenas na forma impressa.</t>
+  </si>
+  <si>
+    <t>Formulários online  também podem ser usados ​​em complementaridade com essas outras estratégias de coleta para ampliar a amostra e atingir diferentes perfis de entrevistados.</t>
+  </si>
+  <si>
+    <t>uma revisão de literatura utilizando as bases de dados PubMed, Medline e Scopus para identificar as posturas adotadas durante o uso de dispositivos móveis, a fim de selecionar quais seriam incluídas no BackPEI-A</t>
+  </si>
+  <si>
+    <t>inclusão de novas questões</t>
+  </si>
+  <si>
+    <t>validação de conteúdo por meio da revisão de novas questões por especialistas na área</t>
+  </si>
+  <si>
+    <t>a preparação da versão final do BackPEI-A</t>
+  </si>
+  <si>
+    <t>uma avaliação de confiabilidade das novas questões e da versão online do BackPEI-A</t>
+  </si>
+  <si>
+    <t>a tradução em inglês das novas questões do BackPEI-A</t>
+  </si>
+  <si>
+    <t>A versão final do BackPEI-A atualizado contém 23 questões. Três novas questões foram incluídas: as questões 4 e 5 sobre como os celulares dos participantes são usados ​​(posição adotada) e a questão 12 sobre o tempo de tela diário dos usuários de dispositivos móveis. Além disso, a questão 13 foi alterada de uma investigação sobre o hábito de ler e/ou estudar na cama para o hábito de ler, estudar e/ou usar um dispositivo móvel na cama (Fig. 1). Por fim, nas questões 16 a 23, relacionadas à dor nas costas e no pescoço, foram incluídos desenhos esquemáticos.</t>
+  </si>
+  <si>
+    <t>Na versão atualizada, as questões de 1 a 15 referem-se aos possíveis fatores de risco para dor nas costas e no pescoço. As questões de 16 a 23 avaliam a presença, a frequência, a incapacidade relacionada e a intensidade da dor nas costas e no pescoço.</t>
+  </si>
+  <si>
+    <t>a versão atualizada do BackPEI-A tem uma versão feminina e uma versão masculina</t>
+  </si>
+  <si>
+    <t>Os especialistas receberam a versão inicial da proposta de atualização do BackPEI-A e um questionário específico para validação de conteúdo para analisar: (1) a clareza, a facilidade de compreensão e a aplicabilidade geral das novas questões e do novo design gráfico; e (2) se as novas questões permitem identificar comportamentos de uso de smartphones/tablets.</t>
+  </si>
+  <si>
+    <t>A reprodutibilidade do teste/reteste foi avaliada utilizando o aplicativo BackPEI-A em dois momentos distintos, com intervalo de sete dias. Dois grupos participaram dessa etapa: (1) um grupo respondeu ao questionário utilizando o formulário impresso — apenas as questões novas ou modificadas foram analisadas, visto que as demais questões já haviam se mostrado confiáveis; e (2) um grupo respondeu ao questionário utilizando o formulário online — todas as questões foram analisadas, visto que a validade da versão online nunca havia sido avaliada anteriormente.</t>
+  </si>
+  <si>
+    <t>Inclusion criteria were being an adult aged between 18 and 80 years</t>
+  </si>
+  <si>
+    <t>Os critérios de inclusão foram a capacidade de ler e compreender o questionário sem assistência</t>
+  </si>
+  <si>
+    <t>Os resultados das questões categóricas do BackPEI-A (todas menos a VAS)</t>
+  </si>
+  <si>
+    <t>Em relação às perguntas contínuas: dor nas costas (MDC=2,48), dor no pescoço (MDC=3,10)</t>
+  </si>
+  <si>
+    <t>Embora existam questionários que avaliam a dor nas costas e no pescoço, faltam instrumentos que também avaliem os fatores de risco associados à dor</t>
+  </si>
+  <si>
+    <t>o BackPEI-A, que é autoaplicável e avalia dores nas costas, dores no pescoço e hábitos comportamentais e posturais de adultos</t>
+  </si>
+  <si>
+    <t>Nesta versão atualizada, buscamos confirmar a confiabilidade do teste/reteste do aplicativo por meio de um formulário online</t>
+  </si>
+  <si>
+    <t>O uso do BackPEI-A online facilita, flexibiliza, melhora e agiliza o processo de coleta e análise de dados no ambiente clínico e científico.</t>
+  </si>
+  <si>
+    <t>Questionários autoadministrados online são uma boa alternativa para avaliar e monitorar pacientes que necessitam de atendimento online</t>
+  </si>
+  <si>
+    <t>Este novo layout foi desenvolvido para auxiliar na compreensão da avaliação quanto à região corporal a que as questões se referem. Estudos demonstram que a dor, por vezes, é difícil para o paciente localizar e que sua imagem corporal pode ser alterada. Nessa perspectiva, a nova versão teve como objetivo facilitar a aplicação dessas questões, fornecendo um guia visual da região corporal referente a “dor nas costas” e “dor no pescoço”. O layout foi considerado válido em relação ao seu conteúdo, pois apresentou IVC igual a 1. Da mesma forma, as questões em que esse novo layout é aplicado (questões 16 a 23) também se mostraram reprodutíveis no formulário online.</t>
+  </si>
+  <si>
+    <t>A principal limitação deste estudo é a ausência de uma pontuação sobre a possível exposição a fatores associados à dor nas costas e no pescoço</t>
+  </si>
+  <si>
+    <t>a versão atualizada do BackPEI-A avalia a presença, frequência e intensidade de dores nas costas e no pescoço nos últimos três meses, além de fatores comportamentais (acidente anterior, aspectos da atividade física, tempo de uso do computador e dispositivos móveis e horas de sono) e posturais (postura para escrever, sentar em um banco, usar o computador e dispositivos móveis, pegar objetos do chão e dormir)</t>
+  </si>
+  <si>
+    <t>Tanto a versão impressa quanto a online deste instrumento permitem identificar aspectos relacionados à dor nas costas e no pescoço, bem como possíveis fatores de risco, como hábitos comportamentais e posturais.</t>
   </si>
 </sst>
 </file>
@@ -1994,19 +2093,19 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2346,10 +2445,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="43">
         <v>2013</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -2372,8 +2471,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="42"/>
       <c r="D3" s="3">
         <v>2</v>
@@ -2389,8 +2488,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="42"/>
       <c r="D4" s="3">
         <v>3</v>
@@ -2406,8 +2505,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="42"/>
       <c r="D5" s="3">
         <v>4</v>
@@ -2419,8 +2518,8 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="42"/>
       <c r="D6" s="3">
         <v>5</v>
@@ -2432,8 +2531,8 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="42"/>
       <c r="D7" s="3">
         <v>6</v>
@@ -2441,7 +2540,7 @@
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="41" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2449,8 +2548,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="42"/>
       <c r="D8" s="3">
         <v>7</v>
@@ -2458,12 +2557,12 @@
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="44"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="42"/>
       <c r="D9" s="3">
         <v>8</v>
@@ -2471,14 +2570,14 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="44"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="42"/>
       <c r="D10" s="3">
         <v>9</v>
@@ -2492,8 +2591,8 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="42"/>
       <c r="D11" s="3">
         <v>10</v>
@@ -2505,8 +2604,8 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="42"/>
       <c r="D12" s="3">
         <v>11</v>
@@ -2522,8 +2621,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="42"/>
       <c r="D13" s="3">
         <v>12</v>
@@ -2560,10 +2659,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="44">
         <v>2018</v>
       </c>
       <c r="C15" s="42" t="s">
@@ -2575,7 +2674,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="41" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -2586,8 +2685,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="42"/>
       <c r="D16" s="3">
         <v>2</v>
@@ -2595,14 +2694,14 @@
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="44"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="42"/>
       <c r="D17" s="3">
         <v>3</v>
@@ -2610,14 +2709,14 @@
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="44"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="42"/>
       <c r="D18" s="3">
         <v>4</v>
@@ -2633,8 +2732,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="42"/>
       <c r="D19" s="3">
         <v>5</v>
@@ -2650,8 +2749,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="42"/>
       <c r="D20" s="3">
         <v>6</v>
@@ -2664,8 +2763,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="42"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
@@ -2701,10 +2800,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="44">
         <v>2019</v>
       </c>
       <c r="C23" s="42" t="s">
@@ -2724,8 +2823,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="42"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
@@ -2738,8 +2837,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="42"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
@@ -2752,8 +2851,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="42"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
@@ -2766,8 +2865,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="42"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
@@ -2780,10 +2879,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="45">
         <v>2021</v>
       </c>
       <c r="C28" s="42" t="s">
@@ -2803,8 +2902,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="42"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
@@ -2818,8 +2917,8 @@
       <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="42"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
@@ -3101,6 +3200,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -3109,13 +3215,6 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3125,11 +3224,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E623474-3705-4594-B9DF-AE0ADD157849}">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3971,7 +4070,7 @@
       <c r="E83" s="27"/>
     </row>
     <row r="84" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="38" t="s">
+      <c r="A84" s="48" t="s">
         <v>337</v>
       </c>
       <c r="B84" s="32" t="s">
@@ -3988,6 +4087,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A85" s="46"/>
       <c r="B85" s="22" t="s">
         <v>341</v>
       </c>
@@ -4002,6 +4102,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="46"/>
       <c r="B86" s="22" t="s">
         <v>369</v>
       </c>
@@ -4016,6 +4117,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="46"/>
       <c r="B87" s="22" t="s">
         <v>371</v>
       </c>
@@ -4027,6 +4129,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="46"/>
       <c r="B88" s="22" t="s">
         <v>382</v>
       </c>
@@ -4038,6 +4141,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A89" s="46"/>
       <c r="C89" s="23" t="s">
         <v>370</v>
       </c>
@@ -4046,6 +4150,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A90" s="46"/>
       <c r="C90" s="23" t="s">
         <v>372</v>
       </c>
@@ -4054,6 +4159,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A91" s="46"/>
       <c r="C91" s="23" t="s">
         <v>373</v>
       </c>
@@ -4062,6 +4168,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="46"/>
       <c r="C92" s="23" t="s">
         <v>374</v>
       </c>
@@ -4070,6 +4177,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A93" s="46"/>
       <c r="C93" s="23" t="s">
         <v>376</v>
       </c>
@@ -4078,6 +4186,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A94" s="46"/>
       <c r="C94" s="23" t="s">
         <v>378</v>
       </c>
@@ -4086,6 +4195,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A95" s="46"/>
       <c r="C95" s="23" t="s">
         <v>383</v>
       </c>
@@ -4094,82 +4204,231 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="46"/>
       <c r="E96" s="25" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="97" spans="5:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="46"/>
       <c r="E97" s="25" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="98" spans="5:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="46"/>
       <c r="E98" s="25" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="99" spans="5:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="46"/>
       <c r="E99" s="25" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="100" spans="5:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="46"/>
       <c r="E100" s="25" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="101" spans="5:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="46"/>
       <c r="E101" s="25" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="102" spans="5:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="46"/>
       <c r="E102" s="25" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="103" spans="5:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="46"/>
       <c r="E103" s="25" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="104" spans="5:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="46"/>
       <c r="E104" s="25" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="105" spans="5:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="46"/>
       <c r="E105" s="25" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="106" spans="5:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="46"/>
       <c r="E106" s="25" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="107" spans="5:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="46"/>
       <c r="E107" s="25" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="108" spans="5:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A108" s="46"/>
       <c r="E108" s="25" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="109" spans="5:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A109" s="46"/>
       <c r="E109" s="25" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="110" spans="5:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A110" s="47"/>
+      <c r="D110" s="33"/>
       <c r="E110" s="25" t="s">
         <v>379</v>
       </c>
     </row>
+    <row r="111" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A111" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="C111" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E111" s="35" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B112" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="C112" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="D112" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="E112" s="25" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="B113" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>414</v>
+      </c>
+      <c r="E113" s="25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B114" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="E114" s="25" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B115" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="E115" s="25" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B116" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C117" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="E117" s="25" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="C118" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="E118" s="25" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C119" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="E119" s="25" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E120" s="25" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="E121" s="25" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="E122" s="25" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E123" s="25" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E124" s="25" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="E125" s="25" t="s">
+        <v>413</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A84:A110"/>
     <mergeCell ref="A2:A32"/>
     <mergeCell ref="A33:A42"/>
     <mergeCell ref="A43:A45"/>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC5ABBE-AFAD-4B1C-857B-635DB3C0675D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92F0254-B329-4344-B6D6-31C6B615CE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descritivos" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="451">
   <si>
     <t>Autor</t>
   </si>
@@ -1813,6 +1813,108 @@
   </si>
   <si>
     <t>Tanto a versão impressa quanto a online deste instrumento permitem identificar aspectos relacionados à dor nas costas e no pescoço, bem como possíveis fatores de risco, como hábitos comportamentais e posturais.</t>
+  </si>
+  <si>
+    <t>GÖKŞEM 2023</t>
+  </si>
+  <si>
+    <t>O Instrumento de Avaliação de Dor nas Costas e Postura Corporal para Adultos (BackPEI) avalia a dor nas costas e os fatores relacionados à dor, como maus hábitos posturais.</t>
+  </si>
+  <si>
+    <t>O uso desta escala deve ser considerado em pacientes com hérnia de disco</t>
+  </si>
+  <si>
+    <t>Porque os sintomas da hérnia de disco são influenciados principalmente pelas características fisiológicas dos músculos que conectam a parte superior ao ombro e a inferior à pélvis</t>
+  </si>
+  <si>
+    <t>Os participantes incluídos no estudo devem ter pelo menos 1 hérnia de disco cervical ou lombar</t>
+  </si>
+  <si>
+    <t>Pacientes com escoliose cervical e lombar e espondilolistese não foram incluídos no estudo. Dessa forma, obteve-se um grupo mais homogêneo.</t>
+  </si>
+  <si>
+    <t>Foi planejado incluir pacientes entre 20 e 65 anos no estudo</t>
+  </si>
+  <si>
+    <t>O BackPEI é uma escala que avalia dores nas costas e hábitos posturais na vida diária</t>
+  </si>
+  <si>
+    <t>O questionário é composto por 20 perguntas no total</t>
+  </si>
+  <si>
+    <t>As posições mostradas nas fotografias, incluindo as questões 9 a 14 do questionário, estão relacionadas às posturas nas atividades da vida diária. O questionário também inclui perguntas que abordam fatores demográficos, socioeconômicos, hereditários e comportamentais.</t>
+  </si>
+  <si>
+    <t>O BackPEI aplica um sistema de pontuação geral que inclui apenas questões que se referem a fatores de risco. Nas questões de 1 a 4, a postura adequada recebe 1 ponto e a postura inadequada recebe 0 ponto. Apenas uma opção é aceita para essas questões. Nas questões 5, 8 e 10, as respostas positivas recebem 0 ponto e as negativas recebem 1 ponto. Na questão número 6, as respostas positivas recebem 1 ponto e as negativas recebem 0 ponto. As questões 7 e 9 não são pontuadas. Na questão 11, a opção “de bruços” (no meu estômago) recebe 0 ponto, e as outras opções recebem 1 ponto. Na questão, 12, 7, 8 ou 9 horas de sono recebem 1 ponto; as outras opções recebem 0 ponto. A pontuação total é a soma de todas as pontuações (máximo de 10 pontos). Quanto maior a pontuação obtida, menor a exposição a fatores de risco para dor.</t>
+  </si>
+  <si>
+    <t>MHQ Trata-se de um questionário curto e de fácil compreensão, desenvolvido por Scott et al. em 2020 para obter uma abordagem holística em pacientes com envolvimento musculoesquelético. O questionário incluiu dor e rigidez (diurna e noturna), função física (caminhar e se vestir), nível de atividade física, envolvimento de sintomas relacionados ao trabalho, atividades diárias e sociais e hobbies, dificuldade para dormir, fadiga, bem-estar emocional e diagnóstico. Consiste em um total de 14 perguntas que avaliam a compreensão do tratamento e o efeito geral da doença. Cada pergunta possui uma pontuação em escala Likert de 5 pontos. A pontuação total varia de 0 a 56, com 0 ponto indicando o pior estado de saúde e 56 pontos indicando o melhor estado de saúde.</t>
+  </si>
+  <si>
+    <t>Para as avaliações de confiabilidade teste-reteste foram realizadas com intervalo de 1 semana.</t>
+  </si>
+  <si>
+    <t>A validade concorrente foi examinada para correlações com o MHQTR</t>
+  </si>
+  <si>
+    <t>Os participantes não receberam nenhum tratamento durante o procedimento de aplicação do questionário. Antes das avaliações e entre as duas avaliações, os pacientes foram orientados a não usar anti-inflamatórios ou qualquer tratamento conservador e a não receber qualquer tratamento.</t>
+  </si>
+  <si>
+    <t>pergunta nominal (ou seja, perguntas 1 a 15 e perguntas 17 a 19)</t>
+  </si>
+  <si>
+    <t>Para determinar a concordância entre as medidas para cada questão nominal (ou seja, questões 1-15 e questões 17-19), foi executada a análise κ (kappa) de Cohen.</t>
+  </si>
+  <si>
+    <t>As análises de confiabilidade teste-reteste foram utilizadas no processo de exame da confiabilidade da escala</t>
+  </si>
+  <si>
+    <t>Análise de reprodutibilidade Os valores do ICC foram calculados para investigar as relações e o aspecto da reprodutibilidade entre as questões 16 (intensidade da dor nas costas), 20 (intensidade da dor no pescoço) e os escores totais da escala BackPEI-TR.</t>
+  </si>
+  <si>
+    <t>Validade simultânea: A análise de correlação (coeficiente de Spearman) foi conduzida para examinar as relações entre as pontuações BackPEI-TR e MHQ-TR.</t>
+  </si>
+  <si>
+    <t>Validade de construção: Os 27% inferiores e superiores das pontuações totais da escala foram comparados para avaliar a validade de construção da escala.</t>
+  </si>
+  <si>
+    <t>Os valores de κ (kappa) correspondentes à análise kappa de Cohen para examinar a consistência interna foram apresentados na Tabela 2. Os resultados mostraram que onze questões foram classificadas como boas e as demais como muito boas. Portanto, todas as questões podem ser consideradas razoáveis ​​e devem permanecer nesta escala com base no limiar dado como κ≥0,5.</t>
+  </si>
+  <si>
+    <t>A Tabela 3 apresenta os resultados de uma investigação da confiabilidade teste-reteste entre a primeira e a segunda pontuação da escala BackPEI-TR, utilizando três técnicas diferentes, incluindo o teste de postos sinalizados de Wilcoxon, análise de correlação e coeficiente ICC. De acordo com os resultados, a escala é considerada confiável com base em cada método, devido aos resultados significativos (p &lt; 0,001) e aos altos valores de correlação positiva.</t>
+  </si>
+  <si>
+    <t>Confiabilidade teste-reteste: Análises de confiabilidade teste-reteste foram utilizadas no processo de análise da confiabilidade da escala. A análise de confiabilidade foi realizada exaustivamente por meio de análise de correlação, teste de amostras pareadas (teste t ou teste de postos sinalizados de Wilcoxon) e coeficiente de correlação intraclasse (CCI), utilizando as pontuações totais da escala coletadas ao longo de dois períodos, considerando a estrutura de dados da escala (aqui foi considerado a pontuação total da escala)</t>
+  </si>
+  <si>
+    <t>Os valores de ICC para investigar a reprodutibilidade apresentados na Tabela 4 foram calculados utilizando a pontuação total do BackPEI e as questões relativas à intensidade da dor (questões 16 e 20) e variaram entre 0,716 e 0,800. Uma análise dos resultados na Tabela 4 revela que as questões 16 e 20 e as pontuações totais do BackPEI-TR apresentaram alta correlação com excelente .</t>
+  </si>
+  <si>
+    <t>Os resultados da análise de correlação realizada com o contexto de validade concorrente entre os escores do BackPEI-TR e do MHQ-TR foram apresentados na Tabela 5. Os resultados, conforme demonstrado na Tabela 5, indicaram que uma correlação positiva e significativa foi encontrada. Isso confirma que a escala BackPEI-TR pode ser considerada uma escala útil e aplicável.</t>
+  </si>
+  <si>
+    <t>Para avaliar a validade de constructo da escala, foram realizadas comparações das pontuações pertencentes aos percentis inferior e superior de 27%, e os resultados são mostrados na Tabela 6. Como resultado desta tabela, a escala é confiável e tem a capacidade de mensurar a situação definida.</t>
+  </si>
+  <si>
+    <t>According to the findings, there is no difference in BackPEI-TR and MHQ-TR scores between males and females (p=0.230, 0.807 respectively).</t>
+  </si>
+  <si>
+    <t>De acordo com os resultados, não há diferença nas pontuações BackPEI-TR e MHQ-TR entre homens e mulheres (p=0,230, 0,807 respectivamente).</t>
+  </si>
+  <si>
+    <t>A principal descoberta do presente estudo foi que todas as perguntas do questionário BackPEI-TR podem ser consideradas razoáveis ​​para pacientes com hérnia de disco cervical e lombar.</t>
+  </si>
+  <si>
+    <t>Pacientes que relataram altas pontuações de dor de acordo com as perguntas do BackPEI sobre intensidade da dor e pontuações significativamente mais baixas no MHQ-TR também pontuaram mais baixo no BackPEI-TR.</t>
+  </si>
+  <si>
+    <t>O primeiro passo no tratamento da hérnia de disco é a avaliação do paciente. Esta escala pode ser usada para avaliar a dor e a postura na hérnia de disco.</t>
+  </si>
+  <si>
+    <t>Dor no pescoço e nas costas em casos de hérnia de disco cervical e lombar pode ser resolvida por meio de educação sobre os fatores relacionados à dor que podem ser modificados. Treinamentos de conscientização e exercícios posturais oferecidos a pacientes com hérnia de disco cervical e lombar para proteger a saúde da coluna podem reduzir os fatores relacionados à dor associados à progressão da hérnia de disco.</t>
+  </si>
+  <si>
+    <t>O uso desta escala em pacientes com hérnia de disco pode ser importante para avaliar a dor e os hábitos posturais que aumentam a dor.</t>
   </si>
 </sst>
 </file>
@@ -2093,27 +2195,27 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2401,9 +2503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2445,10 +2547,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="45">
         <v>2013</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -2471,8 +2573,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="42"/>
       <c r="D3" s="3">
         <v>2</v>
@@ -2488,8 +2590,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="42"/>
       <c r="D4" s="3">
         <v>3</v>
@@ -2505,8 +2607,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="42"/>
       <c r="D5" s="3">
         <v>4</v>
@@ -2518,8 +2620,8 @@
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="42"/>
       <c r="D6" s="3">
         <v>5</v>
@@ -2531,8 +2633,8 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="42"/>
       <c r="D7" s="3">
         <v>6</v>
@@ -2540,7 +2642,7 @@
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="44" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2548,8 +2650,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="42"/>
       <c r="D8" s="3">
         <v>7</v>
@@ -2557,12 +2659,12 @@
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="42"/>
       <c r="D9" s="3">
         <v>8</v>
@@ -2570,14 +2672,14 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="41"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="42"/>
       <c r="D10" s="3">
         <v>9</v>
@@ -2591,8 +2693,8 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="42"/>
       <c r="D11" s="3">
         <v>10</v>
@@ -2604,8 +2706,8 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="42"/>
       <c r="D12" s="3">
         <v>11</v>
@@ -2621,8 +2723,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="42"/>
       <c r="D13" s="3">
         <v>12</v>
@@ -2659,10 +2761,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="43">
         <v>2018</v>
       </c>
       <c r="C15" s="42" t="s">
@@ -2674,7 +2776,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="44" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -2685,8 +2787,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="42"/>
       <c r="D16" s="3">
         <v>2</v>
@@ -2694,14 +2796,14 @@
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="41"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="42"/>
       <c r="D17" s="3">
         <v>3</v>
@@ -2709,14 +2811,14 @@
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="41"/>
+      <c r="F17" s="44"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
       <c r="C18" s="42"/>
       <c r="D18" s="3">
         <v>4</v>
@@ -2732,8 +2834,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="42"/>
       <c r="D19" s="3">
         <v>5</v>
@@ -2749,8 +2851,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="42"/>
       <c r="D20" s="3">
         <v>6</v>
@@ -2763,8 +2865,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="42"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
@@ -2800,10 +2902,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="43">
         <v>2019</v>
       </c>
       <c r="C23" s="42" t="s">
@@ -2823,8 +2925,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="42"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
@@ -2837,8 +2939,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="42"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
@@ -2851,8 +2953,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="42"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
@@ -2865,8 +2967,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="42"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
@@ -2879,10 +2981,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="41">
         <v>2021</v>
       </c>
       <c r="C28" s="42" t="s">
@@ -2902,8 +3004,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
       <c r="C29" s="42"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
@@ -2917,8 +3019,8 @@
       <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
       <c r="C30" s="42"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
@@ -3200,13 +3302,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -3215,6 +3310,13 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3224,11 +3326,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E623474-3705-4594-B9DF-AE0ADD157849}">
-  <dimension ref="A1:E125"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C120" sqref="C120"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3257,7 +3359,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -3274,7 +3376,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="22" t="s">
         <v>142</v>
       </c>
@@ -3289,7 +3391,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="22" t="s">
         <v>143</v>
       </c>
@@ -3304,7 +3406,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="22" t="s">
         <v>146</v>
       </c>
@@ -3319,7 +3421,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="22" t="s">
         <v>180</v>
       </c>
@@ -3331,7 +3433,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="22" t="s">
         <v>187</v>
       </c>
@@ -3343,7 +3445,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="22" t="s">
         <v>188</v>
       </c>
@@ -3355,7 +3457,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="47"/>
       <c r="C9" s="23" t="s">
         <v>147</v>
       </c>
@@ -3364,7 +3466,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="47"/>
       <c r="C10" s="23" t="s">
         <v>147</v>
       </c>
@@ -3373,7 +3475,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="47"/>
       <c r="C11" s="23" t="s">
         <v>148</v>
       </c>
@@ -3382,7 +3484,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="47"/>
       <c r="C12" s="23" t="s">
         <v>158</v>
       </c>
@@ -3391,7 +3493,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="47"/>
       <c r="C13" s="23" t="s">
         <v>159</v>
       </c>
@@ -3400,7 +3502,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+      <c r="A14" s="47"/>
       <c r="C14" s="23" t="s">
         <v>160</v>
       </c>
@@ -3409,7 +3511,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="47"/>
       <c r="C15" s="23" t="s">
         <v>163</v>
       </c>
@@ -3418,7 +3520,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
+      <c r="A16" s="47"/>
       <c r="C16" s="23" t="s">
         <v>174</v>
       </c>
@@ -3427,7 +3529,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+      <c r="A17" s="47"/>
       <c r="C17" s="23" t="s">
         <v>179</v>
       </c>
@@ -3436,7 +3538,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
+      <c r="A18" s="47"/>
       <c r="C18" s="23" t="s">
         <v>186</v>
       </c>
@@ -3445,92 +3547,92 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
+      <c r="A19" s="47"/>
       <c r="E19" s="25" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
+      <c r="A20" s="47"/>
       <c r="E20" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="47"/>
       <c r="E21" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="47"/>
       <c r="E22" s="25" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="47"/>
       <c r="E23" s="25" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="47"/>
       <c r="E24" s="25" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="47"/>
       <c r="E25" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="47"/>
       <c r="E26" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
+      <c r="A27" s="47"/>
       <c r="E27" s="25" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
+      <c r="A28" s="47"/>
       <c r="E28" s="25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
+      <c r="A29" s="47"/>
       <c r="E29" s="25" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
+      <c r="A30" s="47"/>
       <c r="E30" s="25" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
+      <c r="A31" s="47"/>
       <c r="E31" s="25" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="31"/>
       <c r="E32" s="27" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="46" t="s">
         <v>189</v>
       </c>
       <c r="B33" s="30" t="s">
@@ -3547,7 +3649,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="22" t="s">
         <v>210</v>
       </c>
@@ -3562,7 +3664,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
+      <c r="A35" s="47"/>
       <c r="C35" s="23" t="s">
         <v>195</v>
       </c>
@@ -3574,7 +3676,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
+      <c r="A36" s="47"/>
       <c r="C36" s="23" t="s">
         <v>196</v>
       </c>
@@ -3583,7 +3685,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
+      <c r="A37" s="47"/>
       <c r="C37" s="23" t="s">
         <v>197</v>
       </c>
@@ -3592,7 +3694,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
+      <c r="A38" s="47"/>
       <c r="C38" s="23" t="s">
         <v>203</v>
       </c>
@@ -3601,7 +3703,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
+      <c r="A39" s="47"/>
       <c r="C39" s="23" t="s">
         <v>204</v>
       </c>
@@ -3610,26 +3712,26 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
+      <c r="A40" s="47"/>
       <c r="E40" s="25" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
+      <c r="A41" s="47"/>
       <c r="E41" s="25" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
+      <c r="A42" s="48"/>
       <c r="D42" s="33"/>
       <c r="E42" s="27" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="46" t="s">
         <v>211</v>
       </c>
       <c r="B43" s="32"/>
@@ -3660,7 +3762,7 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="46" t="s">
         <v>218</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -3677,7 +3779,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A47" s="46"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="22" t="s">
         <v>221</v>
       </c>
@@ -3692,7 +3794,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="22" t="s">
         <v>222</v>
       </c>
@@ -3704,7 +3806,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="46"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="22" t="s">
         <v>224</v>
       </c>
@@ -3716,7 +3818,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="22" t="s">
         <v>248</v>
       </c>
@@ -3728,7 +3830,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="46"/>
+      <c r="A51" s="47"/>
       <c r="B51" s="22" t="s">
         <v>250</v>
       </c>
@@ -3740,7 +3842,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="22" t="s">
         <v>252</v>
       </c>
@@ -3752,7 +3854,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="46"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="22" t="s">
         <v>253</v>
       </c>
@@ -3764,7 +3866,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="46"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="22" t="s">
         <v>258</v>
       </c>
@@ -3776,7 +3878,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="46"/>
+      <c r="A55" s="47"/>
       <c r="B55" s="22" t="s">
         <v>259</v>
       </c>
@@ -3785,7 +3887,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="46"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="22" t="s">
         <v>261</v>
       </c>
@@ -3794,7 +3896,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="46"/>
+      <c r="A57" s="47"/>
       <c r="B57" s="22" t="s">
         <v>262</v>
       </c>
@@ -3803,7 +3905,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A58" s="46"/>
+      <c r="A58" s="47"/>
       <c r="B58" s="22" t="s">
         <v>263</v>
       </c>
@@ -3812,7 +3914,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="46"/>
+      <c r="A59" s="47"/>
       <c r="B59" s="22" t="s">
         <v>265</v>
       </c>
@@ -3821,49 +3923,49 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="46"/>
+      <c r="A60" s="47"/>
       <c r="E60" s="25" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="46"/>
+      <c r="A61" s="47"/>
       <c r="E61" s="25" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="46"/>
+      <c r="A62" s="47"/>
       <c r="E62" s="25" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="46"/>
+      <c r="A63" s="47"/>
       <c r="E63" s="25" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="46"/>
+      <c r="A64" s="47"/>
       <c r="E64" s="25" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="46"/>
+      <c r="A65" s="47"/>
       <c r="E65" s="25" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="46"/>
+      <c r="A66" s="47"/>
       <c r="E66" s="25" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="46"/>
+      <c r="A67" s="47"/>
       <c r="B67" s="31"/>
       <c r="E67" s="25" t="s">
         <v>260</v>
@@ -3925,7 +4027,7 @@
       <c r="D72" s="33"/>
     </row>
     <row r="73" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A73" s="48" t="s">
+      <c r="A73" s="46" t="s">
         <v>279</v>
       </c>
       <c r="B73" s="22" t="s">
@@ -4070,7 +4172,7 @@
       <c r="E83" s="27"/>
     </row>
     <row r="84" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="48" t="s">
+      <c r="A84" s="46" t="s">
         <v>337</v>
       </c>
       <c r="B84" s="32" t="s">
@@ -4087,7 +4189,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="46"/>
+      <c r="A85" s="47"/>
       <c r="B85" s="22" t="s">
         <v>341</v>
       </c>
@@ -4102,7 +4204,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="46"/>
+      <c r="A86" s="47"/>
       <c r="B86" s="22" t="s">
         <v>369</v>
       </c>
@@ -4117,7 +4219,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="46"/>
+      <c r="A87" s="47"/>
       <c r="B87" s="22" t="s">
         <v>371</v>
       </c>
@@ -4129,7 +4231,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="46"/>
+      <c r="A88" s="47"/>
       <c r="B88" s="22" t="s">
         <v>382</v>
       </c>
@@ -4141,7 +4243,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="46"/>
+      <c r="A89" s="47"/>
       <c r="C89" s="23" t="s">
         <v>370</v>
       </c>
@@ -4150,7 +4252,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A90" s="46"/>
+      <c r="A90" s="47"/>
       <c r="C90" s="23" t="s">
         <v>372</v>
       </c>
@@ -4159,7 +4261,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A91" s="46"/>
+      <c r="A91" s="47"/>
       <c r="C91" s="23" t="s">
         <v>373</v>
       </c>
@@ -4168,7 +4270,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="46"/>
+      <c r="A92" s="47"/>
       <c r="C92" s="23" t="s">
         <v>374</v>
       </c>
@@ -4177,7 +4279,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" s="46"/>
+      <c r="A93" s="47"/>
       <c r="C93" s="23" t="s">
         <v>376</v>
       </c>
@@ -4186,7 +4288,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94" s="46"/>
+      <c r="A94" s="47"/>
       <c r="C94" s="23" t="s">
         <v>378</v>
       </c>
@@ -4195,7 +4297,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A95" s="46"/>
+      <c r="A95" s="47"/>
       <c r="C95" s="23" t="s">
         <v>383</v>
       </c>
@@ -4204,98 +4306,98 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="46"/>
+      <c r="A96" s="47"/>
       <c r="E96" s="25" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="46"/>
+      <c r="A97" s="47"/>
       <c r="E97" s="25" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="46"/>
+      <c r="A98" s="47"/>
       <c r="E98" s="25" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="46"/>
+      <c r="A99" s="47"/>
       <c r="E99" s="25" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="46"/>
+      <c r="A100" s="47"/>
       <c r="E100" s="25" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="46"/>
+      <c r="A101" s="47"/>
       <c r="E101" s="25" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="46"/>
+      <c r="A102" s="47"/>
       <c r="E102" s="25" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="46"/>
+      <c r="A103" s="47"/>
       <c r="E103" s="25" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="46"/>
+      <c r="A104" s="47"/>
       <c r="E104" s="25" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="46"/>
+      <c r="A105" s="47"/>
       <c r="E105" s="25" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="46"/>
+      <c r="A106" s="47"/>
       <c r="E106" s="25" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="46"/>
+      <c r="A107" s="47"/>
       <c r="E107" s="25" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="46"/>
+      <c r="A108" s="47"/>
       <c r="E108" s="25" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="46"/>
+      <c r="A109" s="47"/>
       <c r="E109" s="25" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="47"/>
+      <c r="A110" s="48"/>
       <c r="D110" s="33"/>
       <c r="E110" s="25" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="38" t="s">
+      <c r="A111" s="46" t="s">
         <v>384</v>
       </c>
       <c r="B111" s="32" t="s">
@@ -4312,6 +4414,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="47"/>
       <c r="B112" s="22" t="s">
         <v>390</v>
       </c>
@@ -4325,7 +4428,8 @@
         <v>393</v>
       </c>
     </row>
-    <row r="113" spans="2:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A113" s="47"/>
       <c r="B113" s="22" t="s">
         <v>392</v>
       </c>
@@ -4339,7 +4443,8 @@
         <v>394</v>
       </c>
     </row>
-    <row r="114" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="47"/>
       <c r="B114" s="22" t="s">
         <v>408</v>
       </c>
@@ -4350,7 +4455,8 @@
         <v>395</v>
       </c>
     </row>
-    <row r="115" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A115" s="47"/>
       <c r="B115" s="22" t="s">
         <v>411</v>
       </c>
@@ -4361,7 +4467,8 @@
         <v>396</v>
       </c>
     </row>
-    <row r="116" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="47"/>
       <c r="B116" s="22" t="s">
         <v>412</v>
       </c>
@@ -4372,7 +4479,8 @@
         <v>397</v>
       </c>
     </row>
-    <row r="117" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="47"/>
       <c r="C117" s="23" t="s">
         <v>409</v>
       </c>
@@ -4380,7 +4488,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="118" spans="2:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A118" s="47"/>
       <c r="C118" s="23" t="s">
         <v>415</v>
       </c>
@@ -4388,7 +4497,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="119" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A119" s="47"/>
       <c r="C119" s="23" t="s">
         <v>416</v>
       </c>
@@ -4396,38 +4506,178 @@
         <v>400</v>
       </c>
     </row>
-    <row r="120" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="47"/>
       <c r="E120" s="25" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="121" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A121" s="47"/>
       <c r="E121" s="25" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A122" s="47"/>
       <c r="E122" s="25" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="123" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="47"/>
       <c r="E123" s="25" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="124" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="47"/>
       <c r="E124" s="25" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="125" spans="2:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A125" s="48"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="34"/>
+      <c r="D125" s="33"/>
       <c r="E125" s="25" t="s">
         <v>413</v>
       </c>
     </row>
+    <row r="126" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A126" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="D126" s="24" t="s">
+        <v>427</v>
+      </c>
+      <c r="E126" s="35" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B127" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="E127" s="25" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B128" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B129" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E129" s="25" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C130" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="E130" s="25" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="C131" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="E131" s="25" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C132" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="E132" s="25" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="C133" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="E133" s="25" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="C134" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C135" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="E135" s="25" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="C136" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="E136" s="25" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C137" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="E137" s="25" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C138" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="E138" s="25" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C139" s="23" t="s">
+        <v>447</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A111:A125"/>
     <mergeCell ref="A84:A110"/>
     <mergeCell ref="A2:A32"/>
     <mergeCell ref="A33:A42"/>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92F0254-B329-4344-B6D6-31C6B615CE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA90AAB-874F-4FD0-9D7E-AAA01D52DEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="16305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descritivos" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="453">
   <si>
     <t>Autor</t>
   </si>
@@ -1915,6 +1915,12 @@
   </si>
   <si>
     <t>O uso desta escala em pacientes com hérnia de disco pode ser importante para avaliar a dor e os hábitos posturais que aumentam a dor.</t>
+  </si>
+  <si>
+    <t>Possibilitar a análise da postura corporal na realização de atividades da vida diária como um fator de risco para dor nas costas, permitindo uma avaliação conjunta desses elementos, e de outros fatores de risco, em pesquisas através de um único sistema de medição. A tradução para o inglês visa ampliar o acesso ao conteúdo para pesquisadores internacionais.</t>
+  </si>
+  <si>
+    <t>O BackPEI mede a dor nas costas e fatores associados entre crianças em idade escolar (11 a 16 anos). A dor é caracterizada a partir da ocorrência, frequência e intensidade ao longo dos 3 meses anteriores à medição. Os fatores associados são divididos em demográficos (idade e gênero), comportamental (nível de atividade física e prática de exercício físico competitivo, tempo assistindo televisão e usando o computador, tempo de sono, hábito de ler e/ou estudar na cama, modo de transportar o material escolar, forma de carregar a mochila escolar e posturas ao dormir, sentar em uma cadeira para escrever, sentar em uma cadeira para conversar, usar um computador e levantar um objeto do chão, socioeconômico (tipo de escola e escolaridade dos pais e/ou responsáveis) e hereditário (ocorrência de dor nas costas no pais).</t>
   </si>
 </sst>
 </file>
@@ -2074,7 +2080,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2195,19 +2201,19 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2220,6 +2226,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2501,11 +2510,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2517,10 +2526,10 @@
     <col min="6" max="6" width="70.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="55.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="39.7109375" style="3" customWidth="1"/>
-    <col min="9" max="12" width="36.5703125" customWidth="1"/>
+    <col min="9" max="12" width="36.5703125" style="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2545,12 +2554,24 @@
       <c r="H1" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="I1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="345" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="43">
         <v>2013</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -2571,10 +2592,18 @@
       <c r="H2" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
+      <c r="I2" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
       <c r="C3" s="42"/>
       <c r="D3" s="3">
         <v>2</v>
@@ -2588,10 +2617,14 @@
       <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="42"/>
       <c r="D4" s="3">
         <v>3</v>
@@ -2605,10 +2638,14 @@
       <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="42"/>
       <c r="D5" s="3">
         <v>4</v>
@@ -2618,10 +2655,14 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="42"/>
       <c r="D6" s="3">
         <v>5</v>
@@ -2631,10 +2672,14 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="42"/>
       <c r="D7" s="3">
         <v>6</v>
@@ -2642,16 +2687,20 @@
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="41" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="42"/>
       <c r="D8" s="3">
         <v>7</v>
@@ -2659,12 +2708,16 @@
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="44"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="42"/>
       <c r="D9" s="3">
         <v>8</v>
@@ -2672,14 +2725,18 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="44"/>
+      <c r="F9" s="41"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="42"/>
       <c r="D10" s="3">
         <v>9</v>
@@ -2691,10 +2748,14 @@
         <v>24</v>
       </c>
       <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="42"/>
       <c r="D11" s="3">
         <v>10</v>
@@ -2704,10 +2765,14 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="42"/>
       <c r="D12" s="3">
         <v>11</v>
@@ -2721,10 +2786,14 @@
       <c r="G12" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="42"/>
       <c r="D13" s="3">
         <v>12</v>
@@ -2736,8 +2805,12 @@
         <v>27</v>
       </c>
       <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2760,11 +2833,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+    <row r="15" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="44">
         <v>2018</v>
       </c>
       <c r="C15" s="42" t="s">
@@ -2776,7 +2849,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="F15" s="41" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -2786,9 +2859,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="42"/>
       <c r="D16" s="3">
         <v>2</v>
@@ -2796,14 +2869,14 @@
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="44"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="42"/>
       <c r="D17" s="3">
         <v>3</v>
@@ -2811,14 +2884,14 @@
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="44"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="42"/>
       <c r="D18" s="3">
         <v>4</v>
@@ -2834,8 +2907,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="42"/>
       <c r="D19" s="3">
         <v>5</v>
@@ -2851,8 +2924,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="42"/>
       <c r="D20" s="3">
         <v>6</v>
@@ -2865,8 +2938,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="42"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
@@ -2902,10 +2975,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="44">
         <v>2019</v>
       </c>
       <c r="C23" s="42" t="s">
@@ -2925,8 +2998,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="42"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
@@ -2939,8 +3012,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="42"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
@@ -2953,8 +3026,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="42"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
@@ -2967,8 +3040,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="42"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
@@ -2981,10 +3054,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="45">
         <v>2021</v>
       </c>
       <c r="C28" s="42" t="s">
@@ -3004,8 +3077,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="42"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
@@ -3019,8 +3092,8 @@
       <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
       <c r="C30" s="42"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
@@ -3302,6 +3375,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -3310,13 +3390,6 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3328,9 +3401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E623474-3705-4594-B9DF-AE0ADD157849}">
   <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3492,7 +3565,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
       <c r="C13" s="23" t="s">
         <v>159</v>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA90AAB-874F-4FD0-9D7E-AAA01D52DEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB7E7CB-FB48-4D77-B1FC-699ECC65B7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="16305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descritivos" sheetId="1" r:id="rId1"/>
     <sheet name="Estrutura" sheetId="2" r:id="rId2"/>
+    <sheet name="Rascunho" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="491">
   <si>
     <t>Autor</t>
   </si>
@@ -1921,6 +1922,120 @@
   </si>
   <si>
     <t>O BackPEI mede a dor nas costas e fatores associados entre crianças em idade escolar (11 a 16 anos). A dor é caracterizada a partir da ocorrência, frequência e intensidade ao longo dos 3 meses anteriores à medição. Os fatores associados são divididos em demográficos (idade e gênero), comportamental (nível de atividade física e prática de exercício físico competitivo, tempo assistindo televisão e usando o computador, tempo de sono, hábito de ler e/ou estudar na cama, modo de transportar o material escolar, forma de carregar a mochila escolar e posturas ao dormir, sentar em uma cadeira para escrever, sentar em uma cadeira para conversar, usar um computador e levantar um objeto do chão, socioeconômico (tipo de escola e escolaridade dos pais e/ou responsáveis) e hereditário (ocorrência de dor nas costas no pais).</t>
+  </si>
+  <si>
+    <t>Cada item do questionário resulta em uma medição única. Sendo 21 itens, tem-se 21 representações distintas. 1 é intervalar, a intensidade da dor que é medida em cm com valores que vão de 0 (nenhuma dor) até 10 (pior dor que posso imaginar). As 20 demais representações são nominais. Destas, 7 tem como possibilidades valores ordenáveis acrescido de uma opção "não sei".</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>questão</t>
+  </si>
+  <si>
+    <t>representação</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>Intensidade da dor</t>
+  </si>
+  <si>
+    <t>0 a 10 em centímetros</t>
+  </si>
+  <si>
+    <t>Intervalar (ou racional)</t>
+  </si>
+  <si>
+    <t>Frequência da dor</t>
+  </si>
+  <si>
+    <t>Ordinal + Não sei</t>
+  </si>
+  <si>
+    <t>Nominal</t>
+  </si>
+  <si>
+    <t>Frequência AF</t>
+  </si>
+  <si>
+    <t>Ordinal + Não sei/depende</t>
+  </si>
+  <si>
+    <t>Tempo TV</t>
+  </si>
+  <si>
+    <t>Tempo PC</t>
+  </si>
+  <si>
+    <t>Tempo sono</t>
+  </si>
+  <si>
+    <t>Escolaridade mãe</t>
+  </si>
+  <si>
+    <t>Ordinal + Não sei/não tenho</t>
+  </si>
+  <si>
+    <t>Escolaridade pai</t>
+  </si>
+  <si>
+    <t>Pratica AF</t>
+  </si>
+  <si>
+    <t>Sim/Não</t>
+  </si>
+  <si>
+    <t>Esporte Competitivo</t>
+  </si>
+  <si>
+    <t>Ler/Estudar na cama</t>
+  </si>
+  <si>
+    <t>Presença de dor</t>
+  </si>
+  <si>
+    <t>Sim/Não/Não sei</t>
+  </si>
+  <si>
+    <t>Restrição da dor</t>
+  </si>
+  <si>
+    <t>Dor nas costas dos pais</t>
+  </si>
+  <si>
+    <t>Sim-pai/ Sim-mãe/Não/Não sei</t>
+  </si>
+  <si>
+    <t>Posição para dormir</t>
+  </si>
+  <si>
+    <t>Várias categorias + Não sei/depende</t>
+  </si>
+  <si>
+    <t>Postura para escrever</t>
+  </si>
+  <si>
+    <t>Várias categorias + Não sei/outro</t>
+  </si>
+  <si>
+    <t>Postura para conversar</t>
+  </si>
+  <si>
+    <t>Postura para usar o computador</t>
+  </si>
+  <si>
+    <t>Postura para pegar objetos do chão</t>
+  </si>
+  <si>
+    <t>Forma de carregar a mochila</t>
+  </si>
+  <si>
+    <t>Objeto para carregar material</t>
+  </si>
+  <si>
+    <t>Várias categorias + outro</t>
   </si>
 </sst>
 </file>
@@ -2201,19 +2316,22 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2226,9 +2344,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2526,7 +2641,7 @@
     <col min="6" max="6" width="70.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="55.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="39.7109375" style="3" customWidth="1"/>
-    <col min="9" max="12" width="36.5703125" style="50" customWidth="1"/>
+    <col min="9" max="12" width="36.5703125" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2568,13 +2683,13 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="345" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="43">
+      <c r="B2" s="46">
         <v>2013</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="43" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3">
@@ -2598,13 +2713,15 @@
       <c r="J2" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>453</v>
+      </c>
       <c r="L2" s="4"/>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="42"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
@@ -2623,9 +2740,9 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="42"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
@@ -2644,9 +2761,9 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="42"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -2661,9 +2778,9 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="42"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
@@ -2678,16 +2795,16 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="42"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="45" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2699,16 +2816,16 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="42"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="41"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -2716,16 +2833,16 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="42"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="41"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
@@ -2735,9 +2852,9 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="42"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
@@ -2754,9 +2871,9 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="42"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
@@ -2771,9 +2888,9 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="42"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
@@ -2792,9 +2909,9 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="42"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
@@ -2840,7 +2957,7 @@
       <c r="B15" s="44">
         <v>2018</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="43" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="3">
@@ -2849,7 +2966,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="45" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -2862,14 +2979,14 @@
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
-      <c r="C16" s="42"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="41"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
@@ -2877,14 +2994,14 @@
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="44"/>
       <c r="B17" s="44"/>
-      <c r="C17" s="42"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="41"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
@@ -2892,7 +3009,7 @@
     <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
       <c r="B18" s="44"/>
-      <c r="C18" s="42"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="3">
         <v>4</v>
       </c>
@@ -2909,7 +3026,7 @@
     <row r="19" spans="1:8" ht="96" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
       <c r="B19" s="44"/>
-      <c r="C19" s="42"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="3">
         <v>5</v>
       </c>
@@ -2926,7 +3043,7 @@
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
       <c r="B20" s="44"/>
-      <c r="C20" s="42"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="3">
         <v>6</v>
       </c>
@@ -2940,7 +3057,7 @@
     <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
       <c r="B21" s="44"/>
-      <c r="C21" s="42"/>
+      <c r="C21" s="43"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
@@ -2981,7 +3098,7 @@
       <c r="B23" s="44">
         <v>2019</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="43" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -3000,7 +3117,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
       <c r="B24" s="44"/>
-      <c r="C24" s="42"/>
+      <c r="C24" s="43"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
@@ -3014,7 +3131,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
       <c r="B25" s="44"/>
-      <c r="C25" s="42"/>
+      <c r="C25" s="43"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
       </c>
@@ -3028,7 +3145,7 @@
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
       <c r="B26" s="44"/>
-      <c r="C26" s="42"/>
+      <c r="C26" s="43"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
       </c>
@@ -3042,7 +3159,7 @@
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
       <c r="B27" s="44"/>
-      <c r="C27" s="42"/>
+      <c r="C27" s="43"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3054,13 +3171,13 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="42">
         <v>2021</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="43" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -3072,14 +3189,14 @@
       <c r="G28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="42" t="s">
+      <c r="H28" s="43" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="42"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
       </c>
@@ -3089,12 +3206,12 @@
       <c r="G29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="42"/>
+      <c r="H29" s="43"/>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="42"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
       </c>
@@ -3104,7 +3221,7 @@
       <c r="G30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="42"/>
+      <c r="H30" s="43"/>
     </row>
     <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -3375,13 +3492,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -3390,6 +3500,13 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3401,9 +3518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E623474-3705-4594-B9DF-AE0ADD157849}">
   <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3432,7 +3549,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -3449,7 +3566,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="22" t="s">
         <v>142</v>
       </c>
@@ -3464,7 +3581,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="22" t="s">
         <v>143</v>
       </c>
@@ -3479,7 +3596,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="22" t="s">
         <v>146</v>
       </c>
@@ -3494,7 +3611,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="22" t="s">
         <v>180</v>
       </c>
@@ -3506,7 +3623,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="22" t="s">
         <v>187</v>
       </c>
@@ -3518,7 +3635,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="22" t="s">
         <v>188</v>
       </c>
@@ -3530,7 +3647,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="48"/>
       <c r="C9" s="23" t="s">
         <v>147</v>
       </c>
@@ -3539,7 +3656,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="C10" s="23" t="s">
         <v>147</v>
       </c>
@@ -3548,7 +3665,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="C11" s="23" t="s">
         <v>148</v>
       </c>
@@ -3557,7 +3674,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="48"/>
       <c r="C12" s="23" t="s">
         <v>158</v>
       </c>
@@ -3565,8 +3682,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
+    <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13" s="48"/>
       <c r="C13" s="23" t="s">
         <v>159</v>
       </c>
@@ -3575,7 +3692,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
+      <c r="A14" s="48"/>
       <c r="C14" s="23" t="s">
         <v>160</v>
       </c>
@@ -3584,7 +3701,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
+      <c r="A15" s="48"/>
       <c r="C15" s="23" t="s">
         <v>163</v>
       </c>
@@ -3593,7 +3710,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
+      <c r="A16" s="48"/>
       <c r="C16" s="23" t="s">
         <v>174</v>
       </c>
@@ -3602,7 +3719,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
+      <c r="A17" s="48"/>
       <c r="C17" s="23" t="s">
         <v>179</v>
       </c>
@@ -3611,7 +3728,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
+      <c r="A18" s="48"/>
       <c r="C18" s="23" t="s">
         <v>186</v>
       </c>
@@ -3620,92 +3737,92 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
+      <c r="A19" s="48"/>
       <c r="E19" s="25" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="48"/>
       <c r="E20" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="48"/>
       <c r="E21" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="48"/>
       <c r="E22" s="25" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="48"/>
       <c r="E23" s="25" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
+      <c r="A24" s="48"/>
       <c r="E24" s="25" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
+      <c r="A25" s="48"/>
       <c r="E25" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
+      <c r="A26" s="48"/>
       <c r="E26" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
+      <c r="A27" s="48"/>
       <c r="E27" s="25" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="47"/>
+      <c r="A28" s="48"/>
       <c r="E28" s="25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
+      <c r="A29" s="48"/>
       <c r="E29" s="25" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
+      <c r="A30" s="48"/>
       <c r="E30" s="25" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="48"/>
       <c r="E31" s="25" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="31"/>
       <c r="E32" s="27" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="47" t="s">
         <v>189</v>
       </c>
       <c r="B33" s="30" t="s">
@@ -3722,7 +3839,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="47"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="22" t="s">
         <v>210</v>
       </c>
@@ -3737,7 +3854,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="47"/>
+      <c r="A35" s="48"/>
       <c r="C35" s="23" t="s">
         <v>195</v>
       </c>
@@ -3749,7 +3866,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="47"/>
+      <c r="A36" s="48"/>
       <c r="C36" s="23" t="s">
         <v>196</v>
       </c>
@@ -3758,7 +3875,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="47"/>
+      <c r="A37" s="48"/>
       <c r="C37" s="23" t="s">
         <v>197</v>
       </c>
@@ -3767,7 +3884,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="47"/>
+      <c r="A38" s="48"/>
       <c r="C38" s="23" t="s">
         <v>203</v>
       </c>
@@ -3776,7 +3893,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A39" s="47"/>
+      <c r="A39" s="48"/>
       <c r="C39" s="23" t="s">
         <v>204</v>
       </c>
@@ -3785,26 +3902,26 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="47"/>
+      <c r="A40" s="48"/>
       <c r="E40" s="25" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
+      <c r="A41" s="48"/>
       <c r="E41" s="25" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="48"/>
+      <c r="A42" s="49"/>
       <c r="D42" s="33"/>
       <c r="E42" s="27" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="47" t="s">
         <v>211</v>
       </c>
       <c r="B43" s="32"/>
@@ -3819,7 +3936,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
+      <c r="A44" s="50"/>
       <c r="C44" s="23" t="s">
         <v>214</v>
       </c>
@@ -3828,14 +3945,14 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="31"/>
       <c r="C45" s="34" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="47" t="s">
         <v>218</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -3852,7 +3969,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="22" t="s">
         <v>221</v>
       </c>
@@ -3867,7 +3984,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="22" t="s">
         <v>222</v>
       </c>
@@ -3879,7 +3996,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="22" t="s">
         <v>224</v>
       </c>
@@ -3891,7 +4008,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="22" t="s">
         <v>248</v>
       </c>
@@ -3903,7 +4020,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="22" t="s">
         <v>250</v>
       </c>
@@ -3915,7 +4032,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="47"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="22" t="s">
         <v>252</v>
       </c>
@@ -3927,7 +4044,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="47"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="22" t="s">
         <v>253</v>
       </c>
@@ -3939,7 +4056,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="47"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="22" t="s">
         <v>258</v>
       </c>
@@ -3951,7 +4068,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="47"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="22" t="s">
         <v>259</v>
       </c>
@@ -3960,7 +4077,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="47"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="22" t="s">
         <v>261</v>
       </c>
@@ -3969,7 +4086,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="47"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="22" t="s">
         <v>262</v>
       </c>
@@ -3978,7 +4095,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A58" s="47"/>
+      <c r="A58" s="48"/>
       <c r="B58" s="22" t="s">
         <v>263</v>
       </c>
@@ -3987,7 +4104,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="47"/>
+      <c r="A59" s="48"/>
       <c r="B59" s="22" t="s">
         <v>265</v>
       </c>
@@ -3996,49 +4113,49 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="47"/>
+      <c r="A60" s="48"/>
       <c r="E60" s="25" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="47"/>
+      <c r="A61" s="48"/>
       <c r="E61" s="25" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="47"/>
+      <c r="A62" s="48"/>
       <c r="E62" s="25" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="47"/>
+      <c r="A63" s="48"/>
       <c r="E63" s="25" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
+      <c r="A64" s="48"/>
       <c r="E64" s="25" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="47"/>
+      <c r="A65" s="48"/>
       <c r="E65" s="25" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="47"/>
+      <c r="A66" s="48"/>
       <c r="E66" s="25" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="47"/>
+      <c r="A67" s="48"/>
       <c r="B67" s="31"/>
       <c r="E67" s="25" t="s">
         <v>260</v>
@@ -4100,7 +4217,7 @@
       <c r="D72" s="33"/>
     </row>
     <row r="73" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A73" s="46" t="s">
+      <c r="A73" s="47" t="s">
         <v>279</v>
       </c>
       <c r="B73" s="22" t="s">
@@ -4117,7 +4234,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
+      <c r="A74" s="50"/>
       <c r="B74" s="22" t="s">
         <v>282</v>
       </c>
@@ -4132,7 +4249,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="49"/>
+      <c r="A75" s="50"/>
       <c r="B75" s="22" t="s">
         <v>325</v>
       </c>
@@ -4147,7 +4264,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="49"/>
+      <c r="A76" s="50"/>
       <c r="B76" s="22" t="s">
         <v>326</v>
       </c>
@@ -4162,7 +4279,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="49"/>
+      <c r="A77" s="50"/>
       <c r="B77" s="22" t="s">
         <v>327</v>
       </c>
@@ -4177,7 +4294,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
+      <c r="A78" s="50"/>
       <c r="C78" s="23" t="s">
         <v>313</v>
       </c>
@@ -4189,7 +4306,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
+      <c r="A79" s="50"/>
       <c r="C79" s="23" t="s">
         <v>316</v>
       </c>
@@ -4201,7 +4318,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
+      <c r="A80" s="50"/>
       <c r="C80" s="23" t="s">
         <v>317</v>
       </c>
@@ -4213,7 +4330,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
+      <c r="A81" s="50"/>
       <c r="C81" s="23" t="s">
         <v>319</v>
       </c>
@@ -4225,7 +4342,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
+      <c r="A82" s="50"/>
       <c r="C82" s="23" t="s">
         <v>320</v>
       </c>
@@ -4237,7 +4354,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
+      <c r="A83" s="50"/>
       <c r="C83" s="34" t="s">
         <v>328</v>
       </c>
@@ -4245,7 +4362,7 @@
       <c r="E83" s="27"/>
     </row>
     <row r="84" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="46" t="s">
+      <c r="A84" s="47" t="s">
         <v>337</v>
       </c>
       <c r="B84" s="32" t="s">
@@ -4262,7 +4379,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="47"/>
+      <c r="A85" s="48"/>
       <c r="B85" s="22" t="s">
         <v>341</v>
       </c>
@@ -4277,7 +4394,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="47"/>
+      <c r="A86" s="48"/>
       <c r="B86" s="22" t="s">
         <v>369</v>
       </c>
@@ -4292,7 +4409,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="47"/>
+      <c r="A87" s="48"/>
       <c r="B87" s="22" t="s">
         <v>371</v>
       </c>
@@ -4304,7 +4421,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="47"/>
+      <c r="A88" s="48"/>
       <c r="B88" s="22" t="s">
         <v>382</v>
       </c>
@@ -4316,7 +4433,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="47"/>
+      <c r="A89" s="48"/>
       <c r="C89" s="23" t="s">
         <v>370</v>
       </c>
@@ -4325,7 +4442,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A90" s="47"/>
+      <c r="A90" s="48"/>
       <c r="C90" s="23" t="s">
         <v>372</v>
       </c>
@@ -4334,7 +4451,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A91" s="47"/>
+      <c r="A91" s="48"/>
       <c r="C91" s="23" t="s">
         <v>373</v>
       </c>
@@ -4343,7 +4460,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="47"/>
+      <c r="A92" s="48"/>
       <c r="C92" s="23" t="s">
         <v>374</v>
       </c>
@@ -4352,7 +4469,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" s="47"/>
+      <c r="A93" s="48"/>
       <c r="C93" s="23" t="s">
         <v>376</v>
       </c>
@@ -4361,7 +4478,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94" s="47"/>
+      <c r="A94" s="48"/>
       <c r="C94" s="23" t="s">
         <v>378</v>
       </c>
@@ -4370,7 +4487,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A95" s="47"/>
+      <c r="A95" s="48"/>
       <c r="C95" s="23" t="s">
         <v>383</v>
       </c>
@@ -4379,98 +4496,98 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="47"/>
+      <c r="A96" s="48"/>
       <c r="E96" s="25" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="47"/>
+      <c r="A97" s="48"/>
       <c r="E97" s="25" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="47"/>
+      <c r="A98" s="48"/>
       <c r="E98" s="25" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="47"/>
+      <c r="A99" s="48"/>
       <c r="E99" s="25" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="47"/>
+      <c r="A100" s="48"/>
       <c r="E100" s="25" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="47"/>
+      <c r="A101" s="48"/>
       <c r="E101" s="25" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="47"/>
+      <c r="A102" s="48"/>
       <c r="E102" s="25" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="47"/>
+      <c r="A103" s="48"/>
       <c r="E103" s="25" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="47"/>
+      <c r="A104" s="48"/>
       <c r="E104" s="25" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="47"/>
+      <c r="A105" s="48"/>
       <c r="E105" s="25" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="47"/>
+      <c r="A106" s="48"/>
       <c r="E106" s="25" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="47"/>
+      <c r="A107" s="48"/>
       <c r="E107" s="25" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="47"/>
+      <c r="A108" s="48"/>
       <c r="E108" s="25" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="47"/>
+      <c r="A109" s="48"/>
       <c r="E109" s="25" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="48"/>
+      <c r="A110" s="49"/>
       <c r="D110" s="33"/>
       <c r="E110" s="25" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="46" t="s">
+      <c r="A111" s="47" t="s">
         <v>384</v>
       </c>
       <c r="B111" s="32" t="s">
@@ -4487,7 +4604,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="47"/>
+      <c r="A112" s="48"/>
       <c r="B112" s="22" t="s">
         <v>390</v>
       </c>
@@ -4502,7 +4619,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A113" s="47"/>
+      <c r="A113" s="48"/>
       <c r="B113" s="22" t="s">
         <v>392</v>
       </c>
@@ -4517,7 +4634,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="47"/>
+      <c r="A114" s="48"/>
       <c r="B114" s="22" t="s">
         <v>408</v>
       </c>
@@ -4529,7 +4646,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A115" s="47"/>
+      <c r="A115" s="48"/>
       <c r="B115" s="22" t="s">
         <v>411</v>
       </c>
@@ -4541,7 +4658,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="47"/>
+      <c r="A116" s="48"/>
       <c r="B116" s="22" t="s">
         <v>412</v>
       </c>
@@ -4553,7 +4670,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="47"/>
+      <c r="A117" s="48"/>
       <c r="C117" s="23" t="s">
         <v>409</v>
       </c>
@@ -4562,7 +4679,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A118" s="47"/>
+      <c r="A118" s="48"/>
       <c r="C118" s="23" t="s">
         <v>415</v>
       </c>
@@ -4571,7 +4688,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" s="47"/>
+      <c r="A119" s="48"/>
       <c r="C119" s="23" t="s">
         <v>416</v>
       </c>
@@ -4580,37 +4697,37 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="47"/>
+      <c r="A120" s="48"/>
       <c r="E120" s="25" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A121" s="47"/>
+      <c r="A121" s="48"/>
       <c r="E121" s="25" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A122" s="47"/>
+      <c r="A122" s="48"/>
       <c r="E122" s="25" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="47"/>
+      <c r="A123" s="48"/>
       <c r="E123" s="25" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="47"/>
+      <c r="A124" s="48"/>
       <c r="E124" s="25" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A125" s="48"/>
+      <c r="A125" s="49"/>
       <c r="B125" s="31"/>
       <c r="C125" s="34"/>
       <c r="D125" s="33"/>
@@ -4761,4 +4878,327 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5B4F25-E774-4A01-9179-A9A2FE89D1E4}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D6" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C7" t="s">
+        <v>465</v>
+      </c>
+      <c r="D7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C8" t="s">
+        <v>470</v>
+      </c>
+      <c r="D8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>471</v>
+      </c>
+      <c r="C9" t="s">
+        <v>470</v>
+      </c>
+      <c r="D9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>472</v>
+      </c>
+      <c r="C10" t="s">
+        <v>473</v>
+      </c>
+      <c r="D10" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>474</v>
+      </c>
+      <c r="C11" t="s">
+        <v>473</v>
+      </c>
+      <c r="D11" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>475</v>
+      </c>
+      <c r="C12" t="s">
+        <v>473</v>
+      </c>
+      <c r="D12" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>476</v>
+      </c>
+      <c r="C13" t="s">
+        <v>477</v>
+      </c>
+      <c r="D13" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>478</v>
+      </c>
+      <c r="C14" t="s">
+        <v>477</v>
+      </c>
+      <c r="D14" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>479</v>
+      </c>
+      <c r="C15" t="s">
+        <v>480</v>
+      </c>
+      <c r="D15" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>481</v>
+      </c>
+      <c r="C16" t="s">
+        <v>482</v>
+      </c>
+      <c r="D16" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>483</v>
+      </c>
+      <c r="C17" t="s">
+        <v>484</v>
+      </c>
+      <c r="D17" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>485</v>
+      </c>
+      <c r="C18" t="s">
+        <v>484</v>
+      </c>
+      <c r="D18" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>486</v>
+      </c>
+      <c r="C19" t="s">
+        <v>484</v>
+      </c>
+      <c r="D19" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>487</v>
+      </c>
+      <c r="C20" t="s">
+        <v>484</v>
+      </c>
+      <c r="D20" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>488</v>
+      </c>
+      <c r="C21" t="s">
+        <v>484</v>
+      </c>
+      <c r="D21" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>489</v>
+      </c>
+      <c r="C22" t="s">
+        <v>490</v>
+      </c>
+      <c r="D22" t="s">
+        <v>463</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB7E7CB-FB48-4D77-B1FC-699ECC65B7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41339764-5411-468C-8D39-3A0FB27414F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descritivos" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="492">
   <si>
     <t>Autor</t>
   </si>
@@ -1921,9 +1921,6 @@
     <t>Possibilitar a análise da postura corporal na realização de atividades da vida diária como um fator de risco para dor nas costas, permitindo uma avaliação conjunta desses elementos, e de outros fatores de risco, em pesquisas através de um único sistema de medição. A tradução para o inglês visa ampliar o acesso ao conteúdo para pesquisadores internacionais.</t>
   </si>
   <si>
-    <t>O BackPEI mede a dor nas costas e fatores associados entre crianças em idade escolar (11 a 16 anos). A dor é caracterizada a partir da ocorrência, frequência e intensidade ao longo dos 3 meses anteriores à medição. Os fatores associados são divididos em demográficos (idade e gênero), comportamental (nível de atividade física e prática de exercício físico competitivo, tempo assistindo televisão e usando o computador, tempo de sono, hábito de ler e/ou estudar na cama, modo de transportar o material escolar, forma de carregar a mochila escolar e posturas ao dormir, sentar em uma cadeira para escrever, sentar em uma cadeira para conversar, usar um computador e levantar um objeto do chão, socioeconômico (tipo de escola e escolaridade dos pais e/ou responsáveis) e hereditário (ocorrência de dor nas costas no pais).</t>
-  </si>
-  <si>
     <t>Cada item do questionário resulta em uma medição única. Sendo 21 itens, tem-se 21 representações distintas. 1 é intervalar, a intensidade da dor que é medida em cm com valores que vão de 0 (nenhuma dor) até 10 (pior dor que posso imaginar). As 20 demais representações são nominais. Destas, 7 tem como possibilidades valores ordenáveis acrescido de uma opção "não sei".</t>
   </si>
   <si>
@@ -2036,6 +2033,12 @@
   </si>
   <si>
     <t>Várias categorias + outro</t>
+  </si>
+  <si>
+    <t>O BackPEI mede a dor nas costas e fatores associados entre crianças em idade escolar (11 a 16 anos). A dor é caracterizada a partir da ocorrência, frequência e intensidade ao longo dos 3 meses anteriores à medição. Os fatores associados foram determinados a partir de uma revisão da literatura e as posturas nas AVD foram determinadas pela revisão de literatura e um levantamento de campo. Os fatores associados são divididos em demográficos (idade e gênero), comportamental (nível de atividade física e prática de exercício físico competitivo, tempo assistindo televisão e usando o computador, tempo de sono, hábito de ler e/ou estudar na cama, modo de transportar o material escolar, forma de carregar a mochila escolar e posturas ao dormir, sentar em uma cadeira para escrever, sentar em uma cadeira para conversar, usar um computador e levantar um objeto do chão, socioeconômico (tipo de escola e escolaridade dos pais e/ou responsáveis) e hereditário (ocorrência de dor nas costas no pais).</t>
+  </si>
+  <si>
+    <t>A partir da caracterização foram elaborados os procedimentos sendo composto um questionário de auto-relato. Foram utilizadas fotografias nos itens referentes as posturas nas AVD e feitas duas versões do instrumento, uma para o gênero feminino e outra para o masculino. Um painel de especialistas avaliou: a adequação do uso das fotografias; a clareza, facilidade de compreensão e aplicabilidade do instrumento; e a adequação do instrumento ao avaliar dor nas costas e seus fatores associados. O questionário foi aplicado a um grupo de escolares para avaliar qualitativamente sua compreensão. O sistema de medição foi submetido a um procedimento de teste-reteste. Por fim foi feita uma tradução para o inglês.</t>
   </si>
 </sst>
 </file>
@@ -2319,19 +2322,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2627,9 +2630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K2" sqref="K2"/>
+      <selection pane="topRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2682,11 +2685,11 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="345" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="44">
         <v>2013</v>
       </c>
       <c r="C2" s="43" t="s">
@@ -2711,16 +2714,18 @@
         <v>451</v>
       </c>
       <c r="J2" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="4" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="43"/>
       <c r="D3" s="3">
         <v>2</v>
@@ -2740,8 +2745,8 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="43"/>
       <c r="D4" s="3">
         <v>3</v>
@@ -2761,8 +2766,8 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="43"/>
       <c r="D5" s="3">
         <v>4</v>
@@ -2778,8 +2783,8 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="43"/>
       <c r="D6" s="3">
         <v>5</v>
@@ -2795,8 +2800,8 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="43"/>
       <c r="D7" s="3">
         <v>6</v>
@@ -2804,7 +2809,7 @@
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="42" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2816,8 +2821,8 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="43"/>
       <c r="D8" s="3">
         <v>7</v>
@@ -2825,7 +2830,7 @@
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="45"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -2833,8 +2838,8 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="43"/>
       <c r="D9" s="3">
         <v>8</v>
@@ -2842,7 +2847,7 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="45"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
@@ -2852,8 +2857,8 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="43"/>
       <c r="D10" s="3">
         <v>9</v>
@@ -2871,8 +2876,8 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="43"/>
       <c r="D11" s="3">
         <v>10</v>
@@ -2888,8 +2893,8 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="43"/>
       <c r="D12" s="3">
         <v>11</v>
@@ -2909,8 +2914,8 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="43"/>
       <c r="D13" s="3">
         <v>12</v>
@@ -2951,10 +2956,10 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="45">
         <v>2018</v>
       </c>
       <c r="C15" s="43" t="s">
@@ -2966,7 +2971,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="42" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -2977,8 +2982,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="43"/>
       <c r="D16" s="3">
         <v>2</v>
@@ -2986,14 +2991,14 @@
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="45"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="43"/>
       <c r="D17" s="3">
         <v>3</v>
@@ -3001,14 +3006,14 @@
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="45"/>
+      <c r="F17" s="42"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="43"/>
       <c r="D18" s="3">
         <v>4</v>
@@ -3024,8 +3029,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="43"/>
       <c r="D19" s="3">
         <v>5</v>
@@ -3041,8 +3046,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="43"/>
       <c r="D20" s="3">
         <v>6</v>
@@ -3055,8 +3060,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="43"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
@@ -3092,10 +3097,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="45">
         <v>2019</v>
       </c>
       <c r="C23" s="43" t="s">
@@ -3115,8 +3120,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="43"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
@@ -3129,8 +3134,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="43"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
@@ -3143,8 +3148,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="43"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
@@ -3157,8 +3162,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="43"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
@@ -3171,10 +3176,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="42">
+      <c r="B28" s="46">
         <v>2021</v>
       </c>
       <c r="C28" s="43" t="s">
@@ -3194,8 +3199,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="43"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
@@ -3209,8 +3214,8 @@
       <c r="H29" s="43"/>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="43"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
@@ -3492,6 +3497,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -3500,13 +3512,6 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3518,9 +3523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E623474-3705-4594-B9DF-AE0ADD157849}">
   <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4892,16 +4897,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4909,13 +4914,13 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C2" t="s">
         <v>458</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>459</v>
-      </c>
-      <c r="D2" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -4923,13 +4928,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C3" t="s">
         <v>461</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>462</v>
-      </c>
-      <c r="D3" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4937,13 +4942,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C4" t="s">
         <v>464</v>
       </c>
-      <c r="C4" t="s">
-        <v>465</v>
-      </c>
       <c r="D4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4951,13 +4956,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4965,13 +4970,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4979,13 +4984,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4993,13 +4998,13 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>468</v>
+      </c>
+      <c r="C8" t="s">
         <v>469</v>
       </c>
-      <c r="C8" t="s">
-        <v>470</v>
-      </c>
       <c r="D8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5007,13 +5012,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5021,13 +5026,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C10" t="s">
         <v>472</v>
       </c>
-      <c r="C10" t="s">
-        <v>473</v>
-      </c>
       <c r="D10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5035,13 +5040,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D11" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5049,13 +5054,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5063,13 +5068,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
+        <v>475</v>
+      </c>
+      <c r="C13" t="s">
         <v>476</v>
       </c>
-      <c r="C13" t="s">
-        <v>477</v>
-      </c>
       <c r="D13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5077,13 +5082,13 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5091,13 +5096,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C15" t="s">
         <v>479</v>
       </c>
-      <c r="C15" t="s">
-        <v>480</v>
-      </c>
       <c r="D15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5105,13 +5110,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
+        <v>480</v>
+      </c>
+      <c r="C16" t="s">
         <v>481</v>
       </c>
-      <c r="C16" t="s">
-        <v>482</v>
-      </c>
       <c r="D16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5119,13 +5124,13 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
+        <v>482</v>
+      </c>
+      <c r="C17" t="s">
         <v>483</v>
       </c>
-      <c r="C17" t="s">
-        <v>484</v>
-      </c>
       <c r="D17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5133,13 +5138,13 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D18" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5147,13 +5152,13 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5161,13 +5166,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5175,13 +5180,13 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C21" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D21" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5189,13 +5194,13 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
+        <v>488</v>
+      </c>
+      <c r="C22" t="s">
         <v>489</v>
       </c>
-      <c r="C22" t="s">
-        <v>490</v>
-      </c>
       <c r="D22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41339764-5411-468C-8D39-3A0FB27414F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8771A50E-C794-4F43-9888-351BB5F37618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="496">
   <si>
     <t>Autor</t>
   </si>
@@ -2039,6 +2039,18 @@
   </si>
   <si>
     <t>A partir da caracterização foram elaborados os procedimentos sendo composto um questionário de auto-relato. Foram utilizadas fotografias nos itens referentes as posturas nas AVD e feitas duas versões do instrumento, uma para o gênero feminino e outra para o masculino. Um painel de especialistas avaliou: a adequação do uso das fotografias; a clareza, facilidade de compreensão e aplicabilidade do instrumento; e a adequação do instrumento ao avaliar dor nas costas e seus fatores associados. O questionário foi aplicado a um grupo de escolares para avaliar qualitativamente sua compreensão. O sistema de medição foi submetido a um procedimento de teste-reteste. Por fim foi feita uma tradução para o inglês.</t>
+  </si>
+  <si>
+    <t>Avaliar os hábitos posturais de alunos para auxiliar no planejamento das aulas de educação física e intervenções para reeducação postural. Permitir a aplicação do BackPEI em estudos epidemiológicos, estudos de delineamento longitudinal, estudos de base populacional ou estudos om grandes amostras.</t>
+  </si>
+  <si>
+    <t>Cada item possui uma representação nominal da postura em duas categorias: adequada e inadequada. Assim entre as posturas ao escrever e ao usar o computador as que apresentavam inclinação do tronco à frente, a desleixada e com a perna cruzada foram consideradas inadequadas. Para pegar um objeto do chão foram estabelecidas as posturas com o joelho estendido, com uma perna a frente e flexão do quadril acima de 90º como inadequadas. E para as posturas ao carregar uma mochila é considerada adequada com a mochila nas costas com ambas as alças.</t>
+  </si>
+  <si>
+    <t>Ambos sistemas de medição utilizados na pesquisa se dedicam aos hábitos posturais, definidos como o uso mecânico do corpo durante as atividades da vida diária Para tal foram utilizados apenas  os itens do BackPEI referentes a postura, especificamente as posturas ao: escrever, usar o computador, pegar um objeto do chão e carregar uma mochila. Essas foram estabelecidas como adequadas ou inadequadas, sendo as adequadas aquelas que preservam as curvaturas fisiológicas da coluna sem exceder o limite fisiológico do indivíduo. As posturas nas AVD medidas pelo BackPEI foram comparadas a outro sistema que mede as mesmas posturas nas AVD através de outros procedimentos, o LADy. Foram encontradas associações significativas de intensidade moderada a excelente entre os sistemas de medição dos hábitos posturais</t>
+  </si>
+  <si>
+    <t>O BackPEI é um sistema de medição baseado em um questionário que tem como vantagem sua fácil aplicação e baixo custo. Já o LADy é um sistema baseado em avaliações dinâmicas a partir de filmagens que tem como vantagem a capacidade de avaliar a execução do movimento enquanto o questionário depende da percepção do próprio respondente. Independentemente do instrumento de avaliação utilizado para pesquisar hábitos posturais, os resultados devem ser semelhantes e os resultados indicam que o BackPEI e o LADy avaliam a postura dinâmica dos alunos de forma semelhante tendo o BackPEI uma tendência de atribuir mais valores adequados em relação ao LADy devido a erros decorrentes da percepção corporal.</t>
   </si>
 </sst>
 </file>
@@ -2322,19 +2334,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2630,9 +2642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L3" sqref="L3"/>
+      <selection pane="topRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2686,10 +2698,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="46">
         <v>2013</v>
       </c>
       <c r="C2" s="43" t="s">
@@ -2724,8 +2736,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="43"/>
       <c r="D3" s="3">
         <v>2</v>
@@ -2745,8 +2757,8 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="43"/>
       <c r="D4" s="3">
         <v>3</v>
@@ -2766,8 +2778,8 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="43"/>
       <c r="D5" s="3">
         <v>4</v>
@@ -2783,8 +2795,8 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="43"/>
       <c r="D6" s="3">
         <v>5</v>
@@ -2800,8 +2812,8 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="43"/>
       <c r="D7" s="3">
         <v>6</v>
@@ -2809,7 +2821,7 @@
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="45" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2821,8 +2833,8 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="43"/>
       <c r="D8" s="3">
         <v>7</v>
@@ -2830,7 +2842,7 @@
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -2838,8 +2850,8 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="43"/>
       <c r="D9" s="3">
         <v>8</v>
@@ -2847,7 +2859,7 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
@@ -2857,8 +2869,8 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="43"/>
       <c r="D10" s="3">
         <v>9</v>
@@ -2876,8 +2888,8 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="43"/>
       <c r="D11" s="3">
         <v>10</v>
@@ -2893,8 +2905,8 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="43"/>
       <c r="D12" s="3">
         <v>11</v>
@@ -2914,8 +2926,8 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="43"/>
       <c r="D13" s="3">
         <v>12</v>
@@ -2932,7 +2944,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="360" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2954,12 +2966,24 @@
       <c r="H14" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="I14" s="41" t="s">
+        <v>492</v>
+      </c>
+      <c r="J14" s="41" t="s">
+        <v>494</v>
+      </c>
+      <c r="K14" s="41" t="s">
+        <v>493</v>
+      </c>
+      <c r="L14" s="41" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="44">
         <v>2018</v>
       </c>
       <c r="C15" s="43" t="s">
@@ -2971,7 +2995,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="45" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -2982,8 +3006,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="43"/>
       <c r="D16" s="3">
         <v>2</v>
@@ -2991,14 +3015,14 @@
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="42"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="43"/>
       <c r="D17" s="3">
         <v>3</v>
@@ -3006,14 +3030,14 @@
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="42"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="43"/>
       <c r="D18" s="3">
         <v>4</v>
@@ -3029,8 +3053,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="43"/>
       <c r="D19" s="3">
         <v>5</v>
@@ -3046,8 +3070,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="43"/>
       <c r="D20" s="3">
         <v>6</v>
@@ -3060,8 +3084,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="43"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
@@ -3097,10 +3121,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="45">
+      <c r="B23" s="44">
         <v>2019</v>
       </c>
       <c r="C23" s="43" t="s">
@@ -3120,8 +3144,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="43"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
@@ -3134,8 +3158,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="43"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
@@ -3148,8 +3172,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="43"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
@@ -3162,8 +3186,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="43"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
@@ -3176,10 +3200,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="42">
         <v>2021</v>
       </c>
       <c r="C28" s="43" t="s">
@@ -3199,8 +3223,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="43"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
@@ -3214,8 +3238,8 @@
       <c r="H29" s="43"/>
     </row>
     <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="43"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
@@ -3497,13 +3521,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -3512,6 +3529,13 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3524,8 +3548,8 @@
   <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8771A50E-C794-4F43-9888-351BB5F37618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A92CB0-3DFC-4C8B-8CB5-152979C7C524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="504">
   <si>
     <t>Autor</t>
   </si>
@@ -2051,6 +2051,30 @@
   </si>
   <si>
     <t>O BackPEI é um sistema de medição baseado em um questionário que tem como vantagem sua fácil aplicação e baixo custo. Já o LADy é um sistema baseado em avaliações dinâmicas a partir de filmagens que tem como vantagem a capacidade de avaliar a execução do movimento enquanto o questionário depende da percepção do próprio respondente. Independentemente do instrumento de avaliação utilizado para pesquisar hábitos posturais, os resultados devem ser semelhantes e os resultados indicam que o BackPEI e o LADy avaliam a postura dinâmica dos alunos de forma semelhante tendo o BackPEI uma tendência de atribuir mais valores adequados em relação ao LADy devido a erros decorrentes da percepção corporal.</t>
+  </si>
+  <si>
+    <t>Não identifiquei</t>
+  </si>
+  <si>
+    <t>A pontuação visa expressar o quanto o escolar avaliado está exposto a fatores de risco relacionados ao desenvolvimento de dor nas costas. Este envolve apenas as questões relacionadas aos fatores de risco para o desenvolvimento de dor nas costas em crianças e adolescentes, como: prática de exercícios físicos; tempo gasto assistindo televisão e usando computador; número de horas de sono e hábito de ler/estudar na cama; ocorrência de dor nas costas entre os pais ; postura adotada para dormir; sentar na cadeira, escrever, usar computador e levantar um objeto do chão; mochila utilizada para transportar material e meio de transporte mochila; e escolaridade dos pais.</t>
+  </si>
+  <si>
+    <t>As alternativas de cada uma das 16 questões relativas a fatores de risco para dor nas costas recebem pontuação 0 (é um fator de risco) ou 1 (não é um fator de risco). Os valores são somados e quanto maior o resultado menor é a exposição a fatores de risco para o desenvolvimento de dor nas costas.</t>
+  </si>
+  <si>
+    <t>Utilizar questionários, pela facilidade de aplicação, baixo custo e possibilidade de auto-relato dos avaliados</t>
+  </si>
+  <si>
+    <t>Avaliar a presença de dores nas costas e no pescoço e seus fatores de risco associados em um único questionário podendo ser aplicado na prática clínica e também em estudos epidemiológicos e até mesmo clínicos onde pode ser utilizado para selecionar indivíduos com dor e também como instrumento de triagem. O objetivo de ter uma versão em inglês do questionário é, assim como no BackPEI original, garantir maior visibilidade ao instrumento.</t>
+  </si>
+  <si>
+    <t>As alternativas de cada uma das 10 questões relativas a fatores de risco para dor nas costas recebem pontuação 0 (é um fator de risco) ou 1 (não é um fator de risco). Os valores são somados e quanto maior o resultado menor é a exposição a fatores de risco para o desenvolvimento de dor nas costas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As modificações no BackPEI original foram feitas a partir da experiência clínica prática dos autores em conjunto a um levantamento bibliográfico incluindo itens referentes a dor no pescoço e seus fatores de risco e adequando para adultos. Um painel de especialistas avaliou: a clareza, a facilidade de compreensão e a aplicabilidade geral do instrumento; se o instrumento atingiu o objetivo de avaliar a postura corporal nas AVD a partir de fotografias, se o instrumento atingiu o objetivo de avaliar a dor nas costas e no pescoço e seus fatores de risco associados. Ao final, existem versões separadas do BackPEI-A para homens e mulheres e a quantidade de alterantivas de posturas em cada item é menor. O sistema de medição teve sua reprodutibilidade avaliada através de teste-reteste. </t>
+  </si>
+  <si>
+    <t>O BackPEI-A avalia em adultos a presença, frequência e intensidade tanto para a dor nas costas quanto para a dor no pescoço. Também considera os fatores de risco: postura ao sentar para escrever, postura ao sentar para conversar, postura ao sentar para usar o computador, postura para pegar objetos do chão, envolvimento em acidente de carro, prática de atividade física regular, frequência de atividade física, prática esportiva competitiva, tempo de uso do computador, hábito de ler ou estudar na cama, posição para dormir e tempo de sono.</t>
   </si>
 </sst>
 </file>
@@ -2210,7 +2234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2334,19 +2358,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2359,6 +2383,11 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2642,9 +2671,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L14" sqref="L14"/>
+      <selection pane="topRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2656,7 +2685,8 @@
     <col min="6" max="6" width="70.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="55.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="39.7109375" style="3" customWidth="1"/>
-    <col min="9" max="12" width="36.5703125" style="41" customWidth="1"/>
+    <col min="9" max="9" width="36.5703125" style="52" customWidth="1"/>
+    <col min="10" max="12" width="36.5703125" style="41" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2684,7 +2714,7 @@
       <c r="H1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="51" t="s">
         <v>128</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -2698,10 +2728,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="44">
         <v>2013</v>
       </c>
       <c r="C2" s="43" t="s">
@@ -2722,7 +2752,7 @@
       <c r="H2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>451</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -2736,8 +2766,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="43"/>
       <c r="D3" s="3">
         <v>2</v>
@@ -2751,14 +2781,13 @@
       <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="43"/>
       <c r="D4" s="3">
         <v>3</v>
@@ -2772,14 +2801,13 @@
       <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="43"/>
       <c r="D5" s="3">
         <v>4</v>
@@ -2789,14 +2817,13 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="4"/>
-      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="43"/>
       <c r="D6" s="3">
         <v>5</v>
@@ -2806,14 +2833,13 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="4"/>
-      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="43"/>
       <c r="D7" s="3">
         <v>6</v>
@@ -2821,20 +2847,19 @@
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="42" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="43"/>
       <c r="D8" s="3">
         <v>7</v>
@@ -2842,16 +2867,15 @@
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="45"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="4"/>
-      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="43"/>
       <c r="D9" s="3">
         <v>8</v>
@@ -2859,18 +2883,17 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="45"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="43"/>
       <c r="D10" s="3">
         <v>9</v>
@@ -2882,14 +2905,13 @@
         <v>24</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="43"/>
       <c r="D11" s="3">
         <v>10</v>
@@ -2899,14 +2921,13 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="4"/>
-      <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="43"/>
       <c r="D12" s="3">
         <v>11</v>
@@ -2920,14 +2941,13 @@
       <c r="G12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="43"/>
       <c r="D13" s="3">
         <v>12</v>
@@ -2939,7 +2959,6 @@
         <v>27</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2966,7 +2985,7 @@
       <c r="H14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="52" t="s">
         <v>492</v>
       </c>
       <c r="J14" s="41" t="s">
@@ -2979,11 +2998,11 @@
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+    <row r="15" spans="1:12" ht="330" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="45">
         <v>2018</v>
       </c>
       <c r="C15" s="43" t="s">
@@ -2995,7 +3014,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="42" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -3004,10 +3023,22 @@
       <c r="H15" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="I15" s="41" t="s">
+        <v>500</v>
+      </c>
+      <c r="J15" s="53" t="s">
+        <v>503</v>
+      </c>
+      <c r="K15" s="41" t="s">
+        <v>501</v>
+      </c>
+      <c r="L15" s="41" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="43"/>
       <c r="D16" s="3">
         <v>2</v>
@@ -3015,14 +3046,14 @@
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="45"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="43"/>
       <c r="D17" s="3">
         <v>3</v>
@@ -3030,14 +3061,14 @@
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="45"/>
+      <c r="F17" s="42"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
+    <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="43"/>
       <c r="D18" s="3">
         <v>4</v>
@@ -3052,9 +3083,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
+    <row r="19" spans="1:12" ht="96" x14ac:dyDescent="0.25">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="43"/>
       <c r="D19" s="3">
         <v>5</v>
@@ -3069,9 +3100,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
+    <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="43"/>
       <c r="D20" s="3">
         <v>6</v>
@@ -3083,9 +3114,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
+    <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="43"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
@@ -3097,7 +3128,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -3119,12 +3150,24 @@
       <c r="H22" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="I22" s="52" t="s">
+        <v>496</v>
+      </c>
+      <c r="J22" s="41" t="s">
+        <v>497</v>
+      </c>
+      <c r="K22" s="41" t="s">
+        <v>498</v>
+      </c>
+      <c r="L22" s="41" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="45">
         <v>2019</v>
       </c>
       <c r="C23" s="43" t="s">
@@ -3143,9 +3186,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="43"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
@@ -3157,9 +3200,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="43"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
@@ -3171,9 +3214,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
+    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="43"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
@@ -3185,9 +3228,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
+    <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="43"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
@@ -3199,11 +3242,11 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+    <row r="28" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="42">
+      <c r="B28" s="46">
         <v>2021</v>
       </c>
       <c r="C28" s="43" t="s">
@@ -3222,9 +3265,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
+    <row r="29" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="43"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
@@ -3237,9 +3280,9 @@
       </c>
       <c r="H29" s="43"/>
     </row>
-    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
+    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="43"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
@@ -3252,7 +3295,7 @@
       </c>
       <c r="H30" s="43"/>
     </row>
-    <row r="31" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -3269,7 +3312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="E32" s="4" t="s">
         <v>82</v>
       </c>
@@ -3521,6 +3564,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -3529,13 +3579,6 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3548,8 +3591,8 @@
   <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A92CB0-3DFC-4C8B-8CB5-152979C7C524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C24E38-0331-4168-985D-9BF9CCAF9336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="507">
   <si>
     <t>Autor</t>
   </si>
@@ -2075,6 +2075,15 @@
   </si>
   <si>
     <t>O BackPEI-A avalia em adultos a presença, frequência e intensidade tanto para a dor nas costas quanto para a dor no pescoço. Também considera os fatores de risco: postura ao sentar para escrever, postura ao sentar para conversar, postura ao sentar para usar o computador, postura para pegar objetos do chão, envolvimento em acidente de carro, prática de atividade física regular, frequência de atividade física, prática esportiva competitiva, tempo de uso do computador, hábito de ler ou estudar na cama, posição para dormir e tempo de sono.</t>
+  </si>
+  <si>
+    <t>Raramente há ferramentas desenvolvidas para medir questões posturais e dor nas costas em adolescentes de modo qualitativo, e em turco, há uma falta destes instrumentos. A versão turca do BackPEI pode ser usada para avaliar a eficácia de intervenções voltadas para o tratamento da dor e da postura e  identificar fatores potencialmente associados à dor em adolescentes.</t>
+  </si>
+  <si>
+    <t>O questionário em inglês foi traduzido para o turco e um professor de turco avaliou a compreensão do texto. Um painel de especialista avaliou o instrumento e sugeriu modificações. A compreensão do instrumento foi verificada aplicando o BackPEI em turco para um grupo de 10 estudantes. Foi aplicado um procedimento de teste-reteste para avaliar o sistema de medição.</t>
+  </si>
+  <si>
+    <t>O BackPEI foi desenvolvido para avaliar os hábitos comportamentais e posturais de estudantes e a frequência de dor nas costas. Este instrumento é composto por seis seções: dados demográficos (idade e sexo); nível socioeconômico (questões como nível de escolaridade dos pais); fatores comportamentais (atividade física, leitura na cama, horas gastas assistindo TV ou usando o computador diariamente, duração do sono diário); dor nas costas nos últimos três meses (ocorrência, frequência e intensidade); fatores posturais (postura sentada ao usar o computador ou escrever, postura sentada em sala de aula, método de transporte de materiais escolares, posição para dormir); fatores genéticos (presença de dor nas costas nos pais). A verificação da adequação foi verificada pelo coeficiente KMO e o teste de esfericidade de Bartlett. Foi feita a validade de critério através da correlação dos valores de EVA e a presença de dor.</t>
   </si>
 </sst>
 </file>
@@ -2357,20 +2366,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2383,11 +2397,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2671,9 +2680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J15" sqref="J15"/>
+      <selection pane="topRight" activeCell="A23" sqref="A23:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2685,7 +2694,7 @@
     <col min="6" max="6" width="70.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="55.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="39.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" style="52" customWidth="1"/>
+    <col min="9" max="9" width="36.5703125" style="43" customWidth="1"/>
     <col min="10" max="12" width="36.5703125" style="41" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2714,7 +2723,7 @@
       <c r="H1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="42" t="s">
         <v>128</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -2728,13 +2737,13 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="49">
         <v>2013</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="46" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3">
@@ -2766,9 +2775,9 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="43"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
@@ -2786,9 +2795,9 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="43"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
@@ -2806,9 +2815,9 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="43"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -2822,9 +2831,9 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="43"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
@@ -2838,16 +2847,16 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="43"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="48" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2858,32 +2867,32 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="43"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="43"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
@@ -2892,9 +2901,9 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="43"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
@@ -2910,9 +2919,9 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="43"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
@@ -2926,9 +2935,9 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="43"/>
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
@@ -2946,9 +2955,9 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="43"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
@@ -2985,7 +2994,7 @@
       <c r="H14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="52" t="s">
+      <c r="I14" s="43" t="s">
         <v>492</v>
       </c>
       <c r="J14" s="41" t="s">
@@ -2999,13 +3008,13 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="330" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="47">
         <v>2018</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="46" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="3">
@@ -3014,7 +3023,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="48" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -3026,7 +3035,7 @@
       <c r="I15" s="41" t="s">
         <v>500</v>
       </c>
-      <c r="J15" s="53" t="s">
+      <c r="J15" s="44" t="s">
         <v>503</v>
       </c>
       <c r="K15" s="41" t="s">
@@ -3037,39 +3046,39 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="43"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="42"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="43"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="42"/>
+      <c r="F17" s="48"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="3">
         <v>4</v>
       </c>
@@ -3084,9 +3093,9 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="43"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="3">
         <v>5</v>
       </c>
@@ -3101,9 +3110,9 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="43"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="3">
         <v>6</v>
       </c>
@@ -3115,9 +3124,9 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="43"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="46"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
@@ -3150,7 +3159,7 @@
       <c r="H22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="52" t="s">
+      <c r="I22" s="43" t="s">
         <v>496</v>
       </c>
       <c r="J22" s="41" t="s">
@@ -3163,14 +3172,14 @@
         <v>499</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+    <row r="23" spans="1:12" ht="390" x14ac:dyDescent="0.25">
+      <c r="A23" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="45">
+      <c r="B23" s="47">
         <v>2019</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="46" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -3185,11 +3194,23 @@
       <c r="H23" s="3" t="s">
         <v>127</v>
       </c>
+      <c r="I23" s="41" t="s">
+        <v>504</v>
+      </c>
+      <c r="J23" s="41" t="s">
+        <v>506</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="L23" s="41" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="46"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
@@ -3201,9 +3222,9 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="46"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
       </c>
@@ -3215,9 +3236,9 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="43"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="46"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
       </c>
@@ -3229,9 +3250,9 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="43"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="46"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3243,13 +3264,13 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="45">
         <v>2021</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="46" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -3261,14 +3282,14 @@
       <c r="G28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="43" t="s">
+      <c r="H28" s="46" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="43"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
       </c>
@@ -3278,12 +3299,12 @@
       <c r="G29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="43"/>
+      <c r="H29" s="46"/>
     </row>
     <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="43"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
       </c>
@@ -3293,7 +3314,7 @@
       <c r="G30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="43"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -3564,13 +3585,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -3579,6 +3593,13 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3590,9 +3611,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E623474-3705-4594-B9DF-AE0ADD157849}">
   <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3621,7 +3642,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="51" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -3638,7 +3659,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="22" t="s">
         <v>142</v>
       </c>
@@ -3653,7 +3674,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
+      <c r="A4" s="51"/>
       <c r="B4" s="22" t="s">
         <v>143</v>
       </c>
@@ -3668,7 +3689,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="22" t="s">
         <v>146</v>
       </c>
@@ -3683,7 +3704,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="22" t="s">
         <v>180</v>
       </c>
@@ -3695,7 +3716,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="22" t="s">
         <v>187</v>
       </c>
@@ -3707,7 +3728,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="22" t="s">
         <v>188</v>
       </c>
@@ -3719,7 +3740,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="51"/>
       <c r="C9" s="23" t="s">
         <v>147</v>
       </c>
@@ -3728,7 +3749,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="51"/>
       <c r="C10" s="23" t="s">
         <v>147</v>
       </c>
@@ -3737,7 +3758,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="51"/>
       <c r="C11" s="23" t="s">
         <v>148</v>
       </c>
@@ -3746,7 +3767,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
+      <c r="A12" s="51"/>
       <c r="C12" s="23" t="s">
         <v>158</v>
       </c>
@@ -3755,7 +3776,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+      <c r="A13" s="51"/>
       <c r="C13" s="23" t="s">
         <v>159</v>
       </c>
@@ -3764,7 +3785,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+      <c r="A14" s="51"/>
       <c r="C14" s="23" t="s">
         <v>160</v>
       </c>
@@ -3773,7 +3794,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+      <c r="A15" s="51"/>
       <c r="C15" s="23" t="s">
         <v>163</v>
       </c>
@@ -3782,7 +3803,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
+      <c r="A16" s="51"/>
       <c r="C16" s="23" t="s">
         <v>174</v>
       </c>
@@ -3791,7 +3812,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
+      <c r="A17" s="51"/>
       <c r="C17" s="23" t="s">
         <v>179</v>
       </c>
@@ -3800,7 +3821,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
+      <c r="A18" s="51"/>
       <c r="C18" s="23" t="s">
         <v>186</v>
       </c>
@@ -3809,92 +3830,92 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
+      <c r="A19" s="51"/>
       <c r="E19" s="25" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
+      <c r="A20" s="51"/>
       <c r="E20" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
+      <c r="A21" s="51"/>
       <c r="E21" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="51"/>
       <c r="E22" s="25" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="51"/>
       <c r="E23" s="25" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
+      <c r="A24" s="51"/>
       <c r="E24" s="25" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
+      <c r="A25" s="51"/>
       <c r="E25" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
+      <c r="A26" s="51"/>
       <c r="E26" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
+      <c r="A27" s="51"/>
       <c r="E27" s="25" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="51"/>
       <c r="E28" s="25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="51"/>
       <c r="E29" s="25" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="51"/>
       <c r="E30" s="25" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="51"/>
       <c r="E31" s="25" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="31"/>
       <c r="E32" s="27" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="50" t="s">
         <v>189</v>
       </c>
       <c r="B33" s="30" t="s">
@@ -3911,7 +3932,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+      <c r="A34" s="51"/>
       <c r="B34" s="22" t="s">
         <v>210</v>
       </c>
@@ -3926,7 +3947,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="51"/>
       <c r="C35" s="23" t="s">
         <v>195</v>
       </c>
@@ -3938,7 +3959,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="51"/>
       <c r="C36" s="23" t="s">
         <v>196</v>
       </c>
@@ -3947,7 +3968,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+      <c r="A37" s="51"/>
       <c r="C37" s="23" t="s">
         <v>197</v>
       </c>
@@ -3956,7 +3977,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+      <c r="A38" s="51"/>
       <c r="C38" s="23" t="s">
         <v>203</v>
       </c>
@@ -3965,7 +3986,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="A39" s="51"/>
       <c r="C39" s="23" t="s">
         <v>204</v>
       </c>
@@ -3974,26 +3995,26 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="51"/>
       <c r="E40" s="25" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="51"/>
       <c r="E41" s="25" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
+      <c r="A42" s="52"/>
       <c r="D42" s="33"/>
       <c r="E42" s="27" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="50" t="s">
         <v>211</v>
       </c>
       <c r="B43" s="32"/>
@@ -4008,7 +4029,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
+      <c r="A44" s="53"/>
       <c r="C44" s="23" t="s">
         <v>214</v>
       </c>
@@ -4017,14 +4038,14 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
+      <c r="A45" s="53"/>
       <c r="B45" s="31"/>
       <c r="C45" s="34" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="50" t="s">
         <v>218</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -4041,7 +4062,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
+      <c r="A47" s="51"/>
       <c r="B47" s="22" t="s">
         <v>221</v>
       </c>
@@ -4056,7 +4077,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
+      <c r="A48" s="51"/>
       <c r="B48" s="22" t="s">
         <v>222</v>
       </c>
@@ -4068,7 +4089,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="22" t="s">
         <v>224</v>
       </c>
@@ -4080,7 +4101,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
+      <c r="A50" s="51"/>
       <c r="B50" s="22" t="s">
         <v>248</v>
       </c>
@@ -4092,7 +4113,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="22" t="s">
         <v>250</v>
       </c>
@@ -4104,7 +4125,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
+      <c r="A52" s="51"/>
       <c r="B52" s="22" t="s">
         <v>252</v>
       </c>
@@ -4116,7 +4137,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
+      <c r="A53" s="51"/>
       <c r="B53" s="22" t="s">
         <v>253</v>
       </c>
@@ -4128,7 +4149,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
+      <c r="A54" s="51"/>
       <c r="B54" s="22" t="s">
         <v>258</v>
       </c>
@@ -4140,7 +4161,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
+      <c r="A55" s="51"/>
       <c r="B55" s="22" t="s">
         <v>259</v>
       </c>
@@ -4149,7 +4170,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="22" t="s">
         <v>261</v>
       </c>
@@ -4158,7 +4179,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
+      <c r="A57" s="51"/>
       <c r="B57" s="22" t="s">
         <v>262</v>
       </c>
@@ -4167,7 +4188,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
+      <c r="A58" s="51"/>
       <c r="B58" s="22" t="s">
         <v>263</v>
       </c>
@@ -4176,7 +4197,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
+      <c r="A59" s="51"/>
       <c r="B59" s="22" t="s">
         <v>265</v>
       </c>
@@ -4185,49 +4206,49 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
+      <c r="A60" s="51"/>
       <c r="E60" s="25" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
+      <c r="A61" s="51"/>
       <c r="E61" s="25" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
+      <c r="A62" s="51"/>
       <c r="E62" s="25" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
+      <c r="A63" s="51"/>
       <c r="E63" s="25" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
+      <c r="A64" s="51"/>
       <c r="E64" s="25" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
+      <c r="A65" s="51"/>
       <c r="E65" s="25" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="48"/>
+      <c r="A66" s="51"/>
       <c r="E66" s="25" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
+      <c r="A67" s="51"/>
       <c r="B67" s="31"/>
       <c r="E67" s="25" t="s">
         <v>260</v>
@@ -4289,7 +4310,7 @@
       <c r="D72" s="33"/>
     </row>
     <row r="73" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A73" s="47" t="s">
+      <c r="A73" s="50" t="s">
         <v>279</v>
       </c>
       <c r="B73" s="22" t="s">
@@ -4306,7 +4327,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="50"/>
+      <c r="A74" s="53"/>
       <c r="B74" s="22" t="s">
         <v>282</v>
       </c>
@@ -4321,7 +4342,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="50"/>
+      <c r="A75" s="53"/>
       <c r="B75" s="22" t="s">
         <v>325</v>
       </c>
@@ -4336,7 +4357,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="50"/>
+      <c r="A76" s="53"/>
       <c r="B76" s="22" t="s">
         <v>326</v>
       </c>
@@ -4351,7 +4372,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="50"/>
+      <c r="A77" s="53"/>
       <c r="B77" s="22" t="s">
         <v>327</v>
       </c>
@@ -4366,7 +4387,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="50"/>
+      <c r="A78" s="53"/>
       <c r="C78" s="23" t="s">
         <v>313</v>
       </c>
@@ -4378,7 +4399,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A79" s="50"/>
+      <c r="A79" s="53"/>
       <c r="C79" s="23" t="s">
         <v>316</v>
       </c>
@@ -4390,7 +4411,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A80" s="50"/>
+      <c r="A80" s="53"/>
       <c r="C80" s="23" t="s">
         <v>317</v>
       </c>
@@ -4402,7 +4423,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A81" s="50"/>
+      <c r="A81" s="53"/>
       <c r="C81" s="23" t="s">
         <v>319</v>
       </c>
@@ -4414,7 +4435,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="50"/>
+      <c r="A82" s="53"/>
       <c r="C82" s="23" t="s">
         <v>320</v>
       </c>
@@ -4426,7 +4447,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="50"/>
+      <c r="A83" s="53"/>
       <c r="C83" s="34" t="s">
         <v>328</v>
       </c>
@@ -4434,7 +4455,7 @@
       <c r="E83" s="27"/>
     </row>
     <row r="84" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="47" t="s">
+      <c r="A84" s="50" t="s">
         <v>337</v>
       </c>
       <c r="B84" s="32" t="s">
@@ -4451,7 +4472,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="48"/>
+      <c r="A85" s="51"/>
       <c r="B85" s="22" t="s">
         <v>341</v>
       </c>
@@ -4466,7 +4487,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="48"/>
+      <c r="A86" s="51"/>
       <c r="B86" s="22" t="s">
         <v>369</v>
       </c>
@@ -4481,7 +4502,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="48"/>
+      <c r="A87" s="51"/>
       <c r="B87" s="22" t="s">
         <v>371</v>
       </c>
@@ -4493,7 +4514,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="48"/>
+      <c r="A88" s="51"/>
       <c r="B88" s="22" t="s">
         <v>382</v>
       </c>
@@ -4505,7 +4526,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="48"/>
+      <c r="A89" s="51"/>
       <c r="C89" s="23" t="s">
         <v>370</v>
       </c>
@@ -4514,7 +4535,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A90" s="48"/>
+      <c r="A90" s="51"/>
       <c r="C90" s="23" t="s">
         <v>372</v>
       </c>
@@ -4523,7 +4544,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A91" s="48"/>
+      <c r="A91" s="51"/>
       <c r="C91" s="23" t="s">
         <v>373</v>
       </c>
@@ -4532,7 +4553,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="48"/>
+      <c r="A92" s="51"/>
       <c r="C92" s="23" t="s">
         <v>374</v>
       </c>
@@ -4541,7 +4562,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" s="48"/>
+      <c r="A93" s="51"/>
       <c r="C93" s="23" t="s">
         <v>376</v>
       </c>
@@ -4550,7 +4571,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94" s="48"/>
+      <c r="A94" s="51"/>
       <c r="C94" s="23" t="s">
         <v>378</v>
       </c>
@@ -4559,7 +4580,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A95" s="48"/>
+      <c r="A95" s="51"/>
       <c r="C95" s="23" t="s">
         <v>383</v>
       </c>
@@ -4568,98 +4589,98 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="48"/>
+      <c r="A96" s="51"/>
       <c r="E96" s="25" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="48"/>
+      <c r="A97" s="51"/>
       <c r="E97" s="25" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="48"/>
+      <c r="A98" s="51"/>
       <c r="E98" s="25" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="48"/>
+      <c r="A99" s="51"/>
       <c r="E99" s="25" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="48"/>
+      <c r="A100" s="51"/>
       <c r="E100" s="25" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="48"/>
+      <c r="A101" s="51"/>
       <c r="E101" s="25" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="48"/>
+      <c r="A102" s="51"/>
       <c r="E102" s="25" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="48"/>
+      <c r="A103" s="51"/>
       <c r="E103" s="25" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="48"/>
+      <c r="A104" s="51"/>
       <c r="E104" s="25" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="48"/>
+      <c r="A105" s="51"/>
       <c r="E105" s="25" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="48"/>
+      <c r="A106" s="51"/>
       <c r="E106" s="25" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="48"/>
+      <c r="A107" s="51"/>
       <c r="E107" s="25" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="48"/>
+      <c r="A108" s="51"/>
       <c r="E108" s="25" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="48"/>
+      <c r="A109" s="51"/>
       <c r="E109" s="25" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="49"/>
+      <c r="A110" s="52"/>
       <c r="D110" s="33"/>
       <c r="E110" s="25" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="47" t="s">
+      <c r="A111" s="50" t="s">
         <v>384</v>
       </c>
       <c r="B111" s="32" t="s">
@@ -4676,7 +4697,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="48"/>
+      <c r="A112" s="51"/>
       <c r="B112" s="22" t="s">
         <v>390</v>
       </c>
@@ -4691,7 +4712,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A113" s="48"/>
+      <c r="A113" s="51"/>
       <c r="B113" s="22" t="s">
         <v>392</v>
       </c>
@@ -4706,7 +4727,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="48"/>
+      <c r="A114" s="51"/>
       <c r="B114" s="22" t="s">
         <v>408</v>
       </c>
@@ -4718,7 +4739,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A115" s="48"/>
+      <c r="A115" s="51"/>
       <c r="B115" s="22" t="s">
         <v>411</v>
       </c>
@@ -4730,7 +4751,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="48"/>
+      <c r="A116" s="51"/>
       <c r="B116" s="22" t="s">
         <v>412</v>
       </c>
@@ -4742,7 +4763,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="48"/>
+      <c r="A117" s="51"/>
       <c r="C117" s="23" t="s">
         <v>409</v>
       </c>
@@ -4751,7 +4772,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A118" s="48"/>
+      <c r="A118" s="51"/>
       <c r="C118" s="23" t="s">
         <v>415</v>
       </c>
@@ -4760,7 +4781,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" s="48"/>
+      <c r="A119" s="51"/>
       <c r="C119" s="23" t="s">
         <v>416</v>
       </c>
@@ -4769,37 +4790,37 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="48"/>
+      <c r="A120" s="51"/>
       <c r="E120" s="25" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A121" s="48"/>
+      <c r="A121" s="51"/>
       <c r="E121" s="25" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A122" s="48"/>
+      <c r="A122" s="51"/>
       <c r="E122" s="25" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="48"/>
+      <c r="A123" s="51"/>
       <c r="E123" s="25" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="48"/>
+      <c r="A124" s="51"/>
       <c r="E124" s="25" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A125" s="49"/>
+      <c r="A125" s="52"/>
       <c r="B125" s="31"/>
       <c r="C125" s="34"/>
       <c r="D125" s="33"/>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C24E38-0331-4168-985D-9BF9CCAF9336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287FB370-D896-4FE8-A367-4C2ED7FD3A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="513">
   <si>
     <t>Autor</t>
   </si>
@@ -2084,6 +2084,24 @@
   </si>
   <si>
     <t>O BackPEI foi desenvolvido para avaliar os hábitos comportamentais e posturais de estudantes e a frequência de dor nas costas. Este instrumento é composto por seis seções: dados demográficos (idade e sexo); nível socioeconômico (questões como nível de escolaridade dos pais); fatores comportamentais (atividade física, leitura na cama, horas gastas assistindo TV ou usando o computador diariamente, duração do sono diário); dor nas costas nos últimos três meses (ocorrência, frequência e intensidade); fatores posturais (postura sentada ao usar o computador ou escrever, postura sentada em sala de aula, método de transporte de materiais escolares, posição para dormir); fatores genéticos (presença de dor nas costas nos pais). A verificação da adequação foi verificada pelo coeficiente KMO e o teste de esfericidade de Bartlett. Foi feita a validade de critério através da correlação dos valores de EVA e a presença de dor.</t>
+  </si>
+  <si>
+    <t>Avaliar programas educacionais para cuidados com as costas através da medição de comportamentos e seus determinantes de acordo com a Teoria Social Cognitiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema de medição que pretende mensurar o comportamento de cuidado com as costas entre crianças do ensino fundamental deveria abordar os constructos propostos pela Teoria Cognitiva Social que aponta que os três principais determinantes psicológicos de qualquer mudança de comportamento são: autoeficácia; capacidade comportamental (habilidades e conhecimento para executar um determinado comportamento); e crenças de expectativa de resultados (crenças comportamentais). O sistema de medição é composto por 5 construtos: habilidades, autoeficácia, conhecimento, crenças de expectativa e comportamento auto-relatado. Um painel de especialista avaliou os itens quanto a sua necessidade e relevância. A associação dos itens com os construtos foi verificada por um correlação item-total. Foi executada uma análise fatorial e para investigar os construtos e um procedimento de validade convergente pra verificar as relações entre eles. O alfa de Cronbach foi usado para verificar a consistência interna.  </t>
+  </si>
+  <si>
+    <t>≥</t>
+  </si>
+  <si>
+    <t>≤</t>
+  </si>
+  <si>
+    <t>Cada construto possui uma representação própria. Habilidades: cada item é classificado em uma escala de 3 pontos que varia de 0 (não cumprimento dos critérios) a 2 (conclusão correta da tarefa), dando uma pontuação que varia de 0 a 48 pontos, onde pontuações mais altas indicam melhor cumprimento das tarefas. Conhecimento: as pontuações neste constructo variam de 0 a 13, onde as pontuações mais altas indicam melhor conhecimento. Autoeficácia: cada item é classificado em uma escala de quatro pontos (de difícil a fácil), dando uma pontuação que varia de 4 a 16, onde as pontuações mais altas indicam maior autoeficácia. Crenças de expectativa: cada item é classificado em uma escala de cinco pontos (discordo totalmente a concordo totalmente), dando uma pontuação que varia de 6 a 30, onde uma pontuação mais alta indica crenças mais fortes. Comportamento de cuidado com as costas: as categorias de resposta variaram de nunca (1) a sempre (5), dando uma pontuação de 8 a 40, onde pontuações mais altas indicam melhor comportamento preventivo. Os valores dos construtos podem ser somados gerando uma representação para o sistema de medição que varia de 16 a 132. Os critérios para interpretar as pontuações são: alta (≥104); intermediária (entre o primeiro e o terceiro quartel, ≥45 e ≤103); e baixa (≤44). Foi calculado o MDC.</t>
+  </si>
+  <si>
+    <t>A versão inicial do Questionário de Avaliação do Comportamento de Cuidados com as Costas (BABAQ) foi desenvolvida com base no conteúdo de outros questionários existentes. A compreensão do instrumento foi verificada por um grupo de 6 estudantes. A confiabilidade teste-reteste foi avaliada.</t>
   </si>
 </sst>
 </file>
@@ -2243,7 +2261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2354,37 +2372,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2398,6 +2405,10 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2680,9 +2691,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A23" sqref="A23:A27"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,8 +2705,7 @@
     <col min="6" max="6" width="70.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="55.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="39.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="36.5703125" style="43" customWidth="1"/>
-    <col min="10" max="12" width="36.5703125" style="41" customWidth="1"/>
+    <col min="9" max="12" width="36.5703125" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2723,27 +2733,27 @@
       <c r="H1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="49" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="42">
         <v>2013</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="41" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3">
@@ -2761,7 +2771,7 @@
       <c r="H2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>451</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -2775,9 +2785,9 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="46"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
@@ -2790,14 +2800,15 @@
       <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="46"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
@@ -2810,14 +2821,15 @@
       <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="46"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -2826,14 +2838,15 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="4"/>
+      <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="46"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
@@ -2842,68 +2855,72 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="41"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="40" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="48"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="4"/>
+      <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="46"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="48"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="46"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="41"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
@@ -2914,14 +2931,15 @@
         <v>24</v>
       </c>
       <c r="G10" s="4"/>
+      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="46"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
@@ -2930,14 +2948,15 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="4"/>
+      <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="46"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="41"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
@@ -2950,14 +2969,15 @@
       <c r="G12" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="46"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="41"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
@@ -2968,6 +2988,7 @@
         <v>27</v>
       </c>
       <c r="G13" s="4"/>
+      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2994,27 +3015,27 @@
       <c r="H14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="38" t="s">
         <v>492</v>
       </c>
-      <c r="J14" s="41" t="s">
+      <c r="J14" s="38" t="s">
         <v>494</v>
       </c>
-      <c r="K14" s="41" t="s">
+      <c r="K14" s="38" t="s">
         <v>493</v>
       </c>
-      <c r="L14" s="41" t="s">
+      <c r="L14" s="38" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="330" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="43">
         <v>2018</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="41" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="3">
@@ -3023,7 +3044,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="40" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -3032,53 +3053,53 @@
       <c r="H15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="41" t="s">
+      <c r="I15" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="J15" s="44" t="s">
+      <c r="J15" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="K15" s="41" t="s">
+      <c r="K15" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="L15" s="41" t="s">
+      <c r="L15" s="38" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="46"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="48"/>
+      <c r="F16" s="40"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="46"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="48"/>
+      <c r="F17" s="40"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="46"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="3">
         <v>4</v>
       </c>
@@ -3093,9 +3114,9 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="46"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="3">
         <v>5</v>
       </c>
@@ -3110,9 +3131,9 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="46"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="3">
         <v>6</v>
       </c>
@@ -3124,9 +3145,9 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="46"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="41"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
@@ -3159,27 +3180,27 @@
       <c r="H22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="38" t="s">
         <v>496</v>
       </c>
-      <c r="J22" s="41" t="s">
+      <c r="J22" s="38" t="s">
         <v>497</v>
       </c>
-      <c r="K22" s="41" t="s">
+      <c r="K22" s="38" t="s">
         <v>498</v>
       </c>
-      <c r="L22" s="41" t="s">
+      <c r="L22" s="38" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="390" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="43">
         <v>2019</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="41" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -3194,23 +3215,23 @@
       <c r="H23" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I23" s="41" t="s">
+      <c r="I23" s="38" t="s">
         <v>504</v>
       </c>
-      <c r="J23" s="41" t="s">
+      <c r="J23" s="38" t="s">
         <v>506</v>
       </c>
-      <c r="K23" s="41" t="s">
+      <c r="K23" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="L23" s="41" t="s">
+      <c r="L23" s="38" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="46"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="41"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
@@ -3222,9 +3243,9 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="46"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="41"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
       </c>
@@ -3236,9 +3257,9 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="46"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="41"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
       </c>
@@ -3250,9 +3271,9 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="46"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="41"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3264,13 +3285,13 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="44">
         <v>2021</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="41" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -3282,14 +3303,14 @@
       <c r="G28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="46" t="s">
+      <c r="H28" s="41" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="41"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
       </c>
@@ -3299,12 +3320,12 @@
       <c r="G29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="46"/>
+      <c r="H29" s="41"/>
     </row>
     <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="41"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
       </c>
@@ -3314,7 +3335,7 @@
       <c r="G30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="46"/>
+      <c r="H30" s="41"/>
     </row>
     <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -3347,7 +3368,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="E33" s="4" t="s">
         <v>83</v>
       </c>
@@ -3358,7 +3379,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="126" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="126" x14ac:dyDescent="0.25">
       <c r="E34" s="4" t="s">
         <v>70</v>
       </c>
@@ -3369,7 +3390,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
@@ -3377,7 +3398,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -3395,7 +3416,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="E37" s="5" t="s">
         <v>92</v>
       </c>
@@ -3403,7 +3424,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="E38" s="5" t="s">
         <v>93</v>
       </c>
@@ -3414,13 +3435,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E39" s="5" t="s">
         <v>94</v>
       </c>
       <c r="F39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="E40" s="5" t="s">
         <v>95</v>
       </c>
@@ -3431,13 +3452,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:8" ht="108" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="108" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -3460,7 +3481,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E43" s="4" t="s">
         <v>105</v>
       </c>
@@ -3471,7 +3492,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="E44" s="4" t="s">
         <v>106</v>
       </c>
@@ -3482,7 +3503,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E45" s="4" t="s">
         <v>107</v>
       </c>
@@ -3493,7 +3514,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>280</v>
       </c>
@@ -3515,8 +3536,20 @@
       <c r="H46" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="I46" s="38" t="s">
+        <v>507</v>
+      </c>
+      <c r="J46" s="38" t="s">
+        <v>508</v>
+      </c>
+      <c r="K46" s="38" t="s">
+        <v>511</v>
+      </c>
+      <c r="L46" s="38" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E47" s="4" t="s">
         <v>292</v>
       </c>
@@ -3527,7 +3560,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="E48" s="4" t="s">
         <v>93</v>
       </c>
@@ -3585,6 +3618,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -3593,13 +3633,6 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3611,9 +3644,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E623474-3705-4594-B9DF-AE0ADD157849}">
   <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3642,7 +3675,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="46" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -3659,7 +3692,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="22" t="s">
         <v>142</v>
       </c>
@@ -3674,7 +3707,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="22" t="s">
         <v>143</v>
       </c>
@@ -3689,7 +3722,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="22" t="s">
         <v>146</v>
       </c>
@@ -3704,7 +3737,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="22" t="s">
         <v>180</v>
       </c>
@@ -3716,7 +3749,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="22" t="s">
         <v>187</v>
       </c>
@@ -3728,7 +3761,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="22" t="s">
         <v>188</v>
       </c>
@@ -3740,7 +3773,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="46"/>
       <c r="C9" s="23" t="s">
         <v>147</v>
       </c>
@@ -3749,7 +3782,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="46"/>
       <c r="C10" s="23" t="s">
         <v>147</v>
       </c>
@@ -3758,7 +3791,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
+      <c r="A11" s="46"/>
       <c r="C11" s="23" t="s">
         <v>148</v>
       </c>
@@ -3767,7 +3800,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
+      <c r="A12" s="46"/>
       <c r="C12" s="23" t="s">
         <v>158</v>
       </c>
@@ -3776,7 +3809,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+      <c r="A13" s="46"/>
       <c r="C13" s="23" t="s">
         <v>159</v>
       </c>
@@ -3785,7 +3818,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
+      <c r="A14" s="46"/>
       <c r="C14" s="23" t="s">
         <v>160</v>
       </c>
@@ -3794,7 +3827,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
+      <c r="A15" s="46"/>
       <c r="C15" s="23" t="s">
         <v>163</v>
       </c>
@@ -3803,7 +3836,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
+      <c r="A16" s="46"/>
       <c r="C16" s="23" t="s">
         <v>174</v>
       </c>
@@ -3812,7 +3845,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
+      <c r="A17" s="46"/>
       <c r="C17" s="23" t="s">
         <v>179</v>
       </c>
@@ -3821,7 +3854,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
+      <c r="A18" s="46"/>
       <c r="C18" s="23" t="s">
         <v>186</v>
       </c>
@@ -3830,92 +3863,92 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
+      <c r="A19" s="46"/>
       <c r="E19" s="25" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
+      <c r="A20" s="46"/>
       <c r="E20" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
+      <c r="A21" s="46"/>
       <c r="E21" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
+      <c r="A22" s="46"/>
       <c r="E22" s="25" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
+      <c r="A23" s="46"/>
       <c r="E23" s="25" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
+      <c r="A24" s="46"/>
       <c r="E24" s="25" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
+      <c r="A25" s="46"/>
       <c r="E25" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
+      <c r="A26" s="46"/>
       <c r="E26" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
+      <c r="A27" s="46"/>
       <c r="E27" s="25" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
+      <c r="A28" s="46"/>
       <c r="E28" s="25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
+      <c r="A29" s="46"/>
       <c r="E29" s="25" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
+      <c r="A30" s="46"/>
       <c r="E30" s="25" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
+      <c r="A31" s="46"/>
       <c r="E31" s="25" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="52"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="31"/>
       <c r="E32" s="27" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="45" t="s">
         <v>189</v>
       </c>
       <c r="B33" s="30" t="s">
@@ -3932,7 +3965,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="22" t="s">
         <v>210</v>
       </c>
@@ -3947,7 +3980,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
+      <c r="A35" s="46"/>
       <c r="C35" s="23" t="s">
         <v>195</v>
       </c>
@@ -3959,7 +3992,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
+      <c r="A36" s="46"/>
       <c r="C36" s="23" t="s">
         <v>196</v>
       </c>
@@ -3968,7 +4001,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
+      <c r="A37" s="46"/>
       <c r="C37" s="23" t="s">
         <v>197</v>
       </c>
@@ -3977,7 +4010,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
+      <c r="A38" s="46"/>
       <c r="C38" s="23" t="s">
         <v>203</v>
       </c>
@@ -3986,7 +4019,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
+      <c r="A39" s="46"/>
       <c r="C39" s="23" t="s">
         <v>204</v>
       </c>
@@ -3995,26 +4028,26 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
+      <c r="A40" s="46"/>
       <c r="E40" s="25" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
+      <c r="A41" s="46"/>
       <c r="E41" s="25" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
+      <c r="A42" s="47"/>
       <c r="D42" s="33"/>
       <c r="E42" s="27" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="45" t="s">
         <v>211</v>
       </c>
       <c r="B43" s="32"/>
@@ -4029,7 +4062,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
+      <c r="A44" s="48"/>
       <c r="C44" s="23" t="s">
         <v>214</v>
       </c>
@@ -4038,14 +4071,14 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="31"/>
       <c r="C45" s="34" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="45" t="s">
         <v>218</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -4062,7 +4095,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
+      <c r="A47" s="46"/>
       <c r="B47" s="22" t="s">
         <v>221</v>
       </c>
@@ -4077,7 +4110,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
+      <c r="A48" s="46"/>
       <c r="B48" s="22" t="s">
         <v>222</v>
       </c>
@@ -4089,7 +4122,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
+      <c r="A49" s="46"/>
       <c r="B49" s="22" t="s">
         <v>224</v>
       </c>
@@ -4101,7 +4134,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
+      <c r="A50" s="46"/>
       <c r="B50" s="22" t="s">
         <v>248</v>
       </c>
@@ -4113,7 +4146,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
+      <c r="A51" s="46"/>
       <c r="B51" s="22" t="s">
         <v>250</v>
       </c>
@@ -4125,7 +4158,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
+      <c r="A52" s="46"/>
       <c r="B52" s="22" t="s">
         <v>252</v>
       </c>
@@ -4137,7 +4170,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
+      <c r="A53" s="46"/>
       <c r="B53" s="22" t="s">
         <v>253</v>
       </c>
@@ -4149,7 +4182,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
+      <c r="A54" s="46"/>
       <c r="B54" s="22" t="s">
         <v>258</v>
       </c>
@@ -4161,7 +4194,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="22" t="s">
         <v>259</v>
       </c>
@@ -4170,7 +4203,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
+      <c r="A56" s="46"/>
       <c r="B56" s="22" t="s">
         <v>261</v>
       </c>
@@ -4179,7 +4212,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
+      <c r="A57" s="46"/>
       <c r="B57" s="22" t="s">
         <v>262</v>
       </c>
@@ -4188,7 +4221,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
+      <c r="A58" s="46"/>
       <c r="B58" s="22" t="s">
         <v>263</v>
       </c>
@@ -4197,7 +4230,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
+      <c r="A59" s="46"/>
       <c r="B59" s="22" t="s">
         <v>265</v>
       </c>
@@ -4206,56 +4239,56 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
+      <c r="A60" s="46"/>
       <c r="E60" s="25" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
+      <c r="A61" s="46"/>
       <c r="E61" s="25" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
+      <c r="A62" s="46"/>
       <c r="E62" s="25" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
+      <c r="A63" s="46"/>
       <c r="E63" s="25" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="51"/>
+      <c r="A64" s="46"/>
       <c r="E64" s="25" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
+      <c r="A65" s="46"/>
       <c r="E65" s="25" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="51"/>
+      <c r="A66" s="46"/>
       <c r="E66" s="25" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="51"/>
+      <c r="A67" s="46"/>
       <c r="B67" s="31"/>
       <c r="E67" s="25" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A68" s="38" t="s">
+      <c r="A68" s="45" t="s">
         <v>267</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -4272,7 +4305,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="255" x14ac:dyDescent="0.25">
-      <c r="A69" s="39"/>
+      <c r="A69" s="46"/>
       <c r="B69" s="22" t="s">
         <v>269</v>
       </c>
@@ -4284,7 +4317,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A70" s="39"/>
+      <c r="A70" s="46"/>
       <c r="B70" s="22" t="s">
         <v>277</v>
       </c>
@@ -4296,13 +4329,13 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="360" x14ac:dyDescent="0.25">
-      <c r="A71" s="39"/>
+      <c r="A71" s="46"/>
       <c r="C71" s="23" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
+      <c r="A72" s="47"/>
       <c r="B72" s="31"/>
       <c r="C72" s="34" t="s">
         <v>278</v>
@@ -4310,7 +4343,7 @@
       <c r="D72" s="33"/>
     </row>
     <row r="73" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A73" s="50" t="s">
+      <c r="A73" s="45" t="s">
         <v>279</v>
       </c>
       <c r="B73" s="22" t="s">
@@ -4327,7 +4360,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="53"/>
+      <c r="A74" s="48"/>
       <c r="B74" s="22" t="s">
         <v>282</v>
       </c>
@@ -4342,7 +4375,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="53"/>
+      <c r="A75" s="48"/>
       <c r="B75" s="22" t="s">
         <v>325</v>
       </c>
@@ -4357,7 +4390,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="53"/>
+      <c r="A76" s="48"/>
       <c r="B76" s="22" t="s">
         <v>326</v>
       </c>
@@ -4372,7 +4405,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="53"/>
+      <c r="A77" s="48"/>
       <c r="B77" s="22" t="s">
         <v>327</v>
       </c>
@@ -4387,7 +4420,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="53"/>
+      <c r="A78" s="48"/>
       <c r="C78" s="23" t="s">
         <v>313</v>
       </c>
@@ -4399,7 +4432,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A79" s="53"/>
+      <c r="A79" s="48"/>
       <c r="C79" s="23" t="s">
         <v>316</v>
       </c>
@@ -4411,7 +4444,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A80" s="53"/>
+      <c r="A80" s="48"/>
       <c r="C80" s="23" t="s">
         <v>317</v>
       </c>
@@ -4423,7 +4456,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A81" s="53"/>
+      <c r="A81" s="48"/>
       <c r="C81" s="23" t="s">
         <v>319</v>
       </c>
@@ -4435,7 +4468,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="53"/>
+      <c r="A82" s="48"/>
       <c r="C82" s="23" t="s">
         <v>320</v>
       </c>
@@ -4447,7 +4480,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="53"/>
+      <c r="A83" s="48"/>
       <c r="C83" s="34" t="s">
         <v>328</v>
       </c>
@@ -4455,7 +4488,7 @@
       <c r="E83" s="27"/>
     </row>
     <row r="84" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="50" t="s">
+      <c r="A84" s="45" t="s">
         <v>337</v>
       </c>
       <c r="B84" s="32" t="s">
@@ -4472,7 +4505,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="51"/>
+      <c r="A85" s="46"/>
       <c r="B85" s="22" t="s">
         <v>341</v>
       </c>
@@ -4487,7 +4520,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="51"/>
+      <c r="A86" s="46"/>
       <c r="B86" s="22" t="s">
         <v>369</v>
       </c>
@@ -4502,7 +4535,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="51"/>
+      <c r="A87" s="46"/>
       <c r="B87" s="22" t="s">
         <v>371</v>
       </c>
@@ -4514,7 +4547,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="51"/>
+      <c r="A88" s="46"/>
       <c r="B88" s="22" t="s">
         <v>382</v>
       </c>
@@ -4526,7 +4559,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="51"/>
+      <c r="A89" s="46"/>
       <c r="C89" s="23" t="s">
         <v>370</v>
       </c>
@@ -4535,7 +4568,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
+      <c r="A90" s="46"/>
       <c r="C90" s="23" t="s">
         <v>372</v>
       </c>
@@ -4544,7 +4577,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
+      <c r="A91" s="46"/>
       <c r="C91" s="23" t="s">
         <v>373</v>
       </c>
@@ -4553,7 +4586,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="51"/>
+      <c r="A92" s="46"/>
       <c r="C92" s="23" t="s">
         <v>374</v>
       </c>
@@ -4562,7 +4595,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" s="51"/>
+      <c r="A93" s="46"/>
       <c r="C93" s="23" t="s">
         <v>376</v>
       </c>
@@ -4571,7 +4604,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94" s="51"/>
+      <c r="A94" s="46"/>
       <c r="C94" s="23" t="s">
         <v>378</v>
       </c>
@@ -4580,7 +4613,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A95" s="51"/>
+      <c r="A95" s="46"/>
       <c r="C95" s="23" t="s">
         <v>383</v>
       </c>
@@ -4589,98 +4622,98 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
+      <c r="A96" s="46"/>
       <c r="E96" s="25" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="51"/>
+      <c r="A97" s="46"/>
       <c r="E97" s="25" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="51"/>
+      <c r="A98" s="46"/>
       <c r="E98" s="25" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="51"/>
+      <c r="A99" s="46"/>
       <c r="E99" s="25" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="51"/>
+      <c r="A100" s="46"/>
       <c r="E100" s="25" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="51"/>
+      <c r="A101" s="46"/>
       <c r="E101" s="25" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="51"/>
+      <c r="A102" s="46"/>
       <c r="E102" s="25" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="51"/>
+      <c r="A103" s="46"/>
       <c r="E103" s="25" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="51"/>
+      <c r="A104" s="46"/>
       <c r="E104" s="25" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="51"/>
+      <c r="A105" s="46"/>
       <c r="E105" s="25" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="51"/>
+      <c r="A106" s="46"/>
       <c r="E106" s="25" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="51"/>
+      <c r="A107" s="46"/>
       <c r="E107" s="25" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="51"/>
+      <c r="A108" s="46"/>
       <c r="E108" s="25" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="51"/>
+      <c r="A109" s="46"/>
       <c r="E109" s="25" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="52"/>
+      <c r="A110" s="47"/>
       <c r="D110" s="33"/>
       <c r="E110" s="25" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="50" t="s">
+      <c r="A111" s="45" t="s">
         <v>384</v>
       </c>
       <c r="B111" s="32" t="s">
@@ -4697,7 +4730,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="51"/>
+      <c r="A112" s="46"/>
       <c r="B112" s="22" t="s">
         <v>390</v>
       </c>
@@ -4712,7 +4745,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A113" s="51"/>
+      <c r="A113" s="46"/>
       <c r="B113" s="22" t="s">
         <v>392</v>
       </c>
@@ -4727,7 +4760,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="51"/>
+      <c r="A114" s="46"/>
       <c r="B114" s="22" t="s">
         <v>408</v>
       </c>
@@ -4739,7 +4772,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A115" s="51"/>
+      <c r="A115" s="46"/>
       <c r="B115" s="22" t="s">
         <v>411</v>
       </c>
@@ -4751,7 +4784,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="51"/>
+      <c r="A116" s="46"/>
       <c r="B116" s="22" t="s">
         <v>412</v>
       </c>
@@ -4763,7 +4796,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="51"/>
+      <c r="A117" s="46"/>
       <c r="C117" s="23" t="s">
         <v>409</v>
       </c>
@@ -4772,7 +4805,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A118" s="51"/>
+      <c r="A118" s="46"/>
       <c r="C118" s="23" t="s">
         <v>415</v>
       </c>
@@ -4781,7 +4814,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" s="51"/>
+      <c r="A119" s="46"/>
       <c r="C119" s="23" t="s">
         <v>416</v>
       </c>
@@ -4790,37 +4823,37 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="51"/>
+      <c r="A120" s="46"/>
       <c r="E120" s="25" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A121" s="51"/>
+      <c r="A121" s="46"/>
       <c r="E121" s="25" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A122" s="51"/>
+      <c r="A122" s="46"/>
       <c r="E122" s="25" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="51"/>
+      <c r="A123" s="46"/>
       <c r="E123" s="25" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="51"/>
+      <c r="A124" s="46"/>
       <c r="E124" s="25" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A125" s="52"/>
+      <c r="A125" s="47"/>
       <c r="B125" s="31"/>
       <c r="C125" s="34"/>
       <c r="D125" s="33"/>
@@ -4959,7 +4992,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A111:A125"/>
     <mergeCell ref="A84:A110"/>
     <mergeCell ref="A2:A32"/>
@@ -4967,6 +5000,7 @@
     <mergeCell ref="A43:A45"/>
     <mergeCell ref="A46:A67"/>
     <mergeCell ref="A73:A83"/>
+    <mergeCell ref="A68:A72"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4975,15 +5009,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5B4F25-E774-4A01-9179-A9A2FE89D1E4}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>453</v>
       </c>
@@ -4997,7 +5031,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>21</v>
       </c>
@@ -5010,8 +5044,11 @@
       <c r="D2" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H2" s="50" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>19</v>
       </c>
@@ -5024,8 +5061,11 @@
       <c r="D3" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H3" s="50" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5039,7 +5079,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5053,7 +5093,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5067,7 +5107,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -5081,7 +5121,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15</v>
       </c>
@@ -5095,7 +5135,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -5109,7 +5149,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5123,7 +5163,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -5137,7 +5177,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -5151,7 +5191,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18</v>
       </c>
@@ -5165,7 +5205,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20</v>
       </c>
@@ -5179,7 +5219,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17</v>
       </c>
@@ -5193,7 +5233,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287FB370-D896-4FE8-A367-4C2ED7FD3A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FA7D45-1FDB-4F1D-887B-8756CC22E31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descritivos" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Rascunho" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="538">
   <si>
     <t>Autor</t>
   </si>
@@ -2102,6 +2103,81 @@
   </si>
   <si>
     <t>A versão inicial do Questionário de Avaliação do Comportamento de Cuidados com as Costas (BABAQ) foi desenvolvida com base no conteúdo de outros questionários existentes. A compreensão do instrumento foi verificada por um grupo de 6 estudantes. A confiabilidade teste-reteste foi avaliada.</t>
+  </si>
+  <si>
+    <t>Alguns autores e organizações defendem a promoção da linha de pesquisa em educação para a saúde da coluna e, principalmente, sua implementação em programas de educação escolar</t>
+  </si>
+  <si>
+    <t>Miñana-Signes et al, 2021</t>
+  </si>
+  <si>
+    <t>O questionário BackPEI [16] foi elaborado para identificar a presença de PA nos últimos 3 meses antes de sua aplicação. Ele estuda questões sobre a ocorrência, frequência e intensidade da dor nas costas</t>
+  </si>
+  <si>
+    <t>A intensidade da dor, questão número 21, foi avaliada por meio da escala visual analógica (EVA), que é uma linha horizontal de 10 cm em que “0” significa “Sem dor” e “10” significa “A pior dor que posso imaginar”.</t>
+  </si>
+  <si>
+    <t>As primeiras 20 questões são fechadas, o que só é possível mediante resposta: as questões 1 a 8 são baseadas no estilo de vida; as questões 9 a 14 tratam da postura adotada durante as atividades da vida diária; as questões 15 e 16 perguntam sobre estudos com pais; as questões 17 a 19 são elaboradas para identificar a presença de dor nas costas nos últimos três meses, bem como a ocorrência e a frequência da dor.</t>
+  </si>
+  <si>
+    <t>As diferenças culturais sob as quais ambos os questionários foram validados significam que eles são úteis apenas nesses contextos, não sendo possível comparar os resultados para aplicar um estudo de validade de critério. Portanto, a adaptação transcultural de um desses questionários pode ser o primeiro passo para consolidar instrumentos válidos.</t>
+  </si>
+  <si>
+    <t>Portanto, o presente estudo teve como objetivo realizar uma adaptação transcultural de um instrumento de medida validado (BackPEI), iniciando com uma fase de tradução e adaptação cultural, seguida de uma segunda fase para testar a confiabilidade pelo delineamento teste-reteste.</t>
+  </si>
+  <si>
+    <t>Cada membro do comitê comparou a versão em espanhol e as versões originais do BackPEI, pontuando a equivalência entre as duas versões por meio de quatro perguntas em termos de experiência (ou seja, equivalência no contexto cultural de destino) e conceitual (ou seja, equivalência do conceito e das experiências da cultura de destino).</t>
+  </si>
+  <si>
+    <t>Etapa quatro: Em seguida, o CE revisou a versão em espanhol (TL) em comparação com a original (SL). O objetivo do comitê era a produção de uma versão pré-final para testes de campo, com base na versão obtida das traduções direta e reversa. O método Delphi foi usado. As respostas anônimas foram agregadas e compartilhadas com o grupo após cada rodada. Os especialistas foram autorizados a ajustar suas respostas nas rodadas subsequentes. Cada membro do comitê comparou a versão em espanhol e as versões originais do BackPEI item por item e em geral (todos os itens), pontuando a equivalência entre as duas versões por meio de quatro perguntas em termos de semântica (ou seja, equivalência no significado das palavras), idiomática (ou seja, equivalência em expressões idiomáticas e coloquialismos), experiencial (ou seja, equivalência no contexto cultural de destino) e conceitual (ou seja, equivalência do conceito e das experiências da cultura de destino).</t>
+  </si>
+  <si>
+    <t>Etapa cinco: Erros de revisão foram corrigidos antes da produção da versão pré-final em espanhol do BackPEI.</t>
+  </si>
+  <si>
+    <t>Sexta etapa: Teste psicométrico da versão pré-final do instrumento traduzido em uma amostra da população-alvo. Para analisar sua confiabilidade, a versão pré-final em espanhol do BackPEI foi aplicada a 224 adolescentes duas vezes (teste-reteste), com um intervalo de sete dias entre cada teste.</t>
+  </si>
+  <si>
+    <t>Durante a análise da primeira etapa (tradução direta), o OMTP decidiu não fazer nenhuma alteração. A segunda etapa (tradução reversa) foi idêntica ao questionário original em português (SL). Na terceira etapa, não foram encontrados problemas significativos durante as fases de tradução direta e tradução reversa da versão brasileira, e o OMTP não sugeriu alterações em nenhuma palavra ou frase.</t>
+  </si>
+  <si>
+    <t>Um dos especialistas afirmou que: “A construção é confusa em ambas as perguntas. ‘Senta-se’ (se sienta, em espanhol) significa quantas horas a pessoa assiste TV sentada?”. Além disso, o painel de especialistas sugeriu a mudança do uso de “usted” para o pronome de segunda pessoa usado idiomaticamente para indicar proximidade ou familiaridade (3ª pergunta do questionário dos especialistas).</t>
+  </si>
+  <si>
+    <t>A segunda rodada do inquérito incluiu a mudança do termo “sentar” para “permanecer” (permanências, em espanhol) e a utilização do pronome de segunda pessoa em todos os itens</t>
+  </si>
+  <si>
+    <t>Foi necessário alterar o uso do gênero feminino no questionário para meninas nos itens 4 e 5 (permaner sentada, em espanhol). Modificações também foram sugeridas para: o item 14, "¿cómo sueles llevar la mochila?" (em espanhol), para manter o padrão das demais perguntas; os itens 15 e 16, "¿Cuál es el grado de formación de tu padre/madre/tutora?" (em espanhol); e o item 19, para incluir o pronome espanhol "te ocurre".</t>
+  </si>
+  <si>
+    <t>Etapa 5 (revisão): Não foram encontrados erros gramaticais ou ortográficos. Na sexta etapa, a versão pré-final do pré-teste estava pronta.</t>
+  </si>
+  <si>
+    <t>De acordo com o coeficiente kappa para as questões 1 a 20 do questionário, 5 foram classificadas como "muito boas", 8 como "boas", 1 como "moderadas" e 1 como "razoáveis" (Tabela 4). A taxa de resposta foi alta, com um valor ausente de menos de 10%. Com base na questão 21 (n = 115), não houve diferenças na intensidade da dor entre as médias do teste (4,72 ± 2,33) e do reteste (4,58 ± 2,37) com base no teste de Wilcoxon (p = 0,333), e as respostas para esses dois testes foram altamente correlacionadas (ICC = 0,951, (0,928– 0,966); p = 0,0001).</t>
+  </si>
+  <si>
+    <t>Nosso principal achado indica que a versão espanhola do BackPEI é confiável e apresenta resultados semelhantes à versão brasileira original</t>
+  </si>
+  <si>
+    <t>sendo relevante para a pesquisa epidemiológica ao comparar países onde se falam as línguas portuguesa e espanhola</t>
+  </si>
+  <si>
+    <t>A adaptação transcultural deve ser a produção de várias traduções por, pelo menos, dois tradutores independentes. Isso leva à detecção de erros e interpretações divergentes de itens ambíguos no instrumento original [19]. Utilizar apenas um tradutor está longe de ser o ideal [27]; no entanto, devido ao tipo de perguntas simples e concisas do BackPEI</t>
+  </si>
+  <si>
+    <t>Este resultado pode ser devido ao fato de o tipo de resposta ser de múltipla escolha [29]. Ao longo do dia escolar, assim como no dia em geral, adotamos muitas posições corretas e, portanto, podem haver várias respostas que afetam a concordância.</t>
+  </si>
+  <si>
+    <t>O BackPEI não avalia apenas os hábitos posturais adotados por crianças em idade escolar durante as atividades de vida diária (AVDs), mas também os possíveis indicadores de risco associados a essa situação, como a prevalência de PA.</t>
+  </si>
+  <si>
+    <t>Isso permite que seja considerado um instrumento abrangente que considera variáveis ​​dependentes, independentes e de confusão, utilizando apenas 21 questões e cinco categorias: (a) Praticar exercício físico (n = 3); (b) estilo de vida ativo (n = 5); (c) hábitos posturais (n = 6), dos quais posturas sentadas (n = 3), levantamento de peso (n = 1) e uso de mochilas (n = 2); (d) nível de escolaridade dos pais (n = 2) e (e) dor nas costas (n = 5).</t>
+  </si>
+  <si>
+    <t>Moreover, the BackPEI is distinguished from the others because it was developed with a version for boys and another for girls.</t>
+  </si>
+  <si>
+    <t>Além disso, o BackPEI se diferencia dos demais por ter sido desenvolvido com uma versão para meninos e outra para meninas.</t>
   </si>
 </sst>
 </file>
@@ -2261,7 +2337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2378,6 +2454,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2405,10 +2488,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2691,9 +2770,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2733,27 +2812,27 @@
       <c r="H1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="49" t="s">
+      <c r="K1" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="49" t="s">
+      <c r="L1" s="40" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="42">
+      <c r="B2" s="45">
         <v>2013</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3">
@@ -2785,9 +2864,9 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="41"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
@@ -2806,9 +2885,9 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="41"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
@@ -2827,9 +2906,9 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="41"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -2844,9 +2923,9 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="41"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
@@ -2861,16 +2940,16 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="41"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="43" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2882,16 +2961,16 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="41"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="40"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -2899,16 +2978,16 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="41"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="40"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
@@ -2918,9 +2997,9 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="41"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
@@ -2937,9 +3016,9 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="41"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
@@ -2954,9 +3033,9 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="41"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
@@ -2975,9 +3054,9 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="41"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
@@ -3029,13 +3108,13 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="330" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="43">
+      <c r="B15" s="46">
         <v>2018</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="44" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="3">
@@ -3044,7 +3123,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="43" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -3067,39 +3146,39 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="41"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="40"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="41"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="40"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="41"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="3">
         <v>4</v>
       </c>
@@ -3114,9 +3193,9 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="41"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="3">
         <v>5</v>
       </c>
@@ -3131,9 +3210,9 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="41"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="3">
         <v>6</v>
       </c>
@@ -3145,9 +3224,9 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="41"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="44"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
@@ -3194,13 +3273,13 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="390" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="43">
+      <c r="B23" s="46">
         <v>2019</v>
       </c>
-      <c r="C23" s="41" t="s">
+      <c r="C23" s="44" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -3229,9 +3308,9 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="41"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="44"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
@@ -3243,9 +3322,9 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="41"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="44"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
       </c>
@@ -3257,9 +3336,9 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="41"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="44"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
       </c>
@@ -3271,9 +3350,9 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="41"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="44"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3285,13 +3364,13 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="44">
+      <c r="B28" s="47">
         <v>2021</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="44" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -3303,14 +3382,14 @@
       <c r="G28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="44" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="41"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="44"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
       </c>
@@ -3320,12 +3399,12 @@
       <c r="G29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="41"/>
+      <c r="H29" s="44"/>
     </row>
     <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="41"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="44"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
       </c>
@@ -3335,7 +3414,7 @@
       <c r="G30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="41"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -3642,11 +3721,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E623474-3705-4594-B9DF-AE0ADD157849}">
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E81" sqref="E81"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3675,7 +3754,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="49" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -3692,7 +3771,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="22" t="s">
         <v>142</v>
       </c>
@@ -3707,7 +3786,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="22" t="s">
         <v>143</v>
       </c>
@@ -3722,7 +3801,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="22" t="s">
         <v>146</v>
       </c>
@@ -3737,7 +3816,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="22" t="s">
         <v>180</v>
       </c>
@@ -3749,7 +3828,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="22" t="s">
         <v>187</v>
       </c>
@@ -3761,7 +3840,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="22" t="s">
         <v>188</v>
       </c>
@@ -3773,7 +3852,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="49"/>
       <c r="C9" s="23" t="s">
         <v>147</v>
       </c>
@@ -3782,7 +3861,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="49"/>
       <c r="C10" s="23" t="s">
         <v>147</v>
       </c>
@@ -3791,7 +3870,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="49"/>
       <c r="C11" s="23" t="s">
         <v>148</v>
       </c>
@@ -3800,7 +3879,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="49"/>
       <c r="C12" s="23" t="s">
         <v>158</v>
       </c>
@@ -3809,7 +3888,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="49"/>
       <c r="C13" s="23" t="s">
         <v>159</v>
       </c>
@@ -3818,7 +3897,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="46"/>
+      <c r="A14" s="49"/>
       <c r="C14" s="23" t="s">
         <v>160</v>
       </c>
@@ -3827,7 +3906,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
+      <c r="A15" s="49"/>
       <c r="C15" s="23" t="s">
         <v>163</v>
       </c>
@@ -3836,7 +3915,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
+      <c r="A16" s="49"/>
       <c r="C16" s="23" t="s">
         <v>174</v>
       </c>
@@ -3845,7 +3924,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
+      <c r="A17" s="49"/>
       <c r="C17" s="23" t="s">
         <v>179</v>
       </c>
@@ -3854,7 +3933,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
+      <c r="A18" s="49"/>
       <c r="C18" s="23" t="s">
         <v>186</v>
       </c>
@@ -3863,92 +3942,92 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
+      <c r="A19" s="49"/>
       <c r="E19" s="25" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
+      <c r="A20" s="49"/>
       <c r="E20" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="49"/>
       <c r="E21" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="49"/>
       <c r="E22" s="25" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="49"/>
       <c r="E23" s="25" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="49"/>
       <c r="E24" s="25" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="49"/>
       <c r="E25" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="49"/>
       <c r="E26" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
+      <c r="A27" s="49"/>
       <c r="E27" s="25" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="46"/>
+      <c r="A28" s="49"/>
       <c r="E28" s="25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
+      <c r="A29" s="49"/>
       <c r="E29" s="25" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
+      <c r="A30" s="49"/>
       <c r="E30" s="25" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
+      <c r="A31" s="49"/>
       <c r="E31" s="25" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="31"/>
       <c r="E32" s="27" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="48" t="s">
         <v>189</v>
       </c>
       <c r="B33" s="30" t="s">
@@ -3965,7 +4044,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="22" t="s">
         <v>210</v>
       </c>
@@ -3980,7 +4059,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
+      <c r="A35" s="49"/>
       <c r="C35" s="23" t="s">
         <v>195</v>
       </c>
@@ -3992,7 +4071,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="46"/>
+      <c r="A36" s="49"/>
       <c r="C36" s="23" t="s">
         <v>196</v>
       </c>
@@ -4001,7 +4080,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
+      <c r="A37" s="49"/>
       <c r="C37" s="23" t="s">
         <v>197</v>
       </c>
@@ -4010,7 +4089,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
+      <c r="A38" s="49"/>
       <c r="C38" s="23" t="s">
         <v>203</v>
       </c>
@@ -4019,7 +4098,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
+      <c r="A39" s="49"/>
       <c r="C39" s="23" t="s">
         <v>204</v>
       </c>
@@ -4028,26 +4107,26 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
+      <c r="A40" s="49"/>
       <c r="E40" s="25" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
+      <c r="A41" s="49"/>
       <c r="E41" s="25" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="47"/>
+      <c r="A42" s="50"/>
       <c r="D42" s="33"/>
       <c r="E42" s="27" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="48" t="s">
         <v>211</v>
       </c>
       <c r="B43" s="32"/>
@@ -4062,7 +4141,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A44" s="48"/>
+      <c r="A44" s="51"/>
       <c r="C44" s="23" t="s">
         <v>214</v>
       </c>
@@ -4071,14 +4150,14 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="48"/>
+      <c r="A45" s="51"/>
       <c r="B45" s="31"/>
       <c r="C45" s="34" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="48" t="s">
         <v>218</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -4095,7 +4174,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A47" s="46"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="22" t="s">
         <v>221</v>
       </c>
@@ -4110,7 +4189,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="22" t="s">
         <v>222</v>
       </c>
@@ -4122,7 +4201,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="46"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="22" t="s">
         <v>224</v>
       </c>
@@ -4134,7 +4213,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="22" t="s">
         <v>248</v>
       </c>
@@ -4146,7 +4225,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="46"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="22" t="s">
         <v>250</v>
       </c>
@@ -4158,7 +4237,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="22" t="s">
         <v>252</v>
       </c>
@@ -4170,7 +4249,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="46"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="22" t="s">
         <v>253</v>
       </c>
@@ -4182,7 +4261,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="46"/>
+      <c r="A54" s="49"/>
       <c r="B54" s="22" t="s">
         <v>258</v>
       </c>
@@ -4194,7 +4273,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="46"/>
+      <c r="A55" s="49"/>
       <c r="B55" s="22" t="s">
         <v>259</v>
       </c>
@@ -4203,7 +4282,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="46"/>
+      <c r="A56" s="49"/>
       <c r="B56" s="22" t="s">
         <v>261</v>
       </c>
@@ -4212,7 +4291,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="46"/>
+      <c r="A57" s="49"/>
       <c r="B57" s="22" t="s">
         <v>262</v>
       </c>
@@ -4221,7 +4300,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A58" s="46"/>
+      <c r="A58" s="49"/>
       <c r="B58" s="22" t="s">
         <v>263</v>
       </c>
@@ -4230,7 +4309,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="46"/>
+      <c r="A59" s="49"/>
       <c r="B59" s="22" t="s">
         <v>265</v>
       </c>
@@ -4239,56 +4318,56 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="46"/>
+      <c r="A60" s="49"/>
       <c r="E60" s="25" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="46"/>
+      <c r="A61" s="49"/>
       <c r="E61" s="25" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="46"/>
+      <c r="A62" s="49"/>
       <c r="E62" s="25" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="46"/>
+      <c r="A63" s="49"/>
       <c r="E63" s="25" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="46"/>
+      <c r="A64" s="49"/>
       <c r="E64" s="25" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="46"/>
+      <c r="A65" s="49"/>
       <c r="E65" s="25" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="46"/>
+      <c r="A66" s="49"/>
       <c r="E66" s="25" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="46"/>
+      <c r="A67" s="49"/>
       <c r="B67" s="31"/>
       <c r="E67" s="25" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A68" s="45" t="s">
+      <c r="A68" s="48" t="s">
         <v>267</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -4305,7 +4384,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="255" x14ac:dyDescent="0.25">
-      <c r="A69" s="46"/>
+      <c r="A69" s="49"/>
       <c r="B69" s="22" t="s">
         <v>269</v>
       </c>
@@ -4317,7 +4396,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A70" s="46"/>
+      <c r="A70" s="49"/>
       <c r="B70" s="22" t="s">
         <v>277</v>
       </c>
@@ -4329,13 +4408,13 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="360" x14ac:dyDescent="0.25">
-      <c r="A71" s="46"/>
+      <c r="A71" s="49"/>
       <c r="C71" s="23" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="47"/>
+      <c r="A72" s="50"/>
       <c r="B72" s="31"/>
       <c r="C72" s="34" t="s">
         <v>278</v>
@@ -4343,7 +4422,7 @@
       <c r="D72" s="33"/>
     </row>
     <row r="73" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A73" s="45" t="s">
+      <c r="A73" s="48" t="s">
         <v>279</v>
       </c>
       <c r="B73" s="22" t="s">
@@ -4360,7 +4439,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="48"/>
+      <c r="A74" s="51"/>
       <c r="B74" s="22" t="s">
         <v>282</v>
       </c>
@@ -4375,7 +4454,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="48"/>
+      <c r="A75" s="51"/>
       <c r="B75" s="22" t="s">
         <v>325</v>
       </c>
@@ -4390,7 +4469,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="48"/>
+      <c r="A76" s="51"/>
       <c r="B76" s="22" t="s">
         <v>326</v>
       </c>
@@ -4405,7 +4484,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="48"/>
+      <c r="A77" s="51"/>
       <c r="B77" s="22" t="s">
         <v>327</v>
       </c>
@@ -4420,7 +4499,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="48"/>
+      <c r="A78" s="51"/>
       <c r="C78" s="23" t="s">
         <v>313</v>
       </c>
@@ -4432,7 +4511,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A79" s="48"/>
+      <c r="A79" s="51"/>
       <c r="C79" s="23" t="s">
         <v>316</v>
       </c>
@@ -4444,7 +4523,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A80" s="48"/>
+      <c r="A80" s="51"/>
       <c r="C80" s="23" t="s">
         <v>317</v>
       </c>
@@ -4456,7 +4535,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A81" s="48"/>
+      <c r="A81" s="51"/>
       <c r="C81" s="23" t="s">
         <v>319</v>
       </c>
@@ -4468,7 +4547,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="48"/>
+      <c r="A82" s="51"/>
       <c r="C82" s="23" t="s">
         <v>320</v>
       </c>
@@ -4480,7 +4559,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="48"/>
+      <c r="A83" s="51"/>
       <c r="C83" s="34" t="s">
         <v>328</v>
       </c>
@@ -4488,7 +4567,7 @@
       <c r="E83" s="27"/>
     </row>
     <row r="84" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="45" t="s">
+      <c r="A84" s="48" t="s">
         <v>337</v>
       </c>
       <c r="B84" s="32" t="s">
@@ -4505,7 +4584,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="46"/>
+      <c r="A85" s="49"/>
       <c r="B85" s="22" t="s">
         <v>341</v>
       </c>
@@ -4520,7 +4599,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="46"/>
+      <c r="A86" s="49"/>
       <c r="B86" s="22" t="s">
         <v>369</v>
       </c>
@@ -4535,7 +4614,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="46"/>
+      <c r="A87" s="49"/>
       <c r="B87" s="22" t="s">
         <v>371</v>
       </c>
@@ -4547,7 +4626,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="46"/>
+      <c r="A88" s="49"/>
       <c r="B88" s="22" t="s">
         <v>382</v>
       </c>
@@ -4559,7 +4638,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="46"/>
+      <c r="A89" s="49"/>
       <c r="C89" s="23" t="s">
         <v>370</v>
       </c>
@@ -4568,7 +4647,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A90" s="46"/>
+      <c r="A90" s="49"/>
       <c r="C90" s="23" t="s">
         <v>372</v>
       </c>
@@ -4577,7 +4656,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A91" s="46"/>
+      <c r="A91" s="49"/>
       <c r="C91" s="23" t="s">
         <v>373</v>
       </c>
@@ -4586,7 +4665,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="46"/>
+      <c r="A92" s="49"/>
       <c r="C92" s="23" t="s">
         <v>374</v>
       </c>
@@ -4595,7 +4674,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" s="46"/>
+      <c r="A93" s="49"/>
       <c r="C93" s="23" t="s">
         <v>376</v>
       </c>
@@ -4604,7 +4683,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94" s="46"/>
+      <c r="A94" s="49"/>
       <c r="C94" s="23" t="s">
         <v>378</v>
       </c>
@@ -4613,7 +4692,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A95" s="46"/>
+      <c r="A95" s="49"/>
       <c r="C95" s="23" t="s">
         <v>383</v>
       </c>
@@ -4622,98 +4701,98 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="46"/>
+      <c r="A96" s="49"/>
       <c r="E96" s="25" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="46"/>
+      <c r="A97" s="49"/>
       <c r="E97" s="25" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="46"/>
+      <c r="A98" s="49"/>
       <c r="E98" s="25" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="46"/>
+      <c r="A99" s="49"/>
       <c r="E99" s="25" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="46"/>
+      <c r="A100" s="49"/>
       <c r="E100" s="25" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="46"/>
+      <c r="A101" s="49"/>
       <c r="E101" s="25" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="46"/>
+      <c r="A102" s="49"/>
       <c r="E102" s="25" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="46"/>
+      <c r="A103" s="49"/>
       <c r="E103" s="25" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="46"/>
+      <c r="A104" s="49"/>
       <c r="E104" s="25" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="46"/>
+      <c r="A105" s="49"/>
       <c r="E105" s="25" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="46"/>
+      <c r="A106" s="49"/>
       <c r="E106" s="25" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="46"/>
+      <c r="A107" s="49"/>
       <c r="E107" s="25" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="46"/>
+      <c r="A108" s="49"/>
       <c r="E108" s="25" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="46"/>
+      <c r="A109" s="49"/>
       <c r="E109" s="25" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="47"/>
+      <c r="A110" s="50"/>
       <c r="D110" s="33"/>
       <c r="E110" s="25" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="45" t="s">
+      <c r="A111" s="48" t="s">
         <v>384</v>
       </c>
       <c r="B111" s="32" t="s">
@@ -4730,7 +4809,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="46"/>
+      <c r="A112" s="49"/>
       <c r="B112" s="22" t="s">
         <v>390</v>
       </c>
@@ -4745,7 +4824,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A113" s="46"/>
+      <c r="A113" s="49"/>
       <c r="B113" s="22" t="s">
         <v>392</v>
       </c>
@@ -4760,7 +4839,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="46"/>
+      <c r="A114" s="49"/>
       <c r="B114" s="22" t="s">
         <v>408</v>
       </c>
@@ -4772,7 +4851,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A115" s="46"/>
+      <c r="A115" s="49"/>
       <c r="B115" s="22" t="s">
         <v>411</v>
       </c>
@@ -4784,7 +4863,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="46"/>
+      <c r="A116" s="49"/>
       <c r="B116" s="22" t="s">
         <v>412</v>
       </c>
@@ -4796,7 +4875,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="46"/>
+      <c r="A117" s="49"/>
       <c r="C117" s="23" t="s">
         <v>409</v>
       </c>
@@ -4805,7 +4884,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A118" s="46"/>
+      <c r="A118" s="49"/>
       <c r="C118" s="23" t="s">
         <v>415</v>
       </c>
@@ -4814,7 +4893,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" s="46"/>
+      <c r="A119" s="49"/>
       <c r="C119" s="23" t="s">
         <v>416</v>
       </c>
@@ -4823,37 +4902,37 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="46"/>
+      <c r="A120" s="49"/>
       <c r="E120" s="25" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A121" s="46"/>
+      <c r="A121" s="49"/>
       <c r="E121" s="25" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A122" s="46"/>
+      <c r="A122" s="49"/>
       <c r="E122" s="25" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="46"/>
+      <c r="A123" s="49"/>
       <c r="E123" s="25" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="46"/>
+      <c r="A124" s="49"/>
       <c r="E124" s="25" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A125" s="47"/>
+      <c r="A125" s="50"/>
       <c r="B125" s="31"/>
       <c r="C125" s="34"/>
       <c r="D125" s="33"/>
@@ -4903,7 +4982,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="129" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B129" s="22" t="s">
         <v>450</v>
       </c>
@@ -4914,7 +4993,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C130" s="23" t="s">
         <v>426</v>
       </c>
@@ -4922,7 +5001,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="131" spans="2:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="C131" s="23" t="s">
         <v>428</v>
       </c>
@@ -4930,7 +5009,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C132" s="23" t="s">
         <v>430</v>
       </c>
@@ -4938,7 +5017,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="133" spans="2:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="C133" s="23" t="s">
         <v>436</v>
       </c>
@@ -4946,7 +5025,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="134" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="C134" s="23" t="s">
         <v>437</v>
       </c>
@@ -4954,7 +5033,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="135" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C135" s="23" t="s">
         <v>442</v>
       </c>
@@ -4962,7 +5041,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="136" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="C136" s="23" t="s">
         <v>443</v>
       </c>
@@ -4970,7 +5049,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="137" spans="2:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="C137" s="23" t="s">
         <v>444</v>
       </c>
@@ -4978,7 +5057,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="138" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C138" s="23" t="s">
         <v>446</v>
       </c>
@@ -4986,9 +5065,117 @@
         <v>445</v>
       </c>
     </row>
-    <row r="139" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C139" s="23" t="s">
+    <row r="139" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B139" s="31"/>
+      <c r="C139" s="34" t="s">
         <v>447</v>
+      </c>
+      <c r="E139" s="27"/>
+    </row>
+    <row r="140" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A140" s="42" t="s">
+        <v>514</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="C140" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="D140" s="28"/>
+      <c r="E140" s="25" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B141" s="22" t="s">
+        <v>531</v>
+      </c>
+      <c r="C141" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="E141" s="25" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="C142" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="E142" s="25" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="C143" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="E143" s="25" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C144" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="E144" s="25" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="145" spans="3:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C145" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="E145" s="25" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="146" spans="3:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="C146" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="E146" s="25" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="147" spans="3:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="E147" s="25" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="148" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E148" s="25" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="149" spans="3:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="E149" s="25" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="150" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E150" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="151" spans="3:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="E151" s="25" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="152" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E152" s="25" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="153" spans="3:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="E153" s="25" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="154" spans="3:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E154" s="25" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -5044,7 +5231,7 @@
       <c r="D2" t="s">
         <v>459</v>
       </c>
-      <c r="H2" s="50" t="s">
+      <c r="H2" s="41" t="s">
         <v>509</v>
       </c>
     </row>
@@ -5061,7 +5248,7 @@
       <c r="D3" t="s">
         <v>462</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="41" t="s">
         <v>510</v>
       </c>
     </row>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FA7D45-1FDB-4F1D-887B-8756CC22E31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDE71F6-7B17-4E92-9813-A3344C27A39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descritivos" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Rascunho" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="542">
   <si>
     <t>Autor</t>
   </si>
@@ -1613,9 +1612,6 @@
     <t>Em relação à avaliação da dor nas costas e no pescoço (Figura 2), incluímos duas novas perguntas sobre o impacto da dor nas costas na vida de crianças e adolescentes (perguntas 23 e 24) e cinco novas perguntas para avaliar a dor no pescoço (perguntas 26 a 30). O layout das perguntas sobre dor nas costas (perguntas 21 a 25) foi alterado para incluir uma nova região corporal para avaliar a dor e com um novo design gráfico para melhorar a compreensão das regiões corporais às quais as perguntas estavam relacionadas.</t>
   </si>
   <si>
-    <t>Of the 30 questions, 28 were multiple-choice questions, for which the participants could choose only one option: the one that best represents their perceived condition. The remaining two questions (25 and 30) were related to back pain intensity and neck pain intensity and were answered using the visual analog pain scale (VAS)</t>
-  </si>
-  <si>
     <t>As questões 1 a 20 estavam relacionadas aos possíveis fatores de risco para dor nas costas e no pescoço</t>
   </si>
   <si>
@@ -2178,6 +2174,21 @@
   </si>
   <si>
     <t>Além disso, o BackPEI se diferencia dos demais por ter sido desenvolvido com uma versão para meninos e outra para meninas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avaliar dor nas costas e pescoço e uma série de aspectos relacionados com uma única ferramenta. Avaliar a presença de dor no pescoço e seu impacto nas crianças e suas rotinas e a relação com o uso de dispositivos móveis. Além das pesquisas o BackPEI-CA pode ser utilizado em avaliações clínicas ou em triagens escolares. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O BackPEI-CA foi desenvolvido para avaliar não apenas a presença, frequência e intensidade da dor nas costas e seus fatores de risco (hábitos posturais e comportamentais [4] e hábitos comuns na rotina de escolares, como a prática de atividade física, hábitos relacionados a assistir televisão e usar o computador, e a postura adotada para carregar o material escolar, dormir, escrever em sala de aula e levantar objetos do chão) entre crianças e adolescentes. Mas também a dor no pescoço e seus fatores de risco, inclusive o uso de dispositivos móveis. “Dor nas costas” se refere a qualquer região torácica e lombar.  “Dor no pescoço” se refere a qualquer região da coluna cervical. </t>
+  </si>
+  <si>
+    <t>As representações a partir do BackPEI-CA são realizadas a partir da cada item através da resposta dada. Assim são dados nominais, exceto pela instensidade da dor que é medida em cm. Uma limitação deste estudo foi a inclusão da opção “outra forma/não sei” nas questões relativas às posturas ao utilizar dispositivos móveis, pois não permite ao avaliador saber qual é o padrão mais comum em crianças em idade escolar.</t>
+  </si>
+  <si>
+    <t>Das 30 questões, 28 eram de múltipla escolha, nas quais os participantes podiam escolher apenas uma opção: a que melhor representasse sua percepção de condição. As duas questões restantes (25 e 30) estavam relacionadas à intensidade da dor nas costas e no pescoço e foram respondidas por meio da escala visual analógica de dor (EVA).</t>
+  </si>
+  <si>
+    <t>O instrumento é um questionário de 30 intes. Aqueles referentes ao uso de dispositivos móveis foram elaboradas a partir de um revisão de literatura. Foram incluídas: uma questão sobre o tempo diário de uso de dispositivos móveis, duas questões sobre a postura durante o uso destes dispositivos, cinco perguntas sobre a dor no pescoço e duas sobre o impacto da dor nas costas. Foi implementado um novo design gráfico para melhorar a compreensão das regiões corporais a que se refere cada item do questionário. Foram feitas uma versão para meninas e outra para meninos. O instrumento foi avaliado por um painel de especialistas quanto à clareza, facilidade de compreensão, aplicabilidade e se as novas questões permitiam identificar o comportamento de uso de smartphones/tablets e avaliaram adequadamente a dor nas costas e no pescoço. Foi testada a confiabilidade teste-reteste. As coletas de dados aconteceram em 2 formatos, presencial e online.</t>
   </si>
 </sst>
 </file>
@@ -2337,7 +2348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2458,23 +2469,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2770,9 +2778,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2826,13 +2834,13 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="46">
         <v>2013</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="43" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3">
@@ -2851,22 +2859,22 @@
         <v>32</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>491</v>
-      </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="44"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
@@ -2885,9 +2893,9 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="44"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
@@ -2906,9 +2914,9 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="44"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="43"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -2923,9 +2931,9 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="44"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="43"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
@@ -2940,16 +2948,16 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="44"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="45" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2961,16 +2969,16 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="44"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="43"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -2978,16 +2986,16 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="44"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="43"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
@@ -2997,9 +3005,9 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="44"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
@@ -3016,9 +3024,9 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="44"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
@@ -3033,9 +3041,9 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="44"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
@@ -3054,9 +3062,9 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="44"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
@@ -3095,26 +3103,26 @@
         <v>38</v>
       </c>
       <c r="I14" s="38" t="s">
+        <v>491</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>493</v>
+      </c>
+      <c r="K14" s="38" t="s">
         <v>492</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="L14" s="38" t="s">
         <v>494</v>
       </c>
-      <c r="K14" s="38" t="s">
-        <v>493</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>495</v>
-      </c>
     </row>
     <row r="15" spans="1:12" ht="330" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="44">
         <v>2018</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="43" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="3">
@@ -3123,7 +3131,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="45" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -3133,52 +3141,52 @@
         <v>55</v>
       </c>
       <c r="I15" s="38" t="s">
+        <v>499</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>502</v>
+      </c>
+      <c r="K15" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="J15" s="39" t="s">
-        <v>503</v>
-      </c>
-      <c r="K15" s="38" t="s">
+      <c r="L15" s="38" t="s">
         <v>501</v>
       </c>
-      <c r="L15" s="38" t="s">
-        <v>502</v>
-      </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="44"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="43"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="44"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="43"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="44"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="3">
         <v>4</v>
       </c>
@@ -3193,9 +3201,9 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="44"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="3">
         <v>5</v>
       </c>
@@ -3210,9 +3218,9 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="44"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="3">
         <v>6</v>
       </c>
@@ -3224,9 +3232,9 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="44"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="43"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
@@ -3260,26 +3268,26 @@
         <v>61</v>
       </c>
       <c r="I22" s="38" t="s">
+        <v>495</v>
+      </c>
+      <c r="J22" s="38" t="s">
         <v>496</v>
       </c>
-      <c r="J22" s="38" t="s">
+      <c r="K22" s="38" t="s">
         <v>497</v>
       </c>
-      <c r="K22" s="38" t="s">
+      <c r="L22" s="38" t="s">
         <v>498</v>
       </c>
-      <c r="L22" s="38" t="s">
-        <v>499</v>
-      </c>
     </row>
     <row r="23" spans="1:12" ht="390" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="44">
         <v>2019</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="43" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -3295,22 +3303,22 @@
         <v>127</v>
       </c>
       <c r="I23" s="38" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J23" s="38" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K23" s="38" t="s">
         <v>268</v>
       </c>
       <c r="L23" s="38" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="44"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="43"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
@@ -3322,9 +3330,9 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="44"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="43"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
       </c>
@@ -3336,9 +3344,9 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="44"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="43"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
       </c>
@@ -3350,9 +3358,9 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="43"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3364,13 +3372,13 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="47">
+      <c r="B28" s="42">
         <v>2021</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="43" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -3382,14 +3390,14 @@
       <c r="G28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="44" t="s">
+      <c r="H28" s="43" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="44"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
       </c>
@@ -3399,12 +3407,12 @@
       <c r="G29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="44"/>
+      <c r="H29" s="43"/>
     </row>
     <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="44"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="43"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
       </c>
@@ -3414,9 +3422,9 @@
       <c r="G30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="44"/>
-    </row>
-    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="H30" s="43"/>
+    </row>
+    <row r="31" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -3431,6 +3439,18 @@
       </c>
       <c r="F31" s="5" t="s">
         <v>23</v>
+      </c>
+      <c r="I31" s="38" t="s">
+        <v>537</v>
+      </c>
+      <c r="J31" s="38" t="s">
+        <v>538</v>
+      </c>
+      <c r="K31" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="L31" s="38" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -3616,16 +3636,16 @@
         <v>329</v>
       </c>
       <c r="I46" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="J46" s="38" t="s">
         <v>507</v>
       </c>
-      <c r="J46" s="38" t="s">
-        <v>508</v>
-      </c>
       <c r="K46" s="38" t="s">
+        <v>510</v>
+      </c>
+      <c r="L46" s="38" t="s">
         <v>511</v>
-      </c>
-      <c r="L46" s="38" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -3697,13 +3717,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -3712,6 +3725,13 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3723,9 +3743,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E623474-3705-4594-B9DF-AE0ADD157849}">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E155" sqref="E155"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3754,7 +3774,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="48" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -3771,7 +3791,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="22" t="s">
         <v>142</v>
       </c>
@@ -3786,7 +3806,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="22" t="s">
         <v>143</v>
       </c>
@@ -3801,7 +3821,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="22" t="s">
         <v>146</v>
       </c>
@@ -3816,7 +3836,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="22" t="s">
         <v>180</v>
       </c>
@@ -3828,7 +3848,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="22" t="s">
         <v>187</v>
       </c>
@@ -3840,7 +3860,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="22" t="s">
         <v>188</v>
       </c>
@@ -3852,7 +3872,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="48"/>
       <c r="C9" s="23" t="s">
         <v>147</v>
       </c>
@@ -3861,7 +3881,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="48"/>
       <c r="C10" s="23" t="s">
         <v>147</v>
       </c>
@@ -3870,7 +3890,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="48"/>
       <c r="C11" s="23" t="s">
         <v>148</v>
       </c>
@@ -3879,7 +3899,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="48"/>
       <c r="C12" s="23" t="s">
         <v>158</v>
       </c>
@@ -3888,7 +3908,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="48"/>
       <c r="C13" s="23" t="s">
         <v>159</v>
       </c>
@@ -3897,7 +3917,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+      <c r="A14" s="48"/>
       <c r="C14" s="23" t="s">
         <v>160</v>
       </c>
@@ -3906,7 +3926,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+      <c r="A15" s="48"/>
       <c r="C15" s="23" t="s">
         <v>163</v>
       </c>
@@ -3915,7 +3935,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+      <c r="A16" s="48"/>
       <c r="C16" s="23" t="s">
         <v>174</v>
       </c>
@@ -3924,7 +3944,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
+      <c r="A17" s="48"/>
       <c r="C17" s="23" t="s">
         <v>179</v>
       </c>
@@ -3933,7 +3953,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
+      <c r="A18" s="48"/>
       <c r="C18" s="23" t="s">
         <v>186</v>
       </c>
@@ -3942,92 +3962,92 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
+      <c r="A19" s="48"/>
       <c r="E19" s="25" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+      <c r="A20" s="48"/>
       <c r="E20" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
+      <c r="A21" s="48"/>
       <c r="E21" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="A22" s="48"/>
       <c r="E22" s="25" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
+      <c r="A23" s="48"/>
       <c r="E23" s="25" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
+      <c r="A24" s="48"/>
       <c r="E24" s="25" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
+      <c r="A25" s="48"/>
       <c r="E25" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
+      <c r="A26" s="48"/>
       <c r="E26" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
+      <c r="A27" s="48"/>
       <c r="E27" s="25" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
+      <c r="A28" s="48"/>
       <c r="E28" s="25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="48"/>
       <c r="E29" s="25" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
+      <c r="A30" s="48"/>
       <c r="E30" s="25" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
+      <c r="A31" s="48"/>
       <c r="E31" s="25" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
+      <c r="A32" s="49"/>
       <c r="B32" s="31"/>
       <c r="E32" s="27" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="47" t="s">
         <v>189</v>
       </c>
       <c r="B33" s="30" t="s">
@@ -4044,7 +4064,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="22" t="s">
         <v>210</v>
       </c>
@@ -4059,7 +4079,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
+      <c r="A35" s="48"/>
       <c r="C35" s="23" t="s">
         <v>195</v>
       </c>
@@ -4071,7 +4091,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
+      <c r="A36" s="48"/>
       <c r="C36" s="23" t="s">
         <v>196</v>
       </c>
@@ -4080,7 +4100,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
+      <c r="A37" s="48"/>
       <c r="C37" s="23" t="s">
         <v>197</v>
       </c>
@@ -4089,7 +4109,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
+      <c r="A38" s="48"/>
       <c r="C38" s="23" t="s">
         <v>203</v>
       </c>
@@ -4098,7 +4118,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
+      <c r="A39" s="48"/>
       <c r="C39" s="23" t="s">
         <v>204</v>
       </c>
@@ -4107,26 +4127,26 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
+      <c r="A40" s="48"/>
       <c r="E40" s="25" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
+      <c r="A41" s="48"/>
       <c r="E41" s="25" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
+      <c r="A42" s="49"/>
       <c r="D42" s="33"/>
       <c r="E42" s="27" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="47" t="s">
         <v>211</v>
       </c>
       <c r="B43" s="32"/>
@@ -4141,7 +4161,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
+      <c r="A44" s="50"/>
       <c r="C44" s="23" t="s">
         <v>214</v>
       </c>
@@ -4150,14 +4170,14 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="31"/>
       <c r="C45" s="34" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="47" t="s">
         <v>218</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -4174,7 +4194,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="22" t="s">
         <v>221</v>
       </c>
@@ -4189,7 +4209,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="22" t="s">
         <v>222</v>
       </c>
@@ -4201,7 +4221,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="22" t="s">
         <v>224</v>
       </c>
@@ -4213,7 +4233,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="22" t="s">
         <v>248</v>
       </c>
@@ -4225,7 +4245,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="22" t="s">
         <v>250</v>
       </c>
@@ -4237,7 +4257,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="22" t="s">
         <v>252</v>
       </c>
@@ -4249,7 +4269,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="22" t="s">
         <v>253</v>
       </c>
@@ -4261,7 +4281,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="22" t="s">
         <v>258</v>
       </c>
@@ -4273,7 +4293,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="22" t="s">
         <v>259</v>
       </c>
@@ -4282,7 +4302,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="22" t="s">
         <v>261</v>
       </c>
@@ -4291,7 +4311,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="22" t="s">
         <v>262</v>
       </c>
@@ -4300,7 +4320,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
+      <c r="A58" s="48"/>
       <c r="B58" s="22" t="s">
         <v>263</v>
       </c>
@@ -4309,7 +4329,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
+      <c r="A59" s="48"/>
       <c r="B59" s="22" t="s">
         <v>265</v>
       </c>
@@ -4318,56 +4338,56 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
+      <c r="A60" s="48"/>
       <c r="E60" s="25" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
+      <c r="A61" s="48"/>
       <c r="E61" s="25" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
+      <c r="A62" s="48"/>
       <c r="E62" s="25" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
+      <c r="A63" s="48"/>
       <c r="E63" s="25" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
+      <c r="A64" s="48"/>
       <c r="E64" s="25" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
+      <c r="A65" s="48"/>
       <c r="E65" s="25" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
+      <c r="A66" s="48"/>
       <c r="E66" s="25" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
+      <c r="A67" s="48"/>
       <c r="B67" s="31"/>
       <c r="E67" s="25" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A68" s="48" t="s">
+      <c r="A68" s="47" t="s">
         <v>267</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -4384,7 +4404,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="255" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="22" t="s">
         <v>269</v>
       </c>
@@ -4396,7 +4416,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
+      <c r="A70" s="48"/>
       <c r="B70" s="22" t="s">
         <v>277</v>
       </c>
@@ -4408,13 +4428,13 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="360" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
+      <c r="A71" s="48"/>
       <c r="C71" s="23" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="50"/>
+      <c r="A72" s="49"/>
       <c r="B72" s="31"/>
       <c r="C72" s="34" t="s">
         <v>278</v>
@@ -4422,7 +4442,7 @@
       <c r="D72" s="33"/>
     </row>
     <row r="73" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A73" s="48" t="s">
+      <c r="A73" s="47" t="s">
         <v>279</v>
       </c>
       <c r="B73" s="22" t="s">
@@ -4439,7 +4459,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="51"/>
+      <c r="A74" s="50"/>
       <c r="B74" s="22" t="s">
         <v>282</v>
       </c>
@@ -4454,7 +4474,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="51"/>
+      <c r="A75" s="50"/>
       <c r="B75" s="22" t="s">
         <v>325</v>
       </c>
@@ -4469,7 +4489,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="51"/>
+      <c r="A76" s="50"/>
       <c r="B76" s="22" t="s">
         <v>326</v>
       </c>
@@ -4484,7 +4504,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="51"/>
+      <c r="A77" s="50"/>
       <c r="B77" s="22" t="s">
         <v>327</v>
       </c>
@@ -4499,7 +4519,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="51"/>
+      <c r="A78" s="50"/>
       <c r="C78" s="23" t="s">
         <v>313</v>
       </c>
@@ -4511,7 +4531,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A79" s="51"/>
+      <c r="A79" s="50"/>
       <c r="C79" s="23" t="s">
         <v>316</v>
       </c>
@@ -4523,7 +4543,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A80" s="51"/>
+      <c r="A80" s="50"/>
       <c r="C80" s="23" t="s">
         <v>317</v>
       </c>
@@ -4535,7 +4555,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A81" s="51"/>
+      <c r="A81" s="50"/>
       <c r="C81" s="23" t="s">
         <v>319</v>
       </c>
@@ -4547,7 +4567,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="51"/>
+      <c r="A82" s="50"/>
       <c r="C82" s="23" t="s">
         <v>320</v>
       </c>
@@ -4559,7 +4579,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="51"/>
+      <c r="A83" s="50"/>
       <c r="C83" s="34" t="s">
         <v>328</v>
       </c>
@@ -4567,7 +4587,7 @@
       <c r="E83" s="27"/>
     </row>
     <row r="84" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="48" t="s">
+      <c r="A84" s="47" t="s">
         <v>337</v>
       </c>
       <c r="B84" s="32" t="s">
@@ -4577,14 +4597,14 @@
         <v>338</v>
       </c>
       <c r="D84" s="24" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E84" s="25" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="49"/>
+      <c r="A85" s="48"/>
       <c r="B85" s="22" t="s">
         <v>341</v>
       </c>
@@ -4592,594 +4612,623 @@
         <v>340</v>
       </c>
       <c r="D85" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E85" s="25" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
+      <c r="A86" s="48"/>
       <c r="B86" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D86" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E86" s="25" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="49"/>
+      <c r="A87" s="48"/>
       <c r="B87" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E87" s="25" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
+      <c r="A88" s="48"/>
       <c r="B88" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E88" s="25" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="49"/>
+      <c r="A89" s="48"/>
       <c r="C89" s="23" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E89" s="25" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A90" s="49"/>
+      <c r="A90" s="48"/>
       <c r="C90" s="23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E90" s="25" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A91" s="49"/>
+      <c r="A91" s="48"/>
       <c r="C91" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="E91" s="25" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="48"/>
+      <c r="C92" s="23" t="s">
         <v>373</v>
       </c>
-      <c r="E91" s="25" t="s">
+      <c r="E92" s="25" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="49"/>
-      <c r="C92" s="23" t="s">
+    <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A93" s="48"/>
+      <c r="C93" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="E93" s="25" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A94" s="48"/>
+      <c r="C94" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A95" s="48"/>
+      <c r="C95" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="E95" s="25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="48"/>
+      <c r="E96" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="48"/>
+      <c r="E97" s="25" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="48"/>
+      <c r="E98" s="25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="48"/>
+      <c r="E99" s="25" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="48"/>
+      <c r="E100" s="25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="48"/>
+      <c r="E101" s="25" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="48"/>
+      <c r="E102" s="25" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="48"/>
+      <c r="E103" s="25" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="48"/>
+      <c r="E104" s="25" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="48"/>
+      <c r="E105" s="25" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="48"/>
+      <c r="E106" s="25" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="48"/>
+      <c r="E107" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="E92" s="25" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" s="49"/>
-      <c r="C93" s="23" t="s">
+    </row>
+    <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A108" s="48"/>
+      <c r="E108" s="25" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A109" s="48"/>
+      <c r="E109" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="E93" s="25" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94" s="49"/>
-      <c r="C94" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="E94" s="25" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A95" s="49"/>
-      <c r="C95" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="E95" s="25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="49"/>
-      <c r="E96" s="25" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="49"/>
-      <c r="E97" s="25" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="49"/>
-      <c r="E98" s="25" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="49"/>
-      <c r="E99" s="25" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="49"/>
-      <c r="E100" s="25" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="49"/>
-      <c r="E101" s="25" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="49"/>
-      <c r="E102" s="25" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="49"/>
-      <c r="E103" s="25" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="49"/>
-      <c r="E104" s="25" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="49"/>
-      <c r="E105" s="25" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="49"/>
-      <c r="E106" s="25" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="49"/>
-      <c r="E107" s="25" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="49"/>
-      <c r="E108" s="25" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="49"/>
-      <c r="E109" s="25" t="s">
-        <v>377</v>
-      </c>
     </row>
     <row r="110" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="50"/>
+      <c r="A110" s="49"/>
       <c r="D110" s="33"/>
       <c r="E110" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="48" t="s">
+      <c r="A111" s="47" t="s">
+        <v>383</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="C111" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="B111" s="32" t="s">
+      <c r="D111" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="E111" s="35" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="48"/>
+      <c r="B112" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="C112" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="C111" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="D111" s="24" t="s">
+      <c r="D112" s="24" t="s">
         <v>406</v>
       </c>
-      <c r="E111" s="35" t="s">
+      <c r="E112" s="25" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A113" s="48"/>
+      <c r="B113" s="22" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="49"/>
-      <c r="B112" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="C112" s="23" t="s">
+      <c r="C113" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="D112" s="24" t="s">
+      <c r="D113" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="E113" s="25" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="48"/>
+      <c r="B114" s="22" t="s">
         <v>407</v>
       </c>
-      <c r="E112" s="25" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A113" s="49"/>
-      <c r="B113" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="C113" s="23" t="s">
+      <c r="C114" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="D113" s="24" t="s">
+      <c r="E114" s="25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A115" s="48"/>
+      <c r="B115" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="E115" s="25" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="48"/>
+      <c r="B116" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>403</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="48"/>
+      <c r="C117" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="E117" s="25" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A118" s="48"/>
+      <c r="C118" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="E113" s="25" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="49"/>
-      <c r="B114" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="C114" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A115" s="49"/>
-      <c r="B115" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="C115" s="23" t="s">
+      <c r="E118" s="25" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A119" s="48"/>
+      <c r="C119" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="E119" s="25" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="48"/>
+      <c r="E120" s="25" t="s">
         <v>400</v>
       </c>
-      <c r="E115" s="25" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="49"/>
-      <c r="B116" s="22" t="s">
-        <v>412</v>
-      </c>
-      <c r="C116" s="23" t="s">
+    </row>
+    <row r="121" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A121" s="48"/>
+      <c r="E121" s="25" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A122" s="48"/>
+      <c r="E122" s="25" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="48"/>
+      <c r="E123" s="25" t="s">
         <v>404</v>
       </c>
-      <c r="E116" s="25" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="49"/>
-      <c r="C117" s="23" t="s">
+    </row>
+    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="48"/>
+      <c r="E124" s="25" t="s">
         <v>409</v>
       </c>
-      <c r="E117" s="25" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A118" s="49"/>
-      <c r="C118" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="E118" s="25" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" s="49"/>
-      <c r="C119" s="23" t="s">
-        <v>416</v>
-      </c>
-      <c r="E119" s="25" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="49"/>
-      <c r="E120" s="25" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A121" s="49"/>
-      <c r="E121" s="25" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A122" s="49"/>
-      <c r="E122" s="25" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="49"/>
-      <c r="E123" s="25" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="49"/>
-      <c r="E124" s="25" t="s">
-        <v>410</v>
-      </c>
     </row>
     <row r="125" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A125" s="50"/>
+      <c r="A125" s="49"/>
       <c r="B125" s="31"/>
       <c r="C125" s="34"/>
       <c r="D125" s="33"/>
       <c r="E125" s="25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A126" s="21" t="s">
+      <c r="A126" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="C126" s="23" t="s">
         <v>417</v>
       </c>
-      <c r="B126" s="22" t="s">
+      <c r="D126" s="24" t="s">
+        <v>426</v>
+      </c>
+      <c r="E126" s="35" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="50"/>
+      <c r="B127" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="C127" s="23" t="s">
         <v>419</v>
       </c>
-      <c r="C126" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="D126" s="24" t="s">
+      <c r="D127" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="E127" s="25" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A128" s="50"/>
+      <c r="B128" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A129" s="50"/>
+      <c r="B129" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="E129" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A130" s="50"/>
+      <c r="C130" s="23" t="s">
+        <v>425</v>
+      </c>
+      <c r="E130" s="25" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A131" s="50"/>
+      <c r="C131" s="23" t="s">
         <v>427</v>
       </c>
-      <c r="E126" s="35" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B127" s="22" t="s">
-        <v>448</v>
-      </c>
-      <c r="C127" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="D127" s="24" t="s">
+      <c r="E131" s="25" t="s">
         <v>432</v>
       </c>
-      <c r="E127" s="25" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B128" s="22" t="s">
-        <v>449</v>
-      </c>
-      <c r="C128" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="E128" s="25" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B129" s="22" t="s">
-        <v>450</v>
-      </c>
-      <c r="C129" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="E129" s="25" t="s">
+    </row>
+    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="50"/>
+      <c r="C132" s="23" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C130" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="E130" s="25" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="C131" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="E131" s="25" t="s">
+      <c r="E132" s="25" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C132" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="E132" s="25" t="s">
+    <row r="133" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A133" s="50"/>
+      <c r="C133" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="E133" s="25" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A134" s="50"/>
+      <c r="C134" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="E134" s="25" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="C133" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="E133" s="25" t="s">
+    <row r="135" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A135" s="50"/>
+      <c r="C135" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="E135" s="25" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A136" s="50"/>
+      <c r="C136" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="E136" s="25" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A137" s="50"/>
+      <c r="C137" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="E137" s="25" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="C134" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="E134" s="25" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="C135" s="23" t="s">
-        <v>442</v>
-      </c>
-      <c r="E135" s="25" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="C136" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="E136" s="25" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="C137" s="23" t="s">
+    <row r="138" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A138" s="50"/>
+      <c r="C138" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="E138" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="E137" s="25" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="C138" s="23" t="s">
-        <v>446</v>
-      </c>
-      <c r="E138" s="25" t="s">
-        <v>445</v>
-      </c>
     </row>
     <row r="139" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A139" s="49"/>
       <c r="B139" s="31"/>
       <c r="C139" s="34" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E139" s="27"/>
     </row>
     <row r="140" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A140" s="42" t="s">
+      <c r="A140" s="47" t="s">
+        <v>513</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="C140" s="23" t="s">
         <v>514</v>
-      </c>
-      <c r="B140" s="22" t="s">
-        <v>513</v>
-      </c>
-      <c r="C140" s="23" t="s">
-        <v>515</v>
       </c>
       <c r="D140" s="28"/>
       <c r="E140" s="25" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A141" s="48"/>
+      <c r="B141" s="22" t="s">
+        <v>530</v>
+      </c>
+      <c r="C141" s="23" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B141" s="22" t="s">
+      <c r="E141" s="25" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A142" s="48"/>
+      <c r="C142" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="E142" s="25" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A143" s="48"/>
+      <c r="C143" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="E143" s="25" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A144" s="48"/>
+      <c r="C144" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="E144" s="25" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A145" s="48"/>
+      <c r="C145" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="E145" s="25" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A146" s="48"/>
+      <c r="C146" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="E146" s="25" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A147" s="48"/>
+      <c r="E147" s="25" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="48"/>
+      <c r="E148" s="25" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A149" s="48"/>
+      <c r="E149" s="25" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" s="48"/>
+      <c r="E150" s="25" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A151" s="48"/>
+      <c r="E151" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" s="48"/>
+      <c r="E152" s="25" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A153" s="48"/>
+      <c r="E153" s="25" t="s">
         <v>531</v>
       </c>
-      <c r="C141" s="23" t="s">
-        <v>517</v>
-      </c>
-      <c r="E141" s="25" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="C142" s="23" t="s">
-        <v>520</v>
-      </c>
-      <c r="E142" s="25" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="240" x14ac:dyDescent="0.25">
-      <c r="C143" s="23" t="s">
-        <v>533</v>
-      </c>
-      <c r="E143" s="25" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C144" s="23" t="s">
-        <v>534</v>
-      </c>
-      <c r="E144" s="25" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="145" spans="3:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="C145" s="23" t="s">
-        <v>535</v>
-      </c>
-      <c r="E145" s="25" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="146" spans="3:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="C146" s="23" t="s">
+    </row>
+    <row r="154" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A154" s="48"/>
+      <c r="E154" s="25" t="s">
         <v>536</v>
       </c>
-      <c r="E146" s="25" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="147" spans="3:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="E147" s="25" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="148" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="E148" s="25" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="149" spans="3:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="E149" s="25" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="150" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="E150" s="25" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="151" spans="3:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="E151" s="25" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="152" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="E152" s="25" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="153" spans="3:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="E153" s="25" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="154" spans="3:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="E154" s="25" t="s">
-        <v>537</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A140:A154"/>
+    <mergeCell ref="A126:A139"/>
     <mergeCell ref="A111:A125"/>
     <mergeCell ref="A84:A110"/>
     <mergeCell ref="A2:A32"/>
@@ -5206,16 +5255,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>455</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -5223,16 +5272,16 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C2" t="s">
         <v>457</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>458</v>
       </c>
-      <c r="D2" t="s">
-        <v>459</v>
-      </c>
       <c r="H2" s="41" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -5240,16 +5289,16 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C3" t="s">
         <v>460</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>461</v>
       </c>
-      <c r="D3" t="s">
-        <v>462</v>
-      </c>
       <c r="H3" s="41" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5257,13 +5306,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" t="s">
         <v>463</v>
       </c>
-      <c r="C4" t="s">
-        <v>464</v>
-      </c>
       <c r="D4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -5271,13 +5320,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5285,13 +5334,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -5299,13 +5348,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -5313,13 +5362,13 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" t="s">
         <v>468</v>
       </c>
-      <c r="C8" t="s">
-        <v>469</v>
-      </c>
       <c r="D8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -5327,13 +5376,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5341,13 +5390,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>470</v>
+      </c>
+      <c r="C10" t="s">
         <v>471</v>
       </c>
-      <c r="C10" t="s">
-        <v>472</v>
-      </c>
       <c r="D10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -5355,13 +5404,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -5369,13 +5418,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -5383,13 +5432,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
+        <v>474</v>
+      </c>
+      <c r="C13" t="s">
         <v>475</v>
       </c>
-      <c r="C13" t="s">
-        <v>476</v>
-      </c>
       <c r="D13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5397,13 +5446,13 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -5411,13 +5460,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
+        <v>477</v>
+      </c>
+      <c r="C15" t="s">
         <v>478</v>
       </c>
-      <c r="C15" t="s">
-        <v>479</v>
-      </c>
       <c r="D15" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -5425,13 +5474,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
+        <v>479</v>
+      </c>
+      <c r="C16" t="s">
         <v>480</v>
       </c>
-      <c r="C16" t="s">
-        <v>481</v>
-      </c>
       <c r="D16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5439,13 +5488,13 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
+        <v>481</v>
+      </c>
+      <c r="C17" t="s">
         <v>482</v>
       </c>
-      <c r="C17" t="s">
-        <v>483</v>
-      </c>
       <c r="D17" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5453,13 +5502,13 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D18" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5467,13 +5516,13 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C19" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5481,13 +5530,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C20" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5495,13 +5544,13 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D21" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5509,13 +5558,13 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
+        <v>487</v>
+      </c>
+      <c r="C22" t="s">
         <v>488</v>
       </c>
-      <c r="C22" t="s">
-        <v>489</v>
-      </c>
       <c r="D22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDE71F6-7B17-4E92-9813-A3344C27A39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E754D5-CD81-4CDF-85C4-6582B26616F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="546">
   <si>
     <t>Autor</t>
   </si>
@@ -2188,7 +2188,19 @@
     <t>Das 30 questões, 28 eram de múltipla escolha, nas quais os participantes podiam escolher apenas uma opção: a que melhor representasse sua percepção de condição. As duas questões restantes (25 e 30) estavam relacionadas à intensidade da dor nas costas e no pescoço e foram respondidas por meio da escala visual analógica de dor (EVA).</t>
   </si>
   <si>
-    <t>O instrumento é um questionário de 30 intes. Aqueles referentes ao uso de dispositivos móveis foram elaboradas a partir de um revisão de literatura. Foram incluídas: uma questão sobre o tempo diário de uso de dispositivos móveis, duas questões sobre a postura durante o uso destes dispositivos, cinco perguntas sobre a dor no pescoço e duas sobre o impacto da dor nas costas. Foi implementado um novo design gráfico para melhorar a compreensão das regiões corporais a que se refere cada item do questionário. Foram feitas uma versão para meninas e outra para meninos. O instrumento foi avaliado por um painel de especialistas quanto à clareza, facilidade de compreensão, aplicabilidade e se as novas questões permitiam identificar o comportamento de uso de smartphones/tablets e avaliaram adequadamente a dor nas costas e no pescoço. Foi testada a confiabilidade teste-reteste. As coletas de dados aconteceram em 2 formatos, presencial e online.</t>
+    <t>Avaliação conjunta da dor nas costas e pescoço com os fatores de risco associados. Ampliar  a investigação da relação entre postura e dor. As versões do BackPEI já vem sendo utilizadas em ensaios clínicos, estudos transversais e coortes e uma versão online facilita, flexibiliza, melhora e agiliza o processo de coleta e análise de dados no ambiente clínico e científico além de permitir amostras maiores e mais variadas e ser uma boa alternativa para avaliar e monitorar pacientes que necessitam de atendimento online.</t>
+  </si>
+  <si>
+    <t>O BackPEI-A avalia, entre adultos, a presença, frequência e intensidade de dores nas costas e no pescoço, bem como possíveis fatores associados, como fatores demográficos, socioeconômicos e comportamentais (hábitos de vida e hábitos posturais). Entre os comportamentais estão incluídos os hábitos de uso de dispositivos móveis.</t>
+  </si>
+  <si>
+    <t>Cada item do questionário resulta em uma representação específica. Todas são categóricas, exceto a medição da intensidade da dor que é realizada em centímetros. Para estas, inclusive, são apresentados valores de MDC. É apontada que a principal limitação deste estudo é a ausência de uma pontuação sobre a possível exposição a fatores associados à dor nas costas e no pescoço</t>
+  </si>
+  <si>
+    <t>O instrumento é um questionário de 30 itens. Aqueles referentes ao uso de dispositivos móveis foram elaboradas a partir de um revisão de literatura. Foram incluídas: uma questão sobre o tempo diário de uso de dispositivos móveis, duas questões sobre a postura durante o uso destes dispositivos, cinco perguntas sobre a dor no pescoço e duas sobre o impacto da dor nas costas. Foi implementado um novo design gráfico para melhorar a compreensão das regiões corporais a que se refere cada item do questionário. Foram feitas uma versão para meninas e outra para meninos. O instrumento foi avaliado por um painel de especialistas quanto à clareza, facilidade de compreensão, aplicabilidade e se as novas questões permitiam identificar o comportamento de uso de smartphones/tablets e avaliaram adequadamente a dor nas costas e no pescoço. Foi testada a confiabilidade teste-reteste. As coletas de dados aconteceram em 2 formatos, presencial e online. O questionário foi traduzido para o inglês.</t>
+  </si>
+  <si>
+    <t>O instrumento é um questionário de 23 itens Aqueles referentes ao uso de dispositivos móveis foram elaboradas a partir de um revisão de literatura. Foram incluídas: duas questões sobre a postura ao utilizar o celular e uma sobre o tempo de utilização de dispositivos móveis. A questão sobre o hábito de ler/estudar na cama foi alterada incluindo o uso de dispositivos móveis.  Foi implementado um novo design gráfico para melhorar a compreensão das regiões corporais a que se refere cada item do questionário. Foram feitas uma versão para mulheres e outra para homens. O instrumento foi avaliado por um painel de especialistas quanto à clareza, facilidade de compreensão, aplicabilidade e se as novas questões permitiam identificar o comportamento de uso de smartphones/tablets e avaliaram adequadamente a dor nas costas e no pescoço. Foi testada a confiabilidade teste-reteste. As coletas de dados aconteceram em 2 formatos, presencial e online. Ao final o instrumento foi traduzido para o inglês.</t>
   </si>
 </sst>
 </file>
@@ -2470,19 +2482,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2490,10 +2502,10 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2778,9 +2790,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L31" sqref="L31"/>
+      <selection pane="topRight" activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2834,10 +2846,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="44">
         <v>2013</v>
       </c>
       <c r="C2" s="43" t="s">
@@ -2872,8 +2884,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="43"/>
       <c r="D3" s="3">
         <v>2</v>
@@ -2893,8 +2905,8 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="43"/>
       <c r="D4" s="3">
         <v>3</v>
@@ -2914,8 +2926,8 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="43"/>
       <c r="D5" s="3">
         <v>4</v>
@@ -2931,8 +2943,8 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="43"/>
       <c r="D6" s="3">
         <v>5</v>
@@ -2948,8 +2960,8 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="43"/>
       <c r="D7" s="3">
         <v>6</v>
@@ -2957,7 +2969,7 @@
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="42" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2969,8 +2981,8 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="43"/>
       <c r="D8" s="3">
         <v>7</v>
@@ -2978,7 +2990,7 @@
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="45"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -2986,8 +2998,8 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="43"/>
       <c r="D9" s="3">
         <v>8</v>
@@ -2995,7 +3007,7 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="45"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
@@ -3005,8 +3017,8 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="43"/>
       <c r="D10" s="3">
         <v>9</v>
@@ -3024,8 +3036,8 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="43"/>
       <c r="D11" s="3">
         <v>10</v>
@@ -3041,8 +3053,8 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="43"/>
       <c r="D12" s="3">
         <v>11</v>
@@ -3062,8 +3074,8 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="43"/>
       <c r="D13" s="3">
         <v>12</v>
@@ -3116,10 +3128,10 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="330" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="45">
         <v>2018</v>
       </c>
       <c r="C15" s="43" t="s">
@@ -3131,7 +3143,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="42" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -3154,8 +3166,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="43"/>
       <c r="D16" s="3">
         <v>2</v>
@@ -3163,14 +3175,14 @@
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="45"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="43"/>
       <c r="D17" s="3">
         <v>3</v>
@@ -3178,14 +3190,14 @@
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="45"/>
+      <c r="F17" s="42"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="43"/>
       <c r="D18" s="3">
         <v>4</v>
@@ -3201,8 +3213,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="43"/>
       <c r="D19" s="3">
         <v>5</v>
@@ -3218,8 +3230,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="43"/>
       <c r="D20" s="3">
         <v>6</v>
@@ -3232,8 +3244,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="43"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
@@ -3281,10 +3293,10 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="390" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="45">
         <v>2019</v>
       </c>
       <c r="C23" s="43" t="s">
@@ -3316,8 +3328,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
       <c r="C24" s="43"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
@@ -3330,8 +3342,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="43"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
@@ -3344,8 +3356,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
       <c r="C26" s="43"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
@@ -3358,8 +3370,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="43"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
@@ -3372,10 +3384,10 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="42">
+      <c r="B28" s="46">
         <v>2021</v>
       </c>
       <c r="C28" s="43" t="s">
@@ -3395,8 +3407,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="43"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
@@ -3410,8 +3422,8 @@
       <c r="H29" s="43"/>
     </row>
     <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="43"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
@@ -3450,7 +3462,7 @@
         <v>539</v>
       </c>
       <c r="L31" s="38" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -3497,7 +3509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -3513,6 +3525,18 @@
       <c r="F36" s="4"/>
       <c r="H36" s="3" t="s">
         <v>101</v>
+      </c>
+      <c r="I36" s="38" t="s">
+        <v>541</v>
+      </c>
+      <c r="J36" s="38" t="s">
+        <v>542</v>
+      </c>
+      <c r="K36" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="L36" s="38" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -3717,6 +3741,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -3725,13 +3756,6 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3744,8 +3768,8 @@
   <dimension ref="A1:E154"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E110" sqref="E110"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4040,7 +4064,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="31"/>
       <c r="E32" s="27" t="s">
         <v>185</v>
@@ -4139,7 +4163,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
+      <c r="A42" s="50"/>
       <c r="D42" s="33"/>
       <c r="E42" s="27" t="s">
         <v>209</v>
@@ -4161,7 +4185,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
+      <c r="A44" s="49"/>
       <c r="C44" s="23" t="s">
         <v>214</v>
       </c>
@@ -4170,7 +4194,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
+      <c r="A45" s="49"/>
       <c r="B45" s="31"/>
       <c r="C45" s="34" t="s">
         <v>217</v>
@@ -4434,7 +4458,7 @@
       </c>
     </row>
     <row r="72" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="49"/>
+      <c r="A72" s="50"/>
       <c r="B72" s="31"/>
       <c r="C72" s="34" t="s">
         <v>278</v>
@@ -4459,7 +4483,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="50"/>
+      <c r="A74" s="49"/>
       <c r="B74" s="22" t="s">
         <v>282</v>
       </c>
@@ -4474,7 +4498,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="50"/>
+      <c r="A75" s="49"/>
       <c r="B75" s="22" t="s">
         <v>325</v>
       </c>
@@ -4489,7 +4513,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="50"/>
+      <c r="A76" s="49"/>
       <c r="B76" s="22" t="s">
         <v>326</v>
       </c>
@@ -4504,7 +4528,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="50"/>
+      <c r="A77" s="49"/>
       <c r="B77" s="22" t="s">
         <v>327</v>
       </c>
@@ -4519,7 +4543,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="50"/>
+      <c r="A78" s="49"/>
       <c r="C78" s="23" t="s">
         <v>313</v>
       </c>
@@ -4531,7 +4555,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A79" s="50"/>
+      <c r="A79" s="49"/>
       <c r="C79" s="23" t="s">
         <v>316</v>
       </c>
@@ -4543,7 +4567,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A80" s="50"/>
+      <c r="A80" s="49"/>
       <c r="C80" s="23" t="s">
         <v>317</v>
       </c>
@@ -4555,7 +4579,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A81" s="50"/>
+      <c r="A81" s="49"/>
       <c r="C81" s="23" t="s">
         <v>319</v>
       </c>
@@ -4567,7 +4591,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="50"/>
+      <c r="A82" s="49"/>
       <c r="C82" s="23" t="s">
         <v>320</v>
       </c>
@@ -4579,7 +4603,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="50"/>
+      <c r="A83" s="49"/>
       <c r="C83" s="34" t="s">
         <v>328</v>
       </c>
@@ -4805,7 +4829,7 @@
       </c>
     </row>
     <row r="110" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="49"/>
+      <c r="A110" s="50"/>
       <c r="D110" s="33"/>
       <c r="E110" s="25" t="s">
         <v>378</v>
@@ -4952,7 +4976,7 @@
       </c>
     </row>
     <row r="125" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A125" s="49"/>
+      <c r="A125" s="50"/>
       <c r="B125" s="31"/>
       <c r="C125" s="34"/>
       <c r="D125" s="33"/>
@@ -4978,7 +5002,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="50"/>
+      <c r="A127" s="49"/>
       <c r="B127" s="22" t="s">
         <v>447</v>
       </c>
@@ -4993,7 +5017,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A128" s="50"/>
+      <c r="A128" s="49"/>
       <c r="B128" s="22" t="s">
         <v>448</v>
       </c>
@@ -5005,7 +5029,7 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A129" s="50"/>
+      <c r="A129" s="49"/>
       <c r="B129" s="22" t="s">
         <v>449</v>
       </c>
@@ -5017,7 +5041,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A130" s="50"/>
+      <c r="A130" s="49"/>
       <c r="C130" s="23" t="s">
         <v>425</v>
       </c>
@@ -5026,7 +5050,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A131" s="50"/>
+      <c r="A131" s="49"/>
       <c r="C131" s="23" t="s">
         <v>427</v>
       </c>
@@ -5035,7 +5059,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="50"/>
+      <c r="A132" s="49"/>
       <c r="C132" s="23" t="s">
         <v>429</v>
       </c>
@@ -5044,7 +5068,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A133" s="50"/>
+      <c r="A133" s="49"/>
       <c r="C133" s="23" t="s">
         <v>435</v>
       </c>
@@ -5053,7 +5077,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A134" s="50"/>
+      <c r="A134" s="49"/>
       <c r="C134" s="23" t="s">
         <v>436</v>
       </c>
@@ -5062,7 +5086,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A135" s="50"/>
+      <c r="A135" s="49"/>
       <c r="C135" s="23" t="s">
         <v>441</v>
       </c>
@@ -5071,7 +5095,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A136" s="50"/>
+      <c r="A136" s="49"/>
       <c r="C136" s="23" t="s">
         <v>442</v>
       </c>
@@ -5080,7 +5104,7 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A137" s="50"/>
+      <c r="A137" s="49"/>
       <c r="C137" s="23" t="s">
         <v>443</v>
       </c>
@@ -5089,7 +5113,7 @@
       </c>
     </row>
     <row r="138" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="50"/>
+      <c r="A138" s="49"/>
       <c r="C138" s="23" t="s">
         <v>445</v>
       </c>
@@ -5098,7 +5122,7 @@
       </c>
     </row>
     <row r="139" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A139" s="49"/>
+      <c r="A139" s="50"/>
       <c r="B139" s="31"/>
       <c r="C139" s="34" t="s">
         <v>446</v>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E754D5-CD81-4CDF-85C4-6582B26616F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135F543B-8C7D-472D-9D60-F9EDD065CF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="550">
   <si>
     <t>Autor</t>
   </si>
@@ -2201,6 +2201,18 @@
   </si>
   <si>
     <t>O instrumento é um questionário de 23 itens Aqueles referentes ao uso de dispositivos móveis foram elaboradas a partir de um revisão de literatura. Foram incluídas: duas questões sobre a postura ao utilizar o celular e uma sobre o tempo de utilização de dispositivos móveis. A questão sobre o hábito de ler/estudar na cama foi alterada incluindo o uso de dispositivos móveis.  Foi implementado um novo design gráfico para melhorar a compreensão das regiões corporais a que se refere cada item do questionário. Foram feitas uma versão para mulheres e outra para homens. O instrumento foi avaliado por um painel de especialistas quanto à clareza, facilidade de compreensão, aplicabilidade e se as novas questões permitiam identificar o comportamento de uso de smartphones/tablets e avaliaram adequadamente a dor nas costas e no pescoço. Foi testada a confiabilidade teste-reteste. As coletas de dados aconteceram em 2 formatos, presencial e online. Ao final o instrumento foi traduzido para o inglês.</t>
+  </si>
+  <si>
+    <t>O primeiro passo no tratamento da hérnia de disco é a avaliação do paciente. Esta escala pode ser usada para avaliar a dor e a postura na hérnia de disco, sendo que a educação sobre os fatores de risco e exercícios posturais podem reduzir a dor e a progressão da hérnia de disco.</t>
+  </si>
+  <si>
+    <t>O BackPEI avalia a dor nas costas e os fatores relacionados à dor, como maus hábitos posturais, fatores demográficos, socioeconômicos, hereditários e comportamentais. O MHQ avalia dor e rigidez, função física, nível de atividade física, envolvimento de sintomas relacionados ao trabalho, atividades diárias, sociais e hobbies, dificuldade para dormir, fadiga, bem-estar emocional e diagnóstico. A validade concorrente foi examinada para correlações com o MHQTR</t>
+  </si>
+  <si>
+    <t>O BackPEI aplica um sistema de pontuação geral que inclui apenas questões que se referem a fatores de risco. Nas questões de 1 a 4, a postura adequada recebe 1 ponto e a postura inadequada recebe 0 ponto. Apenas uma opção é aceita para essas questões. Nas questões 5, 8 e 10, as respostas positivas recebem 0 ponto e as negativas recebem 1 ponto. Na questão número 6, as respostas positivas recebem 1 ponto e as negativas recebem 0 ponto. As questões 7 e 9 não são pontuadas. Na questão 11, a opção “de bruços” (no meu estômago) recebe 0 ponto, e as outras opções recebem 1 ponto. Na questão, 12, 7, 8 ou 9 horas de sono recebem 1 ponto; as outras opções recebem 0 ponto. A pontuação total é a soma de todas as pontuações (máximo de 10 pontos). Quanto maior a pontuação obtida, menor a exposição a fatores de risco para dor. Para avaliar a validade de constructo da escala, foram realizadas comparações das pontuações pertencentes aos percentis inferior e superior de 27%, e os resultados são mostrados na Tabela 6. Como resultado desta tabela, a escala é confiável e tem a capacidade de mensurar a situação definida.</t>
+  </si>
+  <si>
+    <t>Pacientes com escoliose cervical e lombar e espondilolistese não foram incluídos no estudo. Dessa forma, obteve-se um grupo mais homogêneo. Foi planejado incluir pacientes entre 20 e 65 anos no estudo. Para as avaliações de confiabilidade teste-reteste foram realizadas com intervalo de 1 semana sem que houvesse algum tratamento nesse período. De acordo com os resultados, não há diferença nas pontuações BackPEI-TR e MHQ-TR entre homens e mulheres (p=0,230, 0,807 respectivamente).</t>
   </si>
 </sst>
 </file>
@@ -2360,7 +2372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2482,19 +2494,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2507,6 +2519,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2790,9 +2805,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L36" sqref="L36"/>
+      <selection pane="topRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2846,10 +2861,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="46">
         <v>2013</v>
       </c>
       <c r="C2" s="43" t="s">
@@ -2884,8 +2899,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="43"/>
       <c r="D3" s="3">
         <v>2</v>
@@ -2905,8 +2920,8 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="43"/>
       <c r="D4" s="3">
         <v>3</v>
@@ -2926,8 +2941,8 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="44"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="43"/>
       <c r="D5" s="3">
         <v>4</v>
@@ -2943,8 +2958,8 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="43"/>
       <c r="D6" s="3">
         <v>5</v>
@@ -2960,8 +2975,8 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="43"/>
       <c r="D7" s="3">
         <v>6</v>
@@ -2969,7 +2984,7 @@
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="45" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2981,8 +2996,8 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="43"/>
       <c r="D8" s="3">
         <v>7</v>
@@ -2990,7 +3005,7 @@
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="42"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -2998,8 +3013,8 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="43"/>
       <c r="D9" s="3">
         <v>8</v>
@@ -3007,7 +3022,7 @@
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="42"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
@@ -3017,8 +3032,8 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="43"/>
       <c r="D10" s="3">
         <v>9</v>
@@ -3036,8 +3051,8 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="43"/>
       <c r="D11" s="3">
         <v>10</v>
@@ -3053,8 +3068,8 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="43"/>
       <c r="D12" s="3">
         <v>11</v>
@@ -3074,8 +3089,8 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="43"/>
       <c r="D13" s="3">
         <v>12</v>
@@ -3128,10 +3143,10 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="330" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="44">
         <v>2018</v>
       </c>
       <c r="C15" s="43" t="s">
@@ -3143,7 +3158,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="45" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -3166,8 +3181,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="43"/>
       <c r="D16" s="3">
         <v>2</v>
@@ -3175,14 +3190,14 @@
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="42"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="43"/>
       <c r="D17" s="3">
         <v>3</v>
@@ -3190,14 +3205,14 @@
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="42"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="43"/>
       <c r="D18" s="3">
         <v>4</v>
@@ -3213,8 +3228,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="43"/>
       <c r="D19" s="3">
         <v>5</v>
@@ -3230,8 +3245,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="43"/>
       <c r="D20" s="3">
         <v>6</v>
@@ -3244,8 +3259,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="43"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
@@ -3293,10 +3308,10 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="390" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="45">
+      <c r="B23" s="44">
         <v>2019</v>
       </c>
       <c r="C23" s="43" t="s">
@@ -3328,8 +3343,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="43"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
@@ -3342,8 +3357,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
       <c r="C25" s="43"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
@@ -3356,8 +3371,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
       <c r="C26" s="43"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
@@ -3370,8 +3385,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
       <c r="C27" s="43"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
@@ -3384,10 +3399,10 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="42">
         <v>2021</v>
       </c>
       <c r="C28" s="43" t="s">
@@ -3407,8 +3422,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="43"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
@@ -3422,8 +3437,8 @@
       <c r="H29" s="43"/>
     </row>
     <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="43"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
@@ -3509,7 +3524,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -3581,7 +3596,7 @@
       </c>
       <c r="F41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="108" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>102</v>
       </c>
@@ -3602,6 +3617,18 @@
       </c>
       <c r="H42" s="3" t="s">
         <v>116</v>
+      </c>
+      <c r="I42" s="38" t="s">
+        <v>546</v>
+      </c>
+      <c r="J42" s="38" t="s">
+        <v>547</v>
+      </c>
+      <c r="K42" s="38" t="s">
+        <v>548</v>
+      </c>
+      <c r="L42" s="38" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3741,13 +3768,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -3756,6 +3776,13 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3768,8 +3795,8 @@
   <dimension ref="A1:E154"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E125" sqref="E125"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5024,6 +5051,9 @@
       <c r="C128" s="23" t="s">
         <v>420</v>
       </c>
+      <c r="D128" s="24" t="s">
+        <v>436</v>
+      </c>
       <c r="E128" s="25" t="s">
         <v>424</v>
       </c>
@@ -5036,6 +5066,9 @@
       <c r="C129" s="23" t="s">
         <v>423</v>
       </c>
+      <c r="D129" s="24" t="s">
+        <v>442</v>
+      </c>
       <c r="E129" s="25" t="s">
         <v>428</v>
       </c>
@@ -5076,19 +5109,19 @@
         <v>439</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A134" s="49"/>
       <c r="C134" s="23" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="E134" s="25" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A135" s="49"/>
       <c r="C135" s="23" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E135" s="25" t="s">
         <v>437</v>
@@ -5097,7 +5130,7 @@
     <row r="136" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A136" s="49"/>
       <c r="C136" s="23" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E136" s="25" t="s">
         <v>438</v>
@@ -5105,8 +5138,8 @@
     </row>
     <row r="137" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A137" s="49"/>
-      <c r="C137" s="23" t="s">
-        <v>443</v>
+      <c r="C137" s="51" t="s">
+        <v>446</v>
       </c>
       <c r="E137" s="25" t="s">
         <v>440</v>
@@ -5114,19 +5147,15 @@
     </row>
     <row r="138" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="49"/>
-      <c r="C138" s="23" t="s">
-        <v>445</v>
-      </c>
+      <c r="C138" s="51"/>
       <c r="E138" s="25" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="50"/>
       <c r="B139" s="31"/>
-      <c r="C139" s="34" t="s">
-        <v>446</v>
-      </c>
+      <c r="C139" s="34"/>
       <c r="E139" s="27"/>
     </row>
     <row r="140" spans="1:5" ht="60" x14ac:dyDescent="0.25">

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135F543B-8C7D-472D-9D60-F9EDD065CF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C2013C-A59C-46BD-8221-0760C1308B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="554">
   <si>
     <t>Autor</t>
   </si>
@@ -2213,6 +2213,18 @@
   </si>
   <si>
     <t>Pacientes com escoliose cervical e lombar e espondilolistese não foram incluídos no estudo. Dessa forma, obteve-se um grupo mais homogêneo. Foi planejado incluir pacientes entre 20 e 65 anos no estudo. Para as avaliações de confiabilidade teste-reteste foram realizadas com intervalo de 1 semana sem que houvesse algum tratamento nesse período. De acordo com os resultados, não há diferença nas pontuações BackPEI-TR e MHQ-TR entre homens e mulheres (p=0,230, 0,807 respectivamente).</t>
+  </si>
+  <si>
+    <t>Ampliar a promoção da linha de pesquisa em educação para a saúde da coluna e, principalmente, sua implementação em programas de educação escolar além de contribuir para a pesquisa epidemiológica ao comparar países onde se falam as línguas portuguesa e espanhola</t>
+  </si>
+  <si>
+    <t>O questionário BackPEI foi elaborado para identificar a presença de dor nas costas nos últimos 3 meses antes de sua aplicação. Ele estuda questões sobre a ocorrência, frequência e intensidade da dor nas costas além de estilo de vida, postura em AVD e fatores relativos aos pais. Durante a adaptação cultural, um painel de especialistas avaliou o instrumento traduzido para o espanhol quanto à experiência (ou seja, equivalência no contexto cultural de destino) e conceitual (ou seja, equivalência do conceito e das experiências da cultura de destino). foram feitos 2 questionários, um para meninos e outro para meninas. Sobre a postura os autores indicam que ao longo do dia escolar, assim como no dia em geral, adotamos muitas posições corretas e, portanto, podem haver várias respostas que afetam a concordância.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As representações a partir do BackPEI-CA são realizadas a partir da cada item através da resposta dada. Assim são dados nominais, exceto pela instensidade da dor que é medida em cm. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A adaptação transcultural de um desses questionários (BackPEI e BEHALVES) pode ser o primeiro passo para consolidar instrumentos válidos. o estudo teve como objetivo realizar uma adaptação transcultural de um instrumento de medida validado (BackPEI), iniciando com uma fase de tradução e adaptação cultural, seguida de uma segunda fase para testar a confiabilidade pelo delineamento teste-reteste. Durante a adaptação transcultural foram avaliadas a semântica, idiomática, experiência e conceito. </t>
   </si>
 </sst>
 </file>
@@ -2493,20 +2505,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2519,9 +2534,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2805,9 +2817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A42" sqref="A42"/>
+      <selection pane="topRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2861,13 +2873,13 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="45">
         <v>2013</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3">
@@ -2899,9 +2911,9 @@
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="43"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
@@ -2920,9 +2932,9 @@
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="43"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
@@ -2941,9 +2953,9 @@
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="43"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -2958,9 +2970,9 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="43"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
@@ -2975,16 +2987,16 @@
       <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="43"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="43" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2996,16 +3008,16 @@
       <c r="L7" s="4"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="43"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="45"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -3013,16 +3025,16 @@
       <c r="L8" s="4"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="43"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="45"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
@@ -3032,9 +3044,9 @@
       <c r="L9" s="4"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="43"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
@@ -3051,9 +3063,9 @@
       <c r="L10" s="4"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="43"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="44"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
@@ -3068,9 +3080,9 @@
       <c r="L11" s="4"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="43"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
@@ -3089,9 +3101,9 @@
       <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="43"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
@@ -3143,13 +3155,13 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="330" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="46">
         <v>2018</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="44" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="3">
@@ -3158,7 +3170,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="43" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -3181,39 +3193,39 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="43"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="45"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="43"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="45"/>
+      <c r="F17" s="43"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="3">
         <v>4</v>
       </c>
@@ -3228,9 +3240,9 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="43"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="3">
         <v>5</v>
       </c>
@@ -3245,9 +3257,9 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="43"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="3">
         <v>6</v>
       </c>
@@ -3259,9 +3271,9 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="43"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="44"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
@@ -3308,13 +3320,13 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="390" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="46">
         <v>2019</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="44" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -3343,9 +3355,9 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="44"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
@@ -3357,9 +3369,9 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="44"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
       </c>
@@ -3371,9 +3383,9 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="43"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="44"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
       </c>
@@ -3385,9 +3397,9 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="43"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="44"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3398,14 +3410,14 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+    <row r="28" spans="1:12" ht="345" x14ac:dyDescent="0.25">
+      <c r="A28" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="42">
+      <c r="B28" s="47">
         <v>2021</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="44" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -3417,14 +3429,26 @@
       <c r="G28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="43" t="s">
+      <c r="H28" s="44" t="s">
         <v>77</v>
       </c>
+      <c r="I28" s="38" t="s">
+        <v>550</v>
+      </c>
+      <c r="J28" s="38" t="s">
+        <v>551</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>552</v>
+      </c>
+      <c r="L28" s="38" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
+      <c r="A29" s="47"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="44"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
       </c>
@@ -3434,12 +3458,12 @@
       <c r="G29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="43"/>
+      <c r="H29" s="44"/>
     </row>
     <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="44"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
       </c>
@@ -3449,7 +3473,7 @@
       <c r="G30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="43"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -3768,6 +3792,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="A2:A13"/>
@@ -3776,13 +3807,6 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3795,8 +3819,8 @@
   <dimension ref="A1:E154"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E138" sqref="E138"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3825,7 +3849,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="49" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -3842,7 +3866,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="48"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="22" t="s">
         <v>142</v>
       </c>
@@ -3857,7 +3881,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="48"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="22" t="s">
         <v>143</v>
       </c>
@@ -3872,7 +3896,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="22" t="s">
         <v>146</v>
       </c>
@@ -3887,7 +3911,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="48"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="22" t="s">
         <v>180</v>
       </c>
@@ -3899,7 +3923,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="22" t="s">
         <v>187</v>
       </c>
@@ -3911,7 +3935,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="48"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="22" t="s">
         <v>188</v>
       </c>
@@ -3923,7 +3947,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="48"/>
+      <c r="A9" s="49"/>
       <c r="C9" s="23" t="s">
         <v>147</v>
       </c>
@@ -3932,7 +3956,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="48"/>
+      <c r="A10" s="49"/>
       <c r="C10" s="23" t="s">
         <v>147</v>
       </c>
@@ -3941,7 +3965,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
+      <c r="A11" s="49"/>
       <c r="C11" s="23" t="s">
         <v>148</v>
       </c>
@@ -3950,7 +3974,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
+      <c r="A12" s="49"/>
       <c r="C12" s="23" t="s">
         <v>158</v>
       </c>
@@ -3959,7 +3983,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="48"/>
+      <c r="A13" s="49"/>
       <c r="C13" s="23" t="s">
         <v>159</v>
       </c>
@@ -3968,7 +3992,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="48"/>
+      <c r="A14" s="49"/>
       <c r="C14" s="23" t="s">
         <v>160</v>
       </c>
@@ -3977,7 +4001,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="48"/>
+      <c r="A15" s="49"/>
       <c r="C15" s="23" t="s">
         <v>163</v>
       </c>
@@ -3986,7 +4010,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
+      <c r="A16" s="49"/>
       <c r="C16" s="23" t="s">
         <v>174</v>
       </c>
@@ -3995,7 +4019,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="48"/>
+      <c r="A17" s="49"/>
       <c r="C17" s="23" t="s">
         <v>179</v>
       </c>
@@ -4004,7 +4028,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="48"/>
+      <c r="A18" s="49"/>
       <c r="C18" s="23" t="s">
         <v>186</v>
       </c>
@@ -4013,92 +4037,92 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="48"/>
+      <c r="A19" s="49"/>
       <c r="E19" s="25" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="48"/>
+      <c r="A20" s="49"/>
       <c r="E20" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
+      <c r="A21" s="49"/>
       <c r="E21" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
+      <c r="A22" s="49"/>
       <c r="E22" s="25" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="48"/>
+      <c r="A23" s="49"/>
       <c r="E23" s="25" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
+      <c r="A24" s="49"/>
       <c r="E24" s="25" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
+      <c r="A25" s="49"/>
       <c r="E25" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="48"/>
+      <c r="A26" s="49"/>
       <c r="E26" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
+      <c r="A27" s="49"/>
       <c r="E27" s="25" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
+      <c r="A28" s="49"/>
       <c r="E28" s="25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="48"/>
+      <c r="A29" s="49"/>
       <c r="E29" s="25" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="49"/>
       <c r="E30" s="25" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="49"/>
       <c r="E31" s="25" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
+      <c r="A32" s="51"/>
       <c r="B32" s="31"/>
       <c r="E32" s="27" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="48" t="s">
         <v>189</v>
       </c>
       <c r="B33" s="30" t="s">
@@ -4115,7 +4139,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="48"/>
+      <c r="A34" s="49"/>
       <c r="B34" s="22" t="s">
         <v>210</v>
       </c>
@@ -4130,7 +4154,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
+      <c r="A35" s="49"/>
       <c r="C35" s="23" t="s">
         <v>195</v>
       </c>
@@ -4142,7 +4166,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="48"/>
+      <c r="A36" s="49"/>
       <c r="C36" s="23" t="s">
         <v>196</v>
       </c>
@@ -4151,7 +4175,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="48"/>
+      <c r="A37" s="49"/>
       <c r="C37" s="23" t="s">
         <v>197</v>
       </c>
@@ -4160,7 +4184,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="48"/>
+      <c r="A38" s="49"/>
       <c r="C38" s="23" t="s">
         <v>203</v>
       </c>
@@ -4169,7 +4193,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A39" s="48"/>
+      <c r="A39" s="49"/>
       <c r="C39" s="23" t="s">
         <v>204</v>
       </c>
@@ -4178,26 +4202,26 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="48"/>
+      <c r="A40" s="49"/>
       <c r="E40" s="25" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="48"/>
+      <c r="A41" s="49"/>
       <c r="E41" s="25" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
+      <c r="A42" s="51"/>
       <c r="D42" s="33"/>
       <c r="E42" s="27" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="48" t="s">
         <v>211</v>
       </c>
       <c r="B43" s="32"/>
@@ -4212,7 +4236,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
+      <c r="A44" s="50"/>
       <c r="C44" s="23" t="s">
         <v>214</v>
       </c>
@@ -4221,14 +4245,14 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="31"/>
       <c r="C45" s="34" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="48" t="s">
         <v>218</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -4245,7 +4269,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A47" s="48"/>
+      <c r="A47" s="49"/>
       <c r="B47" s="22" t="s">
         <v>221</v>
       </c>
@@ -4260,7 +4284,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="48"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="22" t="s">
         <v>222</v>
       </c>
@@ -4272,7 +4296,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="48"/>
+      <c r="A49" s="49"/>
       <c r="B49" s="22" t="s">
         <v>224</v>
       </c>
@@ -4284,7 +4308,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="48"/>
+      <c r="A50" s="49"/>
       <c r="B50" s="22" t="s">
         <v>248</v>
       </c>
@@ -4296,7 +4320,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="48"/>
+      <c r="A51" s="49"/>
       <c r="B51" s="22" t="s">
         <v>250</v>
       </c>
@@ -4308,7 +4332,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="48"/>
+      <c r="A52" s="49"/>
       <c r="B52" s="22" t="s">
         <v>252</v>
       </c>
@@ -4320,7 +4344,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="48"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="22" t="s">
         <v>253</v>
       </c>
@@ -4332,7 +4356,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="48"/>
+      <c r="A54" s="49"/>
       <c r="B54" s="22" t="s">
         <v>258</v>
       </c>
@@ -4344,7 +4368,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="48"/>
+      <c r="A55" s="49"/>
       <c r="B55" s="22" t="s">
         <v>259</v>
       </c>
@@ -4353,7 +4377,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="48"/>
+      <c r="A56" s="49"/>
       <c r="B56" s="22" t="s">
         <v>261</v>
       </c>
@@ -4362,7 +4386,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="48"/>
+      <c r="A57" s="49"/>
       <c r="B57" s="22" t="s">
         <v>262</v>
       </c>
@@ -4371,7 +4395,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A58" s="48"/>
+      <c r="A58" s="49"/>
       <c r="B58" s="22" t="s">
         <v>263</v>
       </c>
@@ -4380,7 +4404,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="48"/>
+      <c r="A59" s="49"/>
       <c r="B59" s="22" t="s">
         <v>265</v>
       </c>
@@ -4389,56 +4413,56 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="48"/>
+      <c r="A60" s="49"/>
       <c r="E60" s="25" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="48"/>
+      <c r="A61" s="49"/>
       <c r="E61" s="25" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="48"/>
+      <c r="A62" s="49"/>
       <c r="E62" s="25" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="48"/>
+      <c r="A63" s="49"/>
       <c r="E63" s="25" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="48"/>
+      <c r="A64" s="49"/>
       <c r="E64" s="25" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="48"/>
+      <c r="A65" s="49"/>
       <c r="E65" s="25" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="48"/>
+      <c r="A66" s="49"/>
       <c r="E66" s="25" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="48"/>
+      <c r="A67" s="49"/>
       <c r="B67" s="31"/>
       <c r="E67" s="25" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A68" s="47" t="s">
+      <c r="A68" s="48" t="s">
         <v>267</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -4455,7 +4479,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="255" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
+      <c r="A69" s="49"/>
       <c r="B69" s="22" t="s">
         <v>269</v>
       </c>
@@ -4467,7 +4491,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A70" s="48"/>
+      <c r="A70" s="49"/>
       <c r="B70" s="22" t="s">
         <v>277</v>
       </c>
@@ -4479,13 +4503,13 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="360" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
+      <c r="A71" s="49"/>
       <c r="C71" s="23" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="50"/>
+      <c r="A72" s="51"/>
       <c r="B72" s="31"/>
       <c r="C72" s="34" t="s">
         <v>278</v>
@@ -4493,7 +4517,7 @@
       <c r="D72" s="33"/>
     </row>
     <row r="73" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A73" s="47" t="s">
+      <c r="A73" s="48" t="s">
         <v>279</v>
       </c>
       <c r="B73" s="22" t="s">
@@ -4510,7 +4534,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="49"/>
+      <c r="A74" s="50"/>
       <c r="B74" s="22" t="s">
         <v>282</v>
       </c>
@@ -4525,7 +4549,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="49"/>
+      <c r="A75" s="50"/>
       <c r="B75" s="22" t="s">
         <v>325</v>
       </c>
@@ -4540,7 +4564,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="49"/>
+      <c r="A76" s="50"/>
       <c r="B76" s="22" t="s">
         <v>326</v>
       </c>
@@ -4555,7 +4579,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="49"/>
+      <c r="A77" s="50"/>
       <c r="B77" s="22" t="s">
         <v>327</v>
       </c>
@@ -4570,7 +4594,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="49"/>
+      <c r="A78" s="50"/>
       <c r="C78" s="23" t="s">
         <v>313</v>
       </c>
@@ -4582,7 +4606,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A79" s="49"/>
+      <c r="A79" s="50"/>
       <c r="C79" s="23" t="s">
         <v>316</v>
       </c>
@@ -4594,7 +4618,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A80" s="49"/>
+      <c r="A80" s="50"/>
       <c r="C80" s="23" t="s">
         <v>317</v>
       </c>
@@ -4606,7 +4630,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A81" s="49"/>
+      <c r="A81" s="50"/>
       <c r="C81" s="23" t="s">
         <v>319</v>
       </c>
@@ -4618,7 +4642,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="49"/>
+      <c r="A82" s="50"/>
       <c r="C82" s="23" t="s">
         <v>320</v>
       </c>
@@ -4630,7 +4654,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="49"/>
+      <c r="A83" s="50"/>
       <c r="C83" s="34" t="s">
         <v>328</v>
       </c>
@@ -4638,7 +4662,7 @@
       <c r="E83" s="27"/>
     </row>
     <row r="84" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="47" t="s">
+      <c r="A84" s="48" t="s">
         <v>337</v>
       </c>
       <c r="B84" s="32" t="s">
@@ -4655,7 +4679,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="48"/>
+      <c r="A85" s="49"/>
       <c r="B85" s="22" t="s">
         <v>341</v>
       </c>
@@ -4670,7 +4694,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="48"/>
+      <c r="A86" s="49"/>
       <c r="B86" s="22" t="s">
         <v>368</v>
       </c>
@@ -4685,7 +4709,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="48"/>
+      <c r="A87" s="49"/>
       <c r="B87" s="22" t="s">
         <v>370</v>
       </c>
@@ -4697,7 +4721,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="48"/>
+      <c r="A88" s="49"/>
       <c r="B88" s="22" t="s">
         <v>381</v>
       </c>
@@ -4709,7 +4733,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="48"/>
+      <c r="A89" s="49"/>
       <c r="C89" s="23" t="s">
         <v>369</v>
       </c>
@@ -4718,7 +4742,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A90" s="48"/>
+      <c r="A90" s="49"/>
       <c r="C90" s="23" t="s">
         <v>371</v>
       </c>
@@ -4727,7 +4751,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A91" s="48"/>
+      <c r="A91" s="49"/>
       <c r="C91" s="23" t="s">
         <v>372</v>
       </c>
@@ -4736,7 +4760,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="48"/>
+      <c r="A92" s="49"/>
       <c r="C92" s="23" t="s">
         <v>373</v>
       </c>
@@ -4745,7 +4769,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" s="48"/>
+      <c r="A93" s="49"/>
       <c r="C93" s="23" t="s">
         <v>375</v>
       </c>
@@ -4754,7 +4778,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94" s="48"/>
+      <c r="A94" s="49"/>
       <c r="C94" s="23" t="s">
         <v>377</v>
       </c>
@@ -4763,7 +4787,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A95" s="48"/>
+      <c r="A95" s="49"/>
       <c r="C95" s="23" t="s">
         <v>382</v>
       </c>
@@ -4772,98 +4796,98 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="48"/>
+      <c r="A96" s="49"/>
       <c r="E96" s="25" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="48"/>
+      <c r="A97" s="49"/>
       <c r="E97" s="25" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="48"/>
+      <c r="A98" s="49"/>
       <c r="E98" s="25" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="48"/>
+      <c r="A99" s="49"/>
       <c r="E99" s="25" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="48"/>
+      <c r="A100" s="49"/>
       <c r="E100" s="25" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="48"/>
+      <c r="A101" s="49"/>
       <c r="E101" s="25" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="48"/>
+      <c r="A102" s="49"/>
       <c r="E102" s="25" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="48"/>
+      <c r="A103" s="49"/>
       <c r="E103" s="25" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="48"/>
+      <c r="A104" s="49"/>
       <c r="E104" s="25" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="48"/>
+      <c r="A105" s="49"/>
       <c r="E105" s="25" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="48"/>
+      <c r="A106" s="49"/>
       <c r="E106" s="25" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="48"/>
+      <c r="A107" s="49"/>
       <c r="E107" s="25" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="48"/>
+      <c r="A108" s="49"/>
       <c r="E108" s="25" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="48"/>
+      <c r="A109" s="49"/>
       <c r="E109" s="25" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="50"/>
+      <c r="A110" s="51"/>
       <c r="D110" s="33"/>
       <c r="E110" s="25" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="47" t="s">
+      <c r="A111" s="48" t="s">
         <v>383</v>
       </c>
       <c r="B111" s="32" t="s">
@@ -4880,7 +4904,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="48"/>
+      <c r="A112" s="49"/>
       <c r="B112" s="22" t="s">
         <v>389</v>
       </c>
@@ -4895,7 +4919,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A113" s="48"/>
+      <c r="A113" s="49"/>
       <c r="B113" s="22" t="s">
         <v>391</v>
       </c>
@@ -4910,7 +4934,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="48"/>
+      <c r="A114" s="49"/>
       <c r="B114" s="22" t="s">
         <v>407</v>
       </c>
@@ -4922,7 +4946,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A115" s="48"/>
+      <c r="A115" s="49"/>
       <c r="B115" s="22" t="s">
         <v>410</v>
       </c>
@@ -4934,7 +4958,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="48"/>
+      <c r="A116" s="49"/>
       <c r="B116" s="22" t="s">
         <v>411</v>
       </c>
@@ -4946,7 +4970,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="48"/>
+      <c r="A117" s="49"/>
       <c r="C117" s="23" t="s">
         <v>408</v>
       </c>
@@ -4955,7 +4979,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A118" s="48"/>
+      <c r="A118" s="49"/>
       <c r="C118" s="23" t="s">
         <v>414</v>
       </c>
@@ -4964,7 +4988,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" s="48"/>
+      <c r="A119" s="49"/>
       <c r="C119" s="23" t="s">
         <v>415</v>
       </c>
@@ -4973,37 +4997,37 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="48"/>
+      <c r="A120" s="49"/>
       <c r="E120" s="25" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A121" s="48"/>
+      <c r="A121" s="49"/>
       <c r="E121" s="25" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A122" s="48"/>
+      <c r="A122" s="49"/>
       <c r="E122" s="25" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="48"/>
+      <c r="A123" s="49"/>
       <c r="E123" s="25" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="48"/>
+      <c r="A124" s="49"/>
       <c r="E124" s="25" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A125" s="50"/>
+      <c r="A125" s="51"/>
       <c r="B125" s="31"/>
       <c r="C125" s="34"/>
       <c r="D125" s="33"/>
@@ -5012,7 +5036,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A126" s="47" t="s">
+      <c r="A126" s="48" t="s">
         <v>416</v>
       </c>
       <c r="B126" s="22" t="s">
@@ -5029,7 +5053,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="49"/>
+      <c r="A127" s="50"/>
       <c r="B127" s="22" t="s">
         <v>447</v>
       </c>
@@ -5044,7 +5068,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A128" s="49"/>
+      <c r="A128" s="50"/>
       <c r="B128" s="22" t="s">
         <v>448</v>
       </c>
@@ -5058,8 +5082,8 @@
         <v>424</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A129" s="49"/>
+    <row r="129" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A129" s="50"/>
       <c r="B129" s="22" t="s">
         <v>449</v>
       </c>
@@ -5074,7 +5098,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A130" s="49"/>
+      <c r="A130" s="50"/>
       <c r="C130" s="23" t="s">
         <v>425</v>
       </c>
@@ -5083,7 +5107,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A131" s="49"/>
+      <c r="A131" s="50"/>
       <c r="C131" s="23" t="s">
         <v>427</v>
       </c>
@@ -5092,7 +5116,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="49"/>
+      <c r="A132" s="50"/>
       <c r="C132" s="23" t="s">
         <v>429</v>
       </c>
@@ -5101,7 +5125,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A133" s="49"/>
+      <c r="A133" s="50"/>
       <c r="C133" s="23" t="s">
         <v>435</v>
       </c>
@@ -5110,7 +5134,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A134" s="49"/>
+      <c r="A134" s="50"/>
       <c r="C134" s="23" t="s">
         <v>441</v>
       </c>
@@ -5119,7 +5143,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A135" s="49"/>
+      <c r="A135" s="50"/>
       <c r="C135" s="23" t="s">
         <v>443</v>
       </c>
@@ -5128,7 +5152,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A136" s="49"/>
+      <c r="A136" s="50"/>
       <c r="C136" s="23" t="s">
         <v>445</v>
       </c>
@@ -5137,8 +5161,8 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A137" s="49"/>
-      <c r="C137" s="51" t="s">
+      <c r="A137" s="50"/>
+      <c r="C137" s="42" t="s">
         <v>446</v>
       </c>
       <c r="E137" s="25" t="s">
@@ -5146,20 +5170,20 @@
       </c>
     </row>
     <row r="138" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="49"/>
-      <c r="C138" s="51"/>
+      <c r="A138" s="50"/>
+      <c r="C138" s="42"/>
       <c r="E138" s="25" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="50"/>
+      <c r="A139" s="51"/>
       <c r="B139" s="31"/>
       <c r="C139" s="34"/>
       <c r="E139" s="27"/>
     </row>
     <row r="140" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A140" s="47" t="s">
+      <c r="A140" s="48" t="s">
         <v>513</v>
       </c>
       <c r="B140" s="22" t="s">
@@ -5174,7 +5198,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A141" s="48"/>
+      <c r="A141" s="49"/>
       <c r="B141" s="22" t="s">
         <v>530</v>
       </c>
@@ -5186,7 +5210,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A142" s="48"/>
+      <c r="A142" s="49"/>
       <c r="C142" s="23" t="s">
         <v>519</v>
       </c>
@@ -5195,7 +5219,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" ht="240" x14ac:dyDescent="0.25">
-      <c r="A143" s="48"/>
+      <c r="A143" s="49"/>
       <c r="C143" s="23" t="s">
         <v>532</v>
       </c>
@@ -5204,7 +5228,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A144" s="48"/>
+      <c r="A144" s="49"/>
       <c r="C144" s="23" t="s">
         <v>533</v>
       </c>
@@ -5213,7 +5237,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A145" s="48"/>
+      <c r="A145" s="49"/>
       <c r="C145" s="23" t="s">
         <v>534</v>
       </c>
@@ -5222,7 +5246,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A146" s="48"/>
+      <c r="A146" s="49"/>
       <c r="C146" s="23" t="s">
         <v>535</v>
       </c>
@@ -5231,49 +5255,49 @@
       </c>
     </row>
     <row r="147" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A147" s="48"/>
+      <c r="A147" s="49"/>
       <c r="E147" s="25" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="48"/>
+      <c r="A148" s="49"/>
       <c r="E148" s="25" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A149" s="48"/>
+      <c r="A149" s="49"/>
       <c r="E149" s="25" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A150" s="48"/>
+      <c r="A150" s="49"/>
       <c r="E150" s="25" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A151" s="48"/>
+      <c r="A151" s="49"/>
       <c r="E151" s="25" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A152" s="48"/>
+      <c r="A152" s="49"/>
       <c r="E152" s="25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A153" s="48"/>
+      <c r="A153" s="49"/>
       <c r="E153" s="25" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A154" s="48"/>
+      <c r="A154" s="49"/>
       <c r="E154" s="25" t="s">
         <v>536</v>
       </c>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C2013C-A59C-46BD-8221-0760C1308B0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F95C36-A9C0-435F-9353-EB7051B5A9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2384,7 +2384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2495,18 +2495,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2817,25 +2829,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="41" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="3"/>
     <col min="5" max="5" width="50.5703125" style="4" customWidth="1"/>
     <col min="6" max="6" width="70.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="55.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="39.7109375" style="3" customWidth="1"/>
-    <col min="9" max="12" width="36.5703125" style="38" customWidth="1"/>
+    <col min="9" max="12" width="36.5703125" style="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2859,27 +2871,27 @@
       <c r="H1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="42" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="49">
         <v>2013</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="48" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3">
@@ -2897,23 +2909,23 @@
       <c r="H2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="44" t="s">
         <v>450</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="44" t="s">
         <v>451</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="44" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="44"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="48"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
@@ -2926,15 +2938,15 @@
       <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="44"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
@@ -2947,15 +2959,15 @@
       <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="44"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -2964,15 +2976,15 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="44"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
@@ -2981,72 +2993,72 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="44"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="47" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="44"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="43"/>
+      <c r="F8" s="47"/>
       <c r="G8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="44"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="43"/>
+      <c r="F9" s="47"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="44"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="48"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
@@ -3057,15 +3069,15 @@
         <v>24</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="44"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="48"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
@@ -3074,15 +3086,15 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="44"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
@@ -3095,15 +3107,15 @@
       <c r="G12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="44"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
@@ -3114,13 +3126,13 @@
         <v>27</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
     </row>
     <row r="14" spans="1:12" ht="360" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="41" t="s">
         <v>33</v>
       </c>
       <c r="B14">
@@ -3141,27 +3153,27 @@
       <c r="H14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="I14" s="43" t="s">
         <v>491</v>
       </c>
-      <c r="J14" s="38" t="s">
+      <c r="J14" s="43" t="s">
         <v>493</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="43" t="s">
         <v>492</v>
       </c>
-      <c r="L14" s="38" t="s">
+      <c r="L14" s="43" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="330" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="330" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="50">
         <v>2018</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="48" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="3">
@@ -3170,7 +3182,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="47" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -3179,53 +3191,61 @@
       <c r="H15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="44" t="s">
         <v>499</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="J15" s="45" t="s">
         <v>502</v>
       </c>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="44" t="s">
         <v>500</v>
       </c>
-      <c r="L15" s="38" t="s">
+      <c r="L15" s="44" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="44"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="43"/>
+      <c r="F16" s="47"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="44"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="43"/>
+      <c r="F17" s="47"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="I17" s="44"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
     </row>
     <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="3">
         <v>4</v>
       </c>
@@ -3238,11 +3258,15 @@
       <c r="G18" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="I18" s="44"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
     </row>
     <row r="19" spans="1:12" ht="96" x14ac:dyDescent="0.25">
       <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="44"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="3">
         <v>5</v>
       </c>
@@ -3255,11 +3279,15 @@
       <c r="G19" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="I19" s="44"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
     </row>
     <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="3">
         <v>6</v>
       </c>
@@ -3269,11 +3297,15 @@
       <c r="F20" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="I20" s="44"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
     </row>
     <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="44"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="48"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
@@ -3283,9 +3315,13 @@
       <c r="G21" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="I21" s="44"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
     </row>
     <row r="22" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="41" t="s">
         <v>56</v>
       </c>
       <c r="B22">
@@ -3306,27 +3342,27 @@
       <c r="H22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="38" t="s">
+      <c r="I22" s="43" t="s">
         <v>495</v>
       </c>
-      <c r="J22" s="38" t="s">
+      <c r="J22" s="43" t="s">
         <v>496</v>
       </c>
-      <c r="K22" s="38" t="s">
+      <c r="K22" s="43" t="s">
         <v>497</v>
       </c>
-      <c r="L22" s="38" t="s">
+      <c r="L22" s="43" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="390" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="390" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="50">
         <v>2019</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="48" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -3341,23 +3377,23 @@
       <c r="H23" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="44" t="s">
         <v>503</v>
       </c>
-      <c r="J23" s="38" t="s">
+      <c r="J23" s="44" t="s">
         <v>505</v>
       </c>
-      <c r="K23" s="38" t="s">
+      <c r="K23" s="44" t="s">
         <v>268</v>
       </c>
-      <c r="L23" s="38" t="s">
+      <c r="L23" s="44" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="44"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="48"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
@@ -3367,11 +3403,15 @@
       <c r="G24" s="4" t="s">
         <v>65</v>
       </c>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="44"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="48"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
       </c>
@@ -3381,11 +3421,15 @@
       <c r="G25" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="44"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="48"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
       </c>
@@ -3395,11 +3439,15 @@
       <c r="G26" s="4" t="s">
         <v>124</v>
       </c>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="44"/>
     </row>
     <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="44"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="48"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3409,15 +3457,19 @@
       <c r="G27" s="11" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="345" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
+    </row>
+    <row r="28" spans="1:12" ht="345" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="47">
+      <c r="B28" s="51">
         <v>2021</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="48" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -3429,26 +3481,26 @@
       <c r="G28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="44" t="s">
+      <c r="H28" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="38" t="s">
+      <c r="I28" s="44" t="s">
         <v>550</v>
       </c>
-      <c r="J28" s="38" t="s">
+      <c r="J28" s="44" t="s">
         <v>551</v>
       </c>
-      <c r="K28" s="38" t="s">
+      <c r="K28" s="44" t="s">
         <v>552</v>
       </c>
-      <c r="L28" s="38" t="s">
+      <c r="L28" s="44" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="44"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="48"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
       </c>
@@ -3458,12 +3510,16 @@
       <c r="G29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="44"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
     </row>
     <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="44"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="48"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
       </c>
@@ -3473,10 +3529,14 @@
       <c r="G30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="44"/>
-    </row>
-    <row r="31" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="H30" s="48"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+    </row>
+    <row r="31" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="46" t="s">
         <v>78</v>
       </c>
       <c r="B31">
@@ -3491,20 +3551,21 @@
       <c r="F31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="38" t="s">
+      <c r="I31" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="J31" s="38" t="s">
+      <c r="J31" s="44" t="s">
         <v>538</v>
       </c>
-      <c r="K31" s="38" t="s">
+      <c r="K31" s="44" t="s">
         <v>539</v>
       </c>
-      <c r="L31" s="38" t="s">
+      <c r="L31" s="44" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A32" s="46"/>
       <c r="E32" s="4" t="s">
         <v>82</v>
       </c>
@@ -3517,8 +3578,13 @@
       <c r="H32" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
     </row>
     <row r="33" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A33" s="46"/>
       <c r="E33" s="4" t="s">
         <v>83</v>
       </c>
@@ -3528,8 +3594,13 @@
       <c r="G33" s="4" t="s">
         <v>87</v>
       </c>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
     </row>
     <row r="34" spans="1:12" ht="126" x14ac:dyDescent="0.25">
+      <c r="A34" s="46"/>
       <c r="E34" s="4" t="s">
         <v>70</v>
       </c>
@@ -3539,17 +3610,26 @@
       <c r="G34" s="4" t="s">
         <v>88</v>
       </c>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="46"/>
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
+    </row>
+    <row r="36" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="46" t="s">
         <v>39</v>
       </c>
       <c r="B36">
@@ -3565,28 +3645,34 @@
       <c r="H36" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I36" s="38" t="s">
+      <c r="I36" s="44" t="s">
         <v>541</v>
       </c>
-      <c r="J36" s="38" t="s">
+      <c r="J36" s="44" t="s">
         <v>542</v>
       </c>
-      <c r="K36" s="38" t="s">
+      <c r="K36" s="44" t="s">
         <v>543</v>
       </c>
-      <c r="L36" s="38" t="s">
+      <c r="L36" s="44" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A37" s="46"/>
       <c r="E37" s="5" t="s">
         <v>92</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="44"/>
     </row>
     <row r="38" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="46"/>
       <c r="E38" s="5" t="s">
         <v>93</v>
       </c>
@@ -3596,14 +3682,24 @@
       <c r="G38" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="44"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="46"/>
       <c r="E39" s="5" t="s">
         <v>94</v>
       </c>
       <c r="F39" s="4"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="44"/>
     </row>
     <row r="40" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A40" s="46"/>
       <c r="E40" s="5" t="s">
         <v>95</v>
       </c>
@@ -3613,15 +3709,24 @@
       <c r="G40" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="44"/>
+      <c r="L40" s="44"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="46"/>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="44"/>
+      <c r="L41" s="44"/>
+    </row>
+    <row r="42" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="46" t="s">
         <v>102</v>
       </c>
       <c r="B42">
@@ -3642,20 +3747,21 @@
       <c r="H42" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I42" s="38" t="s">
+      <c r="I42" s="44" t="s">
         <v>546</v>
       </c>
-      <c r="J42" s="38" t="s">
+      <c r="J42" s="44" t="s">
         <v>547</v>
       </c>
-      <c r="K42" s="38" t="s">
+      <c r="K42" s="44" t="s">
         <v>548</v>
       </c>
-      <c r="L42" s="38" t="s">
+      <c r="L42" s="44" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="46"/>
       <c r="E43" s="4" t="s">
         <v>105</v>
       </c>
@@ -3665,8 +3771,13 @@
       <c r="G43" s="4" t="s">
         <v>113</v>
       </c>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="44"/>
+      <c r="L43" s="44"/>
     </row>
     <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="46"/>
       <c r="E44" s="4" t="s">
         <v>106</v>
       </c>
@@ -3676,8 +3787,13 @@
       <c r="G44" s="4" t="s">
         <v>114</v>
       </c>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="44"/>
     </row>
     <row r="45" spans="1:12" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="46"/>
       <c r="E45" s="4" t="s">
         <v>107</v>
       </c>
@@ -3687,9 +3803,13 @@
       <c r="G45" s="11" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="44"/>
+    </row>
+    <row r="46" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="46" t="s">
         <v>280</v>
       </c>
       <c r="B46">
@@ -3710,20 +3830,21 @@
       <c r="H46" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="I46" s="38" t="s">
+      <c r="I46" s="44" t="s">
         <v>506</v>
       </c>
-      <c r="J46" s="38" t="s">
+      <c r="J46" s="44" t="s">
         <v>507</v>
       </c>
-      <c r="K46" s="38" t="s">
+      <c r="K46" s="44" t="s">
         <v>510</v>
       </c>
-      <c r="L46" s="38" t="s">
+      <c r="L46" s="44" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="46"/>
       <c r="E47" s="4" t="s">
         <v>292</v>
       </c>
@@ -3733,8 +3854,13 @@
       <c r="G47" s="4" t="s">
         <v>295</v>
       </c>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="44"/>
     </row>
     <row r="48" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="46"/>
       <c r="E48" s="4" t="s">
         <v>93</v>
       </c>
@@ -3744,8 +3870,13 @@
       <c r="G48" s="4" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="49" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="44"/>
+    </row>
+    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="46"/>
       <c r="E49" s="4" t="s">
         <v>284</v>
       </c>
@@ -3755,8 +3886,13 @@
       <c r="G49" s="4" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="50" spans="3:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+    </row>
+    <row r="50" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="46"/>
       <c r="E50" s="4" t="s">
         <v>285</v>
       </c>
@@ -3766,8 +3902,13 @@
       <c r="G50" s="4" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="51" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+    </row>
+    <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="46"/>
       <c r="C51" s="36"/>
       <c r="E51" s="4" t="s">
         <v>330</v>
@@ -3778,8 +3919,13 @@
       <c r="G51" s="4" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="52" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+    </row>
+    <row r="52" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="46"/>
       <c r="E52" s="4" t="s">
         <v>70</v>
       </c>
@@ -3789,9 +3935,13 @@
       <c r="G52" s="4" t="s">
         <v>335</v>
       </c>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="44"/>
+      <c r="L52" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="51">
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="C28:C30"/>
@@ -3807,6 +3957,42 @@
     <mergeCell ref="C15:C21"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="I46:I52"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="I36:I41"/>
+    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="I15:I21"/>
+    <mergeCell ref="I2:I13"/>
+    <mergeCell ref="J46:J52"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="J36:J41"/>
+    <mergeCell ref="J31:J35"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="J15:J21"/>
+    <mergeCell ref="J2:J13"/>
+    <mergeCell ref="K23:K27"/>
+    <mergeCell ref="K15:K21"/>
+    <mergeCell ref="K2:K13"/>
+    <mergeCell ref="L46:L52"/>
+    <mergeCell ref="L42:L45"/>
+    <mergeCell ref="L36:L41"/>
+    <mergeCell ref="L31:L35"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="L23:L27"/>
+    <mergeCell ref="L15:L21"/>
+    <mergeCell ref="L2:L13"/>
+    <mergeCell ref="K46:K52"/>
+    <mergeCell ref="K42:K45"/>
+    <mergeCell ref="K36:K41"/>
+    <mergeCell ref="K31:K35"/>
+    <mergeCell ref="K28:K30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3818,9 +4004,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E623474-3705-4594-B9DF-AE0ADD157849}">
   <dimension ref="A1:E154"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E146" sqref="E146"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3849,7 +4035,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="53" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -3866,7 +4052,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="22" t="s">
         <v>142</v>
       </c>
@@ -3881,7 +4067,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="22" t="s">
         <v>143</v>
       </c>
@@ -3896,7 +4082,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="22" t="s">
         <v>146</v>
       </c>
@@ -3911,7 +4097,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="22" t="s">
         <v>180</v>
       </c>
@@ -3923,7 +4109,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="22" t="s">
         <v>187</v>
       </c>
@@ -3935,7 +4121,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="22" t="s">
         <v>188</v>
       </c>
@@ -3947,7 +4133,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
+      <c r="A9" s="53"/>
       <c r="C9" s="23" t="s">
         <v>147</v>
       </c>
@@ -3956,7 +4142,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
+      <c r="A10" s="53"/>
       <c r="C10" s="23" t="s">
         <v>147</v>
       </c>
@@ -3965,7 +4151,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="53"/>
       <c r="C11" s="23" t="s">
         <v>148</v>
       </c>
@@ -3974,7 +4160,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="53"/>
       <c r="C12" s="23" t="s">
         <v>158</v>
       </c>
@@ -3983,7 +4169,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
+      <c r="A13" s="53"/>
       <c r="C13" s="23" t="s">
         <v>159</v>
       </c>
@@ -3992,7 +4178,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
+      <c r="A14" s="53"/>
       <c r="C14" s="23" t="s">
         <v>160</v>
       </c>
@@ -4001,7 +4187,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+      <c r="A15" s="53"/>
       <c r="C15" s="23" t="s">
         <v>163</v>
       </c>
@@ -4010,7 +4196,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+      <c r="A16" s="53"/>
       <c r="C16" s="23" t="s">
         <v>174</v>
       </c>
@@ -4019,7 +4205,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
+      <c r="A17" s="53"/>
       <c r="C17" s="23" t="s">
         <v>179</v>
       </c>
@@ -4028,7 +4214,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
+      <c r="A18" s="53"/>
       <c r="C18" s="23" t="s">
         <v>186</v>
       </c>
@@ -4037,92 +4223,92 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
+      <c r="A19" s="53"/>
       <c r="E19" s="25" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+      <c r="A20" s="53"/>
       <c r="E20" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
+      <c r="A21" s="53"/>
       <c r="E21" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="A22" s="53"/>
       <c r="E22" s="25" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
+      <c r="A23" s="53"/>
       <c r="E23" s="25" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
+      <c r="A24" s="53"/>
       <c r="E24" s="25" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
+      <c r="A25" s="53"/>
       <c r="E25" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
+      <c r="A26" s="53"/>
       <c r="E26" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
+      <c r="A27" s="53"/>
       <c r="E27" s="25" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
+      <c r="A28" s="53"/>
       <c r="E28" s="25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="53"/>
       <c r="E29" s="25" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
+      <c r="A30" s="53"/>
       <c r="E30" s="25" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
+      <c r="A31" s="53"/>
       <c r="E31" s="25" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="31"/>
       <c r="E32" s="27" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="52" t="s">
         <v>189</v>
       </c>
       <c r="B33" s="30" t="s">
@@ -4139,7 +4325,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="22" t="s">
         <v>210</v>
       </c>
@@ -4154,7 +4340,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
+      <c r="A35" s="53"/>
       <c r="C35" s="23" t="s">
         <v>195</v>
       </c>
@@ -4166,7 +4352,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
+      <c r="A36" s="53"/>
       <c r="C36" s="23" t="s">
         <v>196</v>
       </c>
@@ -4175,7 +4361,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
+      <c r="A37" s="53"/>
       <c r="C37" s="23" t="s">
         <v>197</v>
       </c>
@@ -4184,7 +4370,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
+      <c r="A38" s="53"/>
       <c r="C38" s="23" t="s">
         <v>203</v>
       </c>
@@ -4193,7 +4379,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
+      <c r="A39" s="53"/>
       <c r="C39" s="23" t="s">
         <v>204</v>
       </c>
@@ -4202,26 +4388,26 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
+      <c r="A40" s="53"/>
       <c r="E40" s="25" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
+      <c r="A41" s="53"/>
       <c r="E41" s="25" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
+      <c r="A42" s="55"/>
       <c r="D42" s="33"/>
       <c r="E42" s="27" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="52" t="s">
         <v>211</v>
       </c>
       <c r="B43" s="32"/>
@@ -4236,7 +4422,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
+      <c r="A44" s="54"/>
       <c r="C44" s="23" t="s">
         <v>214</v>
       </c>
@@ -4245,14 +4431,14 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="31"/>
       <c r="C45" s="34" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="48" t="s">
+      <c r="A46" s="52" t="s">
         <v>218</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -4269,7 +4455,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A47" s="49"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="22" t="s">
         <v>221</v>
       </c>
@@ -4284,7 +4470,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="49"/>
+      <c r="A48" s="53"/>
       <c r="B48" s="22" t="s">
         <v>222</v>
       </c>
@@ -4296,7 +4482,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
+      <c r="A49" s="53"/>
       <c r="B49" s="22" t="s">
         <v>224</v>
       </c>
@@ -4308,7 +4494,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="22" t="s">
         <v>248</v>
       </c>
@@ -4320,7 +4506,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
+      <c r="A51" s="53"/>
       <c r="B51" s="22" t="s">
         <v>250</v>
       </c>
@@ -4332,7 +4518,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
+      <c r="A52" s="53"/>
       <c r="B52" s="22" t="s">
         <v>252</v>
       </c>
@@ -4344,7 +4530,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="49"/>
+      <c r="A53" s="53"/>
       <c r="B53" s="22" t="s">
         <v>253</v>
       </c>
@@ -4356,7 +4542,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="49"/>
+      <c r="A54" s="53"/>
       <c r="B54" s="22" t="s">
         <v>258</v>
       </c>
@@ -4368,7 +4554,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
+      <c r="A55" s="53"/>
       <c r="B55" s="22" t="s">
         <v>259</v>
       </c>
@@ -4377,7 +4563,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
+      <c r="A56" s="53"/>
       <c r="B56" s="22" t="s">
         <v>261</v>
       </c>
@@ -4386,7 +4572,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
+      <c r="A57" s="53"/>
       <c r="B57" s="22" t="s">
         <v>262</v>
       </c>
@@ -4395,7 +4581,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
+      <c r="A58" s="53"/>
       <c r="B58" s="22" t="s">
         <v>263</v>
       </c>
@@ -4404,7 +4590,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
+      <c r="A59" s="53"/>
       <c r="B59" s="22" t="s">
         <v>265</v>
       </c>
@@ -4413,56 +4599,56 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="49"/>
+      <c r="A60" s="53"/>
       <c r="E60" s="25" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
+      <c r="A61" s="53"/>
       <c r="E61" s="25" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
+      <c r="A62" s="53"/>
       <c r="E62" s="25" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
+      <c r="A63" s="53"/>
       <c r="E63" s="25" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
+      <c r="A64" s="53"/>
       <c r="E64" s="25" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
+      <c r="A65" s="53"/>
       <c r="E65" s="25" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="49"/>
+      <c r="A66" s="53"/>
       <c r="E66" s="25" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="49"/>
+      <c r="A67" s="53"/>
       <c r="B67" s="31"/>
       <c r="E67" s="25" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A68" s="48" t="s">
+      <c r="A68" s="52" t="s">
         <v>267</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -4479,7 +4665,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="255" x14ac:dyDescent="0.25">
-      <c r="A69" s="49"/>
+      <c r="A69" s="53"/>
       <c r="B69" s="22" t="s">
         <v>269</v>
       </c>
@@ -4491,7 +4677,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A70" s="49"/>
+      <c r="A70" s="53"/>
       <c r="B70" s="22" t="s">
         <v>277</v>
       </c>
@@ -4503,13 +4689,13 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="360" x14ac:dyDescent="0.25">
-      <c r="A71" s="49"/>
+      <c r="A71" s="53"/>
       <c r="C71" s="23" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="51"/>
+      <c r="A72" s="55"/>
       <c r="B72" s="31"/>
       <c r="C72" s="34" t="s">
         <v>278</v>
@@ -4517,7 +4703,7 @@
       <c r="D72" s="33"/>
     </row>
     <row r="73" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A73" s="48" t="s">
+      <c r="A73" s="52" t="s">
         <v>279</v>
       </c>
       <c r="B73" s="22" t="s">
@@ -4534,7 +4720,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="50"/>
+      <c r="A74" s="54"/>
       <c r="B74" s="22" t="s">
         <v>282</v>
       </c>
@@ -4549,7 +4735,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="50"/>
+      <c r="A75" s="54"/>
       <c r="B75" s="22" t="s">
         <v>325</v>
       </c>
@@ -4564,7 +4750,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="50"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="22" t="s">
         <v>326</v>
       </c>
@@ -4579,7 +4765,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="50"/>
+      <c r="A77" s="54"/>
       <c r="B77" s="22" t="s">
         <v>327</v>
       </c>
@@ -4594,7 +4780,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="50"/>
+      <c r="A78" s="54"/>
       <c r="C78" s="23" t="s">
         <v>313</v>
       </c>
@@ -4606,7 +4792,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A79" s="50"/>
+      <c r="A79" s="54"/>
       <c r="C79" s="23" t="s">
         <v>316</v>
       </c>
@@ -4618,7 +4804,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A80" s="50"/>
+      <c r="A80" s="54"/>
       <c r="C80" s="23" t="s">
         <v>317</v>
       </c>
@@ -4630,7 +4816,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A81" s="50"/>
+      <c r="A81" s="54"/>
       <c r="C81" s="23" t="s">
         <v>319</v>
       </c>
@@ -4642,7 +4828,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="50"/>
+      <c r="A82" s="54"/>
       <c r="C82" s="23" t="s">
         <v>320</v>
       </c>
@@ -4654,7 +4840,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="50"/>
+      <c r="A83" s="54"/>
       <c r="C83" s="34" t="s">
         <v>328</v>
       </c>
@@ -4662,7 +4848,7 @@
       <c r="E83" s="27"/>
     </row>
     <row r="84" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="48" t="s">
+      <c r="A84" s="52" t="s">
         <v>337</v>
       </c>
       <c r="B84" s="32" t="s">
@@ -4679,7 +4865,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="49"/>
+      <c r="A85" s="53"/>
       <c r="B85" s="22" t="s">
         <v>341</v>
       </c>
@@ -4694,7 +4880,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="49"/>
+      <c r="A86" s="53"/>
       <c r="B86" s="22" t="s">
         <v>368</v>
       </c>
@@ -4709,7 +4895,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="49"/>
+      <c r="A87" s="53"/>
       <c r="B87" s="22" t="s">
         <v>370</v>
       </c>
@@ -4721,7 +4907,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="49"/>
+      <c r="A88" s="53"/>
       <c r="B88" s="22" t="s">
         <v>381</v>
       </c>
@@ -4733,7 +4919,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="49"/>
+      <c r="A89" s="53"/>
       <c r="C89" s="23" t="s">
         <v>369</v>
       </c>
@@ -4742,7 +4928,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A90" s="49"/>
+      <c r="A90" s="53"/>
       <c r="C90" s="23" t="s">
         <v>371</v>
       </c>
@@ -4751,7 +4937,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A91" s="49"/>
+      <c r="A91" s="53"/>
       <c r="C91" s="23" t="s">
         <v>372</v>
       </c>
@@ -4760,7 +4946,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="49"/>
+      <c r="A92" s="53"/>
       <c r="C92" s="23" t="s">
         <v>373</v>
       </c>
@@ -4769,7 +4955,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" s="49"/>
+      <c r="A93" s="53"/>
       <c r="C93" s="23" t="s">
         <v>375</v>
       </c>
@@ -4778,7 +4964,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94" s="49"/>
+      <c r="A94" s="53"/>
       <c r="C94" s="23" t="s">
         <v>377</v>
       </c>
@@ -4787,7 +4973,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A95" s="49"/>
+      <c r="A95" s="53"/>
       <c r="C95" s="23" t="s">
         <v>382</v>
       </c>
@@ -4796,98 +4982,98 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="49"/>
+      <c r="A96" s="53"/>
       <c r="E96" s="25" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="49"/>
+      <c r="A97" s="53"/>
       <c r="E97" s="25" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="49"/>
+      <c r="A98" s="53"/>
       <c r="E98" s="25" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="49"/>
+      <c r="A99" s="53"/>
       <c r="E99" s="25" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="49"/>
+      <c r="A100" s="53"/>
       <c r="E100" s="25" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="49"/>
+      <c r="A101" s="53"/>
       <c r="E101" s="25" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="49"/>
+      <c r="A102" s="53"/>
       <c r="E102" s="25" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="49"/>
+      <c r="A103" s="53"/>
       <c r="E103" s="25" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="49"/>
+      <c r="A104" s="53"/>
       <c r="E104" s="25" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="49"/>
+      <c r="A105" s="53"/>
       <c r="E105" s="25" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="49"/>
+      <c r="A106" s="53"/>
       <c r="E106" s="25" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="49"/>
+      <c r="A107" s="53"/>
       <c r="E107" s="25" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="49"/>
+      <c r="A108" s="53"/>
       <c r="E108" s="25" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="49"/>
+      <c r="A109" s="53"/>
       <c r="E109" s="25" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="51"/>
+      <c r="A110" s="55"/>
       <c r="D110" s="33"/>
       <c r="E110" s="25" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="48" t="s">
+      <c r="A111" s="52" t="s">
         <v>383</v>
       </c>
       <c r="B111" s="32" t="s">
@@ -4904,7 +5090,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="49"/>
+      <c r="A112" s="53"/>
       <c r="B112" s="22" t="s">
         <v>389</v>
       </c>
@@ -4919,7 +5105,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A113" s="49"/>
+      <c r="A113" s="53"/>
       <c r="B113" s="22" t="s">
         <v>391</v>
       </c>
@@ -4934,7 +5120,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="49"/>
+      <c r="A114" s="53"/>
       <c r="B114" s="22" t="s">
         <v>407</v>
       </c>
@@ -4946,7 +5132,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A115" s="49"/>
+      <c r="A115" s="53"/>
       <c r="B115" s="22" t="s">
         <v>410</v>
       </c>
@@ -4958,7 +5144,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="49"/>
+      <c r="A116" s="53"/>
       <c r="B116" s="22" t="s">
         <v>411</v>
       </c>
@@ -4970,7 +5156,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="49"/>
+      <c r="A117" s="53"/>
       <c r="C117" s="23" t="s">
         <v>408</v>
       </c>
@@ -4979,7 +5165,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A118" s="49"/>
+      <c r="A118" s="53"/>
       <c r="C118" s="23" t="s">
         <v>414</v>
       </c>
@@ -4988,7 +5174,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" s="49"/>
+      <c r="A119" s="53"/>
       <c r="C119" s="23" t="s">
         <v>415</v>
       </c>
@@ -4997,37 +5183,37 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="49"/>
+      <c r="A120" s="53"/>
       <c r="E120" s="25" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A121" s="49"/>
+      <c r="A121" s="53"/>
       <c r="E121" s="25" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A122" s="49"/>
+      <c r="A122" s="53"/>
       <c r="E122" s="25" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="49"/>
+      <c r="A123" s="53"/>
       <c r="E123" s="25" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="49"/>
+      <c r="A124" s="53"/>
       <c r="E124" s="25" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A125" s="51"/>
+      <c r="A125" s="55"/>
       <c r="B125" s="31"/>
       <c r="C125" s="34"/>
       <c r="D125" s="33"/>
@@ -5036,7 +5222,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A126" s="48" t="s">
+      <c r="A126" s="52" t="s">
         <v>416</v>
       </c>
       <c r="B126" s="22" t="s">
@@ -5053,7 +5239,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="50"/>
+      <c r="A127" s="54"/>
       <c r="B127" s="22" t="s">
         <v>447</v>
       </c>
@@ -5068,7 +5254,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A128" s="50"/>
+      <c r="A128" s="54"/>
       <c r="B128" s="22" t="s">
         <v>448</v>
       </c>
@@ -5083,7 +5269,7 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A129" s="50"/>
+      <c r="A129" s="54"/>
       <c r="B129" s="22" t="s">
         <v>449</v>
       </c>
@@ -5098,7 +5284,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A130" s="50"/>
+      <c r="A130" s="54"/>
       <c r="C130" s="23" t="s">
         <v>425</v>
       </c>
@@ -5107,7 +5293,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A131" s="50"/>
+      <c r="A131" s="54"/>
       <c r="C131" s="23" t="s">
         <v>427</v>
       </c>
@@ -5116,7 +5302,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="50"/>
+      <c r="A132" s="54"/>
       <c r="C132" s="23" t="s">
         <v>429</v>
       </c>
@@ -5125,7 +5311,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A133" s="50"/>
+      <c r="A133" s="54"/>
       <c r="C133" s="23" t="s">
         <v>435</v>
       </c>
@@ -5134,7 +5320,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A134" s="50"/>
+      <c r="A134" s="54"/>
       <c r="C134" s="23" t="s">
         <v>441</v>
       </c>
@@ -5143,7 +5329,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A135" s="50"/>
+      <c r="A135" s="54"/>
       <c r="C135" s="23" t="s">
         <v>443</v>
       </c>
@@ -5152,7 +5338,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A136" s="50"/>
+      <c r="A136" s="54"/>
       <c r="C136" s="23" t="s">
         <v>445</v>
       </c>
@@ -5161,8 +5347,8 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A137" s="50"/>
-      <c r="C137" s="42" t="s">
+      <c r="A137" s="54"/>
+      <c r="C137" s="39" t="s">
         <v>446</v>
       </c>
       <c r="E137" s="25" t="s">
@@ -5170,20 +5356,20 @@
       </c>
     </row>
     <row r="138" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="50"/>
-      <c r="C138" s="42"/>
+      <c r="A138" s="54"/>
+      <c r="C138" s="39"/>
       <c r="E138" s="25" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="51"/>
+      <c r="A139" s="55"/>
       <c r="B139" s="31"/>
       <c r="C139" s="34"/>
       <c r="E139" s="27"/>
     </row>
     <row r="140" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A140" s="48" t="s">
+      <c r="A140" s="52" t="s">
         <v>513</v>
       </c>
       <c r="B140" s="22" t="s">
@@ -5198,7 +5384,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A141" s="49"/>
+      <c r="A141" s="53"/>
       <c r="B141" s="22" t="s">
         <v>530</v>
       </c>
@@ -5210,7 +5396,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A142" s="49"/>
+      <c r="A142" s="53"/>
       <c r="C142" s="23" t="s">
         <v>519</v>
       </c>
@@ -5219,7 +5405,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" ht="240" x14ac:dyDescent="0.25">
-      <c r="A143" s="49"/>
+      <c r="A143" s="53"/>
       <c r="C143" s="23" t="s">
         <v>532</v>
       </c>
@@ -5228,7 +5414,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A144" s="49"/>
+      <c r="A144" s="53"/>
       <c r="C144" s="23" t="s">
         <v>533</v>
       </c>
@@ -5237,7 +5423,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A145" s="49"/>
+      <c r="A145" s="53"/>
       <c r="C145" s="23" t="s">
         <v>534</v>
       </c>
@@ -5246,7 +5432,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A146" s="49"/>
+      <c r="A146" s="53"/>
       <c r="C146" s="23" t="s">
         <v>535</v>
       </c>
@@ -5255,49 +5441,49 @@
       </c>
     </row>
     <row r="147" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A147" s="49"/>
+      <c r="A147" s="53"/>
       <c r="E147" s="25" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="49"/>
+      <c r="A148" s="53"/>
       <c r="E148" s="25" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A149" s="49"/>
+      <c r="A149" s="53"/>
       <c r="E149" s="25" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A150" s="49"/>
+      <c r="A150" s="53"/>
       <c r="E150" s="25" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A151" s="49"/>
+      <c r="A151" s="53"/>
       <c r="E151" s="25" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A152" s="49"/>
+      <c r="A152" s="53"/>
       <c r="E152" s="25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A153" s="49"/>
+      <c r="A153" s="53"/>
       <c r="E153" s="25" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A154" s="49"/>
+      <c r="A154" s="53"/>
       <c r="E154" s="25" t="s">
         <v>536</v>
       </c>
@@ -5357,7 +5543,7 @@
       <c r="D2" t="s">
         <v>458</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="38" t="s">
         <v>508</v>
       </c>
     </row>
@@ -5374,7 +5560,7 @@
       <c r="D3" t="s">
         <v>461</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="38" t="s">
         <v>509</v>
       </c>
     </row>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F95C36-A9C0-435F-9353-EB7051B5A9EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E895956A-5C18-4A72-8288-B58ACB0BFC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descritivos" sheetId="1" r:id="rId1"/>
@@ -2512,28 +2512,28 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2829,9 +2829,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K42" sqref="K42:K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2885,13 +2885,13 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="49">
         <v>2013</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="46" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3">
@@ -2909,23 +2909,23 @@
       <c r="H2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="50" t="s">
         <v>450</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="50" t="s">
         <v>489</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="50" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="49"/>
-      <c r="C3" s="48"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
@@ -2938,15 +2938,15 @@
       <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="49"/>
-      <c r="C4" s="48"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
@@ -2959,15 +2959,15 @@
       <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="49"/>
-      <c r="C5" s="48"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -2976,15 +2976,15 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="4"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="49"/>
-      <c r="C6" s="48"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
@@ -2993,72 +2993,72 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="4"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="49"/>
-      <c r="C7" s="48"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="48" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="49"/>
-      <c r="C8" s="48"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="47"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="4"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="49"/>
-      <c r="C9" s="48"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="47"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="49"/>
-      <c r="C10" s="48"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
@@ -3069,15 +3069,15 @@
         <v>24</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="49"/>
-      <c r="C11" s="48"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
@@ -3086,15 +3086,15 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="4"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="49"/>
-      <c r="C12" s="48"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
@@ -3107,15 +3107,15 @@
       <c r="G12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="49"/>
-      <c r="C13" s="48"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
@@ -3126,10 +3126,10 @@
         <v>27</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
     </row>
     <row r="14" spans="1:12" ht="360" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
@@ -3167,13 +3167,13 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="330" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="50">
+      <c r="B15" s="47">
         <v>2018</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="46" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="3">
@@ -3182,7 +3182,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="48" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -3191,61 +3191,61 @@
       <c r="H15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="50" t="s">
         <v>499</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="51" t="s">
         <v>502</v>
       </c>
-      <c r="K15" s="44" t="s">
+      <c r="K15" s="50" t="s">
         <v>500</v>
       </c>
-      <c r="L15" s="44" t="s">
+      <c r="L15" s="50" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="48"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="47"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="48"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="47"/>
+      <c r="F17" s="48"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
     </row>
     <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="48"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="3">
         <v>4</v>
       </c>
@@ -3258,15 +3258,15 @@
       <c r="G18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="44"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
     </row>
     <row r="19" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="48"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="3">
         <v>5</v>
       </c>
@@ -3279,15 +3279,15 @@
       <c r="G19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
     </row>
     <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="48"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="3">
         <v>6</v>
       </c>
@@ -3297,15 +3297,15 @@
       <c r="F20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
     </row>
     <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="48"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="46"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
@@ -3315,12 +3315,12 @@
       <c r="G21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="44"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-    </row>
-    <row r="22" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+    </row>
+    <row r="22" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
         <v>56</v>
       </c>
@@ -3356,13 +3356,13 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="390" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="50">
+      <c r="B23" s="47">
         <v>2019</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="46" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -3377,23 +3377,23 @@
       <c r="H23" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I23" s="44" t="s">
+      <c r="I23" s="50" t="s">
         <v>503</v>
       </c>
-      <c r="J23" s="44" t="s">
+      <c r="J23" s="50" t="s">
         <v>505</v>
       </c>
-      <c r="K23" s="44" t="s">
+      <c r="K23" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="L23" s="44" t="s">
+      <c r="L23" s="50" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="48"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="46"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
@@ -3403,15 +3403,15 @@
       <c r="G24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="48"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="46"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
       </c>
@@ -3421,15 +3421,15 @@
       <c r="G25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="48"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="46"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
       </c>
@@ -3439,15 +3439,15 @@
       <c r="G26" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
     </row>
     <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="48"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="46"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3457,19 +3457,19 @@
       <c r="G27" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
     </row>
     <row r="28" spans="1:12" ht="345" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="51">
+      <c r="B28" s="45">
         <v>2021</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="46" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -3481,26 +3481,26 @@
       <c r="G28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="48" t="s">
+      <c r="H28" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="44" t="s">
+      <c r="I28" s="50" t="s">
         <v>550</v>
       </c>
-      <c r="J28" s="44" t="s">
+      <c r="J28" s="50" t="s">
         <v>551</v>
       </c>
-      <c r="K28" s="44" t="s">
+      <c r="K28" s="50" t="s">
         <v>552</v>
       </c>
-      <c r="L28" s="44" t="s">
+      <c r="L28" s="50" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="46"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="48"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
       </c>
@@ -3510,16 +3510,16 @@
       <c r="G29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="48"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
-      <c r="L29" s="44"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
     </row>
     <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="46"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="48"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
       </c>
@@ -3529,14 +3529,14 @@
       <c r="G30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="48"/>
-      <c r="I30" s="44"/>
-      <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
-      <c r="L30" s="44"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
     </row>
     <row r="31" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="44" t="s">
         <v>78</v>
       </c>
       <c r="B31">
@@ -3551,21 +3551,21 @@
       <c r="F31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="44" t="s">
+      <c r="I31" s="50" t="s">
         <v>537</v>
       </c>
-      <c r="J31" s="44" t="s">
+      <c r="J31" s="50" t="s">
         <v>538</v>
       </c>
-      <c r="K31" s="44" t="s">
+      <c r="K31" s="50" t="s">
         <v>539</v>
       </c>
-      <c r="L31" s="44" t="s">
+      <c r="L31" s="50" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
+      <c r="A32" s="44"/>
       <c r="E32" s="4" t="s">
         <v>82</v>
       </c>
@@ -3578,13 +3578,13 @@
       <c r="H32" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
     </row>
     <row r="33" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
+      <c r="A33" s="44"/>
       <c r="E33" s="4" t="s">
         <v>83</v>
       </c>
@@ -3594,13 +3594,13 @@
       <c r="G33" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
     </row>
     <row r="34" spans="1:12" ht="126" x14ac:dyDescent="0.25">
-      <c r="A34" s="46"/>
+      <c r="A34" s="44"/>
       <c r="E34" s="4" t="s">
         <v>70</v>
       </c>
@@ -3610,26 +3610,26 @@
       <c r="G34" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44"/>
-      <c r="L34" s="44"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="46"/>
+      <c r="A35" s="44"/>
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44"/>
-      <c r="L35" s="44"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
     </row>
     <row r="36" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="44" t="s">
         <v>39</v>
       </c>
       <c r="B36">
@@ -3645,34 +3645,34 @@
       <c r="H36" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I36" s="44" t="s">
+      <c r="I36" s="50" t="s">
         <v>541</v>
       </c>
-      <c r="J36" s="44" t="s">
+      <c r="J36" s="50" t="s">
         <v>542</v>
       </c>
-      <c r="K36" s="44" t="s">
+      <c r="K36" s="50" t="s">
         <v>543</v>
       </c>
-      <c r="L36" s="44" t="s">
+      <c r="L36" s="50" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
+      <c r="A37" s="44"/>
       <c r="E37" s="5" t="s">
         <v>92</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="44"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
     </row>
     <row r="38" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="46"/>
+      <c r="A38" s="44"/>
       <c r="E38" s="5" t="s">
         <v>93</v>
       </c>
@@ -3682,24 +3682,24 @@
       <c r="G38" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I38" s="44"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="44"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="46"/>
+      <c r="A39" s="44"/>
       <c r="E39" s="5" t="s">
         <v>94</v>
       </c>
       <c r="F39" s="4"/>
-      <c r="I39" s="44"/>
-      <c r="J39" s="44"/>
-      <c r="K39" s="44"/>
-      <c r="L39" s="44"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
     </row>
     <row r="40" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A40" s="46"/>
+      <c r="A40" s="44"/>
       <c r="E40" s="5" t="s">
         <v>95</v>
       </c>
@@ -3709,24 +3709,24 @@
       <c r="G40" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I40" s="44"/>
-      <c r="J40" s="44"/>
-      <c r="K40" s="44"/>
-      <c r="L40" s="44"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="46"/>
+      <c r="A41" s="44"/>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="4"/>
-      <c r="I41" s="44"/>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
     </row>
     <row r="42" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="44" t="s">
         <v>102</v>
       </c>
       <c r="B42">
@@ -3747,21 +3747,21 @@
       <c r="H42" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I42" s="44" t="s">
+      <c r="I42" s="50" t="s">
         <v>546</v>
       </c>
-      <c r="J42" s="44" t="s">
+      <c r="J42" s="50" t="s">
         <v>547</v>
       </c>
-      <c r="K42" s="44" t="s">
+      <c r="K42" s="50" t="s">
         <v>548</v>
       </c>
-      <c r="L42" s="44" t="s">
+      <c r="L42" s="50" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="46"/>
+      <c r="A43" s="44"/>
       <c r="E43" s="4" t="s">
         <v>105</v>
       </c>
@@ -3771,13 +3771,13 @@
       <c r="G43" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
     </row>
     <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="46"/>
+      <c r="A44" s="44"/>
       <c r="E44" s="4" t="s">
         <v>106</v>
       </c>
@@ -3787,13 +3787,13 @@
       <c r="G44" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
     </row>
     <row r="45" spans="1:12" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="46"/>
+      <c r="A45" s="44"/>
       <c r="E45" s="4" t="s">
         <v>107</v>
       </c>
@@ -3803,13 +3803,13 @@
       <c r="G45" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
     </row>
     <row r="46" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="44" t="s">
         <v>280</v>
       </c>
       <c r="B46">
@@ -3830,21 +3830,21 @@
       <c r="H46" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="I46" s="44" t="s">
+      <c r="I46" s="50" t="s">
         <v>506</v>
       </c>
-      <c r="J46" s="44" t="s">
+      <c r="J46" s="50" t="s">
         <v>507</v>
       </c>
-      <c r="K46" s="44" t="s">
+      <c r="K46" s="50" t="s">
         <v>510</v>
       </c>
-      <c r="L46" s="44" t="s">
+      <c r="L46" s="50" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="46"/>
+      <c r="A47" s="44"/>
       <c r="E47" s="4" t="s">
         <v>292</v>
       </c>
@@ -3854,13 +3854,13 @@
       <c r="G47" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
     </row>
     <row r="48" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="46"/>
+      <c r="A48" s="44"/>
       <c r="E48" s="4" t="s">
         <v>93</v>
       </c>
@@ -3870,13 +3870,13 @@
       <c r="G48" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
     </row>
     <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="46"/>
+      <c r="A49" s="44"/>
       <c r="E49" s="4" t="s">
         <v>284</v>
       </c>
@@ -3886,13 +3886,13 @@
       <c r="G49" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="I49" s="44"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="44"/>
-      <c r="L49" s="44"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
     </row>
     <row r="50" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="46"/>
+      <c r="A50" s="44"/>
       <c r="E50" s="4" t="s">
         <v>285</v>
       </c>
@@ -3902,13 +3902,13 @@
       <c r="G50" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="I50" s="44"/>
-      <c r="J50" s="44"/>
-      <c r="K50" s="44"/>
-      <c r="L50" s="44"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="50"/>
     </row>
     <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="46"/>
+      <c r="A51" s="44"/>
       <c r="C51" s="36"/>
       <c r="E51" s="4" t="s">
         <v>330</v>
@@ -3919,13 +3919,13 @@
       <c r="G51" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I51" s="44"/>
-      <c r="J51" s="44"/>
-      <c r="K51" s="44"/>
-      <c r="L51" s="44"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
     </row>
     <row r="52" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="46"/>
+      <c r="A52" s="44"/>
       <c r="E52" s="4" t="s">
         <v>70</v>
       </c>
@@ -3935,48 +3935,13 @@
       <c r="G52" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="I52" s="44"/>
-      <c r="J52" s="44"/>
-      <c r="K52" s="44"/>
-      <c r="L52" s="44"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="I46:I52"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="I36:I41"/>
-    <mergeCell ref="I31:I35"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="I15:I21"/>
-    <mergeCell ref="I2:I13"/>
-    <mergeCell ref="J46:J52"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="J36:J41"/>
-    <mergeCell ref="J31:J35"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="J15:J21"/>
-    <mergeCell ref="J2:J13"/>
     <mergeCell ref="K23:K27"/>
     <mergeCell ref="K15:K21"/>
     <mergeCell ref="K2:K13"/>
@@ -3993,6 +3958,41 @@
     <mergeCell ref="K36:K41"/>
     <mergeCell ref="K31:K35"/>
     <mergeCell ref="K28:K30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="I15:I21"/>
+    <mergeCell ref="I2:I13"/>
+    <mergeCell ref="J46:J52"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="J36:J41"/>
+    <mergeCell ref="J31:J35"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="J15:J21"/>
+    <mergeCell ref="J2:J13"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="I46:I52"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="I36:I41"/>
+    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E895956A-5C18-4A72-8288-B58ACB0BFC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDEE51D-B566-4AF1-A7FE-93C99B01F9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2098,133 +2098,133 @@
     <t>Cada construto possui uma representação própria. Habilidades: cada item é classificado em uma escala de 3 pontos que varia de 0 (não cumprimento dos critérios) a 2 (conclusão correta da tarefa), dando uma pontuação que varia de 0 a 48 pontos, onde pontuações mais altas indicam melhor cumprimento das tarefas. Conhecimento: as pontuações neste constructo variam de 0 a 13, onde as pontuações mais altas indicam melhor conhecimento. Autoeficácia: cada item é classificado em uma escala de quatro pontos (de difícil a fácil), dando uma pontuação que varia de 4 a 16, onde as pontuações mais altas indicam maior autoeficácia. Crenças de expectativa: cada item é classificado em uma escala de cinco pontos (discordo totalmente a concordo totalmente), dando uma pontuação que varia de 6 a 30, onde uma pontuação mais alta indica crenças mais fortes. Comportamento de cuidado com as costas: as categorias de resposta variaram de nunca (1) a sempre (5), dando uma pontuação de 8 a 40, onde pontuações mais altas indicam melhor comportamento preventivo. Os valores dos construtos podem ser somados gerando uma representação para o sistema de medição que varia de 16 a 132. Os critérios para interpretar as pontuações são: alta (≥104); intermediária (entre o primeiro e o terceiro quartel, ≥45 e ≤103); e baixa (≤44). Foi calculado o MDC.</t>
   </si>
   <si>
+    <t>Alguns autores e organizações defendem a promoção da linha de pesquisa em educação para a saúde da coluna e, principalmente, sua implementação em programas de educação escolar</t>
+  </si>
+  <si>
+    <t>Miñana-Signes et al, 2021</t>
+  </si>
+  <si>
+    <t>O questionário BackPEI [16] foi elaborado para identificar a presença de PA nos últimos 3 meses antes de sua aplicação. Ele estuda questões sobre a ocorrência, frequência e intensidade da dor nas costas</t>
+  </si>
+  <si>
+    <t>A intensidade da dor, questão número 21, foi avaliada por meio da escala visual analógica (EVA), que é uma linha horizontal de 10 cm em que “0” significa “Sem dor” e “10” significa “A pior dor que posso imaginar”.</t>
+  </si>
+  <si>
+    <t>As primeiras 20 questões são fechadas, o que só é possível mediante resposta: as questões 1 a 8 são baseadas no estilo de vida; as questões 9 a 14 tratam da postura adotada durante as atividades da vida diária; as questões 15 e 16 perguntam sobre estudos com pais; as questões 17 a 19 são elaboradas para identificar a presença de dor nas costas nos últimos três meses, bem como a ocorrência e a frequência da dor.</t>
+  </si>
+  <si>
+    <t>As diferenças culturais sob as quais ambos os questionários foram validados significam que eles são úteis apenas nesses contextos, não sendo possível comparar os resultados para aplicar um estudo de validade de critério. Portanto, a adaptação transcultural de um desses questionários pode ser o primeiro passo para consolidar instrumentos válidos.</t>
+  </si>
+  <si>
+    <t>Portanto, o presente estudo teve como objetivo realizar uma adaptação transcultural de um instrumento de medida validado (BackPEI), iniciando com uma fase de tradução e adaptação cultural, seguida de uma segunda fase para testar a confiabilidade pelo delineamento teste-reteste.</t>
+  </si>
+  <si>
+    <t>Cada membro do comitê comparou a versão em espanhol e as versões originais do BackPEI, pontuando a equivalência entre as duas versões por meio de quatro perguntas em termos de experiência (ou seja, equivalência no contexto cultural de destino) e conceitual (ou seja, equivalência do conceito e das experiências da cultura de destino).</t>
+  </si>
+  <si>
+    <t>Etapa quatro: Em seguida, o CE revisou a versão em espanhol (TL) em comparação com a original (SL). O objetivo do comitê era a produção de uma versão pré-final para testes de campo, com base na versão obtida das traduções direta e reversa. O método Delphi foi usado. As respostas anônimas foram agregadas e compartilhadas com o grupo após cada rodada. Os especialistas foram autorizados a ajustar suas respostas nas rodadas subsequentes. Cada membro do comitê comparou a versão em espanhol e as versões originais do BackPEI item por item e em geral (todos os itens), pontuando a equivalência entre as duas versões por meio de quatro perguntas em termos de semântica (ou seja, equivalência no significado das palavras), idiomática (ou seja, equivalência em expressões idiomáticas e coloquialismos), experiencial (ou seja, equivalência no contexto cultural de destino) e conceitual (ou seja, equivalência do conceito e das experiências da cultura de destino).</t>
+  </si>
+  <si>
+    <t>Etapa cinco: Erros de revisão foram corrigidos antes da produção da versão pré-final em espanhol do BackPEI.</t>
+  </si>
+  <si>
+    <t>Sexta etapa: Teste psicométrico da versão pré-final do instrumento traduzido em uma amostra da população-alvo. Para analisar sua confiabilidade, a versão pré-final em espanhol do BackPEI foi aplicada a 224 adolescentes duas vezes (teste-reteste), com um intervalo de sete dias entre cada teste.</t>
+  </si>
+  <si>
+    <t>Durante a análise da primeira etapa (tradução direta), o OMTP decidiu não fazer nenhuma alteração. A segunda etapa (tradução reversa) foi idêntica ao questionário original em português (SL). Na terceira etapa, não foram encontrados problemas significativos durante as fases de tradução direta e tradução reversa da versão brasileira, e o OMTP não sugeriu alterações em nenhuma palavra ou frase.</t>
+  </si>
+  <si>
+    <t>Um dos especialistas afirmou que: “A construção é confusa em ambas as perguntas. ‘Senta-se’ (se sienta, em espanhol) significa quantas horas a pessoa assiste TV sentada?”. Além disso, o painel de especialistas sugeriu a mudança do uso de “usted” para o pronome de segunda pessoa usado idiomaticamente para indicar proximidade ou familiaridade (3ª pergunta do questionário dos especialistas).</t>
+  </si>
+  <si>
+    <t>A segunda rodada do inquérito incluiu a mudança do termo “sentar” para “permanecer” (permanências, em espanhol) e a utilização do pronome de segunda pessoa em todos os itens</t>
+  </si>
+  <si>
+    <t>Foi necessário alterar o uso do gênero feminino no questionário para meninas nos itens 4 e 5 (permaner sentada, em espanhol). Modificações também foram sugeridas para: o item 14, "¿cómo sueles llevar la mochila?" (em espanhol), para manter o padrão das demais perguntas; os itens 15 e 16, "¿Cuál es el grado de formación de tu padre/madre/tutora?" (em espanhol); e o item 19, para incluir o pronome espanhol "te ocurre".</t>
+  </si>
+  <si>
+    <t>Etapa 5 (revisão): Não foram encontrados erros gramaticais ou ortográficos. Na sexta etapa, a versão pré-final do pré-teste estava pronta.</t>
+  </si>
+  <si>
+    <t>De acordo com o coeficiente kappa para as questões 1 a 20 do questionário, 5 foram classificadas como "muito boas", 8 como "boas", 1 como "moderadas" e 1 como "razoáveis" (Tabela 4). A taxa de resposta foi alta, com um valor ausente de menos de 10%. Com base na questão 21 (n = 115), não houve diferenças na intensidade da dor entre as médias do teste (4,72 ± 2,33) e do reteste (4,58 ± 2,37) com base no teste de Wilcoxon (p = 0,333), e as respostas para esses dois testes foram altamente correlacionadas (ICC = 0,951, (0,928– 0,966); p = 0,0001).</t>
+  </si>
+  <si>
+    <t>Nosso principal achado indica que a versão espanhola do BackPEI é confiável e apresenta resultados semelhantes à versão brasileira original</t>
+  </si>
+  <si>
+    <t>sendo relevante para a pesquisa epidemiológica ao comparar países onde se falam as línguas portuguesa e espanhola</t>
+  </si>
+  <si>
+    <t>A adaptação transcultural deve ser a produção de várias traduções por, pelo menos, dois tradutores independentes. Isso leva à detecção de erros e interpretações divergentes de itens ambíguos no instrumento original [19]. Utilizar apenas um tradutor está longe de ser o ideal [27]; no entanto, devido ao tipo de perguntas simples e concisas do BackPEI</t>
+  </si>
+  <si>
+    <t>Este resultado pode ser devido ao fato de o tipo de resposta ser de múltipla escolha [29]. Ao longo do dia escolar, assim como no dia em geral, adotamos muitas posições corretas e, portanto, podem haver várias respostas que afetam a concordância.</t>
+  </si>
+  <si>
+    <t>O BackPEI não avalia apenas os hábitos posturais adotados por crianças em idade escolar durante as atividades de vida diária (AVDs), mas também os possíveis indicadores de risco associados a essa situação, como a prevalência de PA.</t>
+  </si>
+  <si>
+    <t>Isso permite que seja considerado um instrumento abrangente que considera variáveis ​​dependentes, independentes e de confusão, utilizando apenas 21 questões e cinco categorias: (a) Praticar exercício físico (n = 3); (b) estilo de vida ativo (n = 5); (c) hábitos posturais (n = 6), dos quais posturas sentadas (n = 3), levantamento de peso (n = 1) e uso de mochilas (n = 2); (d) nível de escolaridade dos pais (n = 2) e (e) dor nas costas (n = 5).</t>
+  </si>
+  <si>
+    <t>Moreover, the BackPEI is distinguished from the others because it was developed with a version for boys and another for girls.</t>
+  </si>
+  <si>
+    <t>Além disso, o BackPEI se diferencia dos demais por ter sido desenvolvido com uma versão para meninos e outra para meninas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avaliar dor nas costas e pescoço e uma série de aspectos relacionados com uma única ferramenta. Avaliar a presença de dor no pescoço e seu impacto nas crianças e suas rotinas e a relação com o uso de dispositivos móveis. Além das pesquisas o BackPEI-CA pode ser utilizado em avaliações clínicas ou em triagens escolares. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O BackPEI-CA foi desenvolvido para avaliar não apenas a presença, frequência e intensidade da dor nas costas e seus fatores de risco (hábitos posturais e comportamentais [4] e hábitos comuns na rotina de escolares, como a prática de atividade física, hábitos relacionados a assistir televisão e usar o computador, e a postura adotada para carregar o material escolar, dormir, escrever em sala de aula e levantar objetos do chão) entre crianças e adolescentes. Mas também a dor no pescoço e seus fatores de risco, inclusive o uso de dispositivos móveis. “Dor nas costas” se refere a qualquer região torácica e lombar.  “Dor no pescoço” se refere a qualquer região da coluna cervical. </t>
+  </si>
+  <si>
+    <t>As representações a partir do BackPEI-CA são realizadas a partir da cada item através da resposta dada. Assim são dados nominais, exceto pela instensidade da dor que é medida em cm. Uma limitação deste estudo foi a inclusão da opção “outra forma/não sei” nas questões relativas às posturas ao utilizar dispositivos móveis, pois não permite ao avaliador saber qual é o padrão mais comum em crianças em idade escolar.</t>
+  </si>
+  <si>
+    <t>Das 30 questões, 28 eram de múltipla escolha, nas quais os participantes podiam escolher apenas uma opção: a que melhor representasse sua percepção de condição. As duas questões restantes (25 e 30) estavam relacionadas à intensidade da dor nas costas e no pescoço e foram respondidas por meio da escala visual analógica de dor (EVA).</t>
+  </si>
+  <si>
+    <t>Avaliação conjunta da dor nas costas e pescoço com os fatores de risco associados. Ampliar  a investigação da relação entre postura e dor. As versões do BackPEI já vem sendo utilizadas em ensaios clínicos, estudos transversais e coortes e uma versão online facilita, flexibiliza, melhora e agiliza o processo de coleta e análise de dados no ambiente clínico e científico além de permitir amostras maiores e mais variadas e ser uma boa alternativa para avaliar e monitorar pacientes que necessitam de atendimento online.</t>
+  </si>
+  <si>
+    <t>O BackPEI-A avalia, entre adultos, a presença, frequência e intensidade de dores nas costas e no pescoço, bem como possíveis fatores associados, como fatores demográficos, socioeconômicos e comportamentais (hábitos de vida e hábitos posturais). Entre os comportamentais estão incluídos os hábitos de uso de dispositivos móveis.</t>
+  </si>
+  <si>
+    <t>Cada item do questionário resulta em uma representação específica. Todas são categóricas, exceto a medição da intensidade da dor que é realizada em centímetros. Para estas, inclusive, são apresentados valores de MDC. É apontada que a principal limitação deste estudo é a ausência de uma pontuação sobre a possível exposição a fatores associados à dor nas costas e no pescoço</t>
+  </si>
+  <si>
+    <t>O instrumento é um questionário de 30 itens. Aqueles referentes ao uso de dispositivos móveis foram elaboradas a partir de um revisão de literatura. Foram incluídas: uma questão sobre o tempo diário de uso de dispositivos móveis, duas questões sobre a postura durante o uso destes dispositivos, cinco perguntas sobre a dor no pescoço e duas sobre o impacto da dor nas costas. Foi implementado um novo design gráfico para melhorar a compreensão das regiões corporais a que se refere cada item do questionário. Foram feitas uma versão para meninas e outra para meninos. O instrumento foi avaliado por um painel de especialistas quanto à clareza, facilidade de compreensão, aplicabilidade e se as novas questões permitiam identificar o comportamento de uso de smartphones/tablets e avaliaram adequadamente a dor nas costas e no pescoço. Foi testada a confiabilidade teste-reteste. As coletas de dados aconteceram em 2 formatos, presencial e online. O questionário foi traduzido para o inglês.</t>
+  </si>
+  <si>
+    <t>O instrumento é um questionário de 23 itens Aqueles referentes ao uso de dispositivos móveis foram elaboradas a partir de um revisão de literatura. Foram incluídas: duas questões sobre a postura ao utilizar o celular e uma sobre o tempo de utilização de dispositivos móveis. A questão sobre o hábito de ler/estudar na cama foi alterada incluindo o uso de dispositivos móveis.  Foi implementado um novo design gráfico para melhorar a compreensão das regiões corporais a que se refere cada item do questionário. Foram feitas uma versão para mulheres e outra para homens. O instrumento foi avaliado por um painel de especialistas quanto à clareza, facilidade de compreensão, aplicabilidade e se as novas questões permitiam identificar o comportamento de uso de smartphones/tablets e avaliaram adequadamente a dor nas costas e no pescoço. Foi testada a confiabilidade teste-reteste. As coletas de dados aconteceram em 2 formatos, presencial e online. Ao final o instrumento foi traduzido para o inglês.</t>
+  </si>
+  <si>
+    <t>O primeiro passo no tratamento da hérnia de disco é a avaliação do paciente. Esta escala pode ser usada para avaliar a dor e a postura na hérnia de disco, sendo que a educação sobre os fatores de risco e exercícios posturais podem reduzir a dor e a progressão da hérnia de disco.</t>
+  </si>
+  <si>
+    <t>O BackPEI avalia a dor nas costas e os fatores relacionados à dor, como maus hábitos posturais, fatores demográficos, socioeconômicos, hereditários e comportamentais. O MHQ avalia dor e rigidez, função física, nível de atividade física, envolvimento de sintomas relacionados ao trabalho, atividades diárias, sociais e hobbies, dificuldade para dormir, fadiga, bem-estar emocional e diagnóstico. A validade concorrente foi examinada para correlações com o MHQTR</t>
+  </si>
+  <si>
+    <t>O BackPEI aplica um sistema de pontuação geral que inclui apenas questões que se referem a fatores de risco. Nas questões de 1 a 4, a postura adequada recebe 1 ponto e a postura inadequada recebe 0 ponto. Apenas uma opção é aceita para essas questões. Nas questões 5, 8 e 10, as respostas positivas recebem 0 ponto e as negativas recebem 1 ponto. Na questão número 6, as respostas positivas recebem 1 ponto e as negativas recebem 0 ponto. As questões 7 e 9 não são pontuadas. Na questão 11, a opção “de bruços” (no meu estômago) recebe 0 ponto, e as outras opções recebem 1 ponto. Na questão, 12, 7, 8 ou 9 horas de sono recebem 1 ponto; as outras opções recebem 0 ponto. A pontuação total é a soma de todas as pontuações (máximo de 10 pontos). Quanto maior a pontuação obtida, menor a exposição a fatores de risco para dor. Para avaliar a validade de constructo da escala, foram realizadas comparações das pontuações pertencentes aos percentis inferior e superior de 27%, e os resultados são mostrados na Tabela 6. Como resultado desta tabela, a escala é confiável e tem a capacidade de mensurar a situação definida.</t>
+  </si>
+  <si>
+    <t>Pacientes com escoliose cervical e lombar e espondilolistese não foram incluídos no estudo. Dessa forma, obteve-se um grupo mais homogêneo. Foi planejado incluir pacientes entre 20 e 65 anos no estudo. Para as avaliações de confiabilidade teste-reteste foram realizadas com intervalo de 1 semana sem que houvesse algum tratamento nesse período. De acordo com os resultados, não há diferença nas pontuações BackPEI-TR e MHQ-TR entre homens e mulheres (p=0,230, 0,807 respectivamente).</t>
+  </si>
+  <si>
+    <t>Ampliar a promoção da linha de pesquisa em educação para a saúde da coluna e, principalmente, sua implementação em programas de educação escolar além de contribuir para a pesquisa epidemiológica ao comparar países onde se falam as línguas portuguesa e espanhola</t>
+  </si>
+  <si>
+    <t>O questionário BackPEI foi elaborado para identificar a presença de dor nas costas nos últimos 3 meses antes de sua aplicação. Ele estuda questões sobre a ocorrência, frequência e intensidade da dor nas costas além de estilo de vida, postura em AVD e fatores relativos aos pais. Durante a adaptação cultural, um painel de especialistas avaliou o instrumento traduzido para o espanhol quanto à experiência (ou seja, equivalência no contexto cultural de destino) e conceitual (ou seja, equivalência do conceito e das experiências da cultura de destino). foram feitos 2 questionários, um para meninos e outro para meninas. Sobre a postura os autores indicam que ao longo do dia escolar, assim como no dia em geral, adotamos muitas posições corretas e, portanto, podem haver várias respostas que afetam a concordância.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As representações a partir do BackPEI-CA são realizadas a partir da cada item através da resposta dada. Assim são dados nominais, exceto pela instensidade da dor que é medida em cm. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A adaptação transcultural de um desses questionários (BackPEI e BEHALVES) pode ser o primeiro passo para consolidar instrumentos válidos. o estudo teve como objetivo realizar uma adaptação transcultural de um instrumento de medida validado (BackPEI), iniciando com uma fase de tradução e adaptação cultural, seguida de uma segunda fase para testar a confiabilidade pelo delineamento teste-reteste. Durante a adaptação transcultural foram avaliadas a semântica, idiomática, experiência e conceito. </t>
+  </si>
+  <si>
     <t>A versão inicial do Questionário de Avaliação do Comportamento de Cuidados com as Costas (BABAQ) foi desenvolvida com base no conteúdo de outros questionários existentes. A compreensão do instrumento foi verificada por um grupo de 6 estudantes. A confiabilidade teste-reteste foi avaliada.</t>
-  </si>
-  <si>
-    <t>Alguns autores e organizações defendem a promoção da linha de pesquisa em educação para a saúde da coluna e, principalmente, sua implementação em programas de educação escolar</t>
-  </si>
-  <si>
-    <t>Miñana-Signes et al, 2021</t>
-  </si>
-  <si>
-    <t>O questionário BackPEI [16] foi elaborado para identificar a presença de PA nos últimos 3 meses antes de sua aplicação. Ele estuda questões sobre a ocorrência, frequência e intensidade da dor nas costas</t>
-  </si>
-  <si>
-    <t>A intensidade da dor, questão número 21, foi avaliada por meio da escala visual analógica (EVA), que é uma linha horizontal de 10 cm em que “0” significa “Sem dor” e “10” significa “A pior dor que posso imaginar”.</t>
-  </si>
-  <si>
-    <t>As primeiras 20 questões são fechadas, o que só é possível mediante resposta: as questões 1 a 8 são baseadas no estilo de vida; as questões 9 a 14 tratam da postura adotada durante as atividades da vida diária; as questões 15 e 16 perguntam sobre estudos com pais; as questões 17 a 19 são elaboradas para identificar a presença de dor nas costas nos últimos três meses, bem como a ocorrência e a frequência da dor.</t>
-  </si>
-  <si>
-    <t>As diferenças culturais sob as quais ambos os questionários foram validados significam que eles são úteis apenas nesses contextos, não sendo possível comparar os resultados para aplicar um estudo de validade de critério. Portanto, a adaptação transcultural de um desses questionários pode ser o primeiro passo para consolidar instrumentos válidos.</t>
-  </si>
-  <si>
-    <t>Portanto, o presente estudo teve como objetivo realizar uma adaptação transcultural de um instrumento de medida validado (BackPEI), iniciando com uma fase de tradução e adaptação cultural, seguida de uma segunda fase para testar a confiabilidade pelo delineamento teste-reteste.</t>
-  </si>
-  <si>
-    <t>Cada membro do comitê comparou a versão em espanhol e as versões originais do BackPEI, pontuando a equivalência entre as duas versões por meio de quatro perguntas em termos de experiência (ou seja, equivalência no contexto cultural de destino) e conceitual (ou seja, equivalência do conceito e das experiências da cultura de destino).</t>
-  </si>
-  <si>
-    <t>Etapa quatro: Em seguida, o CE revisou a versão em espanhol (TL) em comparação com a original (SL). O objetivo do comitê era a produção de uma versão pré-final para testes de campo, com base na versão obtida das traduções direta e reversa. O método Delphi foi usado. As respostas anônimas foram agregadas e compartilhadas com o grupo após cada rodada. Os especialistas foram autorizados a ajustar suas respostas nas rodadas subsequentes. Cada membro do comitê comparou a versão em espanhol e as versões originais do BackPEI item por item e em geral (todos os itens), pontuando a equivalência entre as duas versões por meio de quatro perguntas em termos de semântica (ou seja, equivalência no significado das palavras), idiomática (ou seja, equivalência em expressões idiomáticas e coloquialismos), experiencial (ou seja, equivalência no contexto cultural de destino) e conceitual (ou seja, equivalência do conceito e das experiências da cultura de destino).</t>
-  </si>
-  <si>
-    <t>Etapa cinco: Erros de revisão foram corrigidos antes da produção da versão pré-final em espanhol do BackPEI.</t>
-  </si>
-  <si>
-    <t>Sexta etapa: Teste psicométrico da versão pré-final do instrumento traduzido em uma amostra da população-alvo. Para analisar sua confiabilidade, a versão pré-final em espanhol do BackPEI foi aplicada a 224 adolescentes duas vezes (teste-reteste), com um intervalo de sete dias entre cada teste.</t>
-  </si>
-  <si>
-    <t>Durante a análise da primeira etapa (tradução direta), o OMTP decidiu não fazer nenhuma alteração. A segunda etapa (tradução reversa) foi idêntica ao questionário original em português (SL). Na terceira etapa, não foram encontrados problemas significativos durante as fases de tradução direta e tradução reversa da versão brasileira, e o OMTP não sugeriu alterações em nenhuma palavra ou frase.</t>
-  </si>
-  <si>
-    <t>Um dos especialistas afirmou que: “A construção é confusa em ambas as perguntas. ‘Senta-se’ (se sienta, em espanhol) significa quantas horas a pessoa assiste TV sentada?”. Além disso, o painel de especialistas sugeriu a mudança do uso de “usted” para o pronome de segunda pessoa usado idiomaticamente para indicar proximidade ou familiaridade (3ª pergunta do questionário dos especialistas).</t>
-  </si>
-  <si>
-    <t>A segunda rodada do inquérito incluiu a mudança do termo “sentar” para “permanecer” (permanências, em espanhol) e a utilização do pronome de segunda pessoa em todos os itens</t>
-  </si>
-  <si>
-    <t>Foi necessário alterar o uso do gênero feminino no questionário para meninas nos itens 4 e 5 (permaner sentada, em espanhol). Modificações também foram sugeridas para: o item 14, "¿cómo sueles llevar la mochila?" (em espanhol), para manter o padrão das demais perguntas; os itens 15 e 16, "¿Cuál es el grado de formación de tu padre/madre/tutora?" (em espanhol); e o item 19, para incluir o pronome espanhol "te ocurre".</t>
-  </si>
-  <si>
-    <t>Etapa 5 (revisão): Não foram encontrados erros gramaticais ou ortográficos. Na sexta etapa, a versão pré-final do pré-teste estava pronta.</t>
-  </si>
-  <si>
-    <t>De acordo com o coeficiente kappa para as questões 1 a 20 do questionário, 5 foram classificadas como "muito boas", 8 como "boas", 1 como "moderadas" e 1 como "razoáveis" (Tabela 4). A taxa de resposta foi alta, com um valor ausente de menos de 10%. Com base na questão 21 (n = 115), não houve diferenças na intensidade da dor entre as médias do teste (4,72 ± 2,33) e do reteste (4,58 ± 2,37) com base no teste de Wilcoxon (p = 0,333), e as respostas para esses dois testes foram altamente correlacionadas (ICC = 0,951, (0,928– 0,966); p = 0,0001).</t>
-  </si>
-  <si>
-    <t>Nosso principal achado indica que a versão espanhola do BackPEI é confiável e apresenta resultados semelhantes à versão brasileira original</t>
-  </si>
-  <si>
-    <t>sendo relevante para a pesquisa epidemiológica ao comparar países onde se falam as línguas portuguesa e espanhola</t>
-  </si>
-  <si>
-    <t>A adaptação transcultural deve ser a produção de várias traduções por, pelo menos, dois tradutores independentes. Isso leva à detecção de erros e interpretações divergentes de itens ambíguos no instrumento original [19]. Utilizar apenas um tradutor está longe de ser o ideal [27]; no entanto, devido ao tipo de perguntas simples e concisas do BackPEI</t>
-  </si>
-  <si>
-    <t>Este resultado pode ser devido ao fato de o tipo de resposta ser de múltipla escolha [29]. Ao longo do dia escolar, assim como no dia em geral, adotamos muitas posições corretas e, portanto, podem haver várias respostas que afetam a concordância.</t>
-  </si>
-  <si>
-    <t>O BackPEI não avalia apenas os hábitos posturais adotados por crianças em idade escolar durante as atividades de vida diária (AVDs), mas também os possíveis indicadores de risco associados a essa situação, como a prevalência de PA.</t>
-  </si>
-  <si>
-    <t>Isso permite que seja considerado um instrumento abrangente que considera variáveis ​​dependentes, independentes e de confusão, utilizando apenas 21 questões e cinco categorias: (a) Praticar exercício físico (n = 3); (b) estilo de vida ativo (n = 5); (c) hábitos posturais (n = 6), dos quais posturas sentadas (n = 3), levantamento de peso (n = 1) e uso de mochilas (n = 2); (d) nível de escolaridade dos pais (n = 2) e (e) dor nas costas (n = 5).</t>
-  </si>
-  <si>
-    <t>Moreover, the BackPEI is distinguished from the others because it was developed with a version for boys and another for girls.</t>
-  </si>
-  <si>
-    <t>Além disso, o BackPEI se diferencia dos demais por ter sido desenvolvido com uma versão para meninos e outra para meninas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avaliar dor nas costas e pescoço e uma série de aspectos relacionados com uma única ferramenta. Avaliar a presença de dor no pescoço e seu impacto nas crianças e suas rotinas e a relação com o uso de dispositivos móveis. Além das pesquisas o BackPEI-CA pode ser utilizado em avaliações clínicas ou em triagens escolares. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">O BackPEI-CA foi desenvolvido para avaliar não apenas a presença, frequência e intensidade da dor nas costas e seus fatores de risco (hábitos posturais e comportamentais [4] e hábitos comuns na rotina de escolares, como a prática de atividade física, hábitos relacionados a assistir televisão e usar o computador, e a postura adotada para carregar o material escolar, dormir, escrever em sala de aula e levantar objetos do chão) entre crianças e adolescentes. Mas também a dor no pescoço e seus fatores de risco, inclusive o uso de dispositivos móveis. “Dor nas costas” se refere a qualquer região torácica e lombar.  “Dor no pescoço” se refere a qualquer região da coluna cervical. </t>
-  </si>
-  <si>
-    <t>As representações a partir do BackPEI-CA são realizadas a partir da cada item através da resposta dada. Assim são dados nominais, exceto pela instensidade da dor que é medida em cm. Uma limitação deste estudo foi a inclusão da opção “outra forma/não sei” nas questões relativas às posturas ao utilizar dispositivos móveis, pois não permite ao avaliador saber qual é o padrão mais comum em crianças em idade escolar.</t>
-  </si>
-  <si>
-    <t>Das 30 questões, 28 eram de múltipla escolha, nas quais os participantes podiam escolher apenas uma opção: a que melhor representasse sua percepção de condição. As duas questões restantes (25 e 30) estavam relacionadas à intensidade da dor nas costas e no pescoço e foram respondidas por meio da escala visual analógica de dor (EVA).</t>
-  </si>
-  <si>
-    <t>Avaliação conjunta da dor nas costas e pescoço com os fatores de risco associados. Ampliar  a investigação da relação entre postura e dor. As versões do BackPEI já vem sendo utilizadas em ensaios clínicos, estudos transversais e coortes e uma versão online facilita, flexibiliza, melhora e agiliza o processo de coleta e análise de dados no ambiente clínico e científico além de permitir amostras maiores e mais variadas e ser uma boa alternativa para avaliar e monitorar pacientes que necessitam de atendimento online.</t>
-  </si>
-  <si>
-    <t>O BackPEI-A avalia, entre adultos, a presença, frequência e intensidade de dores nas costas e no pescoço, bem como possíveis fatores associados, como fatores demográficos, socioeconômicos e comportamentais (hábitos de vida e hábitos posturais). Entre os comportamentais estão incluídos os hábitos de uso de dispositivos móveis.</t>
-  </si>
-  <si>
-    <t>Cada item do questionário resulta em uma representação específica. Todas são categóricas, exceto a medição da intensidade da dor que é realizada em centímetros. Para estas, inclusive, são apresentados valores de MDC. É apontada que a principal limitação deste estudo é a ausência de uma pontuação sobre a possível exposição a fatores associados à dor nas costas e no pescoço</t>
-  </si>
-  <si>
-    <t>O instrumento é um questionário de 30 itens. Aqueles referentes ao uso de dispositivos móveis foram elaboradas a partir de um revisão de literatura. Foram incluídas: uma questão sobre o tempo diário de uso de dispositivos móveis, duas questões sobre a postura durante o uso destes dispositivos, cinco perguntas sobre a dor no pescoço e duas sobre o impacto da dor nas costas. Foi implementado um novo design gráfico para melhorar a compreensão das regiões corporais a que se refere cada item do questionário. Foram feitas uma versão para meninas e outra para meninos. O instrumento foi avaliado por um painel de especialistas quanto à clareza, facilidade de compreensão, aplicabilidade e se as novas questões permitiam identificar o comportamento de uso de smartphones/tablets e avaliaram adequadamente a dor nas costas e no pescoço. Foi testada a confiabilidade teste-reteste. As coletas de dados aconteceram em 2 formatos, presencial e online. O questionário foi traduzido para o inglês.</t>
-  </si>
-  <si>
-    <t>O instrumento é um questionário de 23 itens Aqueles referentes ao uso de dispositivos móveis foram elaboradas a partir de um revisão de literatura. Foram incluídas: duas questões sobre a postura ao utilizar o celular e uma sobre o tempo de utilização de dispositivos móveis. A questão sobre o hábito de ler/estudar na cama foi alterada incluindo o uso de dispositivos móveis.  Foi implementado um novo design gráfico para melhorar a compreensão das regiões corporais a que se refere cada item do questionário. Foram feitas uma versão para mulheres e outra para homens. O instrumento foi avaliado por um painel de especialistas quanto à clareza, facilidade de compreensão, aplicabilidade e se as novas questões permitiam identificar o comportamento de uso de smartphones/tablets e avaliaram adequadamente a dor nas costas e no pescoço. Foi testada a confiabilidade teste-reteste. As coletas de dados aconteceram em 2 formatos, presencial e online. Ao final o instrumento foi traduzido para o inglês.</t>
-  </si>
-  <si>
-    <t>O primeiro passo no tratamento da hérnia de disco é a avaliação do paciente. Esta escala pode ser usada para avaliar a dor e a postura na hérnia de disco, sendo que a educação sobre os fatores de risco e exercícios posturais podem reduzir a dor e a progressão da hérnia de disco.</t>
-  </si>
-  <si>
-    <t>O BackPEI avalia a dor nas costas e os fatores relacionados à dor, como maus hábitos posturais, fatores demográficos, socioeconômicos, hereditários e comportamentais. O MHQ avalia dor e rigidez, função física, nível de atividade física, envolvimento de sintomas relacionados ao trabalho, atividades diárias, sociais e hobbies, dificuldade para dormir, fadiga, bem-estar emocional e diagnóstico. A validade concorrente foi examinada para correlações com o MHQTR</t>
-  </si>
-  <si>
-    <t>O BackPEI aplica um sistema de pontuação geral que inclui apenas questões que se referem a fatores de risco. Nas questões de 1 a 4, a postura adequada recebe 1 ponto e a postura inadequada recebe 0 ponto. Apenas uma opção é aceita para essas questões. Nas questões 5, 8 e 10, as respostas positivas recebem 0 ponto e as negativas recebem 1 ponto. Na questão número 6, as respostas positivas recebem 1 ponto e as negativas recebem 0 ponto. As questões 7 e 9 não são pontuadas. Na questão 11, a opção “de bruços” (no meu estômago) recebe 0 ponto, e as outras opções recebem 1 ponto. Na questão, 12, 7, 8 ou 9 horas de sono recebem 1 ponto; as outras opções recebem 0 ponto. A pontuação total é a soma de todas as pontuações (máximo de 10 pontos). Quanto maior a pontuação obtida, menor a exposição a fatores de risco para dor. Para avaliar a validade de constructo da escala, foram realizadas comparações das pontuações pertencentes aos percentis inferior e superior de 27%, e os resultados são mostrados na Tabela 6. Como resultado desta tabela, a escala é confiável e tem a capacidade de mensurar a situação definida.</t>
-  </si>
-  <si>
-    <t>Pacientes com escoliose cervical e lombar e espondilolistese não foram incluídos no estudo. Dessa forma, obteve-se um grupo mais homogêneo. Foi planejado incluir pacientes entre 20 e 65 anos no estudo. Para as avaliações de confiabilidade teste-reteste foram realizadas com intervalo de 1 semana sem que houvesse algum tratamento nesse período. De acordo com os resultados, não há diferença nas pontuações BackPEI-TR e MHQ-TR entre homens e mulheres (p=0,230, 0,807 respectivamente).</t>
-  </si>
-  <si>
-    <t>Ampliar a promoção da linha de pesquisa em educação para a saúde da coluna e, principalmente, sua implementação em programas de educação escolar além de contribuir para a pesquisa epidemiológica ao comparar países onde se falam as línguas portuguesa e espanhola</t>
-  </si>
-  <si>
-    <t>O questionário BackPEI foi elaborado para identificar a presença de dor nas costas nos últimos 3 meses antes de sua aplicação. Ele estuda questões sobre a ocorrência, frequência e intensidade da dor nas costas além de estilo de vida, postura em AVD e fatores relativos aos pais. Durante a adaptação cultural, um painel de especialistas avaliou o instrumento traduzido para o espanhol quanto à experiência (ou seja, equivalência no contexto cultural de destino) e conceitual (ou seja, equivalência do conceito e das experiências da cultura de destino). foram feitos 2 questionários, um para meninos e outro para meninas. Sobre a postura os autores indicam que ao longo do dia escolar, assim como no dia em geral, adotamos muitas posições corretas e, portanto, podem haver várias respostas que afetam a concordância.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As representações a partir do BackPEI-CA são realizadas a partir da cada item através da resposta dada. Assim são dados nominais, exceto pela instensidade da dor que é medida em cm. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A adaptação transcultural de um desses questionários (BackPEI e BEHALVES) pode ser o primeiro passo para consolidar instrumentos válidos. o estudo teve como objetivo realizar uma adaptação transcultural de um instrumento de medida validado (BackPEI), iniciando com uma fase de tradução e adaptação cultural, seguida de uma segunda fase para testar a confiabilidade pelo delineamento teste-reteste. Durante a adaptação transcultural foram avaliadas a semântica, idiomática, experiência e conceito. </t>
   </si>
 </sst>
 </file>
@@ -2829,9 +2829,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K42" sqref="K42:K45"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L46" sqref="L46:L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3485,16 +3485,16 @@
         <v>77</v>
       </c>
       <c r="I28" s="50" t="s">
+        <v>549</v>
+      </c>
+      <c r="J28" s="50" t="s">
         <v>550</v>
       </c>
-      <c r="J28" s="50" t="s">
+      <c r="K28" s="50" t="s">
         <v>551</v>
       </c>
-      <c r="K28" s="50" t="s">
+      <c r="L28" s="50" t="s">
         <v>552</v>
-      </c>
-      <c r="L28" s="50" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="120" x14ac:dyDescent="0.25">
@@ -3552,16 +3552,16 @@
         <v>23</v>
       </c>
       <c r="I31" s="50" t="s">
+        <v>536</v>
+      </c>
+      <c r="J31" s="50" t="s">
         <v>537</v>
       </c>
-      <c r="J31" s="50" t="s">
+      <c r="K31" s="50" t="s">
         <v>538</v>
       </c>
-      <c r="K31" s="50" t="s">
-        <v>539</v>
-      </c>
       <c r="L31" s="50" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="105" x14ac:dyDescent="0.25">
@@ -3646,16 +3646,16 @@
         <v>101</v>
       </c>
       <c r="I36" s="50" t="s">
+        <v>540</v>
+      </c>
+      <c r="J36" s="50" t="s">
         <v>541</v>
       </c>
-      <c r="J36" s="50" t="s">
+      <c r="K36" s="50" t="s">
         <v>542</v>
       </c>
-      <c r="K36" s="50" t="s">
-        <v>543</v>
-      </c>
       <c r="L36" s="50" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="90" x14ac:dyDescent="0.25">
@@ -3748,16 +3748,16 @@
         <v>116</v>
       </c>
       <c r="I42" s="50" t="s">
+        <v>545</v>
+      </c>
+      <c r="J42" s="50" t="s">
         <v>546</v>
       </c>
-      <c r="J42" s="50" t="s">
+      <c r="K42" s="50" t="s">
         <v>547</v>
       </c>
-      <c r="K42" s="50" t="s">
+      <c r="L42" s="50" t="s">
         <v>548</v>
-      </c>
-      <c r="L42" s="50" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -3840,7 +3840,7 @@
         <v>510</v>
       </c>
       <c r="L46" s="50" t="s">
-        <v>511</v>
+        <v>553</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -4942,7 +4942,7 @@
         <v>372</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5370,122 +5370,122 @@
     </row>
     <row r="140" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A140" s="52" t="s">
+        <v>512</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="C140" s="23" t="s">
         <v>513</v>
-      </c>
-      <c r="B140" s="22" t="s">
-        <v>512</v>
-      </c>
-      <c r="C140" s="23" t="s">
-        <v>514</v>
       </c>
       <c r="D140" s="28"/>
       <c r="E140" s="25" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A141" s="53"/>
       <c r="B141" s="22" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C141" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="E141" s="25" t="s">
         <v>516</v>
-      </c>
-      <c r="E141" s="25" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A142" s="53"/>
       <c r="C142" s="23" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E142" s="25" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A143" s="53"/>
       <c r="C143" s="23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E143" s="25" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" s="53"/>
       <c r="C144" s="23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E144" s="25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A145" s="53"/>
       <c r="C145" s="23" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E145" s="25" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A146" s="53"/>
       <c r="C146" s="23" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E146" s="25" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A147" s="53"/>
       <c r="E147" s="25" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="53"/>
       <c r="E148" s="25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A149" s="53"/>
       <c r="E149" s="25" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="53"/>
       <c r="E150" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A151" s="53"/>
       <c r="E151" s="25" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="53"/>
       <c r="E152" s="25" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A153" s="53"/>
       <c r="E153" s="25" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="53"/>
       <c r="E154" s="25" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEDEE51D-B566-4AF1-A7FE-93C99B01F9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909AD316-09B6-4A89-A1A9-DEA90D68C6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="16305" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descritivos" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="581">
   <si>
     <t>Autor</t>
   </si>
@@ -2225,6 +2225,146 @@
   </si>
   <si>
     <t>A versão inicial do Questionário de Avaliação do Comportamento de Cuidados com as Costas (BABAQ) foi desenvolvida com base no conteúdo de outros questionários existentes. A compreensão do instrumento foi verificada por um grupo de 6 estudantes. A confiabilidade teste-reteste foi avaliada.</t>
+  </si>
+  <si>
+    <t>Elaboração dos itens relativos à dor. Decisão de utilizar fotografias nos itens relativos aos hábitos posturais e ter questionários diferentes com base no gênero.</t>
+  </si>
+  <si>
+    <t>Etapa</t>
+  </si>
+  <si>
+    <t>Pesquisa de campo para registrar os hábitos postuais mais comuns e seu modo de execução</t>
+  </si>
+  <si>
+    <t>Posições identificadas como mais comuns foram consideradas para as fotografias</t>
+  </si>
+  <si>
+    <t>Revisão de literatura para identificar fatores de risco</t>
+  </si>
+  <si>
+    <t>Elaboração dos itens relativos aos fatores de risco.</t>
+  </si>
+  <si>
+    <t>Painel com 8 especialistas avaliaram: adequação ao avaliar AVDs a partir de fotografias; adequação ao avaliar dor nas costas e fatores associados; a clareza, facilidade de compreensão e aplicabilidade. Avaliação através de tabelas de frequência.</t>
+  </si>
+  <si>
+    <t>Recomendações: melhor estruturação das questões; melhorar a qualidade das imagens; alterar algumas imagens; preparar uma versão para cada gênero com posturas diferentes. Aprovação do sistema de medição na segunda rodada de consulta ao painel.</t>
+  </si>
+  <si>
+    <t>Avaliação qualitativa da compreensão do questionário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O questionário foi aplicado a 20 crianças em idade escolar  e ocorreu uma avaliação qualitativa </t>
+  </si>
+  <si>
+    <t>Não havia necesidade de mudanças</t>
+  </si>
+  <si>
+    <t>Validade de conteúdo e elaboração do questionário</t>
+  </si>
+  <si>
+    <t>Versão em inglês do questionário</t>
+  </si>
+  <si>
+    <t>Tradução independente por 3 tradutores. Análise da equivalência semântica, cultural e conceitual por um painel de especialistas.</t>
+  </si>
+  <si>
+    <t>Confiabilidade teste-reteste (reprodutibilidade através de um procedimento de teste e reteste)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verificar se existe consistência entre os resultados de dois instrumentos para avaliar a postura corporal durante AVDs, o BackPEI e o LADy, em estudantes de 11 a 15 anos
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Os hábitos posturais de 58 estudantes foram medidos através do LADy e do BackPEI a concordância foi avaliada através do κ, %C (&gt;80%) e </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>χ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>² (p&lt;0,05)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hábitos posturais: carregar mochila (%C 96,5%; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>κ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0,905 ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>χ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>²=47,15 , p=0,001), pegar objeto do chão  (%C 98,3%; κ=0,962 ;χ²=53,78 , p=0,001), sentar para escrever (%C 93,1%; κ=0,737 ;χ²=31,51 , p=0,001) e usar o compuador (%C 84,5%; κ=0,483 ;χ²=14,757 , p=0,01).</t>
+    </r>
+  </si>
+  <si>
+    <t>Alteração das questões originais e elaboração da versão inicial do questionário para adultos</t>
+  </si>
+  <si>
+    <t>Revisão de literatura e experiência das autoras para identificar fatores de risco para dor nas costas e pescoço entre adultos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painel com 3 especialistas avaliaram: adequação ao avaliar AVDs a partir de fotografias; adequação ao avaliar dor nas costas e no pescoço e fatores associados; a clareza, facilidade de compreensão e aplicabilidade. </t>
+  </si>
+  <si>
+    <t>Especialistas recomendaram pequenas alterações que foram realizadas. Na segunda rodada de consulta constatou-se que não seria preciso nenhuma alteração</t>
+  </si>
+  <si>
+    <t>Confiabilidade teste-reteste (Reprodutibilidade)</t>
+  </si>
+  <si>
+    <t>O questionário foi aplicado duas vezes em 260 indivíduos com intervalo de 7 dias. A avaliação ocorreu através do κnão ponderado (≥0,5), CCI e teste dos postos de sinais de Wilcoxon (p&gt;0,05).</t>
+  </si>
+  <si>
+    <t>Todos os itens apresentaram κ&gt;0,5. A intensidade da dor obteve CCI=0,937 com diferença não-significativa segundo o teste dos postos de sinais de Wilcoxon (p=0,251). .</t>
+  </si>
+  <si>
+    <t>O questionário foi aplicado duas vezes em 154 indivíduos com intervalo de 7 dias. A avaliação ocorreu através do κ (≥0,5), CCI2,2.</t>
+  </si>
+  <si>
+    <t>Todos os itens apresentaram κ&gt;0,5. A intensidade da dor apresentou CCI=0,908, para dor nas costas, e CCI=0,865, para dor no pescoço.</t>
   </si>
 </sst>
 </file>
@@ -2316,7 +2456,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2353,6 +2493,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2384,7 +2530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2515,25 +2661,37 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2546,6 +2704,16 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2829,9 +2997,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L46" sqref="L46:L52"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2885,13 +3053,13 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="53">
         <v>2013</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="52" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3">
@@ -2909,23 +3077,23 @@
       <c r="H2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="48" t="s">
         <v>450</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="48" t="s">
         <v>489</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="48" t="s">
         <v>451</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="48" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="46"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
@@ -2938,15 +3106,15 @@
       <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="46"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
@@ -2959,15 +3127,15 @@
       <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="46"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -2976,15 +3144,15 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="4"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="46"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
@@ -2993,72 +3161,72 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="4"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="51" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="48"/>
+      <c r="F8" s="51"/>
       <c r="G8" s="4"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="46"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="48"/>
+      <c r="F9" s="51"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="46"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
@@ -3069,15 +3237,15 @@
         <v>24</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="46"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
@@ -3086,15 +3254,15 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="4"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="46"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
@@ -3107,15 +3275,15 @@
       <c r="G12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="46"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
@@ -3126,10 +3294,10 @@
         <v>27</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
     </row>
     <row r="14" spans="1:12" ht="360" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
@@ -3167,13 +3335,13 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="330" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="54">
         <v>2018</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="52" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="3">
@@ -3182,7 +3350,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="51" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -3191,61 +3359,61 @@
       <c r="H15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="48" t="s">
         <v>499</v>
       </c>
-      <c r="J15" s="51" t="s">
+      <c r="J15" s="49" t="s">
         <v>502</v>
       </c>
-      <c r="K15" s="50" t="s">
+      <c r="K15" s="48" t="s">
         <v>500</v>
       </c>
-      <c r="L15" s="50" t="s">
+      <c r="L15" s="48" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="46"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="48"/>
+      <c r="F16" s="51"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="46"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="48"/>
+      <c r="F17" s="51"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
     </row>
     <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="46"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="3">
         <v>4</v>
       </c>
@@ -3258,15 +3426,15 @@
       <c r="G18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
     </row>
     <row r="19" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="46"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="3">
         <v>5</v>
       </c>
@@ -3279,15 +3447,15 @@
       <c r="G19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
     </row>
     <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="46"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="3">
         <v>6</v>
       </c>
@@ -3297,15 +3465,15 @@
       <c r="F20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
     </row>
     <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="46"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="52"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
@@ -3315,10 +3483,10 @@
       <c r="G21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
     </row>
     <row r="22" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A22" s="41" t="s">
@@ -3356,13 +3524,13 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="390" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="54">
         <v>2019</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="52" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -3377,23 +3545,23 @@
       <c r="H23" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I23" s="50" t="s">
+      <c r="I23" s="48" t="s">
         <v>503</v>
       </c>
-      <c r="J23" s="50" t="s">
+      <c r="J23" s="48" t="s">
         <v>505</v>
       </c>
-      <c r="K23" s="50" t="s">
+      <c r="K23" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="L23" s="50" t="s">
+      <c r="L23" s="48" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="46"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="52"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
@@ -3403,15 +3571,15 @@
       <c r="G24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="46"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="52"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
       </c>
@@ -3421,15 +3589,15 @@
       <c r="G25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="46"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="52"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
       </c>
@@ -3439,15 +3607,15 @@
       <c r="G26" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="48"/>
     </row>
     <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="46"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="52"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3457,19 +3625,19 @@
       <c r="G27" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
     </row>
     <row r="28" spans="1:12" ht="345" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="55">
         <v>2021</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="52" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -3481,26 +3649,26 @@
       <c r="G28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="46" t="s">
+      <c r="H28" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="50" t="s">
+      <c r="I28" s="48" t="s">
         <v>549</v>
       </c>
-      <c r="J28" s="50" t="s">
+      <c r="J28" s="48" t="s">
         <v>550</v>
       </c>
-      <c r="K28" s="50" t="s">
+      <c r="K28" s="48" t="s">
         <v>551</v>
       </c>
-      <c r="L28" s="50" t="s">
+      <c r="L28" s="48" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="52"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
       </c>
@@ -3510,16 +3678,16 @@
       <c r="G29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="46"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="48"/>
     </row>
     <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="52"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
       </c>
@@ -3529,14 +3697,14 @@
       <c r="G30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="46"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
     </row>
     <row r="31" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="50" t="s">
         <v>78</v>
       </c>
       <c r="B31">
@@ -3551,21 +3719,21 @@
       <c r="F31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="50" t="s">
+      <c r="I31" s="48" t="s">
         <v>536</v>
       </c>
-      <c r="J31" s="50" t="s">
+      <c r="J31" s="48" t="s">
         <v>537</v>
       </c>
-      <c r="K31" s="50" t="s">
+      <c r="K31" s="48" t="s">
         <v>538</v>
       </c>
-      <c r="L31" s="50" t="s">
+      <c r="L31" s="48" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="50"/>
       <c r="E32" s="4" t="s">
         <v>82</v>
       </c>
@@ -3578,13 +3746,13 @@
       <c r="H32" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="L32" s="48"/>
     </row>
     <row r="33" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="50"/>
       <c r="E33" s="4" t="s">
         <v>83</v>
       </c>
@@ -3594,13 +3762,13 @@
       <c r="G33" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
     </row>
     <row r="34" spans="1:12" ht="126" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
+      <c r="A34" s="50"/>
       <c r="E34" s="4" t="s">
         <v>70</v>
       </c>
@@ -3610,26 +3778,26 @@
       <c r="G34" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="48"/>
+      <c r="L34" s="48"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
+      <c r="A35" s="50"/>
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
     </row>
     <row r="36" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="50" t="s">
         <v>39</v>
       </c>
       <c r="B36">
@@ -3645,34 +3813,34 @@
       <c r="H36" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I36" s="50" t="s">
+      <c r="I36" s="48" t="s">
         <v>540</v>
       </c>
-      <c r="J36" s="50" t="s">
+      <c r="J36" s="48" t="s">
         <v>541</v>
       </c>
-      <c r="K36" s="50" t="s">
+      <c r="K36" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="L36" s="50" t="s">
+      <c r="L36" s="48" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
+      <c r="A37" s="50"/>
       <c r="E37" s="5" t="s">
         <v>92</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
     </row>
     <row r="38" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
+      <c r="A38" s="50"/>
       <c r="E38" s="5" t="s">
         <v>93</v>
       </c>
@@ -3682,24 +3850,24 @@
       <c r="G38" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
+      <c r="A39" s="50"/>
       <c r="E39" s="5" t="s">
         <v>94</v>
       </c>
       <c r="F39" s="4"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
     </row>
     <row r="40" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
+      <c r="A40" s="50"/>
       <c r="E40" s="5" t="s">
         <v>95</v>
       </c>
@@ -3709,24 +3877,24 @@
       <c r="G40" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="48"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+      <c r="A41" s="50"/>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="4"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
     </row>
     <row r="42" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="50" t="s">
         <v>102</v>
       </c>
       <c r="B42">
@@ -3747,21 +3915,21 @@
       <c r="H42" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I42" s="50" t="s">
+      <c r="I42" s="48" t="s">
         <v>545</v>
       </c>
-      <c r="J42" s="50" t="s">
+      <c r="J42" s="48" t="s">
         <v>546</v>
       </c>
-      <c r="K42" s="50" t="s">
+      <c r="K42" s="48" t="s">
         <v>547</v>
       </c>
-      <c r="L42" s="50" t="s">
+      <c r="L42" s="48" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
+      <c r="A43" s="50"/>
       <c r="E43" s="4" t="s">
         <v>105</v>
       </c>
@@ -3771,13 +3939,13 @@
       <c r="G43" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
     </row>
     <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
+      <c r="A44" s="50"/>
       <c r="E44" s="4" t="s">
         <v>106</v>
       </c>
@@ -3787,13 +3955,13 @@
       <c r="G44" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
     </row>
     <row r="45" spans="1:12" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
+      <c r="A45" s="50"/>
       <c r="E45" s="4" t="s">
         <v>107</v>
       </c>
@@ -3803,13 +3971,13 @@
       <c r="G45" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
     </row>
     <row r="46" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="50" t="s">
         <v>280</v>
       </c>
       <c r="B46">
@@ -3830,21 +3998,21 @@
       <c r="H46" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="I46" s="50" t="s">
+      <c r="I46" s="48" t="s">
         <v>506</v>
       </c>
-      <c r="J46" s="50" t="s">
+      <c r="J46" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="K46" s="50" t="s">
+      <c r="K46" s="48" t="s">
         <v>510</v>
       </c>
-      <c r="L46" s="50" t="s">
+      <c r="L46" s="48" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
+      <c r="A47" s="50"/>
       <c r="E47" s="4" t="s">
         <v>292</v>
       </c>
@@ -3854,13 +4022,13 @@
       <c r="G47" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="48"/>
     </row>
     <row r="48" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
+      <c r="A48" s="50"/>
       <c r="E48" s="4" t="s">
         <v>93</v>
       </c>
@@ -3870,13 +4038,13 @@
       <c r="G48" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="50"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
     </row>
     <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
+      <c r="A49" s="50"/>
       <c r="E49" s="4" t="s">
         <v>284</v>
       </c>
@@ -3886,13 +4054,13 @@
       <c r="G49" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="48"/>
     </row>
     <row r="50" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
+      <c r="A50" s="50"/>
       <c r="E50" s="4" t="s">
         <v>285</v>
       </c>
@@ -3902,13 +4070,13 @@
       <c r="G50" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="50"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
     </row>
     <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
+      <c r="A51" s="50"/>
       <c r="C51" s="36"/>
       <c r="E51" s="4" t="s">
         <v>330</v>
@@ -3919,13 +4087,13 @@
       <c r="G51" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="50"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
     </row>
     <row r="52" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
+      <c r="A52" s="50"/>
       <c r="E52" s="4" t="s">
         <v>70</v>
       </c>
@@ -3935,13 +4103,48 @@
       <c r="G52" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="I46:I52"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="I36:I41"/>
+    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="I15:I21"/>
+    <mergeCell ref="I2:I13"/>
+    <mergeCell ref="J46:J52"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="J36:J41"/>
+    <mergeCell ref="J31:J35"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="J15:J21"/>
+    <mergeCell ref="J2:J13"/>
     <mergeCell ref="K23:K27"/>
     <mergeCell ref="K15:K21"/>
     <mergeCell ref="K2:K13"/>
@@ -3958,41 +4161,6 @@
     <mergeCell ref="K36:K41"/>
     <mergeCell ref="K31:K35"/>
     <mergeCell ref="K28:K30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="I15:I21"/>
-    <mergeCell ref="I2:I13"/>
-    <mergeCell ref="J46:J52"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="J36:J41"/>
-    <mergeCell ref="J31:J35"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="J15:J21"/>
-    <mergeCell ref="J2:J13"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="I46:I52"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="I36:I41"/>
-    <mergeCell ref="I31:I35"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4035,7 +4203,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="57" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -4052,7 +4220,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
+      <c r="A3" s="57"/>
       <c r="B3" s="22" t="s">
         <v>142</v>
       </c>
@@ -4067,7 +4235,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="22" t="s">
         <v>143</v>
       </c>
@@ -4082,7 +4250,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="22" t="s">
         <v>146</v>
       </c>
@@ -4097,7 +4265,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="22" t="s">
         <v>180</v>
       </c>
@@ -4109,7 +4277,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="22" t="s">
         <v>187</v>
       </c>
@@ -4121,7 +4289,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="22" t="s">
         <v>188</v>
       </c>
@@ -4133,7 +4301,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="57"/>
       <c r="C9" s="23" t="s">
         <v>147</v>
       </c>
@@ -4142,7 +4310,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="57"/>
       <c r="C10" s="23" t="s">
         <v>147</v>
       </c>
@@ -4151,7 +4319,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
+      <c r="A11" s="57"/>
       <c r="C11" s="23" t="s">
         <v>148</v>
       </c>
@@ -4160,7 +4328,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
+      <c r="A12" s="57"/>
       <c r="C12" s="23" t="s">
         <v>158</v>
       </c>
@@ -4169,7 +4337,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
+      <c r="A13" s="57"/>
       <c r="C13" s="23" t="s">
         <v>159</v>
       </c>
@@ -4178,7 +4346,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
+      <c r="A14" s="57"/>
       <c r="C14" s="23" t="s">
         <v>160</v>
       </c>
@@ -4187,7 +4355,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
+      <c r="A15" s="57"/>
       <c r="C15" s="23" t="s">
         <v>163</v>
       </c>
@@ -4196,7 +4364,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
+      <c r="A16" s="57"/>
       <c r="C16" s="23" t="s">
         <v>174</v>
       </c>
@@ -4205,7 +4373,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
+      <c r="A17" s="57"/>
       <c r="C17" s="23" t="s">
         <v>179</v>
       </c>
@@ -4214,7 +4382,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
+      <c r="A18" s="57"/>
       <c r="C18" s="23" t="s">
         <v>186</v>
       </c>
@@ -4223,92 +4391,92 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
+      <c r="A19" s="57"/>
       <c r="E19" s="25" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
+      <c r="A20" s="57"/>
       <c r="E20" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
+      <c r="A21" s="57"/>
       <c r="E21" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
+      <c r="A22" s="57"/>
       <c r="E22" s="25" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="57"/>
       <c r="E23" s="25" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
+      <c r="A24" s="57"/>
       <c r="E24" s="25" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
+      <c r="A25" s="57"/>
       <c r="E25" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
+      <c r="A26" s="57"/>
       <c r="E26" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
+      <c r="A27" s="57"/>
       <c r="E27" s="25" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
+      <c r="A28" s="57"/>
       <c r="E28" s="25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
+      <c r="A29" s="57"/>
       <c r="E29" s="25" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
+      <c r="A30" s="57"/>
       <c r="E30" s="25" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
+      <c r="A31" s="57"/>
       <c r="E31" s="25" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="31"/>
       <c r="E32" s="27" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="56" t="s">
         <v>189</v>
       </c>
       <c r="B33" s="30" t="s">
@@ -4325,7 +4493,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
+      <c r="A34" s="57"/>
       <c r="B34" s="22" t="s">
         <v>210</v>
       </c>
@@ -4340,7 +4508,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
+      <c r="A35" s="57"/>
       <c r="C35" s="23" t="s">
         <v>195</v>
       </c>
@@ -4352,7 +4520,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
+      <c r="A36" s="57"/>
       <c r="C36" s="23" t="s">
         <v>196</v>
       </c>
@@ -4361,7 +4529,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
+      <c r="A37" s="57"/>
       <c r="C37" s="23" t="s">
         <v>197</v>
       </c>
@@ -4370,7 +4538,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
+      <c r="A38" s="57"/>
       <c r="C38" s="23" t="s">
         <v>203</v>
       </c>
@@ -4379,7 +4547,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
+      <c r="A39" s="57"/>
       <c r="C39" s="23" t="s">
         <v>204</v>
       </c>
@@ -4388,26 +4556,26 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
+      <c r="A40" s="57"/>
       <c r="E40" s="25" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
+      <c r="A41" s="57"/>
       <c r="E41" s="25" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="59"/>
       <c r="D42" s="33"/>
       <c r="E42" s="27" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A43" s="52" t="s">
+      <c r="A43" s="56" t="s">
         <v>211</v>
       </c>
       <c r="B43" s="32"/>
@@ -4422,7 +4590,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
+      <c r="A44" s="58"/>
       <c r="C44" s="23" t="s">
         <v>214</v>
       </c>
@@ -4431,14 +4599,14 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
+      <c r="A45" s="58"/>
       <c r="B45" s="31"/>
       <c r="C45" s="34" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="56" t="s">
         <v>218</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -4455,7 +4623,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
+      <c r="A47" s="57"/>
       <c r="B47" s="22" t="s">
         <v>221</v>
       </c>
@@ -4470,7 +4638,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
+      <c r="A48" s="57"/>
       <c r="B48" s="22" t="s">
         <v>222</v>
       </c>
@@ -4482,7 +4650,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
+      <c r="A49" s="57"/>
       <c r="B49" s="22" t="s">
         <v>224</v>
       </c>
@@ -4494,7 +4662,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
+      <c r="A50" s="57"/>
       <c r="B50" s="22" t="s">
         <v>248</v>
       </c>
@@ -4506,7 +4674,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="22" t="s">
         <v>250</v>
       </c>
@@ -4518,7 +4686,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
+      <c r="A52" s="57"/>
       <c r="B52" s="22" t="s">
         <v>252</v>
       </c>
@@ -4530,7 +4698,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="22" t="s">
         <v>253</v>
       </c>
@@ -4542,7 +4710,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
+      <c r="A54" s="57"/>
       <c r="B54" s="22" t="s">
         <v>258</v>
       </c>
@@ -4554,7 +4722,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="53"/>
+      <c r="A55" s="57"/>
       <c r="B55" s="22" t="s">
         <v>259</v>
       </c>
@@ -4563,7 +4731,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
+      <c r="A56" s="57"/>
       <c r="B56" s="22" t="s">
         <v>261</v>
       </c>
@@ -4572,7 +4740,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
+      <c r="A57" s="57"/>
       <c r="B57" s="22" t="s">
         <v>262</v>
       </c>
@@ -4581,7 +4749,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
+      <c r="A58" s="57"/>
       <c r="B58" s="22" t="s">
         <v>263</v>
       </c>
@@ -4590,7 +4758,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
+      <c r="A59" s="57"/>
       <c r="B59" s="22" t="s">
         <v>265</v>
       </c>
@@ -4599,56 +4767,56 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
+      <c r="A60" s="57"/>
       <c r="E60" s="25" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
+      <c r="A61" s="57"/>
       <c r="E61" s="25" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
+      <c r="A62" s="57"/>
       <c r="E62" s="25" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
+      <c r="A63" s="57"/>
       <c r="E63" s="25" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
+      <c r="A64" s="57"/>
       <c r="E64" s="25" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
+      <c r="A65" s="57"/>
       <c r="E65" s="25" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="53"/>
+      <c r="A66" s="57"/>
       <c r="E66" s="25" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="53"/>
+      <c r="A67" s="57"/>
       <c r="B67" s="31"/>
       <c r="E67" s="25" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A68" s="52" t="s">
+      <c r="A68" s="56" t="s">
         <v>267</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -4665,7 +4833,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="255" x14ac:dyDescent="0.25">
-      <c r="A69" s="53"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="22" t="s">
         <v>269</v>
       </c>
@@ -4677,7 +4845,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A70" s="53"/>
+      <c r="A70" s="57"/>
       <c r="B70" s="22" t="s">
         <v>277</v>
       </c>
@@ -4689,13 +4857,13 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="360" x14ac:dyDescent="0.25">
-      <c r="A71" s="53"/>
+      <c r="A71" s="57"/>
       <c r="C71" s="23" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
+      <c r="A72" s="59"/>
       <c r="B72" s="31"/>
       <c r="C72" s="34" t="s">
         <v>278</v>
@@ -4703,7 +4871,7 @@
       <c r="D72" s="33"/>
     </row>
     <row r="73" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A73" s="52" t="s">
+      <c r="A73" s="56" t="s">
         <v>279</v>
       </c>
       <c r="B73" s="22" t="s">
@@ -4720,7 +4888,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="22" t="s">
         <v>282</v>
       </c>
@@ -4735,7 +4903,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="54"/>
+      <c r="A75" s="58"/>
       <c r="B75" s="22" t="s">
         <v>325</v>
       </c>
@@ -4750,7 +4918,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
+      <c r="A76" s="58"/>
       <c r="B76" s="22" t="s">
         <v>326</v>
       </c>
@@ -4765,7 +4933,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="54"/>
+      <c r="A77" s="58"/>
       <c r="B77" s="22" t="s">
         <v>327</v>
       </c>
@@ -4780,7 +4948,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
+      <c r="A78" s="58"/>
       <c r="C78" s="23" t="s">
         <v>313</v>
       </c>
@@ -4792,7 +4960,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A79" s="54"/>
+      <c r="A79" s="58"/>
       <c r="C79" s="23" t="s">
         <v>316</v>
       </c>
@@ -4804,7 +4972,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A80" s="54"/>
+      <c r="A80" s="58"/>
       <c r="C80" s="23" t="s">
         <v>317</v>
       </c>
@@ -4816,7 +4984,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A81" s="54"/>
+      <c r="A81" s="58"/>
       <c r="C81" s="23" t="s">
         <v>319</v>
       </c>
@@ -4828,7 +4996,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="54"/>
+      <c r="A82" s="58"/>
       <c r="C82" s="23" t="s">
         <v>320</v>
       </c>
@@ -4840,7 +5008,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="54"/>
+      <c r="A83" s="58"/>
       <c r="C83" s="34" t="s">
         <v>328</v>
       </c>
@@ -4848,7 +5016,7 @@
       <c r="E83" s="27"/>
     </row>
     <row r="84" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="52" t="s">
+      <c r="A84" s="56" t="s">
         <v>337</v>
       </c>
       <c r="B84" s="32" t="s">
@@ -4865,7 +5033,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="53"/>
+      <c r="A85" s="57"/>
       <c r="B85" s="22" t="s">
         <v>341</v>
       </c>
@@ -4880,7 +5048,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="53"/>
+      <c r="A86" s="57"/>
       <c r="B86" s="22" t="s">
         <v>368</v>
       </c>
@@ -4895,7 +5063,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="53"/>
+      <c r="A87" s="57"/>
       <c r="B87" s="22" t="s">
         <v>370</v>
       </c>
@@ -4907,7 +5075,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="53"/>
+      <c r="A88" s="57"/>
       <c r="B88" s="22" t="s">
         <v>381</v>
       </c>
@@ -4919,7 +5087,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="53"/>
+      <c r="A89" s="57"/>
       <c r="C89" s="23" t="s">
         <v>369</v>
       </c>
@@ -4928,7 +5096,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A90" s="53"/>
+      <c r="A90" s="57"/>
       <c r="C90" s="23" t="s">
         <v>371</v>
       </c>
@@ -4937,7 +5105,7 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A91" s="53"/>
+      <c r="A91" s="57"/>
       <c r="C91" s="23" t="s">
         <v>372</v>
       </c>
@@ -4946,7 +5114,7 @@
       </c>
     </row>
     <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="53"/>
+      <c r="A92" s="57"/>
       <c r="C92" s="23" t="s">
         <v>373</v>
       </c>
@@ -4955,7 +5123,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" s="53"/>
+      <c r="A93" s="57"/>
       <c r="C93" s="23" t="s">
         <v>375</v>
       </c>
@@ -4964,7 +5132,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94" s="53"/>
+      <c r="A94" s="57"/>
       <c r="C94" s="23" t="s">
         <v>377</v>
       </c>
@@ -4973,7 +5141,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A95" s="53"/>
+      <c r="A95" s="57"/>
       <c r="C95" s="23" t="s">
         <v>382</v>
       </c>
@@ -4982,98 +5150,98 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="53"/>
+      <c r="A96" s="57"/>
       <c r="E96" s="25" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="53"/>
+      <c r="A97" s="57"/>
       <c r="E97" s="25" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="53"/>
+      <c r="A98" s="57"/>
       <c r="E98" s="25" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="53"/>
+      <c r="A99" s="57"/>
       <c r="E99" s="25" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="53"/>
+      <c r="A100" s="57"/>
       <c r="E100" s="25" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="53"/>
+      <c r="A101" s="57"/>
       <c r="E101" s="25" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="53"/>
+      <c r="A102" s="57"/>
       <c r="E102" s="25" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="53"/>
+      <c r="A103" s="57"/>
       <c r="E103" s="25" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="53"/>
+      <c r="A104" s="57"/>
       <c r="E104" s="25" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="53"/>
+      <c r="A105" s="57"/>
       <c r="E105" s="25" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="53"/>
+      <c r="A106" s="57"/>
       <c r="E106" s="25" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="53"/>
+      <c r="A107" s="57"/>
       <c r="E107" s="25" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="53"/>
+      <c r="A108" s="57"/>
       <c r="E108" s="25" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="53"/>
+      <c r="A109" s="57"/>
       <c r="E109" s="25" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="55"/>
+      <c r="A110" s="59"/>
       <c r="D110" s="33"/>
       <c r="E110" s="25" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="52" t="s">
+      <c r="A111" s="56" t="s">
         <v>383</v>
       </c>
       <c r="B111" s="32" t="s">
@@ -5090,7 +5258,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="53"/>
+      <c r="A112" s="57"/>
       <c r="B112" s="22" t="s">
         <v>389</v>
       </c>
@@ -5105,7 +5273,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A113" s="53"/>
+      <c r="A113" s="57"/>
       <c r="B113" s="22" t="s">
         <v>391</v>
       </c>
@@ -5120,7 +5288,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="53"/>
+      <c r="A114" s="57"/>
       <c r="B114" s="22" t="s">
         <v>407</v>
       </c>
@@ -5132,7 +5300,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A115" s="53"/>
+      <c r="A115" s="57"/>
       <c r="B115" s="22" t="s">
         <v>410</v>
       </c>
@@ -5144,7 +5312,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="53"/>
+      <c r="A116" s="57"/>
       <c r="B116" s="22" t="s">
         <v>411</v>
       </c>
@@ -5156,7 +5324,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="53"/>
+      <c r="A117" s="57"/>
       <c r="C117" s="23" t="s">
         <v>408</v>
       </c>
@@ -5165,7 +5333,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A118" s="53"/>
+      <c r="A118" s="57"/>
       <c r="C118" s="23" t="s">
         <v>414</v>
       </c>
@@ -5174,7 +5342,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" s="53"/>
+      <c r="A119" s="57"/>
       <c r="C119" s="23" t="s">
         <v>415</v>
       </c>
@@ -5183,37 +5351,37 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="53"/>
+      <c r="A120" s="57"/>
       <c r="E120" s="25" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A121" s="53"/>
+      <c r="A121" s="57"/>
       <c r="E121" s="25" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A122" s="53"/>
+      <c r="A122" s="57"/>
       <c r="E122" s="25" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="53"/>
+      <c r="A123" s="57"/>
       <c r="E123" s="25" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="53"/>
+      <c r="A124" s="57"/>
       <c r="E124" s="25" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A125" s="55"/>
+      <c r="A125" s="59"/>
       <c r="B125" s="31"/>
       <c r="C125" s="34"/>
       <c r="D125" s="33"/>
@@ -5222,7 +5390,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A126" s="52" t="s">
+      <c r="A126" s="56" t="s">
         <v>416</v>
       </c>
       <c r="B126" s="22" t="s">
@@ -5239,7 +5407,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="54"/>
+      <c r="A127" s="58"/>
       <c r="B127" s="22" t="s">
         <v>447</v>
       </c>
@@ -5254,7 +5422,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A128" s="54"/>
+      <c r="A128" s="58"/>
       <c r="B128" s="22" t="s">
         <v>448</v>
       </c>
@@ -5269,7 +5437,7 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A129" s="54"/>
+      <c r="A129" s="58"/>
       <c r="B129" s="22" t="s">
         <v>449</v>
       </c>
@@ -5284,7 +5452,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A130" s="54"/>
+      <c r="A130" s="58"/>
       <c r="C130" s="23" t="s">
         <v>425</v>
       </c>
@@ -5293,7 +5461,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A131" s="54"/>
+      <c r="A131" s="58"/>
       <c r="C131" s="23" t="s">
         <v>427</v>
       </c>
@@ -5302,7 +5470,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="54"/>
+      <c r="A132" s="58"/>
       <c r="C132" s="23" t="s">
         <v>429</v>
       </c>
@@ -5311,7 +5479,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A133" s="54"/>
+      <c r="A133" s="58"/>
       <c r="C133" s="23" t="s">
         <v>435</v>
       </c>
@@ -5320,7 +5488,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A134" s="54"/>
+      <c r="A134" s="58"/>
       <c r="C134" s="23" t="s">
         <v>441</v>
       </c>
@@ -5329,7 +5497,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A135" s="54"/>
+      <c r="A135" s="58"/>
       <c r="C135" s="23" t="s">
         <v>443</v>
       </c>
@@ -5338,7 +5506,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A136" s="54"/>
+      <c r="A136" s="58"/>
       <c r="C136" s="23" t="s">
         <v>445</v>
       </c>
@@ -5347,7 +5515,7 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A137" s="54"/>
+      <c r="A137" s="58"/>
       <c r="C137" s="39" t="s">
         <v>446</v>
       </c>
@@ -5356,20 +5524,20 @@
       </c>
     </row>
     <row r="138" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="54"/>
+      <c r="A138" s="58"/>
       <c r="C138" s="39"/>
       <c r="E138" s="25" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="55"/>
+      <c r="A139" s="59"/>
       <c r="B139" s="31"/>
       <c r="C139" s="34"/>
       <c r="E139" s="27"/>
     </row>
     <row r="140" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A140" s="52" t="s">
+      <c r="A140" s="56" t="s">
         <v>512</v>
       </c>
       <c r="B140" s="22" t="s">
@@ -5384,7 +5552,7 @@
       </c>
     </row>
     <row r="141" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A141" s="53"/>
+      <c r="A141" s="57"/>
       <c r="B141" s="22" t="s">
         <v>529</v>
       </c>
@@ -5396,7 +5564,7 @@
       </c>
     </row>
     <row r="142" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A142" s="53"/>
+      <c r="A142" s="57"/>
       <c r="C142" s="23" t="s">
         <v>518</v>
       </c>
@@ -5405,7 +5573,7 @@
       </c>
     </row>
     <row r="143" spans="1:5" ht="240" x14ac:dyDescent="0.25">
-      <c r="A143" s="53"/>
+      <c r="A143" s="57"/>
       <c r="C143" s="23" t="s">
         <v>531</v>
       </c>
@@ -5414,7 +5582,7 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A144" s="53"/>
+      <c r="A144" s="57"/>
       <c r="C144" s="23" t="s">
         <v>532</v>
       </c>
@@ -5423,7 +5591,7 @@
       </c>
     </row>
     <row r="145" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A145" s="53"/>
+      <c r="A145" s="57"/>
       <c r="C145" s="23" t="s">
         <v>533</v>
       </c>
@@ -5432,7 +5600,7 @@
       </c>
     </row>
     <row r="146" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A146" s="53"/>
+      <c r="A146" s="57"/>
       <c r="C146" s="23" t="s">
         <v>534</v>
       </c>
@@ -5441,49 +5609,49 @@
       </c>
     </row>
     <row r="147" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A147" s="53"/>
+      <c r="A147" s="57"/>
       <c r="E147" s="25" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="53"/>
+      <c r="A148" s="57"/>
       <c r="E148" s="25" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A149" s="53"/>
+      <c r="A149" s="57"/>
       <c r="E149" s="25" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A150" s="53"/>
+      <c r="A150" s="57"/>
       <c r="E150" s="25" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A151" s="53"/>
+      <c r="A151" s="57"/>
       <c r="E151" s="25" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A152" s="53"/>
+      <c r="A152" s="57"/>
       <c r="E152" s="25" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A153" s="53"/>
+      <c r="A153" s="57"/>
       <c r="E153" s="25" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A154" s="53"/>
+      <c r="A154" s="57"/>
       <c r="E154" s="25" t="s">
         <v>535</v>
       </c>
@@ -5508,13 +5676,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5B4F25-E774-4A01-9179-A9A2FE89D1E4}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="G27" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36:K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="63.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -5746,7 +5919,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -5760,7 +5933,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -5774,7 +5947,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
@@ -5788,7 +5961,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -5802,7 +5975,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14</v>
       </c>
@@ -5816,7 +5989,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13</v>
       </c>
@@ -5829,6 +6002,731 @@
       <c r="D22" t="s">
         <v>461</v>
       </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F25" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F26" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2013</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F27" s="60"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="J27" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F28" s="60"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="J28" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F29" s="60"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F30" s="60"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="J30" s="46" t="s">
+        <v>563</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F31" s="60"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>577</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F32" s="60"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="46" t="s">
+        <v>567</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="6:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F33" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33">
+        <v>2015</v>
+      </c>
+      <c r="H33" s="45" t="s">
+        <v>569</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>570</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="6:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F34" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="3">
+        <v>2018</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="J34" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="6:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F35" s="60"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="46" t="s">
+        <v>574</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="6:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F36" s="60"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="62" t="s">
+        <v>576</v>
+      </c>
+      <c r="J36" s="63" t="s">
+        <v>579</v>
+      </c>
+      <c r="K36" s="62" t="s">
+        <v>580</v>
+      </c>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="6:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="F37" s="60"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" s="4"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="6:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F38" s="60"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J38" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="6:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F39" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39">
+        <v>2018</v>
+      </c>
+      <c r="H39" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J39" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="6:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="F40" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="3">
+        <v>2019</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F41" s="60"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J41" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="6:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F42" s="60"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J42" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="6:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F43" s="60"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J43" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="6:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F44" s="60"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="6:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F45" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="61">
+        <v>2021</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J45" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="6:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="F46" s="60"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J46" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="6:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F47" s="60"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J47" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="6:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F48" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48">
+        <v>2022</v>
+      </c>
+      <c r="H48" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J48" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K48" s="4"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="6:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="F49" s="60"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J49" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="6:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="F50" s="60"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="6:12" ht="111" x14ac:dyDescent="0.25">
+      <c r="F51" s="60"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F52" s="60"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K52" s="4"/>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="6:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="F53" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="G53">
+        <v>2023</v>
+      </c>
+      <c r="H53" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="I53" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="6:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="F54" s="60"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="J54" s="46"/>
+      <c r="K54" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="6:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="F55" s="60"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F56" s="60"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="6:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="F57" s="60"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F58" s="60"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="6:12" ht="93" x14ac:dyDescent="0.25">
+      <c r="F59" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G59">
+        <v>2023</v>
+      </c>
+      <c r="H59" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="6:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F60" s="60"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J60" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="6:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F61" s="60"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J61" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="6:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="F62" s="60"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J62" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="K62" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="6:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F63" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="G63">
+        <v>2020</v>
+      </c>
+      <c r="H63" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="J63" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="64" spans="6:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F64" s="60"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="J64" s="46" t="s">
+        <v>293</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="6:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F65" s="60"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J65" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="6:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F66" s="60"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="J66" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="6:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="F67" s="60"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="J67" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="6:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="F68" s="60"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="J68" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="6:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="F69" s="60"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J69" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="L69" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909AD316-09B6-4A89-A1A9-DEA90D68C6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A965C7A-845F-4152-9A9B-07670A798769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="16305" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descritivos" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="642">
   <si>
     <t>Autor</t>
   </si>
@@ -2089,12 +2089,6 @@
     <t xml:space="preserve">O sistema de medição que pretende mensurar o comportamento de cuidado com as costas entre crianças do ensino fundamental deveria abordar os constructos propostos pela Teoria Cognitiva Social que aponta que os três principais determinantes psicológicos de qualquer mudança de comportamento são: autoeficácia; capacidade comportamental (habilidades e conhecimento para executar um determinado comportamento); e crenças de expectativa de resultados (crenças comportamentais). O sistema de medição é composto por 5 construtos: habilidades, autoeficácia, conhecimento, crenças de expectativa e comportamento auto-relatado. Um painel de especialista avaliou os itens quanto a sua necessidade e relevância. A associação dos itens com os construtos foi verificada por um correlação item-total. Foi executada uma análise fatorial e para investigar os construtos e um procedimento de validade convergente pra verificar as relações entre eles. O alfa de Cronbach foi usado para verificar a consistência interna.  </t>
   </si>
   <si>
-    <t>≥</t>
-  </si>
-  <si>
-    <t>≤</t>
-  </si>
-  <si>
     <t>Cada construto possui uma representação própria. Habilidades: cada item é classificado em uma escala de 3 pontos que varia de 0 (não cumprimento dos critérios) a 2 (conclusão correta da tarefa), dando uma pontuação que varia de 0 a 48 pontos, onde pontuações mais altas indicam melhor cumprimento das tarefas. Conhecimento: as pontuações neste constructo variam de 0 a 13, onde as pontuações mais altas indicam melhor conhecimento. Autoeficácia: cada item é classificado em uma escala de quatro pontos (de difícil a fácil), dando uma pontuação que varia de 4 a 16, onde as pontuações mais altas indicam maior autoeficácia. Crenças de expectativa: cada item é classificado em uma escala de cinco pontos (discordo totalmente a concordo totalmente), dando uma pontuação que varia de 6 a 30, onde uma pontuação mais alta indica crenças mais fortes. Comportamento de cuidado com as costas: as categorias de resposta variaram de nunca (1) a sempre (5), dando uma pontuação de 8 a 40, onde pontuações mais altas indicam melhor comportamento preventivo. Os valores dos construtos podem ser somados gerando uma representação para o sistema de medição que varia de 16 a 132. Os critérios para interpretar as pontuações são: alta (≥104); intermediária (entre o primeiro e o terceiro quartel, ≥45 e ≤103); e baixa (≤44). Foi calculado o MDC.</t>
   </si>
   <si>
@@ -2245,9 +2239,6 @@
     <t>Elaboração dos itens relativos aos fatores de risco.</t>
   </si>
   <si>
-    <t>Painel com 8 especialistas avaliaram: adequação ao avaliar AVDs a partir de fotografias; adequação ao avaliar dor nas costas e fatores associados; a clareza, facilidade de compreensão e aplicabilidade. Avaliação através de tabelas de frequência.</t>
-  </si>
-  <si>
     <t>Recomendações: melhor estruturação das questões; melhorar a qualidade das imagens; alterar algumas imagens; preparar uma versão para cada gênero com posturas diferentes. Aprovação do sistema de medição na segunda rodada de consulta ao painel.</t>
   </si>
   <si>
@@ -2260,20 +2251,10 @@
     <t>Não havia necesidade de mudanças</t>
   </si>
   <si>
-    <t>Validade de conteúdo e elaboração do questionário</t>
-  </si>
-  <si>
     <t>Versão em inglês do questionário</t>
   </si>
   <si>
-    <t>Tradução independente por 3 tradutores. Análise da equivalência semântica, cultural e conceitual por um painel de especialistas.</t>
-  </si>
-  <si>
     <t>Confiabilidade teste-reteste (reprodutibilidade através de um procedimento de teste e reteste)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verificar se existe consistência entre os resultados de dois instrumentos para avaliar a postura corporal durante AVDs, o BackPEI e o LADy, em estudantes de 11 a 15 anos
-</t>
   </si>
   <si>
     <r>
@@ -2346,32 +2327,325 @@
     <t>Revisão de literatura e experiência das autoras para identificar fatores de risco para dor nas costas e pescoço entre adultos</t>
   </si>
   <si>
-    <t xml:space="preserve">Painel com 3 especialistas avaliaram: adequação ao avaliar AVDs a partir de fotografias; adequação ao avaliar dor nas costas e no pescoço e fatores associados; a clareza, facilidade de compreensão e aplicabilidade. </t>
-  </si>
-  <si>
     <t>Especialistas recomendaram pequenas alterações que foram realizadas. Na segunda rodada de consulta constatou-se que não seria preciso nenhuma alteração</t>
   </si>
   <si>
     <t>Confiabilidade teste-reteste (Reprodutibilidade)</t>
   </si>
   <si>
-    <t>O questionário foi aplicado duas vezes em 260 indivíduos com intervalo de 7 dias. A avaliação ocorreu através do κnão ponderado (≥0,5), CCI e teste dos postos de sinais de Wilcoxon (p&gt;0,05).</t>
-  </si>
-  <si>
     <t>Todos os itens apresentaram κ&gt;0,5. A intensidade da dor obteve CCI=0,937 com diferença não-significativa segundo o teste dos postos de sinais de Wilcoxon (p=0,251). .</t>
   </si>
   <si>
-    <t>O questionário foi aplicado duas vezes em 154 indivíduos com intervalo de 7 dias. A avaliação ocorreu através do κ (≥0,5), CCI2,2.</t>
-  </si>
-  <si>
-    <t>Todos os itens apresentaram κ&gt;0,5. A intensidade da dor apresentou CCI=0,908, para dor nas costas, e CCI=0,865, para dor no pescoço.</t>
+    <t>Envolve apenas as questões referentes aos fatores de risco. Obtida pela soma dos pontos (máximo de 10 pontos). Quanto maior o valor, menor a exposição a fatores de risco.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envolve apenas as questões referentes aos fatores de risco. Obtida pela soma dos pontos (máximo de 16 pontos). Quanto maior o valor, menor a exposição a fatores de risco. </t>
+  </si>
+  <si>
+    <t>Tradução independente por 3 tradutores. Análise da equivalência semântica, cultural e conceitual por um painel de 2 especialistas.</t>
+  </si>
+  <si>
+    <t>Validade de Conteúdo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tradução para o turco </t>
+  </si>
+  <si>
+    <t>Validade de linguagem</t>
+  </si>
+  <si>
+    <t>O questinário foi retraduzido para o inglês para verificar se houve alteração do significado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 tradutor realizou a tradução do inglês para o turco, outro tradutor avaliou a compreensão e gramática. </t>
+  </si>
+  <si>
+    <t>Painel com 5 especialistas verificaram a clareza, relevância e adequação de cada questão. Avaliação através do IVC.</t>
+  </si>
+  <si>
+    <t>Versão preliminar do questionário em turco</t>
+  </si>
+  <si>
+    <t>Não houve alteração do significado das questões</t>
+  </si>
+  <si>
+    <t>O questionário foi aplicado entre 139 estudantes e foi avaliado através dos valores de KMO e do teste de esfericidade de Bartlett.</t>
+  </si>
+  <si>
+    <t>Validade convergente (validade de critério)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">O questionário foi aplicado entre 139 estudantes. Voi analisada a associação entre a intensidade da dor nas costas e a presença de dor nas costas através do </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>ρ</t>
+    </r>
+  </si>
+  <si>
+    <t>ρ=-0,684</t>
+  </si>
+  <si>
+    <t>Avaliação da compreensão do questionário</t>
+  </si>
+  <si>
+    <t>O questionário foi aplicado entre 10 estudantes de perfil similar à população do estudo</t>
+  </si>
+  <si>
+    <t>O questionário foi aplicado duas vezes entre 154 indivíduos com intervalo de 7 dias. A avaliação ocorreu através do κ (≥0,5), CCI2,2.</t>
+  </si>
+  <si>
+    <t>O questionário foi aplicado duas vezes entre 260 indivíduos com intervalo de 7 dias. A avaliação ocorreu através do κnão ponderado (≥0,5), CCI e teste dos postos de sinais de Wilcoxon (p&gt;0,05).</t>
+  </si>
+  <si>
+    <t>A avaliação ocorreu através do κ e testes dos postos de sinal de Wilcoxon.</t>
+  </si>
+  <si>
+    <t>Um tradutor traduziu do português para o espanhol. Um segundo tradutorretraduziu do espanhol para o português. Um terceiro tradutor comparou a versão traduzida para o espanhol e retraduzida para o português. A versão preliminar foi estabelecida por consenso entre os três tradutores.</t>
+  </si>
+  <si>
+    <t>Nenhuma intervenção foi feita. Questionário retraduzido  para o português era idêntico ao original em português.</t>
+  </si>
+  <si>
+    <t>Painel com 2 especialistas verificaram a equivalência da versão em espanhol quanto asemântica, idiomática, experiencial e conceitual. Erros de revisão foram corrigidos. Avaliação ocorreu através da concordância (≥80%).</t>
+  </si>
+  <si>
+    <t>A 2ª rodada já resultou em consenso, entretanto, acolheu-se novas sugestões feitas. Na 3ª rodada houve 100% de concordância em todos os itens. Não foram encontrados erros na revisão.</t>
+  </si>
+  <si>
+    <t>O questionário foi aplicado duas vezes entre 224 indivíduos com intervalo de 7 dias. A avaliação ocorreu através do ICC (≥0,75), teste dos postos de sinais de Wilcoxon e κ com %C (κ≥0,5 ou %C≥75%).</t>
+  </si>
+  <si>
+    <t>2 itens com κ&lt;0,5 e 4 itens com %C&lt;75%, nenhum inferior em ambos. A inteisidade da dor obteve ICC=0,928, sem diferença significativa segundo Wilcoxon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisão de literatura para identificar como a dor nas costas é avaliada e fatores de risco </t>
+  </si>
+  <si>
+    <t>Versão preliminar do questionário do BackPEI-CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Painel com 3 especialistas avaliou: adequação ao avaliar AVDs a partir de fotografias; adequação ao avaliar dor nas costas e no pescoço e fatores associados; a clareza, facilidade de compreensão e aplicabilidade. </t>
+  </si>
+  <si>
+    <t>Painel com 8 especialistas avaliou: adequação ao avaliar AVDs a partir de fotografias; adequação ao avaliar dor nas costas e fatores associados; a clareza, facilidade de compreensão e aplicabilidade. Avaliação através de tabelas de frequência.</t>
+  </si>
+  <si>
+    <t>O questionário foi aplicado duas vezes entre 105 indivíduos com intervalo de 7 dias no formato presencial e virtual. A avaliação ocorreu através do %C (&gt;50%), κ (≥0,4) e CCI(2-way mixed effects absolute agrement)</t>
+  </si>
+  <si>
+    <t>Todos os itens apresentaram %C&gt;50% e κ&gt;0,4. A intensidade da dor apresentou CCI=0,828 para dor nas costas e CCI=0,824 para dor no pescoço.</t>
+  </si>
+  <si>
+    <t>Todos os itens apresentaram κ&gt;0,5. A intensidade da dor apresentou CCI=0,908 para dor nas costas e CCI=0,865, para dor no pescoço.</t>
+  </si>
+  <si>
+    <t>Versão em inglês do questionário do BackPEI-CA</t>
+  </si>
+  <si>
+    <t>Inclusão de questões novas</t>
+  </si>
+  <si>
+    <t>Painel com 8 especialistas analisaram: clareza, facilidade de compreensão e aplicabilidade geral das novas questões; se as novas questões permitiam a identificação do comportamento de uso de dispositivos móveis; se a nova versão avaliava adequadamente dor nas costas e no pescoço. A avaliação aconteceu através do IVC para cada questão (&gt;0,8, preferencialmente &gt;0,9).</t>
+  </si>
+  <si>
+    <t>Painel com 8 especialistas avaliou:  clareza, facilidade de compreensão e aplicabilidade das novas questões e novo design; se as novas questões permitem a identificação dos fatores comportamentais relativos ao uso de dispositivos móveis. A avaliação aconteceu através do IVC para cada questão (≥0,8).</t>
+  </si>
+  <si>
+    <t>Na 2ª rodada foram obtidos ICV=1 para novas questões e design e ICV = 0,87 para os fatores comportamentais. Elaboração da versão final do BackPEI-A</t>
+  </si>
+  <si>
+    <t>O item referenet a ler e/ou estudar na cama foi separada em 2: ler na cama; e estudar na cama. Obteve-se um IVC=0,908. Elaboração da versão final do questionário em turco do BackPEI.</t>
+  </si>
+  <si>
+    <t>Na 2ª rododa o ICV variou de 0,9 a 1,0. Elaboração da versao final do BackPEI-CA</t>
+  </si>
+  <si>
+    <t>O questionário foi aplicado duas vezes entre 194 indivíduos com intervalo de 7 dias no formato presencial (n=89) e virtual (n=105). A avaliação ocorreu através do %C (&gt;50%), κ (&gt;0,4) e CCI2,2, EPM, MMD</t>
+  </si>
+  <si>
+    <t>Todos os itens apresentaram %C&gt;50% e κ&gt;0,4. A intensidade da dor nas costas apresentou CCI=0,595, SEM=1,26cm e MMD=2,48cm. A intensidade de dor no pescoço apresentou CCI=0,479, SEM=1,68cm e MMD=3,10cm.</t>
+  </si>
+  <si>
+    <t>Versão em inglês do questionário do BackPEI-A</t>
+  </si>
+  <si>
+    <t>Confiabilidade teste-reteste (Consistência interna - a parte do kappa e %C)</t>
+  </si>
+  <si>
+    <t>Todos os itens apresentaram κ&gt;0,5, %C e EP variaram respectivamente de 74,5% a 100% e 0,000 a 0,138. A intensidade da dor nas costas apresentou CCI=0,716. A intensidade de dor no pescoço apresentou CCI=0,944. A pontuação total do BackPEI apresentou CCI=0,800, r=0,809 e diferença significativa segundo o teste dos postos de sinais de Wilcoxon (p=0,009).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>O questionário foi aplicado duas vezes entre 235 indivíduos com intervalo de 7 dias. A avaliação ocorreu através do κ (≥0,5), %C, EP, CCI (2-way random effects - absolute agreement), r, teste dos postos de sinais de Wilcoxon.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0,5), %C e SE</t>
+    </r>
+  </si>
+  <si>
+    <t>Validade convergente (validade concorrente)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O BackPEI-TR e o MHQ-TR foram aplicados entre 235 indivíduos. A avaliação ocorreu a partir do ρ. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>ρ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0,725.</t>
+    </r>
+  </si>
+  <si>
+    <t>A partir da pontuação do BackPEI obtida entre 235 indivíduos foram determinados dois grupos: aqueles com valores acima do 73º percentil (G&gt;73º); e aqueles com valores abaixo do 23º percentil (G&lt;23º). Os valores dos grupos foram comparados através do teste t independente.</t>
+  </si>
+  <si>
+    <t>Diferença significativa segundo o teste t (p&lt;0,001)</t>
+  </si>
+  <si>
+    <t>Painel com 13 especialistas avaliou a utilidade e relevância de cada item. A avaliação aconteceu através do IVC (&gt;0,7) e RVC (≥0,54).</t>
+  </si>
+  <si>
+    <t>4 itens foram excluídos. Elaboração da versão intermediária do BABAQ.</t>
+  </si>
+  <si>
+    <t>Avaliação qualitativa da compreensão do questionário (Validade de face)</t>
+  </si>
+  <si>
+    <t>2 itens foram excluídos. Elaboração da versão final do BABAQ.</t>
+  </si>
+  <si>
+    <t>O questionário foi aplicado entre 6 alunas da 5ª série que avaliaram se conseguiam ler e entender as questões.</t>
+  </si>
+  <si>
+    <t>O questionário do BABAQ foi aplicado entre 610 indivíduos. Foi realizada uma Análise Fatorial Confimartória. A avaliação ocorreu através da χ²/gl (&lt;5), CFI, RMSEA (&lt;0,10), SRMR (&lt;0,08) e correlação item-total</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>χ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>²/gl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=3,51; ICA=0,97; RMSEA=0,091; SRMR=0,078; correlação item-total  satisfatória;</t>
+    </r>
+  </si>
+  <si>
+    <t>Variância Média Extraída (&gt;0,5)</t>
+  </si>
+  <si>
+    <t>O questionário foi aplicado duas vezes entre 50 indivíduos com intervalo de 2 semanas. A avaliação ocorreu através do α (&gt;0,70), ICC (&gt;0,70), EPM e MMD</t>
+  </si>
+  <si>
+    <t>α entre 0,93 e 0,97, ICC entre 0,76 e 0,83,  EPM entre 0,72 e 7,08 e MMD entre 1,99 e 19,62</t>
+  </si>
+  <si>
+    <t>Noll et al. (2013)</t>
+  </si>
+  <si>
+    <t>Antoniolli et al. (2015)</t>
+  </si>
+  <si>
+    <t>Pivotto et al. (2018)</t>
+  </si>
+  <si>
+    <t>Candotti et al. (2018)</t>
+  </si>
+  <si>
+    <t>Gençbas e Bebis (2019)</t>
+  </si>
+  <si>
+    <t>Akbari-Chehrehbargh, Tavafian e Montazeri (2020)</t>
+  </si>
+  <si>
+    <t>Miñana-Signes et al. (2021)</t>
+  </si>
+  <si>
+    <t>Rosa et al. (2022)</t>
+  </si>
+  <si>
+    <t>Candotti et al. (2023)</t>
+  </si>
+  <si>
+    <r>
+      <t>Gök</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>ş</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>en, Kocaman e Yildirim (2023)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2455,8 +2729,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2493,12 +2779,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -2530,7 +2810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2641,7 +2921,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2658,40 +2937,31 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2705,15 +2975,23 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2997,25 +3275,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:H52"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="76" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="3"/>
     <col min="5" max="5" width="50.5703125" style="4" customWidth="1"/>
     <col min="6" max="6" width="70.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="55.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="39.7109375" style="3" customWidth="1"/>
-    <col min="9" max="12" width="36.5703125" style="43" customWidth="1"/>
+    <col min="9" max="12" width="36.5703125" style="42" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3039,27 +3317,27 @@
       <c r="H1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="I1" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="42" t="s">
+      <c r="K1" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="41" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B2" s="49">
         <v>2013</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="46" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3">
@@ -3077,23 +3355,23 @@
       <c r="H2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="50" t="s">
         <v>450</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="50" t="s">
         <v>489</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="50" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="52"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
@@ -3106,15 +3384,15 @@
       <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
@@ -3127,15 +3405,15 @@
       <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="52"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="46"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -3144,15 +3422,15 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="4"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="52"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="46"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
@@ -3161,72 +3439,72 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="4"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="52"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="48" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="52"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="46"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="51"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="4"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="52"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="46"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="51"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="52"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="46"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
@@ -3237,15 +3515,15 @@
         <v>24</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="52"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="46"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
@@ -3254,15 +3532,15 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="4"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="52"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
@@ -3275,15 +3553,15 @@
       <c r="G12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="52"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
@@ -3294,13 +3572,13 @@
         <v>27</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
     </row>
     <row r="14" spans="1:12" ht="360" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B14">
@@ -3321,27 +3599,27 @@
       <c r="H14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="43" t="s">
+      <c r="I14" s="42" t="s">
         <v>491</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="42" t="s">
         <v>493</v>
       </c>
-      <c r="K14" s="43" t="s">
+      <c r="K14" s="42" t="s">
         <v>492</v>
       </c>
-      <c r="L14" s="43" t="s">
+      <c r="L14" s="42" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="330" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="54">
+      <c r="B15" s="47">
         <v>2018</v>
       </c>
-      <c r="C15" s="52" t="s">
+      <c r="C15" s="46" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="3">
@@ -3350,7 +3628,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="48" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -3359,61 +3637,61 @@
       <c r="H15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="48" t="s">
+      <c r="I15" s="50" t="s">
         <v>499</v>
       </c>
-      <c r="J15" s="49" t="s">
+      <c r="J15" s="51" t="s">
         <v>502</v>
       </c>
-      <c r="K15" s="48" t="s">
+      <c r="K15" s="50" t="s">
         <v>500</v>
       </c>
-      <c r="L15" s="48" t="s">
+      <c r="L15" s="50" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="52"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="51"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="48"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="52"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="51"/>
+      <c r="F17" s="48"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="48"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
     </row>
     <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="52"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="3">
         <v>4</v>
       </c>
@@ -3426,15 +3704,15 @@
       <c r="G18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
     </row>
     <row r="19" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="52"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="3">
         <v>5</v>
       </c>
@@ -3447,15 +3725,15 @@
       <c r="G19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
     </row>
     <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="52"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="3">
         <v>6</v>
       </c>
@@ -3465,15 +3743,15 @@
       <c r="F20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
     </row>
     <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="52"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="46"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
@@ -3483,13 +3761,13 @@
       <c r="G21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="48"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
     </row>
     <row r="22" spans="1:12" ht="285" x14ac:dyDescent="0.25">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="40" t="s">
         <v>56</v>
       </c>
       <c r="B22">
@@ -3510,27 +3788,27 @@
       <c r="H22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="43" t="s">
+      <c r="I22" s="42" t="s">
         <v>495</v>
       </c>
-      <c r="J22" s="43" t="s">
+      <c r="J22" s="42" t="s">
         <v>496</v>
       </c>
-      <c r="K22" s="43" t="s">
+      <c r="K22" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="L22" s="43" t="s">
+      <c r="L22" s="42" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="390" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="54">
+      <c r="B23" s="47">
         <v>2019</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="46" t="s">
         <v>117</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -3545,23 +3823,23 @@
       <c r="H23" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I23" s="48" t="s">
+      <c r="I23" s="50" t="s">
         <v>503</v>
       </c>
-      <c r="J23" s="48" t="s">
+      <c r="J23" s="50" t="s">
         <v>505</v>
       </c>
-      <c r="K23" s="48" t="s">
+      <c r="K23" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="L23" s="48" t="s">
+      <c r="L23" s="50" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="52"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="46"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
@@ -3571,15 +3849,15 @@
       <c r="G24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="50"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="52"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="46"/>
       <c r="E25" s="4" t="s">
         <v>118</v>
       </c>
@@ -3589,15 +3867,15 @@
       <c r="G25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="50"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="52"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="46"/>
       <c r="E26" s="4" t="s">
         <v>122</v>
       </c>
@@ -3607,15 +3885,15 @@
       <c r="G26" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
     </row>
     <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="52"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="46"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3625,19 +3903,19 @@
       <c r="G27" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
     </row>
     <row r="28" spans="1:12" ht="345" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="55">
+      <c r="B28" s="45">
         <v>2021</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="46" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -3649,26 +3927,26 @@
       <c r="G28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="52" t="s">
+      <c r="H28" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="48" t="s">
+      <c r="I28" s="50" t="s">
+        <v>547</v>
+      </c>
+      <c r="J28" s="50" t="s">
+        <v>548</v>
+      </c>
+      <c r="K28" s="50" t="s">
         <v>549</v>
       </c>
-      <c r="J28" s="48" t="s">
+      <c r="L28" s="50" t="s">
         <v>550</v>
       </c>
-      <c r="K28" s="48" t="s">
-        <v>551</v>
-      </c>
-      <c r="L28" s="48" t="s">
-        <v>552</v>
-      </c>
     </row>
     <row r="29" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="52"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
       </c>
@@ -3678,16 +3956,16 @@
       <c r="G29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="52"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
     </row>
     <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="52"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
       </c>
@@ -3697,14 +3975,14 @@
       <c r="G30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="52"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
     </row>
     <row r="31" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50" t="s">
+      <c r="A31" s="44" t="s">
         <v>78</v>
       </c>
       <c r="B31">
@@ -3719,21 +3997,21 @@
       <c r="F31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="48" t="s">
+      <c r="I31" s="50" t="s">
+        <v>534</v>
+      </c>
+      <c r="J31" s="50" t="s">
+        <v>535</v>
+      </c>
+      <c r="K31" s="50" t="s">
         <v>536</v>
       </c>
-      <c r="J31" s="48" t="s">
-        <v>537</v>
-      </c>
-      <c r="K31" s="48" t="s">
-        <v>538</v>
-      </c>
-      <c r="L31" s="48" t="s">
-        <v>543</v>
+      <c r="L31" s="50" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
+      <c r="A32" s="44"/>
       <c r="E32" s="4" t="s">
         <v>82</v>
       </c>
@@ -3746,13 +4024,13 @@
       <c r="H32" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
     </row>
     <row r="33" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
+      <c r="A33" s="44"/>
       <c r="E33" s="4" t="s">
         <v>83</v>
       </c>
@@ -3762,13 +4040,13 @@
       <c r="G33" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
     </row>
     <row r="34" spans="1:12" ht="126" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
+      <c r="A34" s="44"/>
       <c r="E34" s="4" t="s">
         <v>70</v>
       </c>
@@ -3778,26 +4056,26 @@
       <c r="G34" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
+      <c r="A35" s="44"/>
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I35" s="48"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
     </row>
     <row r="36" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="50" t="s">
+      <c r="A36" s="44" t="s">
         <v>39</v>
       </c>
       <c r="B36">
@@ -3813,34 +4091,34 @@
       <c r="H36" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I36" s="48" t="s">
+      <c r="I36" s="50" t="s">
+        <v>538</v>
+      </c>
+      <c r="J36" s="50" t="s">
+        <v>539</v>
+      </c>
+      <c r="K36" s="50" t="s">
         <v>540</v>
       </c>
-      <c r="J36" s="48" t="s">
-        <v>541</v>
-      </c>
-      <c r="K36" s="48" t="s">
+      <c r="L36" s="50" t="s">
         <v>542</v>
       </c>
-      <c r="L36" s="48" t="s">
-        <v>544</v>
-      </c>
     </row>
     <row r="37" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
+      <c r="A37" s="44"/>
       <c r="E37" s="5" t="s">
         <v>92</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
     </row>
     <row r="38" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
+      <c r="A38" s="44"/>
       <c r="E38" s="5" t="s">
         <v>93</v>
       </c>
@@ -3850,24 +4128,24 @@
       <c r="G38" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I38" s="48"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="50"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="50"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
+      <c r="A39" s="44"/>
       <c r="E39" s="5" t="s">
         <v>94</v>
       </c>
       <c r="F39" s="4"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="50"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="50"/>
     </row>
     <row r="40" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
+      <c r="A40" s="44"/>
       <c r="E40" s="5" t="s">
         <v>95</v>
       </c>
@@ -3877,24 +4155,24 @@
       <c r="G40" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I40" s="48"/>
-      <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="50"/>
+      <c r="K40" s="50"/>
+      <c r="L40" s="50"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
+      <c r="A41" s="44"/>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="4"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="50"/>
+      <c r="K41" s="50"/>
+      <c r="L41" s="50"/>
     </row>
     <row r="42" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="44" t="s">
         <v>102</v>
       </c>
       <c r="B42">
@@ -3915,21 +4193,21 @@
       <c r="H42" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I42" s="48" t="s">
+      <c r="I42" s="50" t="s">
+        <v>543</v>
+      </c>
+      <c r="J42" s="50" t="s">
+        <v>544</v>
+      </c>
+      <c r="K42" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="J42" s="48" t="s">
+      <c r="L42" s="50" t="s">
         <v>546</v>
       </c>
-      <c r="K42" s="48" t="s">
-        <v>547</v>
-      </c>
-      <c r="L42" s="48" t="s">
-        <v>548</v>
-      </c>
     </row>
     <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
+      <c r="A43" s="44"/>
       <c r="E43" s="4" t="s">
         <v>105</v>
       </c>
@@ -3939,13 +4217,13 @@
       <c r="G43" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
     </row>
     <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
+      <c r="A44" s="44"/>
       <c r="E44" s="4" t="s">
         <v>106</v>
       </c>
@@ -3955,13 +4233,13 @@
       <c r="G44" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
     </row>
     <row r="45" spans="1:12" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
+      <c r="A45" s="44"/>
       <c r="E45" s="4" t="s">
         <v>107</v>
       </c>
@@ -3971,13 +4249,13 @@
       <c r="G45" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="I45" s="48"/>
-      <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="48"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
     </row>
     <row r="46" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="50" t="s">
+      <c r="A46" s="44" t="s">
         <v>280</v>
       </c>
       <c r="B46">
@@ -3998,21 +4276,21 @@
       <c r="H46" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="I46" s="48" t="s">
+      <c r="I46" s="50" t="s">
         <v>506</v>
       </c>
-      <c r="J46" s="48" t="s">
+      <c r="J46" s="50" t="s">
         <v>507</v>
       </c>
-      <c r="K46" s="48" t="s">
-        <v>510</v>
-      </c>
-      <c r="L46" s="48" t="s">
-        <v>553</v>
+      <c r="K46" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="L46" s="50" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
+      <c r="A47" s="44"/>
       <c r="E47" s="4" t="s">
         <v>292</v>
       </c>
@@ -4022,13 +4300,13 @@
       <c r="G47" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="48"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
     </row>
     <row r="48" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
+      <c r="A48" s="44"/>
       <c r="E48" s="4" t="s">
         <v>93</v>
       </c>
@@ -4038,13 +4316,13 @@
       <c r="G48" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="50"/>
+      <c r="K48" s="50"/>
+      <c r="L48" s="50"/>
     </row>
     <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
+      <c r="A49" s="44"/>
       <c r="E49" s="4" t="s">
         <v>284</v>
       </c>
@@ -4054,13 +4332,13 @@
       <c r="G49" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="48"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="50"/>
+      <c r="K49" s="50"/>
+      <c r="L49" s="50"/>
     </row>
     <row r="50" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
+      <c r="A50" s="44"/>
       <c r="E50" s="4" t="s">
         <v>285</v>
       </c>
@@ -4070,13 +4348,13 @@
       <c r="G50" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="50"/>
+      <c r="K50" s="50"/>
+      <c r="L50" s="50"/>
     </row>
     <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="50"/>
+      <c r="A51" s="44"/>
       <c r="C51" s="36"/>
       <c r="E51" s="4" t="s">
         <v>330</v>
@@ -4087,13 +4365,13 @@
       <c r="G51" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="48"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="50"/>
+      <c r="K51" s="50"/>
+      <c r="L51" s="50"/>
     </row>
     <row r="52" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
+      <c r="A52" s="44"/>
       <c r="E52" s="4" t="s">
         <v>70</v>
       </c>
@@ -4103,48 +4381,13 @@
       <c r="G52" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="50"/>
+      <c r="K52" s="50"/>
+      <c r="L52" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="I46:I52"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="I36:I41"/>
-    <mergeCell ref="I31:I35"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="I15:I21"/>
-    <mergeCell ref="I2:I13"/>
-    <mergeCell ref="J46:J52"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="J36:J41"/>
-    <mergeCell ref="J31:J35"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="J15:J21"/>
-    <mergeCell ref="J2:J13"/>
     <mergeCell ref="K23:K27"/>
     <mergeCell ref="K15:K21"/>
     <mergeCell ref="K2:K13"/>
@@ -4161,6 +4404,41 @@
     <mergeCell ref="K36:K41"/>
     <mergeCell ref="K31:K35"/>
     <mergeCell ref="K28:K30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="I15:I21"/>
+    <mergeCell ref="I2:I13"/>
+    <mergeCell ref="J46:J52"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="J36:J41"/>
+    <mergeCell ref="J31:J35"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="J15:J21"/>
+    <mergeCell ref="J2:J13"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="I46:I52"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="I36:I41"/>
+    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4203,7 +4481,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="53" t="s">
         <v>132</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -4220,7 +4498,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="22" t="s">
         <v>142</v>
       </c>
@@ -4235,7 +4513,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="22" t="s">
         <v>143</v>
       </c>
@@ -4250,7 +4528,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="22" t="s">
         <v>146</v>
       </c>
@@ -4265,7 +4543,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="22" t="s">
         <v>180</v>
       </c>
@@ -4277,7 +4555,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="22" t="s">
         <v>187</v>
       </c>
@@ -4289,7 +4567,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="22" t="s">
         <v>188</v>
       </c>
@@ -4301,7 +4579,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
+      <c r="A9" s="53"/>
       <c r="C9" s="23" t="s">
         <v>147</v>
       </c>
@@ -4310,7 +4588,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
+      <c r="A10" s="53"/>
       <c r="C10" s="23" t="s">
         <v>147</v>
       </c>
@@ -4319,7 +4597,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
+      <c r="A11" s="53"/>
       <c r="C11" s="23" t="s">
         <v>148</v>
       </c>
@@ -4328,7 +4606,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
+      <c r="A12" s="53"/>
       <c r="C12" s="23" t="s">
         <v>158</v>
       </c>
@@ -4337,7 +4615,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
+      <c r="A13" s="53"/>
       <c r="C13" s="23" t="s">
         <v>159</v>
       </c>
@@ -4346,7 +4624,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="53"/>
       <c r="C14" s="23" t="s">
         <v>160</v>
       </c>
@@ -4355,7 +4633,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
+      <c r="A15" s="53"/>
       <c r="C15" s="23" t="s">
         <v>163</v>
       </c>
@@ -4364,7 +4642,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
+      <c r="A16" s="53"/>
       <c r="C16" s="23" t="s">
         <v>174</v>
       </c>
@@ -4373,7 +4651,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
+      <c r="A17" s="53"/>
       <c r="C17" s="23" t="s">
         <v>179</v>
       </c>
@@ -4382,7 +4660,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
+      <c r="A18" s="53"/>
       <c r="C18" s="23" t="s">
         <v>186</v>
       </c>
@@ -4391,92 +4669,92 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
+      <c r="A19" s="53"/>
       <c r="E19" s="25" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
+      <c r="A20" s="53"/>
       <c r="E20" s="25" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
+      <c r="A21" s="53"/>
       <c r="E21" s="25" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
+      <c r="A22" s="53"/>
       <c r="E22" s="25" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
+      <c r="A23" s="53"/>
       <c r="E23" s="25" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
+      <c r="A24" s="53"/>
       <c r="E24" s="25" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="53"/>
       <c r="E25" s="25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="57"/>
+      <c r="A26" s="53"/>
       <c r="E26" s="25" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
+      <c r="A27" s="53"/>
       <c r="E27" s="25" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
+      <c r="A28" s="53"/>
       <c r="E28" s="25" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
+      <c r="A29" s="53"/>
       <c r="E29" s="25" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
+      <c r="A30" s="53"/>
       <c r="E30" s="25" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
+      <c r="A31" s="53"/>
       <c r="E31" s="25" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="59"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="31"/>
       <c r="E32" s="27" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="56" t="s">
+      <c r="A33" s="52" t="s">
         <v>189</v>
       </c>
       <c r="B33" s="30" t="s">
@@ -4493,7 +4771,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="22" t="s">
         <v>210</v>
       </c>
@@ -4508,7 +4786,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
+      <c r="A35" s="53"/>
       <c r="C35" s="23" t="s">
         <v>195</v>
       </c>
@@ -4520,7 +4798,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
+      <c r="A36" s="53"/>
       <c r="C36" s="23" t="s">
         <v>196</v>
       </c>
@@ -4529,7 +4807,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
+      <c r="A37" s="53"/>
       <c r="C37" s="23" t="s">
         <v>197</v>
       </c>
@@ -4538,7 +4816,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
+      <c r="A38" s="53"/>
       <c r="C38" s="23" t="s">
         <v>203</v>
       </c>
@@ -4547,7 +4825,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
+      <c r="A39" s="53"/>
       <c r="C39" s="23" t="s">
         <v>204</v>
       </c>
@@ -4556,26 +4834,26 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
+      <c r="A40" s="53"/>
       <c r="E40" s="25" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
+      <c r="A41" s="53"/>
       <c r="E41" s="25" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="59"/>
+      <c r="A42" s="55"/>
       <c r="D42" s="33"/>
       <c r="E42" s="27" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="52" t="s">
         <v>211</v>
       </c>
       <c r="B43" s="32"/>
@@ -4590,7 +4868,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A44" s="58"/>
+      <c r="A44" s="54"/>
       <c r="C44" s="23" t="s">
         <v>214</v>
       </c>
@@ -4599,14 +4877,14 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="58"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="31"/>
       <c r="C45" s="34" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="56" t="s">
+      <c r="A46" s="52" t="s">
         <v>218</v>
       </c>
       <c r="B46" s="22" t="s">
@@ -4623,7 +4901,7 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
+      <c r="A47" s="53"/>
       <c r="B47" s="22" t="s">
         <v>221</v>
       </c>
@@ -4638,7 +4916,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="57"/>
+      <c r="A48" s="53"/>
       <c r="B48" s="22" t="s">
         <v>222</v>
       </c>
@@ -4650,7 +4928,7 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
+      <c r="A49" s="53"/>
       <c r="B49" s="22" t="s">
         <v>224</v>
       </c>
@@ -4662,7 +4940,7 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
+      <c r="A50" s="53"/>
       <c r="B50" s="22" t="s">
         <v>248</v>
       </c>
@@ -4674,7 +4952,7 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
+      <c r="A51" s="53"/>
       <c r="B51" s="22" t="s">
         <v>250</v>
       </c>
@@ -4686,7 +4964,7 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
+      <c r="A52" s="53"/>
       <c r="B52" s="22" t="s">
         <v>252</v>
       </c>
@@ -4698,7 +4976,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="57"/>
+      <c r="A53" s="53"/>
       <c r="B53" s="22" t="s">
         <v>253</v>
       </c>
@@ -4710,7 +4988,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="57"/>
+      <c r="A54" s="53"/>
       <c r="B54" s="22" t="s">
         <v>258</v>
       </c>
@@ -4722,7 +5000,7 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
+      <c r="A55" s="53"/>
       <c r="B55" s="22" t="s">
         <v>259</v>
       </c>
@@ -4731,7 +5009,7 @@
       </c>
     </row>
     <row r="56" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="57"/>
+      <c r="A56" s="53"/>
       <c r="B56" s="22" t="s">
         <v>261</v>
       </c>
@@ -4740,7 +5018,7 @@
       </c>
     </row>
     <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
+      <c r="A57" s="53"/>
       <c r="B57" s="22" t="s">
         <v>262</v>
       </c>
@@ -4749,7 +5027,7 @@
       </c>
     </row>
     <row r="58" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
+      <c r="A58" s="53"/>
       <c r="B58" s="22" t="s">
         <v>263</v>
       </c>
@@ -4758,7 +5036,7 @@
       </c>
     </row>
     <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
+      <c r="A59" s="53"/>
       <c r="B59" s="22" t="s">
         <v>265</v>
       </c>
@@ -4767,56 +5045,56 @@
       </c>
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
+      <c r="A60" s="53"/>
       <c r="E60" s="25" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
+      <c r="A61" s="53"/>
       <c r="E61" s="25" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
+      <c r="A62" s="53"/>
       <c r="E62" s="25" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
+      <c r="A63" s="53"/>
       <c r="E63" s="25" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="57"/>
+      <c r="A64" s="53"/>
       <c r="E64" s="25" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
+      <c r="A65" s="53"/>
       <c r="E65" s="25" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="57"/>
+      <c r="A66" s="53"/>
       <c r="E66" s="25" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
+      <c r="A67" s="53"/>
       <c r="B67" s="31"/>
       <c r="E67" s="25" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A68" s="56" t="s">
+      <c r="A68" s="52" t="s">
         <v>267</v>
       </c>
       <c r="B68" s="22" t="s">
@@ -4833,7 +5111,7 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="255" x14ac:dyDescent="0.25">
-      <c r="A69" s="57"/>
+      <c r="A69" s="53"/>
       <c r="B69" s="22" t="s">
         <v>269</v>
       </c>
@@ -4845,7 +5123,7 @@
       </c>
     </row>
     <row r="70" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A70" s="57"/>
+      <c r="A70" s="53"/>
       <c r="B70" s="22" t="s">
         <v>277</v>
       </c>
@@ -4857,13 +5135,13 @@
       </c>
     </row>
     <row r="71" spans="1:5" ht="360" x14ac:dyDescent="0.25">
-      <c r="A71" s="57"/>
+      <c r="A71" s="53"/>
       <c r="C71" s="23" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="59"/>
+      <c r="A72" s="55"/>
       <c r="B72" s="31"/>
       <c r="C72" s="34" t="s">
         <v>278</v>
@@ -4871,7 +5149,7 @@
       <c r="D72" s="33"/>
     </row>
     <row r="73" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A73" s="56" t="s">
+      <c r="A73" s="52" t="s">
         <v>279</v>
       </c>
       <c r="B73" s="22" t="s">
@@ -4888,7 +5166,7 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="58"/>
+      <c r="A74" s="54"/>
       <c r="B74" s="22" t="s">
         <v>282</v>
       </c>
@@ -4903,7 +5181,7 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="58"/>
+      <c r="A75" s="54"/>
       <c r="B75" s="22" t="s">
         <v>325</v>
       </c>
@@ -4918,7 +5196,7 @@
       </c>
     </row>
     <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="58"/>
+      <c r="A76" s="54"/>
       <c r="B76" s="22" t="s">
         <v>326</v>
       </c>
@@ -4933,7 +5211,7 @@
       </c>
     </row>
     <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="58"/>
+      <c r="A77" s="54"/>
       <c r="B77" s="22" t="s">
         <v>327</v>
       </c>
@@ -4948,7 +5226,7 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="58"/>
+      <c r="A78" s="54"/>
       <c r="C78" s="23" t="s">
         <v>313</v>
       </c>
@@ -4960,7 +5238,7 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A79" s="58"/>
+      <c r="A79" s="54"/>
       <c r="C79" s="23" t="s">
         <v>316</v>
       </c>
@@ -4972,7 +5250,7 @@
       </c>
     </row>
     <row r="80" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A80" s="58"/>
+      <c r="A80" s="54"/>
       <c r="C80" s="23" t="s">
         <v>317</v>
       </c>
@@ -4984,7 +5262,7 @@
       </c>
     </row>
     <row r="81" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A81" s="58"/>
+      <c r="A81" s="54"/>
       <c r="C81" s="23" t="s">
         <v>319</v>
       </c>
@@ -4996,7 +5274,7 @@
       </c>
     </row>
     <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="58"/>
+      <c r="A82" s="54"/>
       <c r="C82" s="23" t="s">
         <v>320</v>
       </c>
@@ -5008,7 +5286,7 @@
       </c>
     </row>
     <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="58"/>
+      <c r="A83" s="54"/>
       <c r="C83" s="34" t="s">
         <v>328</v>
       </c>
@@ -5016,7 +5294,7 @@
       <c r="E83" s="27"/>
     </row>
     <row r="84" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="56" t="s">
+      <c r="A84" s="52" t="s">
         <v>337</v>
       </c>
       <c r="B84" s="32" t="s">
@@ -5033,7 +5311,7 @@
       </c>
     </row>
     <row r="85" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
+      <c r="A85" s="53"/>
       <c r="B85" s="22" t="s">
         <v>341</v>
       </c>
@@ -5048,7 +5326,7 @@
       </c>
     </row>
     <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="57"/>
+      <c r="A86" s="53"/>
       <c r="B86" s="22" t="s">
         <v>368</v>
       </c>
@@ -5063,7 +5341,7 @@
       </c>
     </row>
     <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="57"/>
+      <c r="A87" s="53"/>
       <c r="B87" s="22" t="s">
         <v>370</v>
       </c>
@@ -5075,7 +5353,7 @@
       </c>
     </row>
     <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="57"/>
+      <c r="A88" s="53"/>
       <c r="B88" s="22" t="s">
         <v>381</v>
       </c>
@@ -5087,7 +5365,7 @@
       </c>
     </row>
     <row r="89" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="57"/>
+      <c r="A89" s="53"/>
       <c r="C89" s="23" t="s">
         <v>369</v>
       </c>
@@ -5096,7 +5374,7 @@
       </c>
     </row>
     <row r="90" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A90" s="57"/>
+      <c r="A90" s="53"/>
       <c r="C90" s="23" t="s">
         <v>371</v>
       </c>
@@ -5105,16 +5383,16 @@
       </c>
     </row>
     <row r="91" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A91" s="57"/>
+      <c r="A91" s="53"/>
       <c r="C91" s="23" t="s">
         <v>372</v>
       </c>
       <c r="E91" s="25" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="57"/>
+      <c r="A92" s="53"/>
       <c r="C92" s="23" t="s">
         <v>373</v>
       </c>
@@ -5123,7 +5401,7 @@
       </c>
     </row>
     <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
+      <c r="A93" s="53"/>
       <c r="C93" s="23" t="s">
         <v>375</v>
       </c>
@@ -5132,7 +5410,7 @@
       </c>
     </row>
     <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94" s="57"/>
+      <c r="A94" s="53"/>
       <c r="C94" s="23" t="s">
         <v>377</v>
       </c>
@@ -5141,7 +5419,7 @@
       </c>
     </row>
     <row r="95" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A95" s="57"/>
+      <c r="A95" s="53"/>
       <c r="C95" s="23" t="s">
         <v>382</v>
       </c>
@@ -5150,98 +5428,98 @@
       </c>
     </row>
     <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="57"/>
+      <c r="A96" s="53"/>
       <c r="E96" s="25" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="57"/>
+      <c r="A97" s="53"/>
       <c r="E97" s="25" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="57"/>
+      <c r="A98" s="53"/>
       <c r="E98" s="25" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="57"/>
+      <c r="A99" s="53"/>
       <c r="E99" s="25" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="57"/>
+      <c r="A100" s="53"/>
       <c r="E100" s="25" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="57"/>
+      <c r="A101" s="53"/>
       <c r="E101" s="25" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="57"/>
+      <c r="A102" s="53"/>
       <c r="E102" s="25" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="57"/>
+      <c r="A103" s="53"/>
       <c r="E103" s="25" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="57"/>
+      <c r="A104" s="53"/>
       <c r="E104" s="25" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="57"/>
+      <c r="A105" s="53"/>
       <c r="E105" s="25" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="57"/>
+      <c r="A106" s="53"/>
       <c r="E106" s="25" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="57"/>
+      <c r="A107" s="53"/>
       <c r="E107" s="25" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="57"/>
+      <c r="A108" s="53"/>
       <c r="E108" s="25" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="57"/>
+      <c r="A109" s="53"/>
       <c r="E109" s="25" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="59"/>
+      <c r="A110" s="55"/>
       <c r="D110" s="33"/>
       <c r="E110" s="25" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="56" t="s">
+      <c r="A111" s="52" t="s">
         <v>383</v>
       </c>
       <c r="B111" s="32" t="s">
@@ -5258,7 +5536,7 @@
       </c>
     </row>
     <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="57"/>
+      <c r="A112" s="53"/>
       <c r="B112" s="22" t="s">
         <v>389</v>
       </c>
@@ -5273,7 +5551,7 @@
       </c>
     </row>
     <row r="113" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A113" s="57"/>
+      <c r="A113" s="53"/>
       <c r="B113" s="22" t="s">
         <v>391</v>
       </c>
@@ -5288,7 +5566,7 @@
       </c>
     </row>
     <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="57"/>
+      <c r="A114" s="53"/>
       <c r="B114" s="22" t="s">
         <v>407</v>
       </c>
@@ -5300,7 +5578,7 @@
       </c>
     </row>
     <row r="115" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A115" s="57"/>
+      <c r="A115" s="53"/>
       <c r="B115" s="22" t="s">
         <v>410</v>
       </c>
@@ -5312,7 +5590,7 @@
       </c>
     </row>
     <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="57"/>
+      <c r="A116" s="53"/>
       <c r="B116" s="22" t="s">
         <v>411</v>
       </c>
@@ -5324,7 +5602,7 @@
       </c>
     </row>
     <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="57"/>
+      <c r="A117" s="53"/>
       <c r="C117" s="23" t="s">
         <v>408</v>
       </c>
@@ -5333,7 +5611,7 @@
       </c>
     </row>
     <row r="118" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A118" s="57"/>
+      <c r="A118" s="53"/>
       <c r="C118" s="23" t="s">
         <v>414</v>
       </c>
@@ -5342,7 +5620,7 @@
       </c>
     </row>
     <row r="119" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" s="57"/>
+      <c r="A119" s="53"/>
       <c r="C119" s="23" t="s">
         <v>415</v>
       </c>
@@ -5351,37 +5629,37 @@
       </c>
     </row>
     <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="57"/>
+      <c r="A120" s="53"/>
       <c r="E120" s="25" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A121" s="57"/>
+      <c r="A121" s="53"/>
       <c r="E121" s="25" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A122" s="57"/>
+      <c r="A122" s="53"/>
       <c r="E122" s="25" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="57"/>
+      <c r="A123" s="53"/>
       <c r="E123" s="25" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="57"/>
+      <c r="A124" s="53"/>
       <c r="E124" s="25" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A125" s="59"/>
+      <c r="A125" s="55"/>
       <c r="B125" s="31"/>
       <c r="C125" s="34"/>
       <c r="D125" s="33"/>
@@ -5390,7 +5668,7 @@
       </c>
     </row>
     <row r="126" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A126" s="56" t="s">
+      <c r="A126" s="52" t="s">
         <v>416</v>
       </c>
       <c r="B126" s="22" t="s">
@@ -5407,7 +5685,7 @@
       </c>
     </row>
     <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="58"/>
+      <c r="A127" s="54"/>
       <c r="B127" s="22" t="s">
         <v>447</v>
       </c>
@@ -5422,7 +5700,7 @@
       </c>
     </row>
     <row r="128" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A128" s="58"/>
+      <c r="A128" s="54"/>
       <c r="B128" s="22" t="s">
         <v>448</v>
       </c>
@@ -5437,7 +5715,7 @@
       </c>
     </row>
     <row r="129" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A129" s="58"/>
+      <c r="A129" s="54"/>
       <c r="B129" s="22" t="s">
         <v>449</v>
       </c>
@@ -5452,7 +5730,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A130" s="58"/>
+      <c r="A130" s="54"/>
       <c r="C130" s="23" t="s">
         <v>425</v>
       </c>
@@ -5461,7 +5739,7 @@
       </c>
     </row>
     <row r="131" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A131" s="58"/>
+      <c r="A131" s="54"/>
       <c r="C131" s="23" t="s">
         <v>427</v>
       </c>
@@ -5470,7 +5748,7 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="58"/>
+      <c r="A132" s="54"/>
       <c r="C132" s="23" t="s">
         <v>429</v>
       </c>
@@ -5479,7 +5757,7 @@
       </c>
     </row>
     <row r="133" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A133" s="58"/>
+      <c r="A133" s="54"/>
       <c r="C133" s="23" t="s">
         <v>435</v>
       </c>
@@ -5488,7 +5766,7 @@
       </c>
     </row>
     <row r="134" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A134" s="58"/>
+      <c r="A134" s="54"/>
       <c r="C134" s="23" t="s">
         <v>441</v>
       </c>
@@ -5497,7 +5775,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A135" s="58"/>
+      <c r="A135" s="54"/>
       <c r="C135" s="23" t="s">
         <v>443</v>
       </c>
@@ -5506,7 +5784,7 @@
       </c>
     </row>
     <row r="136" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A136" s="58"/>
+      <c r="A136" s="54"/>
       <c r="C136" s="23" t="s">
         <v>445</v>
       </c>
@@ -5515,8 +5793,8 @@
       </c>
     </row>
     <row r="137" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A137" s="58"/>
-      <c r="C137" s="39" t="s">
+      <c r="A137" s="54"/>
+      <c r="C137" s="38" t="s">
         <v>446</v>
       </c>
       <c r="E137" s="25" t="s">
@@ -5524,136 +5802,136 @@
       </c>
     </row>
     <row r="138" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="58"/>
-      <c r="C138" s="39"/>
+      <c r="A138" s="54"/>
+      <c r="C138" s="38"/>
       <c r="E138" s="25" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="59"/>
+      <c r="A139" s="55"/>
       <c r="B139" s="31"/>
       <c r="C139" s="34"/>
       <c r="E139" s="27"/>
     </row>
     <row r="140" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A140" s="56" t="s">
-        <v>512</v>
+      <c r="A140" s="52" t="s">
+        <v>510</v>
       </c>
       <c r="B140" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="C140" s="23" t="s">
         <v>511</v>
-      </c>
-      <c r="C140" s="23" t="s">
-        <v>513</v>
       </c>
       <c r="D140" s="28"/>
       <c r="E140" s="25" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A141" s="53"/>
+      <c r="B141" s="22" t="s">
+        <v>527</v>
+      </c>
+      <c r="C141" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="E141" s="25" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A141" s="57"/>
-      <c r="B141" s="22" t="s">
+    <row r="142" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A142" s="53"/>
+      <c r="C142" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="E142" s="25" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A143" s="53"/>
+      <c r="C143" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="C141" s="23" t="s">
-        <v>515</v>
-      </c>
-      <c r="E141" s="25" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A142" s="57"/>
-      <c r="C142" s="23" t="s">
+      <c r="E143" s="25" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A144" s="53"/>
+      <c r="C144" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="E144" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="E142" s="25" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="240" x14ac:dyDescent="0.25">
-      <c r="A143" s="57"/>
-      <c r="C143" s="23" t="s">
+    </row>
+    <row r="145" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A145" s="53"/>
+      <c r="C145" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="E143" s="25" t="s">
+      <c r="E145" s="25" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A144" s="57"/>
-      <c r="C144" s="23" t="s">
+    <row r="146" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A146" s="53"/>
+      <c r="C146" s="23" t="s">
         <v>532</v>
       </c>
-      <c r="E144" s="25" t="s">
+      <c r="E146" s="25" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A145" s="57"/>
-      <c r="C145" s="23" t="s">
+    <row r="147" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A147" s="53"/>
+      <c r="E147" s="25" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="53"/>
+      <c r="E148" s="25" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A149" s="53"/>
+      <c r="E149" s="25" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" s="53"/>
+      <c r="E150" s="25" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A151" s="53"/>
+      <c r="E151" s="25" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" s="53"/>
+      <c r="E152" s="25" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A153" s="53"/>
+      <c r="E153" s="25" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A154" s="53"/>
+      <c r="E154" s="25" t="s">
         <v>533</v>
-      </c>
-      <c r="E145" s="25" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A146" s="57"/>
-      <c r="C146" s="23" t="s">
-        <v>534</v>
-      </c>
-      <c r="E146" s="25" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A147" s="57"/>
-      <c r="E147" s="25" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="57"/>
-      <c r="E148" s="25" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A149" s="57"/>
-      <c r="E149" s="25" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A150" s="57"/>
-      <c r="E150" s="25" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A151" s="57"/>
-      <c r="E151" s="25" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A152" s="57"/>
-      <c r="E152" s="25" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A153" s="57"/>
-      <c r="E153" s="25" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A154" s="57"/>
-      <c r="E154" s="25" t="s">
-        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -5676,20 +5954,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5B4F25-E774-4A01-9179-A9A2FE89D1E4}">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G27" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36:K36"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G61" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="63.42578125" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" style="59" customWidth="1"/>
+    <col min="8" max="9" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>452</v>
       </c>
@@ -5703,7 +5981,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>21</v>
       </c>
@@ -5716,11 +5994,8 @@
       <c r="D2" t="s">
         <v>458</v>
       </c>
-      <c r="H2" s="38" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>19</v>
       </c>
@@ -5733,11 +6008,8 @@
       <c r="D3" t="s">
         <v>461</v>
       </c>
-      <c r="H3" s="38" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5751,7 +6023,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5765,7 +6037,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5779,7 +6051,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8</v>
       </c>
@@ -5793,7 +6065,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15</v>
       </c>
@@ -5807,7 +6079,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -5821,7 +6093,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5835,7 +6107,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -5849,7 +6121,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>6</v>
       </c>
@@ -5863,7 +6135,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18</v>
       </c>
@@ -5877,7 +6149,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20</v>
       </c>
@@ -5891,7 +6163,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>17</v>
       </c>
@@ -5905,7 +6177,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>7</v>
       </c>
@@ -5919,7 +6191,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -5933,7 +6205,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -5947,7 +6219,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
@@ -5961,7 +6233,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -5975,7 +6247,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>14</v>
       </c>
@@ -5989,7 +6261,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>13</v>
       </c>
@@ -6003,732 +6275,543 @@
         <v>461</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F25" s="40" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F25" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>19</v>
+      <c r="G25" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="I25" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="F26" s="60" t="s">
+        <v>632</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F27" s="60"/>
+      <c r="G27" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="J25" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="F26" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3">
-        <v>2013</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="46" t="s">
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F28" s="60"/>
+      <c r="G28" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="H28" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F27" s="60"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="J27" s="46" t="s">
+      <c r="I28" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="F29" s="60"/>
+      <c r="G29" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F30" s="60"/>
+      <c r="G30" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="H30" s="43" t="s">
+        <v>560</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="F31" s="60"/>
+      <c r="G31" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="H31" s="43" t="s">
+        <v>589</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F32" s="60"/>
+      <c r="G32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="43" t="s">
+        <v>573</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="33" spans="6:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="F33" s="61" t="s">
+        <v>633</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="43" t="s">
+        <v>564</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="34" spans="6:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="F34" s="61" t="s">
+        <v>634</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="K27" s="4" t="s">
-        <v>557</v>
-      </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F28" s="60"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4" t="s">
-        <v>558</v>
-      </c>
-      <c r="J28" s="46" t="s">
+      <c r="I34" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="35" spans="6:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="60" t="s">
+        <v>635</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="H35" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="4" t="s">
-        <v>559</v>
-      </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="F29" s="60"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F30" s="60"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4" t="s">
+      <c r="I35" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="36" spans="6:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="F36" s="60"/>
+      <c r="G36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>599</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F37" s="60"/>
+      <c r="G37" s="56" t="s">
+        <v>569</v>
+      </c>
+      <c r="H37" s="57" t="s">
+        <v>588</v>
+      </c>
+      <c r="I37" s="56" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="38" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F38" s="60"/>
+      <c r="G38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="43" t="s">
+        <v>573</v>
+      </c>
+      <c r="I38" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="J30" s="46" t="s">
-        <v>563</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>564</v>
-      </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="F31" s="60"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="J31" s="46" t="s">
+    </row>
+    <row r="39" spans="6:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="F39" s="60"/>
+      <c r="G39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H39" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="40" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F40" s="60" t="s">
+        <v>636</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="F41" s="60"/>
+      <c r="G41" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>579</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F42" s="60"/>
+      <c r="G42" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="H42" s="13" t="s">
         <v>577</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F32" s="60"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4" t="s">
+      <c r="I42" s="4" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="43" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F43" s="60"/>
+      <c r="G43" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>587</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F44" s="60"/>
+      <c r="G44" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="H44" s="43" t="s">
+        <v>582</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="6:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="F45" s="60"/>
+      <c r="G45" s="4" t="s">
+        <v>583</v>
+      </c>
+      <c r="H45" s="43" t="s">
+        <v>584</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="46" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F46" s="60"/>
+      <c r="G46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>590</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="6:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="60" t="s">
+        <v>637</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="48" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F48" s="60"/>
+      <c r="G48" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H48" s="43" t="s">
+        <v>622</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="49" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F49" s="60"/>
+      <c r="G49" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="H49" s="43" t="s">
+        <v>626</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="50" spans="6:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="F50" s="60"/>
+      <c r="G50" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H50" s="43" t="s">
+        <v>627</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="51" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F51" s="60"/>
+      <c r="G51" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H51" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52" spans="6:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="F52" s="60"/>
+      <c r="G52" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="43" t="s">
+        <v>630</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="53" spans="6:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="F53" s="60" t="s">
+        <v>638</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" s="43" t="s">
+        <v>591</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="54" spans="6:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="F54" s="60"/>
+      <c r="G54" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H54" s="43" t="s">
+        <v>593</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="55" spans="6:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="F55" s="60"/>
+      <c r="G55" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H55" s="43" t="s">
+        <v>595</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="56" spans="6:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="60" t="s">
+        <v>639</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="H56" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="57" spans="6:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F57" s="60"/>
+      <c r="G57" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="58" spans="6:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="F58" s="60"/>
+      <c r="G58" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="59" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F59" s="60"/>
+      <c r="G59" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="46" t="s">
-        <v>567</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="6:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="F33" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33">
-        <v>2015</v>
-      </c>
-      <c r="H33" s="45" t="s">
-        <v>569</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J33" s="46" t="s">
-        <v>570</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="6:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="F34" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="3">
-        <v>2018</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="J34" s="46" t="s">
+      <c r="H59" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K34" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="6:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="F35" s="60"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J35" s="46" t="s">
-        <v>574</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="6:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F36" s="60"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="62" t="s">
-        <v>576</v>
-      </c>
-      <c r="J36" s="63" t="s">
-        <v>579</v>
-      </c>
-      <c r="K36" s="62" t="s">
-        <v>580</v>
-      </c>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="6:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="F37" s="60"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4" t="s">
+      <c r="I59" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="60" spans="6:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="60" t="s">
+        <v>640</v>
+      </c>
+      <c r="G60" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="61" spans="6:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="F61" s="60"/>
+      <c r="G61" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="62" spans="6:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="F62" s="60"/>
+      <c r="G62" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="63" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="F63" s="60"/>
+      <c r="G63" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="J37" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="K37" s="4"/>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="6:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="F38" s="60"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J38" s="46" t="s">
+      <c r="H63" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K38" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="6:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="F39" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39">
-        <v>2018</v>
-      </c>
-      <c r="H39" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J39" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K39" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="6:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="F40" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="G40" s="3">
-        <v>2019</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F41" s="60"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J41" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="K41" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="6:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F42" s="60"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4" t="s">
+      <c r="I63" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="64" spans="6:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F64" s="60" t="s">
+        <v>641</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="65" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F65" s="60"/>
+      <c r="G65" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H65" s="43" t="s">
+        <v>618</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="66" spans="6:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="F66" s="60"/>
+      <c r="G66" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="J42" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="6:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F43" s="60"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="J43" s="46" t="s">
-        <v>271</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="6:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="F44" s="60"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J44" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="K44" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="6:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="F45" s="60" t="s">
-        <v>79</v>
-      </c>
-      <c r="G45" s="61">
-        <v>2021</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J45" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="6:12" ht="135" x14ac:dyDescent="0.25">
-      <c r="F46" s="60"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J46" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="L46" s="4"/>
-    </row>
-    <row r="47" spans="6:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="F47" s="60"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J47" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="K47" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L47" s="4"/>
-    </row>
-    <row r="48" spans="6:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="F48" s="60" t="s">
-        <v>78</v>
-      </c>
-      <c r="G48">
-        <v>2022</v>
-      </c>
-      <c r="H48" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="I48" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J48" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K48" s="4"/>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="6:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="F49" s="60"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J49" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="6:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="F50" s="60"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="6:12" ht="111" x14ac:dyDescent="0.25">
-      <c r="F51" s="60"/>
-      <c r="H51" s="45"/>
-      <c r="I51" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J51" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K51" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F52" s="60"/>
-      <c r="H52" s="45"/>
-      <c r="I52" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K52" s="4"/>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="6:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="F53" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="G53">
-        <v>2023</v>
-      </c>
-      <c r="H53" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="I53" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="6:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="F54" s="60"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="J54" s="46"/>
-      <c r="K54" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="6:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="F55" s="60"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="J55" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F56" s="60"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="6:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="F57" s="60"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K57" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F58" s="60"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="6:12" ht="93" x14ac:dyDescent="0.25">
-      <c r="F59" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="G59">
-        <v>2023</v>
-      </c>
-      <c r="H59" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="J59" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K59" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="60" spans="6:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="F60" s="60"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="J60" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="6:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F61" s="60"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="J61" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K61" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="6:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="F62" s="60"/>
-      <c r="H62" s="45"/>
-      <c r="I62" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="J62" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="K62" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="6:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="F63" s="47" t="s">
-        <v>280</v>
-      </c>
-      <c r="G63">
-        <v>2020</v>
-      </c>
-      <c r="H63" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="J63" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="K63" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="64" spans="6:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="F64" s="60"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="J64" s="46" t="s">
-        <v>293</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="6:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="F65" s="60"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="J65" s="46" t="s">
-        <v>307</v>
-      </c>
-      <c r="K65" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="6:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F66" s="60"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="J66" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="K66" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="6:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="F67" s="60"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="J67" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="K67" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="6:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="F68" s="60"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="J68" s="46" t="s">
-        <v>331</v>
-      </c>
-      <c r="K68" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="6:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="F69" s="60"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J69" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="K69" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="L69" s="3"/>
+      <c r="H66" s="43" t="s">
+        <v>620</v>
+      </c>
+      <c r="I66" s="11" t="s">
+        <v>621</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F47:F52"/>
+    <mergeCell ref="F53:F55"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="F40:F46"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A965C7A-845F-4152-9A9B-07670A798769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0351E2B2-F2CE-4596-8CBD-4FB89D0FE802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Descritivos" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="641">
   <si>
     <t>Autor</t>
   </si>
@@ -664,9 +664,6 @@
   </si>
   <si>
     <t>Avaliação da confiabilidade</t>
-  </si>
-  <si>
-    <t>Questões novas: 2 questões sobre as posições ao utilizar celulares; 1 sobre o tempo de uso de dispositivos móveis. Uma questão alterada, aquela sobre ler e/ou estudar na cama foi acrescida do uso de um dispositivo móvel. Ainda foram inseridos desenhos esquemáticos para apoiar as questões relativas a dor nas costas e pescoço</t>
   </si>
   <si>
     <r>
@@ -2939,29 +2936,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2975,23 +2987,8 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3275,9 +3272,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3318,26 +3315,26 @@
         <v>31</v>
       </c>
       <c r="I1" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="L1" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="41" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="54">
         <v>2013</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="53" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3">
@@ -3355,23 +3352,23 @@
       <c r="H2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="50" t="s">
+      <c r="I2" s="49" t="s">
+        <v>449</v>
+      </c>
+      <c r="J2" s="49" t="s">
+        <v>488</v>
+      </c>
+      <c r="K2" s="49" t="s">
         <v>450</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="L2" s="49" t="s">
         <v>489</v>
       </c>
-      <c r="K2" s="50" t="s">
-        <v>451</v>
-      </c>
-      <c r="L2" s="50" t="s">
-        <v>490</v>
-      </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="46"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
@@ -3384,15 +3381,15 @@
       <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="46"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
@@ -3405,15 +3402,15 @@
       <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="46"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -3422,15 +3419,15 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="4"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="46"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
@@ -3439,72 +3436,72 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="4"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="53"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="52" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="53"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="48"/>
+      <c r="F8" s="52"/>
       <c r="G8" s="4"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="46"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="48"/>
+      <c r="F9" s="52"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="46"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
@@ -3515,15 +3512,15 @@
         <v>24</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="46"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
@@ -3532,15 +3529,15 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="4"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="46"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
@@ -3553,15 +3550,15 @@
       <c r="G12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="46"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
@@ -3572,10 +3569,10 @@
         <v>27</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
     </row>
     <row r="14" spans="1:12" ht="360" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
@@ -3600,26 +3597,26 @@
         <v>38</v>
       </c>
       <c r="I14" s="42" t="s">
+        <v>490</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>492</v>
+      </c>
+      <c r="K14" s="42" t="s">
         <v>491</v>
       </c>
-      <c r="J14" s="42" t="s">
+      <c r="L14" s="42" t="s">
         <v>493</v>
       </c>
-      <c r="K14" s="42" t="s">
-        <v>492</v>
-      </c>
-      <c r="L14" s="42" t="s">
-        <v>494</v>
-      </c>
     </row>
     <row r="15" spans="1:12" ht="330" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="47">
+      <c r="B15" s="55">
         <v>2018</v>
       </c>
-      <c r="C15" s="46" t="s">
+      <c r="C15" s="53" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="3">
@@ -3628,7 +3625,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="F15" s="52" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -3637,61 +3634,61 @@
       <c r="H15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="49" t="s">
+        <v>498</v>
+      </c>
+      <c r="J15" s="50" t="s">
+        <v>501</v>
+      </c>
+      <c r="K15" s="49" t="s">
         <v>499</v>
       </c>
-      <c r="J15" s="51" t="s">
-        <v>502</v>
-      </c>
-      <c r="K15" s="50" t="s">
+      <c r="L15" s="49" t="s">
         <v>500</v>
       </c>
-      <c r="L15" s="50" t="s">
-        <v>501</v>
-      </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="46"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="48"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="46"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="48"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
     </row>
     <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="46"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="3">
         <v>4</v>
       </c>
@@ -3704,15 +3701,15 @@
       <c r="G18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
     </row>
     <row r="19" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="46"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="3">
         <v>5</v>
       </c>
@@ -3725,15 +3722,15 @@
       <c r="G19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="50"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
     </row>
     <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="46"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="3">
         <v>6</v>
       </c>
@@ -3743,15 +3740,15 @@
       <c r="F20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="50"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
     </row>
     <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="46"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="53"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
@@ -3761,10 +3758,10 @@
       <c r="G21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
     </row>
     <row r="22" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
@@ -3789,57 +3786,57 @@
         <v>61</v>
       </c>
       <c r="I22" s="42" t="s">
+        <v>494</v>
+      </c>
+      <c r="J22" s="42" t="s">
         <v>495</v>
       </c>
-      <c r="J22" s="42" t="s">
+      <c r="K22" s="42" t="s">
         <v>496</v>
       </c>
-      <c r="K22" s="42" t="s">
+      <c r="L22" s="42" t="s">
         <v>497</v>
       </c>
-      <c r="L22" s="42" t="s">
-        <v>498</v>
-      </c>
     </row>
     <row r="23" spans="1:12" ht="390" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="47">
+      <c r="B23" s="55">
         <v>2019</v>
       </c>
-      <c r="C23" s="46" t="s">
-        <v>117</v>
+      <c r="C23" s="53" t="s">
+        <v>116</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="H23" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I23" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="I23" s="49" t="s">
+        <v>502</v>
+      </c>
+      <c r="J23" s="49" t="s">
+        <v>504</v>
+      </c>
+      <c r="K23" s="49" t="s">
+        <v>267</v>
+      </c>
+      <c r="L23" s="49" t="s">
         <v>503</v>
       </c>
-      <c r="J23" s="50" t="s">
-        <v>505</v>
-      </c>
-      <c r="K23" s="50" t="s">
-        <v>268</v>
-      </c>
-      <c r="L23" s="50" t="s">
-        <v>504</v>
-      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="46"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="53"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
@@ -3849,73 +3846,73 @@
       <c r="G24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="46"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="53"/>
       <c r="E25" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="46"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="53"/>
       <c r="E26" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
+        <v>123</v>
+      </c>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
     </row>
     <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="46"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="53"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
     </row>
     <row r="28" spans="1:12" ht="345" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="56">
         <v>2021</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="53" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -3927,26 +3924,26 @@
       <c r="G28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="46" t="s">
+      <c r="H28" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="50" t="s">
+      <c r="I28" s="49" t="s">
+        <v>546</v>
+      </c>
+      <c r="J28" s="49" t="s">
         <v>547</v>
       </c>
-      <c r="J28" s="50" t="s">
+      <c r="K28" s="49" t="s">
         <v>548</v>
       </c>
-      <c r="K28" s="50" t="s">
+      <c r="L28" s="49" t="s">
         <v>549</v>
       </c>
-      <c r="L28" s="50" t="s">
-        <v>550</v>
-      </c>
     </row>
     <row r="29" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="53"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
       </c>
@@ -3956,16 +3953,16 @@
       <c r="G29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="46"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
     </row>
     <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="46"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="53"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
       </c>
@@ -3975,14 +3972,14 @@
       <c r="G30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="46"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
     </row>
     <row r="31" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="51" t="s">
         <v>78</v>
       </c>
       <c r="B31">
@@ -3997,21 +3994,21 @@
       <c r="F31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="50" t="s">
+      <c r="I31" s="49" t="s">
+        <v>533</v>
+      </c>
+      <c r="J31" s="49" t="s">
         <v>534</v>
       </c>
-      <c r="J31" s="50" t="s">
+      <c r="K31" s="49" t="s">
         <v>535</v>
       </c>
-      <c r="K31" s="50" t="s">
-        <v>536</v>
-      </c>
-      <c r="L31" s="50" t="s">
-        <v>541</v>
+      <c r="L31" s="49" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="51"/>
       <c r="E32" s="4" t="s">
         <v>82</v>
       </c>
@@ -4024,13 +4021,13 @@
       <c r="H32" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
     </row>
     <row r="33" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="51"/>
       <c r="E33" s="4" t="s">
         <v>83</v>
       </c>
@@ -4040,13 +4037,13 @@
       <c r="G33" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
-      <c r="K33" s="50"/>
-      <c r="L33" s="50"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
     </row>
     <row r="34" spans="1:12" ht="126" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
+      <c r="A34" s="51"/>
       <c r="E34" s="4" t="s">
         <v>70</v>
       </c>
@@ -4056,26 +4053,26 @@
       <c r="G34" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
+      <c r="A35" s="51"/>
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
     </row>
     <row r="36" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="51" t="s">
         <v>39</v>
       </c>
       <c r="B36">
@@ -4089,305 +4086,340 @@
       </c>
       <c r="F36" s="4"/>
       <c r="H36" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I36" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="I36" s="49" t="s">
+        <v>537</v>
+      </c>
+      <c r="J36" s="49" t="s">
         <v>538</v>
       </c>
-      <c r="J36" s="50" t="s">
+      <c r="K36" s="49" t="s">
         <v>539</v>
       </c>
-      <c r="K36" s="50" t="s">
-        <v>540</v>
-      </c>
-      <c r="L36" s="50" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
+      <c r="L36" s="49" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="51"/>
       <c r="E37" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
-      <c r="K37" s="50"/>
-      <c r="L37" s="50"/>
+      <c r="G37" s="4">
+        <v>0</v>
+      </c>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
     </row>
     <row r="38" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
+      <c r="A38" s="51"/>
       <c r="E38" s="5" t="s">
         <v>93</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="50"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
+      <c r="L38" s="49"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
+      <c r="A39" s="51"/>
       <c r="E39" s="5" t="s">
         <v>94</v>
       </c>
       <c r="F39" s="4"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="50"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
     </row>
     <row r="40" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
+      <c r="A40" s="51"/>
       <c r="E40" s="5" t="s">
         <v>95</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="50"/>
-      <c r="L40" s="50"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="49"/>
+      <c r="L40" s="49"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+      <c r="A41" s="51"/>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="4"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="49"/>
+      <c r="L41" s="49"/>
     </row>
     <row r="42" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="44" t="s">
-        <v>102</v>
+      <c r="A42" s="51" t="s">
+        <v>101</v>
       </c>
       <c r="B42">
         <v>2023</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I42" s="49" t="s">
+        <v>542</v>
+      </c>
+      <c r="J42" s="49" t="s">
+        <v>543</v>
+      </c>
+      <c r="K42" s="49" t="s">
+        <v>544</v>
+      </c>
+      <c r="L42" s="49" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="51"/>
+      <c r="E43" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="G42" s="4" t="s">
+      <c r="F43" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I42" s="50" t="s">
-        <v>543</v>
-      </c>
-      <c r="J42" s="50" t="s">
-        <v>544</v>
-      </c>
-      <c r="K42" s="50" t="s">
-        <v>545</v>
-      </c>
-      <c r="L42" s="50" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-      <c r="E43" s="4" t="s">
+      <c r="G43" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
+      <c r="L43" s="49"/>
+    </row>
+    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="51"/>
+      <c r="E44" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G43" s="4" t="s">
+      <c r="F44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
-    </row>
-    <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="E44" s="4" t="s">
+      <c r="I44" s="49"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="49"/>
+      <c r="L44" s="49"/>
+    </row>
+    <row r="45" spans="1:12" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="51"/>
+      <c r="E45" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G45" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-    </row>
-    <row r="45" spans="1:12" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
-      <c r="E45" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="50"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="49"/>
+      <c r="L45" s="49"/>
     </row>
     <row r="46" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44" t="s">
-        <v>280</v>
+      <c r="A46" s="51" t="s">
+        <v>279</v>
       </c>
       <c r="B46">
         <v>2020</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G46" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="I46" s="49" t="s">
+        <v>505</v>
+      </c>
+      <c r="J46" s="49" t="s">
+        <v>506</v>
+      </c>
+      <c r="K46" s="49" t="s">
+        <v>507</v>
+      </c>
+      <c r="L46" s="49" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="51"/>
+      <c r="E47" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="I46" s="50" t="s">
-        <v>506</v>
-      </c>
-      <c r="J46" s="50" t="s">
-        <v>507</v>
-      </c>
-      <c r="K46" s="50" t="s">
-        <v>508</v>
-      </c>
-      <c r="L46" s="50" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="E47" s="4" t="s">
+      <c r="F47" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="F47" s="5" t="s">
-        <v>293</v>
-      </c>
       <c r="G47" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
-      <c r="L47" s="50"/>
+        <v>294</v>
+      </c>
+      <c r="I47" s="49"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="49"/>
+      <c r="L47" s="49"/>
     </row>
     <row r="48" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
+      <c r="A48" s="51"/>
       <c r="E48" s="4" t="s">
         <v>93</v>
       </c>
       <c r="F48" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="49"/>
+      <c r="L48" s="49"/>
+    </row>
+    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="51"/>
+      <c r="E49" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
-      <c r="K48" s="50"/>
-      <c r="L48" s="50"/>
-    </row>
-    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
-      <c r="E49" s="4" t="s">
+      <c r="G49" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I49" s="49"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="49"/>
+      <c r="L49" s="49"/>
+    </row>
+    <row r="50" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="51"/>
+      <c r="E50" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
-      <c r="K49" s="50"/>
-      <c r="L49" s="50"/>
-    </row>
-    <row r="50" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
-      <c r="E50" s="4" t="s">
-        <v>285</v>
-      </c>
       <c r="F50" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="50"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="49"/>
+      <c r="L50" s="49"/>
     </row>
     <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
+      <c r="A51" s="51"/>
       <c r="C51" s="36"/>
       <c r="E51" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F51" s="37" t="s">
         <v>330</v>
       </c>
-      <c r="F51" s="37" t="s">
-        <v>331</v>
-      </c>
       <c r="G51" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="50"/>
+        <v>335</v>
+      </c>
+      <c r="I51" s="49"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="49"/>
+      <c r="L51" s="49"/>
     </row>
     <row r="52" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
+      <c r="A52" s="51"/>
       <c r="E52" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="I52" s="50"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
+        <v>334</v>
+      </c>
+      <c r="I52" s="49"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="49"/>
+      <c r="L52" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="I46:I52"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="I36:I41"/>
+    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="I15:I21"/>
+    <mergeCell ref="I2:I13"/>
+    <mergeCell ref="J46:J52"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="J36:J41"/>
+    <mergeCell ref="J31:J35"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="J15:J21"/>
+    <mergeCell ref="J2:J13"/>
     <mergeCell ref="K23:K27"/>
     <mergeCell ref="K15:K21"/>
     <mergeCell ref="K2:K13"/>
@@ -4404,41 +4436,6 @@
     <mergeCell ref="K36:K41"/>
     <mergeCell ref="K31:K35"/>
     <mergeCell ref="K28:K30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="I15:I21"/>
-    <mergeCell ref="I2:I13"/>
-    <mergeCell ref="J46:J52"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="J36:J41"/>
-    <mergeCell ref="J31:J35"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="J15:J21"/>
-    <mergeCell ref="J2:J13"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="I46:I52"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="I36:I41"/>
-    <mergeCell ref="I31:I35"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4468,1470 +4465,1470 @@
     <row r="1" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="E1" s="20" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="B2" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="D2" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="23" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="58"/>
+      <c r="B3" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D3" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="58"/>
+      <c r="B4" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
+      <c r="B5" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
+      <c r="B6" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="58"/>
+      <c r="B7" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="58"/>
+      <c r="B8" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="58"/>
+      <c r="C9" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="58"/>
+      <c r="C10" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="58"/>
+      <c r="C11" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="58"/>
+      <c r="C12" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13" s="58"/>
+      <c r="C13" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="58"/>
+      <c r="C14" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="58"/>
+      <c r="C15" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="E2" s="25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="E15" s="25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="58"/>
+      <c r="C16" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="58"/>
+      <c r="C17" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="58"/>
+      <c r="C18" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
+      <c r="E19" s="25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A20" s="58"/>
+      <c r="E20" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="58"/>
+      <c r="E21" s="25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="58"/>
+      <c r="E22" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="22" t="s">
+    </row>
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="58"/>
+      <c r="E23" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="58"/>
+      <c r="E24" s="25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="58"/>
+      <c r="E25" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="58"/>
+      <c r="E26" s="25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" s="58"/>
+      <c r="E27" s="25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A28" s="58"/>
+      <c r="E28" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="C9" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="C10" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="C11" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="C12" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="C13" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="C14" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="C15" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="C16" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="C17" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="C18" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="E19" s="25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="E20" s="25" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="E21" s="25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="E22" s="25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="E23" s="25" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="E24" s="25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="E25" s="25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="E26" s="25" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="E27" s="25" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="E28" s="25" t="s">
+    </row>
+    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="58"/>
+      <c r="E29" s="25" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="E29" s="25" t="s">
+    <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A30" s="58"/>
+      <c r="E30" s="25" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="E30" s="25" t="s">
+    <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="58"/>
+      <c r="E31" s="25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="E31" s="25" t="s">
-        <v>184</v>
-      </c>
-    </row>
     <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="31"/>
       <c r="E32" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="D33" s="28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="C33" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="D33" s="28" t="s">
+    </row>
+    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="58"/>
+      <c r="B34" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="E33" s="26" t="s">
+      <c r="E34" s="25" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="C34" s="23" t="s">
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="58"/>
+      <c r="C35" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D35" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="E34" s="25" t="s">
+      <c r="E35" s="25" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="C35" s="23" t="s">
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="58"/>
+      <c r="C36" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="E36" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="58"/>
+      <c r="C37" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="58"/>
+      <c r="C38" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="E35" s="25" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="C36" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="C37" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="C38" s="23" t="s">
+      <c r="E38" s="25" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A39" s="58"/>
+      <c r="C39" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="E39" s="25" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="C39" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="E39" s="25" t="s">
+    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="58"/>
+      <c r="E40" s="25" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="E40" s="25" t="s">
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="58"/>
+      <c r="E41" s="25" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
-      <c r="E41" s="25" t="s">
-        <v>208</v>
-      </c>
-    </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
+      <c r="A42" s="60"/>
       <c r="D42" s="33"/>
       <c r="E42" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="300" x14ac:dyDescent="0.25">
-      <c r="A43" s="52" t="s">
-        <v>211</v>
+      <c r="A43" s="57" t="s">
+        <v>210</v>
       </c>
       <c r="B43" s="32"/>
       <c r="C43" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A44" s="59"/>
+      <c r="C44" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D44" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="E43" s="25" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A44" s="54"/>
-      <c r="C44" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="31"/>
       <c r="C45" s="34" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="57" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A46" s="52" t="s">
+      <c r="B46" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="C46" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="D46" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A47" s="58"/>
+      <c r="B47" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="C47" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="E46" s="35" t="s">
+      <c r="E47" s="25" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
-      <c r="B47" s="22" t="s">
+    <row r="48" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A48" s="58"/>
+      <c r="B48" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C48" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" s="58"/>
+      <c r="B49" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="D47" s="24" t="s">
+      <c r="C49" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="58"/>
+      <c r="B50" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="58"/>
+      <c r="B51" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A52" s="58"/>
+      <c r="B52" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="58"/>
+      <c r="B53" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="C53" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" s="58"/>
+      <c r="B54" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A55" s="58"/>
+      <c r="B55" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A56" s="58"/>
+      <c r="B56" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A57" s="58"/>
+      <c r="B57" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="E57" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="E47" s="25" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
-      <c r="B49" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="22" t="s">
+    </row>
+    <row r="58" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A58" s="58"/>
+      <c r="B58" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="58"/>
+      <c r="B59" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="58"/>
+      <c r="E60" s="25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="58"/>
+      <c r="E61" s="25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="58"/>
+      <c r="E62" s="25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="58"/>
+      <c r="E63" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="58"/>
+      <c r="E64" s="25" t="s">
         <v>248</v>
       </c>
-      <c r="C50" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
-      <c r="B51" s="22" t="s">
-        <v>250</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
-      <c r="B52" s="22" t="s">
-        <v>252</v>
-      </c>
-      <c r="C52" s="23" t="s">
+    </row>
+    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="58"/>
+      <c r="E65" s="25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A66" s="58"/>
+      <c r="E66" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="E52" s="25" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
-      <c r="B53" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C53" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="E53" s="25" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
-      <c r="B54" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="C54" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="E54" s="25" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="53"/>
-      <c r="B55" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="E55" s="25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
-      <c r="B56" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="E56" s="25" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
-      <c r="B57" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
-      <c r="B58" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="E58" s="25" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
-      <c r="B59" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="E59" s="25" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
-      <c r="E60" s="25" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
-      <c r="E61" s="25" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
-      <c r="E62" s="25" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
-      <c r="E63" s="25" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
-      <c r="E64" s="25" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
-      <c r="E65" s="25" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="53"/>
-      <c r="E66" s="25" t="s">
-        <v>256</v>
-      </c>
     </row>
     <row r="67" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="53"/>
+      <c r="A67" s="58"/>
       <c r="B67" s="31"/>
       <c r="E67" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A68" s="52" t="s">
+      <c r="A68" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="B68" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="C68" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="D68" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="E68" s="35" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A69" s="58"/>
+      <c r="B69" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="C68" s="29" t="s">
-        <v>266</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>268</v>
-      </c>
-      <c r="E68" s="35" t="s">
+      <c r="C69" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="315" x14ac:dyDescent="0.25">
+      <c r="A70" s="58"/>
+      <c r="B70" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70" s="23" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="255" x14ac:dyDescent="0.25">
-      <c r="A69" s="53"/>
-      <c r="B69" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="E69" s="25" t="s">
+      <c r="E70" s="25" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="315" x14ac:dyDescent="0.25">
-      <c r="A70" s="53"/>
-      <c r="B70" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="C70" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="E70" s="25" t="s">
+    <row r="71" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A71" s="58"/>
+      <c r="C71" s="23" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="360" x14ac:dyDescent="0.25">
-      <c r="A71" s="53"/>
-      <c r="C71" s="23" t="s">
-        <v>276</v>
-      </c>
-    </row>
     <row r="72" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="55"/>
+      <c r="A72" s="60"/>
       <c r="B72" s="31"/>
       <c r="C72" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="D72" s="33"/>
+    </row>
+    <row r="73" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A73" s="57" t="s">
         <v>278</v>
       </c>
-      <c r="D72" s="33"/>
-    </row>
-    <row r="73" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A73" s="52" t="s">
-        <v>279</v>
-      </c>
       <c r="B73" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="E73" s="35" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A74" s="59"/>
+      <c r="B74" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="C73" s="23" t="s">
+      <c r="C74" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D74" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="59"/>
+      <c r="B75" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="59"/>
+      <c r="B76" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="E76" s="25" t="s">
         <v>298</v>
       </c>
-      <c r="E73" s="35" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
-      <c r="B74" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="C74" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="D74" s="24" t="s">
+    </row>
+    <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A77" s="59"/>
+      <c r="B77" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="E77" s="25" t="s">
         <v>300</v>
       </c>
-      <c r="E74" s="25" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="54"/>
-      <c r="B75" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="D75" s="24" t="s">
+    </row>
+    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="59"/>
+      <c r="C78" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A79" s="59"/>
+      <c r="C79" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="E79" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="E75" s="25" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
-      <c r="B76" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="C76" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="D76" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="E76" s="25" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="54"/>
-      <c r="B77" s="22" t="s">
+    </row>
+    <row r="80" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A80" s="59"/>
+      <c r="C80" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A81" s="59"/>
+      <c r="C81" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="E81" s="25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="59"/>
+      <c r="C82" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="59"/>
+      <c r="C83" s="34" t="s">
         <v>327</v>
-      </c>
-      <c r="C77" s="23" t="s">
-        <v>312</v>
-      </c>
-      <c r="D77" s="24" t="s">
-        <v>306</v>
-      </c>
-      <c r="E77" s="25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="54"/>
-      <c r="C78" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="D78" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="E78" s="25" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A79" s="54"/>
-      <c r="C79" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="D79" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="E79" s="25" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A80" s="54"/>
-      <c r="C80" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="D80" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A81" s="54"/>
-      <c r="C81" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="D81" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="E81" s="25" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="54"/>
-      <c r="C82" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="D82" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="E82" s="25" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="54"/>
-      <c r="C83" s="34" t="s">
-        <v>328</v>
       </c>
       <c r="D83" s="33"/>
       <c r="E83" s="27"/>
     </row>
     <row r="84" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="52" t="s">
+      <c r="A84" s="57" t="s">
+        <v>336</v>
+      </c>
+      <c r="B84" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="C84" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="B84" s="32" t="s">
+      <c r="D84" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A85" s="58"/>
+      <c r="B85" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="C85" s="23" t="s">
         <v>339</v>
       </c>
-      <c r="C84" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="D84" s="24" t="s">
+      <c r="D85" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="E85" s="25" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="58"/>
+      <c r="B86" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="E86" s="25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="58"/>
+      <c r="B87" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="58"/>
+      <c r="B88" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="E88" s="25" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A89" s="58"/>
+      <c r="C89" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="E89" s="25" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A90" s="58"/>
+      <c r="C90" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="E90" s="25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A91" s="58"/>
+      <c r="C91" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="E91" s="25" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A92" s="58"/>
+      <c r="C92" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="E92" s="25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A93" s="58"/>
+      <c r="C93" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="E93" s="25" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A94" s="58"/>
+      <c r="C94" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="E94" s="25" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A95" s="58"/>
+      <c r="C95" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="E95" s="25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="58"/>
+      <c r="E96" s="25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="58"/>
+      <c r="E97" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="58"/>
+      <c r="E98" s="25" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="58"/>
+      <c r="E99" s="25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="58"/>
+      <c r="E100" s="25" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="58"/>
+      <c r="E101" s="25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="58"/>
+      <c r="E102" s="25" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="58"/>
+      <c r="E103" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="E84" s="25" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A85" s="53"/>
-      <c r="B85" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="C85" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="D85" s="24" t="s">
-        <v>379</v>
-      </c>
-      <c r="E85" s="25" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="53"/>
-      <c r="B86" s="22" t="s">
-        <v>368</v>
-      </c>
-      <c r="C86" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="D86" s="24" t="s">
-        <v>380</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="53"/>
-      <c r="B87" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="C87" s="23" t="s">
+    </row>
+    <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="58"/>
+      <c r="E104" s="25" t="s">
         <v>363</v>
       </c>
-      <c r="E87" s="25" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="53"/>
-      <c r="B88" s="22" t="s">
-        <v>381</v>
-      </c>
-      <c r="C88" s="23" t="s">
+    </row>
+    <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A105" s="58"/>
+      <c r="E105" s="25" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="58"/>
+      <c r="E106" s="25" t="s">
         <v>366</v>
       </c>
-      <c r="E88" s="25" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89" s="53"/>
-      <c r="C89" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="E89" s="25" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A90" s="53"/>
-      <c r="C90" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="225" x14ac:dyDescent="0.25">
-      <c r="A91" s="53"/>
-      <c r="C91" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="E91" s="25" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="53"/>
-      <c r="C92" s="23" t="s">
+    </row>
+    <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="58"/>
+      <c r="E107" s="25" t="s">
         <v>373</v>
       </c>
-      <c r="E92" s="25" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" s="53"/>
-      <c r="C93" s="23" t="s">
+    </row>
+    <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A108" s="58"/>
+      <c r="E108" s="25" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A109" s="58"/>
+      <c r="E109" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="E93" s="25" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94" s="53"/>
-      <c r="C94" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="E94" s="25" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A95" s="53"/>
-      <c r="C95" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="E95" s="25" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="53"/>
-      <c r="E96" s="25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="53"/>
-      <c r="E97" s="25" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="53"/>
-      <c r="E98" s="25" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="53"/>
-      <c r="E99" s="25" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="53"/>
-      <c r="E100" s="25" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="53"/>
-      <c r="E101" s="25" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="53"/>
-      <c r="E102" s="25" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="53"/>
-      <c r="E103" s="25" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="53"/>
-      <c r="E104" s="25" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A105" s="53"/>
-      <c r="E105" s="25" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="53"/>
-      <c r="E106" s="25" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="53"/>
-      <c r="E107" s="25" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="53"/>
-      <c r="E108" s="25" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="53"/>
-      <c r="E109" s="25" t="s">
-        <v>376</v>
-      </c>
     </row>
     <row r="110" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A110" s="55"/>
+      <c r="A110" s="60"/>
       <c r="D110" s="33"/>
       <c r="E110" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="52" t="s">
+      <c r="A111" s="57" t="s">
+        <v>382</v>
+      </c>
+      <c r="B111" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="C111" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="B111" s="32" t="s">
+      <c r="D111" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="E111" s="35" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="58"/>
+      <c r="B112" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="C112" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="C111" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="D111" s="24" t="s">
+      <c r="D112" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="E111" s="35" t="s">
+      <c r="E112" s="25" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A113" s="58"/>
+      <c r="B113" s="22" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A112" s="53"/>
-      <c r="B112" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="C112" s="23" t="s">
+      <c r="C113" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="D112" s="24" t="s">
+      <c r="D113" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="E113" s="25" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="58"/>
+      <c r="B114" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="E112" s="25" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="180" x14ac:dyDescent="0.25">
-      <c r="A113" s="53"/>
-      <c r="B113" s="22" t="s">
-        <v>391</v>
-      </c>
-      <c r="C113" s="23" t="s">
+      <c r="C114" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="D113" s="24" t="s">
+      <c r="E114" s="25" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A115" s="58"/>
+      <c r="B115" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="E115" s="25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="58"/>
+      <c r="B116" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="C116" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="58"/>
+      <c r="C117" s="23" t="s">
+        <v>407</v>
+      </c>
+      <c r="E117" s="25" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A118" s="58"/>
+      <c r="C118" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="E113" s="25" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="53"/>
-      <c r="B114" s="22" t="s">
-        <v>407</v>
-      </c>
-      <c r="C114" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A115" s="53"/>
-      <c r="B115" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="C115" s="23" t="s">
+      <c r="E118" s="25" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A119" s="58"/>
+      <c r="C119" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="E119" s="25" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="58"/>
+      <c r="E120" s="25" t="s">
         <v>399</v>
       </c>
-      <c r="E115" s="25" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A116" s="53"/>
-      <c r="B116" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="C116" s="23" t="s">
+    </row>
+    <row r="121" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A121" s="58"/>
+      <c r="E121" s="25" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A122" s="58"/>
+      <c r="E122" s="25" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="58"/>
+      <c r="E123" s="25" t="s">
         <v>403</v>
       </c>
-      <c r="E116" s="25" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="53"/>
-      <c r="C117" s="23" t="s">
+    </row>
+    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="58"/>
+      <c r="E124" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="E117" s="25" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A118" s="53"/>
-      <c r="C118" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="E118" s="25" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" s="53"/>
-      <c r="C119" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="E119" s="25" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A120" s="53"/>
-      <c r="E120" s="25" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A121" s="53"/>
-      <c r="E121" s="25" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A122" s="53"/>
-      <c r="E122" s="25" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="53"/>
-      <c r="E123" s="25" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="53"/>
-      <c r="E124" s="25" t="s">
-        <v>409</v>
-      </c>
     </row>
     <row r="125" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A125" s="55"/>
+      <c r="A125" s="60"/>
       <c r="B125" s="31"/>
       <c r="C125" s="34"/>
       <c r="D125" s="33"/>
       <c r="E125" s="25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="210" x14ac:dyDescent="0.25">
-      <c r="A126" s="52" t="s">
+      <c r="A126" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="B126" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="C126" s="23" t="s">
         <v>416</v>
       </c>
-      <c r="B126" s="22" t="s">
+      <c r="D126" s="24" t="s">
+        <v>425</v>
+      </c>
+      <c r="E126" s="35" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A127" s="59"/>
+      <c r="B127" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="C127" s="23" t="s">
         <v>418</v>
       </c>
-      <c r="C126" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="D126" s="24" t="s">
+      <c r="D127" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="E127" s="25" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A128" s="59"/>
+      <c r="B128" s="22" t="s">
+        <v>447</v>
+      </c>
+      <c r="C128" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="D128" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="E128" s="25" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A129" s="59"/>
+      <c r="B129" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="C129" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="E129" s="25" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A130" s="59"/>
+      <c r="C130" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E130" s="25" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A131" s="59"/>
+      <c r="C131" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="E126" s="35" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A127" s="54"/>
-      <c r="B127" s="22" t="s">
-        <v>447</v>
-      </c>
-      <c r="C127" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="D127" s="24" t="s">
+      <c r="E131" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="E127" s="25" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A128" s="54"/>
-      <c r="B128" s="22" t="s">
-        <v>448</v>
-      </c>
-      <c r="C128" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="D128" s="24" t="s">
+    </row>
+    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="59"/>
+      <c r="C132" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="E132" s="25" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A133" s="59"/>
+      <c r="C133" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="E133" s="25" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A134" s="59"/>
+      <c r="C134" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="E134" s="25" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A135" s="59"/>
+      <c r="C135" s="23" t="s">
+        <v>442</v>
+      </c>
+      <c r="E135" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="E128" s="25" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A129" s="54"/>
-      <c r="B129" s="22" t="s">
-        <v>449</v>
-      </c>
-      <c r="C129" s="23" t="s">
-        <v>423</v>
-      </c>
-      <c r="D129" s="24" t="s">
-        <v>442</v>
-      </c>
-      <c r="E129" s="25" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A130" s="54"/>
-      <c r="C130" s="23" t="s">
-        <v>425</v>
-      </c>
-      <c r="E130" s="25" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A131" s="54"/>
-      <c r="C131" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="E131" s="25" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="54"/>
-      <c r="C132" s="23" t="s">
-        <v>429</v>
-      </c>
-      <c r="E132" s="25" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A133" s="54"/>
-      <c r="C133" s="23" t="s">
-        <v>435</v>
-      </c>
-      <c r="E133" s="25" t="s">
+    </row>
+    <row r="136" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A136" s="59"/>
+      <c r="C136" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="E136" s="25" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A137" s="59"/>
+      <c r="C137" s="38" t="s">
+        <v>445</v>
+      </c>
+      <c r="E137" s="25" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A134" s="54"/>
-      <c r="C134" s="23" t="s">
-        <v>441</v>
-      </c>
-      <c r="E134" s="25" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A135" s="54"/>
-      <c r="C135" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="E135" s="25" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A136" s="54"/>
-      <c r="C136" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="E136" s="25" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A137" s="54"/>
-      <c r="C137" s="38" t="s">
-        <v>446</v>
-      </c>
-      <c r="E137" s="25" t="s">
-        <v>440</v>
-      </c>
-    </row>
     <row r="138" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A138" s="54"/>
+      <c r="A138" s="59"/>
       <c r="C138" s="38"/>
       <c r="E138" s="25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="55"/>
+      <c r="A139" s="60"/>
       <c r="B139" s="31"/>
       <c r="C139" s="34"/>
       <c r="E139" s="27"/>
     </row>
     <row r="140" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A140" s="52" t="s">
+      <c r="A140" s="57" t="s">
+        <v>509</v>
+      </c>
+      <c r="B140" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="C140" s="23" t="s">
         <v>510</v>
-      </c>
-      <c r="B140" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="C140" s="23" t="s">
-        <v>511</v>
       </c>
       <c r="D140" s="28"/>
       <c r="E140" s="25" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A141" s="58"/>
+      <c r="B141" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="C141" s="23" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A141" s="53"/>
-      <c r="B141" s="22" t="s">
+      <c r="E141" s="25" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A142" s="58"/>
+      <c r="C142" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="E142" s="25" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A143" s="58"/>
+      <c r="C143" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="E143" s="25" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A144" s="58"/>
+      <c r="C144" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="E144" s="25" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A145" s="58"/>
+      <c r="C145" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="E145" s="25" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A146" s="58"/>
+      <c r="C146" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="E146" s="25" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A147" s="58"/>
+      <c r="E147" s="25" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="58"/>
+      <c r="E148" s="25" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A149" s="58"/>
+      <c r="E149" s="25" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" s="58"/>
+      <c r="E150" s="25" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A151" s="58"/>
+      <c r="E151" s="25" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A152" s="58"/>
+      <c r="E152" s="25" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A153" s="58"/>
+      <c r="E153" s="25" t="s">
         <v>527</v>
       </c>
-      <c r="C141" s="23" t="s">
-        <v>513</v>
-      </c>
-      <c r="E141" s="25" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A142" s="53"/>
-      <c r="C142" s="23" t="s">
-        <v>516</v>
-      </c>
-      <c r="E142" s="25" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="240" x14ac:dyDescent="0.25">
-      <c r="A143" s="53"/>
-      <c r="C143" s="23" t="s">
-        <v>529</v>
-      </c>
-      <c r="E143" s="25" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A144" s="53"/>
-      <c r="C144" s="23" t="s">
-        <v>530</v>
-      </c>
-      <c r="E144" s="25" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A145" s="53"/>
-      <c r="C145" s="23" t="s">
-        <v>531</v>
-      </c>
-      <c r="E145" s="25" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A146" s="53"/>
-      <c r="C146" s="23" t="s">
+    </row>
+    <row r="154" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A154" s="58"/>
+      <c r="E154" s="25" t="s">
         <v>532</v>
-      </c>
-      <c r="E146" s="25" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A147" s="53"/>
-      <c r="E147" s="25" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="53"/>
-      <c r="E148" s="25" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A149" s="53"/>
-      <c r="E149" s="25" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A150" s="53"/>
-      <c r="E150" s="25" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A151" s="53"/>
-      <c r="E151" s="25" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A152" s="53"/>
-      <c r="E152" s="25" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A153" s="53"/>
-      <c r="E153" s="25" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A154" s="53"/>
-      <c r="E154" s="25" t="s">
-        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -5954,31 +5951,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5B4F25-E774-4A01-9179-A9A2FE89D1E4}">
-  <dimension ref="A1:L66"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G61" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="46.5703125" style="59" customWidth="1"/>
+    <col min="7" max="7" width="46.5703125" style="47" customWidth="1"/>
     <col min="8" max="9" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5986,13 +5983,13 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C2" t="s">
         <v>456</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>457</v>
-      </c>
-      <c r="D2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -6000,13 +5997,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C3" t="s">
         <v>459</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>460</v>
-      </c>
-      <c r="D3" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -6014,13 +6011,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C4" t="s">
         <v>462</v>
       </c>
-      <c r="C4" t="s">
-        <v>463</v>
-      </c>
       <c r="D4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -6028,13 +6025,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C5" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D5" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -6042,13 +6039,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -6056,13 +6053,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -6070,13 +6067,13 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8" t="s">
         <v>467</v>
       </c>
-      <c r="C8" t="s">
-        <v>468</v>
-      </c>
       <c r="D8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -6084,13 +6081,13 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -6098,13 +6095,13 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C10" t="s">
         <v>470</v>
       </c>
-      <c r="C10" t="s">
-        <v>471</v>
-      </c>
       <c r="D10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -6112,13 +6109,13 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D11" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -6126,13 +6123,13 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -6140,13 +6137,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
+        <v>473</v>
+      </c>
+      <c r="C13" t="s">
         <v>474</v>
       </c>
-      <c r="C13" t="s">
-        <v>475</v>
-      </c>
       <c r="D13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -6154,13 +6151,13 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -6168,13 +6165,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
+        <v>476</v>
+      </c>
+      <c r="C15" t="s">
         <v>477</v>
       </c>
-      <c r="C15" t="s">
-        <v>478</v>
-      </c>
       <c r="D15" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -6182,13 +6179,13 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
+        <v>478</v>
+      </c>
+      <c r="C16" t="s">
         <v>479</v>
       </c>
-      <c r="C16" t="s">
-        <v>480</v>
-      </c>
       <c r="D16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -6196,13 +6193,13 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
+        <v>480</v>
+      </c>
+      <c r="C17" t="s">
         <v>481</v>
       </c>
-      <c r="C17" t="s">
-        <v>482</v>
-      </c>
       <c r="D17" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -6210,13 +6207,13 @@
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D18" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -6224,13 +6221,13 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C19" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D19" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -6238,13 +6235,13 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -6252,13 +6249,13 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C21" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -6266,21 +6263,21 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
+        <v>486</v>
+      </c>
+      <c r="C22" t="s">
         <v>487</v>
       </c>
-      <c r="C22" t="s">
-        <v>488</v>
-      </c>
       <c r="D22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F25" s="58" t="s">
+      <c r="F25" s="46" t="s">
         <v>0</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>2</v>
@@ -6290,8 +6287,8 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="F26" s="60" t="s">
-        <v>632</v>
+      <c r="F26" s="61" t="s">
+        <v>631</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>17</v>
@@ -6300,98 +6297,98 @@
         <v>23</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F27" s="60"/>
+      <c r="F27" s="61"/>
       <c r="G27" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H27" s="43" t="s">
         <v>23</v>
       </c>
       <c r="I27" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F28" s="61"/>
+      <c r="G28" s="4" t="s">
         <v>555</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F28" s="60"/>
-      <c r="G28" s="4" t="s">
-        <v>556</v>
       </c>
       <c r="H28" s="43" t="s">
         <v>23</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="F29" s="60"/>
+      <c r="F29" s="61"/>
       <c r="G29" s="4" t="s">
         <v>93</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I29" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F30" s="61"/>
+      <c r="G30" s="4" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F30" s="60"/>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="43" t="s">
         <v>559</v>
       </c>
-      <c r="H30" s="43" t="s">
+      <c r="I30" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>561</v>
-      </c>
     </row>
     <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="F31" s="60"/>
+      <c r="F31" s="61"/>
       <c r="G31" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H31" s="43" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F32" s="60"/>
+      <c r="F32" s="61"/>
       <c r="G32" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H32" s="43" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="33" spans="6:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="F33" s="61" t="s">
-        <v>633</v>
+      <c r="F33" s="48" t="s">
+        <v>632</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>36</v>
       </c>
       <c r="H33" s="43" t="s">
+        <v>563</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>564</v>
       </c>
-      <c r="I33" s="4" t="s">
-        <v>565</v>
-      </c>
     </row>
     <row r="34" spans="6:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="F34" s="61" t="s">
-        <v>634</v>
+      <c r="F34" s="48" t="s">
+        <v>633</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>59</v>
@@ -6400,61 +6397,61 @@
         <v>23</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35" spans="6:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F35" s="60" t="s">
-        <v>635</v>
+      <c r="F35" s="61" t="s">
+        <v>634</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H35" s="43" t="s">
         <v>23</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" spans="6:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="F36" s="60"/>
+      <c r="F36" s="61"/>
       <c r="G36" s="4" t="s">
         <v>93</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I36" s="4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="37" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F37" s="61"/>
+      <c r="G37" s="44" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="37" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F37" s="60"/>
-      <c r="G37" s="56" t="s">
-        <v>569</v>
-      </c>
-      <c r="H37" s="57" t="s">
-        <v>588</v>
-      </c>
-      <c r="I37" s="56" t="s">
-        <v>603</v>
+      <c r="H37" s="45" t="s">
+        <v>587</v>
+      </c>
+      <c r="I37" s="44" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="38" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F38" s="60"/>
+      <c r="F38" s="61"/>
       <c r="G38" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="39" spans="6:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="F39" s="60"/>
+      <c r="F39" s="61"/>
       <c r="G39" s="4" t="s">
         <v>58</v>
       </c>
@@ -6462,247 +6459,247 @@
         <v>23</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="40" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F40" s="60" t="s">
-        <v>636</v>
+      <c r="F40" s="61" t="s">
+        <v>635</v>
       </c>
       <c r="G40" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="41" spans="6:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="F41" s="61"/>
+      <c r="G41" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F42" s="61"/>
+      <c r="G42" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="H40" s="13" t="s">
-        <v>578</v>
-      </c>
-      <c r="I40" s="4" t="s">
+      <c r="H42" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="41" spans="6:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="F41" s="60"/>
-      <c r="G41" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>579</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="42" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F42" s="60"/>
-      <c r="G42" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>581</v>
-      </c>
-    </row>
     <row r="43" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F43" s="60"/>
+      <c r="F43" s="61"/>
       <c r="G43" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="H43" s="43" t="s">
         <v>586</v>
-      </c>
-      <c r="H43" s="43" t="s">
-        <v>587</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="44" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F44" s="60"/>
+      <c r="F44" s="61"/>
       <c r="G44" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="45" spans="6:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="F45" s="60"/>
+      <c r="F45" s="61"/>
       <c r="G45" s="4" t="s">
+        <v>582</v>
+      </c>
+      <c r="H45" s="43" t="s">
         <v>583</v>
       </c>
-      <c r="H45" s="43" t="s">
+      <c r="I45" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="I45" s="4" t="s">
-        <v>585</v>
-      </c>
     </row>
     <row r="46" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F46" s="60"/>
+      <c r="F46" s="61"/>
       <c r="G46" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="6:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F47" s="60" t="s">
-        <v>637</v>
+      <c r="F47" s="61" t="s">
+        <v>636</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H47" s="43" t="s">
         <v>23</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="48" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F48" s="60"/>
+      <c r="F48" s="61"/>
       <c r="G48" s="4" t="s">
         <v>93</v>
       </c>
       <c r="H48" s="43" t="s">
+        <v>621</v>
+      </c>
+      <c r="I48" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="I48" s="4" t="s">
+    </row>
+    <row r="49" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F49" s="61"/>
+      <c r="G49" s="4" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="49" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F49" s="60"/>
-      <c r="G49" s="4" t="s">
+      <c r="H49" s="43" t="s">
+        <v>625</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="H49" s="43" t="s">
+    </row>
+    <row r="50" spans="6:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="F50" s="61"/>
+      <c r="G50" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="H50" s="43" t="s">
         <v>626</v>
       </c>
-      <c r="I49" s="4" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="50" spans="6:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="F50" s="60"/>
-      <c r="G50" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="H50" s="43" t="s">
+      <c r="I50" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="I50" s="4" t="s">
+    </row>
+    <row r="51" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F51" s="61"/>
+      <c r="G51" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H51" s="43" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="51" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F51" s="60"/>
-      <c r="G51" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="H51" s="43" t="s">
-        <v>629</v>
-      </c>
       <c r="I51" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="6:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="F52" s="60"/>
+      <c r="F52" s="61"/>
       <c r="G52" s="4" t="s">
         <v>70</v>
       </c>
       <c r="H52" s="43" t="s">
+        <v>629</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>630</v>
       </c>
-      <c r="I52" s="4" t="s">
-        <v>631</v>
-      </c>
     </row>
     <row r="53" spans="6:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="F53" s="60" t="s">
-        <v>638</v>
+      <c r="F53" s="61" t="s">
+        <v>637</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>68</v>
       </c>
       <c r="H53" s="43" t="s">
+        <v>590</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>592</v>
-      </c>
     </row>
     <row r="54" spans="6:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="F54" s="60"/>
+      <c r="F54" s="61"/>
       <c r="G54" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H54" s="43" t="s">
+        <v>592</v>
+      </c>
+      <c r="I54" s="4" t="s">
         <v>593</v>
       </c>
-      <c r="I54" s="4" t="s">
-        <v>594</v>
-      </c>
     </row>
     <row r="55" spans="6:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="F55" s="60"/>
+      <c r="F55" s="61"/>
       <c r="G55" s="4" t="s">
         <v>70</v>
       </c>
       <c r="H55" s="43" t="s">
+        <v>594</v>
+      </c>
+      <c r="I55" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="I55" s="4" t="s">
+    </row>
+    <row r="56" spans="6:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="61" t="s">
+        <v>638</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>596</v>
-      </c>
-    </row>
-    <row r="56" spans="6:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F56" s="60" t="s">
-        <v>639</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>597</v>
       </c>
       <c r="H56" s="43" t="s">
         <v>23</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="57" spans="6:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="F57" s="60"/>
+      <c r="F57" s="61"/>
       <c r="G57" s="4" t="s">
         <v>93</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="58" spans="6:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="F58" s="60"/>
+      <c r="F58" s="61"/>
       <c r="G58" s="4" t="s">
         <v>70</v>
       </c>
       <c r="H58" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="I58" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="I58" s="4" t="s">
-        <v>602</v>
-      </c>
     </row>
     <row r="59" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F59" s="60"/>
+      <c r="F59" s="61"/>
       <c r="G59" s="4" t="s">
         <v>16</v>
       </c>
@@ -6710,12 +6707,12 @@
         <v>23</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="60" spans="6:9" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F60" s="60" t="s">
-        <v>640</v>
+      <c r="F60" s="61" t="s">
+        <v>639</v>
       </c>
       <c r="G60" s="43" t="s">
         <v>91</v>
@@ -6724,35 +6721,35 @@
         <v>23</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="61" spans="6:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="F61" s="60"/>
+      <c r="F61" s="61"/>
       <c r="G61" s="43" t="s">
         <v>93</v>
       </c>
       <c r="H61" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>607</v>
       </c>
-      <c r="I61" s="4" t="s">
-        <v>608</v>
-      </c>
     </row>
     <row r="62" spans="6:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="F62" s="60"/>
+      <c r="F62" s="61"/>
       <c r="G62" s="43" t="s">
         <v>95</v>
       </c>
       <c r="H62" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="I62" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="I62" s="4" t="s">
-        <v>612</v>
-      </c>
     </row>
     <row r="63" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F63" s="60"/>
+      <c r="F63" s="61"/>
       <c r="G63" s="43" t="s">
         <v>16</v>
       </c>
@@ -6760,57 +6757,57 @@
         <v>23</v>
       </c>
       <c r="I63" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="64" spans="6:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="F64" s="61" t="s">
+        <v>640</v>
+      </c>
+      <c r="G64" s="4" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="64" spans="6:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="F64" s="60" t="s">
-        <v>641</v>
-      </c>
-      <c r="G64" s="4" t="s">
+      <c r="H64" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="H64" s="11" t="s">
+    </row>
+    <row r="65" spans="6:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="F65" s="61"/>
+      <c r="G65" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="I64" s="4" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="65" spans="6:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="F65" s="60"/>
-      <c r="G65" s="4" t="s">
+      <c r="H65" s="43" t="s">
         <v>617</v>
       </c>
-      <c r="H65" s="43" t="s">
+      <c r="I65" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="I65" s="11" t="s">
+    </row>
+    <row r="66" spans="6:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="F66" s="61"/>
+      <c r="G66" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H66" s="43" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="66" spans="6:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="F66" s="60"/>
-      <c r="G66" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="H66" s="43" t="s">
+      <c r="I66" s="11" t="s">
         <v>620</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>621</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="F26:F32"/>
+    <mergeCell ref="F35:F39"/>
+    <mergeCell ref="F40:F46"/>
     <mergeCell ref="F47:F52"/>
     <mergeCell ref="F53:F55"/>
     <mergeCell ref="F56:F59"/>
     <mergeCell ref="F60:F63"/>
     <mergeCell ref="F64:F66"/>
-    <mergeCell ref="F26:F32"/>
-    <mergeCell ref="F35:F39"/>
-    <mergeCell ref="F40:F46"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Extração dos dados.xlsx
+++ b/Extração dos dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Documents\ProjetosTese\10-anos-de-back-pei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0351E2B2-F2CE-4596-8CBD-4FB89D0FE802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF439B2B-7331-4042-98FC-99DD4909E0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2952,28 +2952,28 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3273,8 +3273,8 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3328,13 +3328,13 @@
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="49" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="54">
         <v>2013</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="51" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="3">
@@ -3352,23 +3352,23 @@
       <c r="H2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="55" t="s">
         <v>449</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="55" t="s">
         <v>488</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="55" t="s">
         <v>450</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="55" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="51"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="54"/>
-      <c r="C3" s="53"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="3">
         <v>2</v>
       </c>
@@ -3381,15 +3381,15 @@
       <c r="G3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="54"/>
-      <c r="C4" s="53"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="3">
         <v>3</v>
       </c>
@@ -3402,15 +3402,15 @@
       <c r="G4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="54"/>
-      <c r="C5" s="53"/>
+      <c r="C5" s="51"/>
       <c r="D5" s="3">
         <v>4</v>
       </c>
@@ -3419,15 +3419,15 @@
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="4"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
+      <c r="A6" s="49"/>
       <c r="B6" s="54"/>
-      <c r="C6" s="53"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="3">
         <v>5</v>
       </c>
@@ -3436,72 +3436,72 @@
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="4"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="54"/>
-      <c r="C7" s="53"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="53" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="54"/>
-      <c r="C8" s="53"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="3">
         <v>7</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="52"/>
+      <c r="F8" s="53"/>
       <c r="G8" s="4"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="54"/>
-      <c r="C9" s="53"/>
+      <c r="C9" s="51"/>
       <c r="D9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="53"/>
       <c r="G9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="54"/>
-      <c r="C10" s="53"/>
+      <c r="C10" s="51"/>
       <c r="D10" s="3">
         <v>9</v>
       </c>
@@ -3512,15 +3512,15 @@
         <v>24</v>
       </c>
       <c r="G10" s="4"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="54"/>
-      <c r="C11" s="53"/>
+      <c r="C11" s="51"/>
       <c r="D11" s="3">
         <v>10</v>
       </c>
@@ -3529,15 +3529,15 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="4"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="54"/>
-      <c r="C12" s="53"/>
+      <c r="C12" s="51"/>
       <c r="D12" s="3">
         <v>11</v>
       </c>
@@ -3550,15 +3550,15 @@
       <c r="G12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="54"/>
-      <c r="C13" s="53"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="3">
         <v>12</v>
       </c>
@@ -3569,10 +3569,10 @@
         <v>27</v>
       </c>
       <c r="G13" s="4"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
     </row>
     <row r="14" spans="1:12" ht="360" x14ac:dyDescent="0.25">
       <c r="A14" s="40" t="s">
@@ -3610,13 +3610,13 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="330" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="55">
+      <c r="B15" s="52">
         <v>2018</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="51" t="s">
         <v>40</v>
       </c>
       <c r="D15" s="3">
@@ -3625,7 +3625,7 @@
       <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="52" t="s">
+      <c r="F15" s="53" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -3634,61 +3634,61 @@
       <c r="H15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I15" s="49" t="s">
+      <c r="I15" s="55" t="s">
         <v>498</v>
       </c>
-      <c r="J15" s="50" t="s">
+      <c r="J15" s="56" t="s">
         <v>501</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="55" t="s">
         <v>499</v>
       </c>
-      <c r="L15" s="49" t="s">
+      <c r="L15" s="55" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="53"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="3">
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="52"/>
+      <c r="F16" s="53"/>
       <c r="G16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
     </row>
     <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="53"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="3">
         <v>3</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="52"/>
+      <c r="F17" s="53"/>
       <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
     </row>
     <row r="18" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="53"/>
+      <c r="A18" s="49"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="3">
         <v>4</v>
       </c>
@@ -3701,15 +3701,15 @@
       <c r="G18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
     </row>
     <row r="19" spans="1:12" ht="96" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="53"/>
+      <c r="A19" s="49"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="3">
         <v>5</v>
       </c>
@@ -3722,15 +3722,15 @@
       <c r="G19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="I19" s="49"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
     </row>
     <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="53"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="3">
         <v>6</v>
       </c>
@@ -3740,15 +3740,15 @@
       <c r="F20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
     </row>
     <row r="21" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="53"/>
+      <c r="A21" s="49"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="51"/>
       <c r="E21" s="4" t="s">
         <v>58</v>
       </c>
@@ -3758,10 +3758,10 @@
       <c r="G21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
     </row>
     <row r="22" spans="1:12" ht="285" x14ac:dyDescent="0.25">
       <c r="A22" s="40" t="s">
@@ -3799,13 +3799,13 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="390" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="55">
+      <c r="B23" s="52">
         <v>2019</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="51" t="s">
         <v>116</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -3820,23 +3820,23 @@
       <c r="H23" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="I23" s="49" t="s">
+      <c r="I23" s="55" t="s">
         <v>502</v>
       </c>
-      <c r="J23" s="49" t="s">
+      <c r="J23" s="55" t="s">
         <v>504</v>
       </c>
-      <c r="K23" s="49" t="s">
+      <c r="K23" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="L23" s="49" t="s">
+      <c r="L23" s="55" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="53"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="51"/>
       <c r="E24" s="4" t="s">
         <v>63</v>
       </c>
@@ -3846,15 +3846,15 @@
       <c r="G24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="53"/>
+      <c r="A25" s="49"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="51"/>
       <c r="E25" s="4" t="s">
         <v>117</v>
       </c>
@@ -3864,15 +3864,15 @@
       <c r="G25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-      <c r="L25" s="49"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
     </row>
     <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="53"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="51"/>
       <c r="E26" s="4" t="s">
         <v>121</v>
       </c>
@@ -3882,15 +3882,15 @@
       <c r="G26" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-      <c r="L26" s="49"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
     </row>
     <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="53"/>
+      <c r="A27" s="49"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="51"/>
       <c r="E27" s="4" t="s">
         <v>45</v>
       </c>
@@ -3900,19 +3900,19 @@
       <c r="G27" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
     </row>
     <row r="28" spans="1:12" ht="345" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="56">
+      <c r="B28" s="50">
         <v>2021</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="51" t="s">
         <v>67</v>
       </c>
       <c r="E28" s="4" t="s">
@@ -3924,26 +3924,26 @@
       <c r="G28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H28" s="53" t="s">
+      <c r="H28" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="49" t="s">
+      <c r="I28" s="55" t="s">
         <v>546</v>
       </c>
-      <c r="J28" s="49" t="s">
+      <c r="J28" s="55" t="s">
         <v>547</v>
       </c>
-      <c r="K28" s="49" t="s">
+      <c r="K28" s="55" t="s">
         <v>548</v>
       </c>
-      <c r="L28" s="49" t="s">
+      <c r="L28" s="55" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="53"/>
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
       <c r="E29" s="4" t="s">
         <v>69</v>
       </c>
@@ -3953,16 +3953,16 @@
       <c r="G29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H29" s="53"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
     </row>
     <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="53"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
       <c r="E30" s="4" t="s">
         <v>70</v>
       </c>
@@ -3972,14 +3972,14 @@
       <c r="G30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="53"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
-      <c r="L30" s="49"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
     </row>
     <row r="31" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="49" t="s">
         <v>78</v>
       </c>
       <c r="B31">
@@ -3994,21 +3994,21 @@
       <c r="F31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I31" s="49" t="s">
+      <c r="I31" s="55" t="s">
         <v>533</v>
       </c>
-      <c r="J31" s="49" t="s">
+      <c r="J31" s="55" t="s">
         <v>534</v>
       </c>
-      <c r="K31" s="49" t="s">
+      <c r="K31" s="55" t="s">
         <v>535</v>
       </c>
-      <c r="L31" s="49" t="s">
+      <c r="L31" s="55" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
+      <c r="A32" s="49"/>
       <c r="E32" s="4" t="s">
         <v>82</v>
       </c>
@@ -4021,13 +4021,13 @@
       <c r="H32" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
-      <c r="K32" s="49"/>
-      <c r="L32" s="49"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
     </row>
     <row r="33" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
+      <c r="A33" s="49"/>
       <c r="E33" s="4" t="s">
         <v>83</v>
       </c>
@@ -4037,13 +4037,13 @@
       <c r="G33" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
     </row>
     <row r="34" spans="1:12" ht="126" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
+      <c r="A34" s="49"/>
       <c r="E34" s="4" t="s">
         <v>70</v>
       </c>
@@ -4053,26 +4053,26 @@
       <c r="G34" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
+      <c r="A35" s="49"/>
       <c r="E35" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
     </row>
     <row r="36" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="49" t="s">
         <v>39</v>
       </c>
       <c r="B36">
@@ -4088,34 +4088,34 @@
       <c r="H36" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="I36" s="49" t="s">
+      <c r="I36" s="55" t="s">
         <v>537</v>
       </c>
-      <c r="J36" s="49" t="s">
+      <c r="J36" s="55" t="s">
         <v>538</v>
       </c>
-      <c r="K36" s="49" t="s">
+      <c r="K36" s="55" t="s">
         <v>539</v>
       </c>
-      <c r="L36" s="49" t="s">
+      <c r="L36" s="55" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
+      <c r="A37" s="49"/>
       <c r="E37" s="5" t="s">
         <v>92</v>
       </c>
       <c r="G37" s="4">
         <v>0</v>
       </c>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
-      <c r="L37" s="49"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
     </row>
     <row r="38" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
+      <c r="A38" s="49"/>
       <c r="E38" s="5" t="s">
         <v>93</v>
       </c>
@@ -4125,24 +4125,24 @@
       <c r="G38" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
-      <c r="L38" s="49"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="51"/>
+      <c r="A39" s="49"/>
       <c r="E39" s="5" t="s">
         <v>94</v>
       </c>
       <c r="F39" s="4"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="49"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
     </row>
     <row r="40" spans="1:12" ht="105" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
+      <c r="A40" s="49"/>
       <c r="E40" s="5" t="s">
         <v>95</v>
       </c>
@@ -4152,24 +4152,24 @@
       <c r="G40" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
-      <c r="L40" s="49"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
+      <c r="A41" s="49"/>
       <c r="E41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F41" s="4"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
     </row>
     <row r="42" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="51" t="s">
+      <c r="A42" s="49" t="s">
         <v>101</v>
       </c>
       <c r="B42">
@@ -4190,21 +4190,21 @@
       <c r="H42" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I42" s="49" t="s">
+      <c r="I42" s="55" t="s">
         <v>542</v>
       </c>
-      <c r="J42" s="49" t="s">
+      <c r="J42" s="55" t="s">
         <v>543</v>
       </c>
-      <c r="K42" s="49" t="s">
+      <c r="K42" s="55" t="s">
         <v>544</v>
       </c>
-      <c r="L42" s="49" t="s">
+      <c r="L42" s="55" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
+      <c r="A43" s="49"/>
       <c r="E43" s="4" t="s">
         <v>104</v>
       </c>
@@ -4214,13 +4214,13 @@
       <c r="G43" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
-      <c r="L43" s="49"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
     </row>
     <row r="44" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
+      <c r="A44" s="49"/>
       <c r="E44" s="4" t="s">
         <v>105</v>
       </c>
@@ -4230,13 +4230,13 @@
       <c r="G44" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
-      <c r="L44" s="49"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
     </row>
     <row r="45" spans="1:12" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
+      <c r="A45" s="49"/>
       <c r="E45" s="4" t="s">
         <v>106</v>
       </c>
@@ -4246,13 +4246,13 @@
       <c r="G45" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-      <c r="L45" s="49"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
     </row>
     <row r="46" spans="1:12" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="51" t="s">
+      <c r="A46" s="49" t="s">
         <v>279</v>
       </c>
       <c r="B46">
@@ -4273,21 +4273,21 @@
       <c r="H46" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="I46" s="49" t="s">
+      <c r="I46" s="55" t="s">
         <v>505</v>
       </c>
-      <c r="J46" s="49" t="s">
+      <c r="J46" s="55" t="s">
         <v>506</v>
       </c>
-      <c r="K46" s="49" t="s">
+      <c r="K46" s="55" t="s">
         <v>507</v>
       </c>
-      <c r="L46" s="49" t="s">
+      <c r="L46" s="55" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
+      <c r="A47" s="49"/>
       <c r="E47" s="4" t="s">
         <v>291</v>
       </c>
@@ -4297,13 +4297,13 @@
       <c r="G47" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
-      <c r="L47" s="49"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
     </row>
     <row r="48" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
+      <c r="A48" s="49"/>
       <c r="E48" s="4" t="s">
         <v>93</v>
       </c>
@@ -4313,13 +4313,13 @@
       <c r="G48" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
-      <c r="L48" s="49"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
     </row>
     <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
+      <c r="A49" s="49"/>
       <c r="E49" s="4" t="s">
         <v>283</v>
       </c>
@@ -4329,13 +4329,13 @@
       <c r="G49" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
-      <c r="L49" s="49"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
     </row>
     <row r="50" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="51"/>
+      <c r="A50" s="49"/>
       <c r="E50" s="4" t="s">
         <v>284</v>
       </c>
@@ -4345,13 +4345,13 @@
       <c r="G50" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
-      <c r="L50" s="49"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
     </row>
     <row r="51" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
+      <c r="A51" s="49"/>
       <c r="C51" s="36"/>
       <c r="E51" s="4" t="s">
         <v>329</v>
@@ -4362,13 +4362,13 @@
       <c r="G51" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
-      <c r="L51" s="49"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
     </row>
     <row r="52" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
+      <c r="A52" s="49"/>
       <c r="E52" s="4" t="s">
         <v>70</v>
       </c>
@@ -4378,48 +4378,13 @@
       <c r="G52" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
-      <c r="L52" s="49"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="C15:C21"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="A46:A52"/>
-    <mergeCell ref="I46:I52"/>
-    <mergeCell ref="I42:I45"/>
-    <mergeCell ref="I36:I41"/>
-    <mergeCell ref="I31:I35"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="I23:I27"/>
-    <mergeCell ref="I15:I21"/>
-    <mergeCell ref="I2:I13"/>
-    <mergeCell ref="J46:J52"/>
-    <mergeCell ref="J42:J45"/>
-    <mergeCell ref="J36:J41"/>
-    <mergeCell ref="J31:J35"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="J23:J27"/>
-    <mergeCell ref="J15:J21"/>
-    <mergeCell ref="J2:J13"/>
     <mergeCell ref="K23:K27"/>
     <mergeCell ref="K15:K21"/>
     <mergeCell ref="K2:K13"/>
@@ -4436,6 +4401,41 @@
     <mergeCell ref="K36:K41"/>
     <mergeCell ref="K31:K35"/>
     <mergeCell ref="K28:K30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="I23:I27"/>
+    <mergeCell ref="I15:I21"/>
+    <mergeCell ref="I2:I13"/>
+    <mergeCell ref="J46:J52"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="J36:J41"/>
+    <mergeCell ref="J31:J35"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="J23:J27"/>
+    <mergeCell ref="J15:J21"/>
+    <mergeCell ref="J2:J13"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A52"/>
+    <mergeCell ref="I46:I52"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="I36:I41"/>
+    <mergeCell ref="I31:I35"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="A23:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6800,14 +6800,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="F60:F63"/>
+    <mergeCell ref="F64:F66"/>
     <mergeCell ref="F26:F32"/>
     <mergeCell ref="F35:F39"/>
     <mergeCell ref="F40:F46"/>
     <mergeCell ref="F47:F52"/>
     <mergeCell ref="F53:F55"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="F60:F63"/>
-    <mergeCell ref="F64:F66"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
